--- a/results/dwave_pegasus/spreadsheet25_annealing5.xlsx
+++ b/results/dwave_pegasus/spreadsheet25_annealing5.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,31 +432,31 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{0: [3817, 3937, 1521, 1520, 1519], 8: [4147, 4150, 4149, 4148], 11: [3820, 3818, 3819], 12: [3970, 1835, 3967, 3968, 3969], 17: [1655, 3939, 1715, 3938], 18: [1476, 3878, 1475], 25: [3715, 3714, 3713, 1564, 1565, 4043], 39: [3982, 1505, 4058, 4060, 4059], 41: [1805, 1806, 3997, 3998, 3999], 46: [4225, 1566, 4224, 4223], 48: [2030, 3896, 3893, 3894, 3895], 2: [1626, 1624, 1625], 5: [4195, 4194, 1789, 1790, 1791], 10: [1774, 1776, 1775], 13: [3908, 1745, 1746, 4015, 4014], 16: [1536, 4117, 1716, 4119, 4118], 19: [1969, 1970, 4209, 4210, 1971], 21: [4089, 4090, 2031], 22: [4284, 1820, 1821, 1822], 23: [1729, 1730, 1731], 29: [4087, 4088, 1640, 1641], 31: [3954, 1864, 4030, 1866, 1865], 35: [1596, 1594, 1595], 36: [3834, 3835, 4120, 1999, 2000, 2001], 38: [3953, 3952, 1491, 1490], 44: [4162, 4165, 4163, 4164], 45: [1685, 4046, 1836, 4044, 4045], 4: [3774, 1699, 3773], 6: [3758, 1911, 3759, 1910, 1909], 15: [3851, 2016, 2015], 20: [1954, 1956, 1955], 26: [3880, 1684, 3879], 40: [1744, 3863, 3865, 3864], 42: [1761, 4028, 1759, 1760, 4029], 49: [1609, 1611, 1610], 1: [3700, 1535, 1534, 3803, 3804, 1834], 7: [3848, 3849, 3850], 34: [1894, 4073, 1895, 4075, 4074], 14: [4105, 4102, 4103, 4104], 24: [1926, 1924, 4000, 1925], 27: [3940, 1984, 1985, 1986], 30: [1880, 1879], 37: [1551, 3772, 1549, 1550], 43: [3922, 3924, 1714, 3923], 47: [1852, 1807, 2017, 4180, 4179], 32: [1881, 4133, 4135, 4134], 3: [1849, 3983, 3984, 1851, 1850], 9: [3699, 1669, 3833, 1671, 1670], 28: [1941, 3985, 1940], 33: [1639, 3790, 3789, 3788]}</t>
+          <t>{0: [1669], 2: [1670]}</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.01251533742331288</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01440050378076143</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.006</v>
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{0: [3817, 3937, 1521, 1520, 1519], 8: [4147, 4150, 4149, 4148], 11: [3820, 3818, 3819], 12: [3970, 1835, 3967, 3968, 3969], 17: [1655, 3939, 1715, 3938], 18: [1476, 3878, 1475], 25: [3715, 3714, 3713, 1564, 1565, 4043], 39: [3982, 1505, 4058, 4060, 4059], 41: [1805, 1806, 3997, 3998, 3999], 46: [4225, 1566, 4224, 4223], 48: [2030, 3896, 3893, 3894, 3895], 2: [1626, 1624, 1625], 5: [4195, 4194, 1789, 1790, 1791], 10: [1774, 1776, 1775], 13: [3908, 1745, 1746, 4015, 4014], 16: [1536, 4117, 1716, 4119, 4118], 19: [1969, 1970, 4209, 4210, 1971], 21: [4089, 4090, 2031], 22: [4284, 1820, 1821, 1822], 23: [1729, 1730, 1731], 29: [4087, 4088, 1640, 1641], 31: [3954, 1864, 4030, 1866, 1865], 35: [1596, 1594, 1595], 36: [3834, 3835, 4120, 1999, 2000, 2001], 38: [3953, 3952, 1491, 1490], 44: [4162, 4165, 4163, 4164], 45: [1685, 4046, 1836, 4044, 4045], 4: [3774, 1699, 3773], 6: [3758, 1911, 3759, 1910, 1909], 15: [3851, 2016, 2015], 20: [1954, 1956, 1955], 26: [3880, 1684, 3879], 40: [1744, 3863, 3865, 3864], 42: [1761, 4028, 1759, 1760, 4029], 49: [1609, 1611, 1610], 1: [3700, 1535, 1534, 3803, 3804, 1834], 7: [3848, 3849, 3850], 34: [1894, 4073, 1895, 4075, 4074], 14: [4105, 4102, 4103, 4104], 24: [1926, 1924, 4000, 1925], 27: [3940, 1984, 1985, 1986], 30: [1880, 1879], 37: [1551, 3772, 1549, 1550], 43: [3922, 3924, 1714, 3923], 47: [1852, 1807, 2017, 4180, 4179], 32: [1881, 4133, 4135, 4134], 3: [1849, 3983, 3984, 1851, 1850], 9: [3699, 1669, 3833, 1671, 1670], 28: [1941, 3985, 1940], 33: [1639, 3790, 3789, 3788]}</t>
+          <t>{0: [1669], 2: [1670]}</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.01251533742331288</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01440050378076143</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.006</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -473,30 +473,3884 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>{0: [4117], 2: [4132], 's_0_2': [1491]}</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.893</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>{0: [4117], 2: [4132], 's_0_2': [1491]}</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.893</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>{0: [1623], 2: [3548]}</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>{0: [1623], 2: [3548]}</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>{0: [1768], 2: [5319], 's_0_2': [1753]}</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>{0: [1768], 2: [5319], 's_0_2': [1753]}</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>{0: [1000], 2: [1001]}</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>{0: [1000], 2: [1001]}</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>{0: [1627], 2: [4283], 's_0_2': [1642]}</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.902</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>{0: [1627], 2: [4283], 's_0_2': [1642]}</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.902</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>{0: [4450], 3: [2077], 5: [4449], 4: [1778]}</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>{0: [4450], 3: [2077], 5: [4449], 4: [1778]}</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>{0: [2464], 3: [3838], 's_0_3': [3823], 5: [3747], 's_0_5': [2479], 4: [2329], 's_5_4': [2314]}</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>{0: [2464], 3: [3838], 's_0_3': [3823], 5: [3747], 's_0_5': [2479], 4: [2329], 's_5_4': [2314]}</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.576</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>{0: [3261], 6: [1246], 1: [997], 4: [1012], 2: [1013], 5: [4444]}</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>{0: [3261], 6: [1246], 1: [997], 4: [1012], 2: [1013], 5: [4444]}</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>{0: [5711], 6: [2234], 's_0_6': [5726], 1: [5328], 4: [583], 's_1_4': [5313], 2: [598], 's_4_2': [5417], 5: [5372], 's_4_5': [5387]}</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>{0: [5711], 6: [2234], 's_0_6': [5726], 1: [5328], 4: [583], 's_1_4': [5313], 2: [598], 's_4_2': [5417], 5: [5372], 's_4_5': [5387]}</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>{0: [3810], 1: [3811], 7: [154], 2: [274], 3: [289], 5: [3765], 6: [3750], 4: [3766]}</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>{0: [3810], 1: [3811], 7: [154], 2: [274], 3: [289], 5: [3765], 6: [3750], 4: [3766]}</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>{0: [2185], 1: [2035, 4781], 's_0_1': [4796], 7: [4766], 's_0_7': [2170], 2: [2094], 's_1_2': [4825], 3: [2079], 's_1_3': [4810], 5: [4751, 2154], 's_7_5': [2020], 6: [4675, 2124], 's_7_6': [2049], 's_2_3': [4660], 's_2_5': [4736], 's_3_6': [4691], 4: [4601], 's_5_4': [2109], 's_5_6': [4721]}</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>{0: [2185], 1: [2035, 4781], 's_0_1': [4796], 7: [4766], 's_0_7': [2170], 2: [2094], 's_1_2': [4825], 3: [2079], 's_1_3': [4810], 5: [4751, 2154], 's_7_5': [2020], 6: [4675, 2124], 's_7_6': [2049], 's_2_3': [4660], 's_2_5': [4736], 's_3_6': [4691], 4: [4601], 's_5_4': [2109], 's_5_6': [4721]}</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>{0: [48], 2: [49], 1: [34], 5: [3675], 6: [3660], 8: [3705], 7: [199]}</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>{0: [48], 2: [49], 1: [34], 5: [3675], 6: [3660], 8: [3705], 7: [199]}</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>{0: [708], 2: [3513], 's_0_2': [693], 1: [3528], 's_2_1': [678], 5: [632], 's_2_5': [647], 6: [738], 's_2_6': [723], 8: [588], 's_2_8': [573], 7: [3558], 's_6_7': [3543]}</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>{0: [708], 2: [3513], 's_0_2': [693], 1: [3528], 's_2_1': [678], 5: [632], 's_2_5': [647], 6: [738], 's_2_6': [723], 8: [588], 's_2_8': [573], 7: [3558], 's_6_7': [3543]}</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.037</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>{0: [5185], 5: [2007], 6: [1977], 7: [1962], 1: [5230], 2: [5155], 4: [5245], 3: [5140], 8: [5170], 9: [5141]}</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>{0: [5185], 5: [2007], 6: [1977], 7: [1962], 1: [5230], 2: [5155], 4: [5245], 3: [5140], 8: [5170], 9: [5141]}</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.994</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>{0: [1418], 5: [4507], 's_0_5': [1403, 4582], 6: [1433], 's_0_6': [4567], 7: [4492, 1568], 's_0_7': [4462], 1: [1448, 4417], 's_5_1': [1463], 2: [4537, 1523], 's_5_2': [1358], 4: [4522], 's_5_4': [1508], 's_6_1': [4432], 's_6_2': [4477], 's_6_7': [4447], 's_7_1': [4418], 's_7_2': [4538], 3: [4568], 's_7_3': [1583], 8: [4508], 's_7_8': [1553], 's_1_4': [1388], 9: [1613], 's_3_9': [1598]}</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0.00012</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.002187601426220051</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>{0: [1418], 5: [4507], 's_0_5': [1403, 4582], 6: [1433], 's_0_6': [4567], 7: [4492, 1568], 's_0_7': [4462], 1: [1448, 4417], 's_5_1': [1463], 2: [4537, 1523], 's_5_2': [1358], 4: [4522], 's_5_4': [1508], 's_6_1': [4432], 's_6_2': [4477], 's_6_7': [4447], 's_7_1': [4418], 's_7_2': [4538], 3: [4568], 's_7_3': [1583], 8: [4508], 's_7_8': [1553], 's_1_4': [1388], 9: [1613], 's_3_9': [1598]}</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0.00012</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.002187601426220051</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>{0: [5582], 2: [614], 3: [629], 4: [5612, 494], 8: [5597], 7: [5688], 1: [5551], 9: [5566], 10: [464], 5: [5687]}</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>{0: [5582], 2: [614], 3: [629], 4: [5612, 494], 8: [5597], 7: [5688], 1: [5551], 9: [5566], 10: [464], 5: [5687]}</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>{0: [4122, 2406], 2: [4167, 2271], 's_0_2': [4121], 3: [4197, 2362], 's_0_3': [4272], 4: [2331, 4092], 's_0_4': [2405], 8: [2361], 's_0_8': [2346], 7: [4227], 's_2_7': [2256], 's_2_8': [4152], 's_3_4': [4182], 's_3_7': [2347], 1: [2481, 4063], 's_4_1': [4062], 's_4_8': [4077], 9: [4213, 2466], 's_4_9': [4212], 10: [4137], 's_4_10': [2376], 5: [2286], 's_7_5': [2301], 's_1_9': [4153], 's_9_10': [2421]}</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>8.016032064128257e-05</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.001788850789933579</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>{0: [4122, 2406], 2: [4167, 2271], 's_0_2': [4121], 3: [4197, 2362], 's_0_3': [4272], 4: [2331, 4092], 's_0_4': [2405], 8: [2361], 's_0_8': [2346], 7: [4227], 's_2_7': [2256], 's_2_8': [4152], 's_3_4': [4182], 's_3_7': [2347], 1: [2481, 4063], 's_4_1': [4062], 's_4_8': [4077], 9: [4213, 2466], 's_4_9': [4212], 10: [4137], 's_4_10': [2376], 5: [2286], 's_7_5': [2301], 's_1_9': [4153], 's_9_10': [2421]}</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>8.016032064128257e-05</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.001788850789933579</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>{0: [3102], 6: [2295, 3132], 8: [2310], 9: [3117], 5: [2280], 7: [3147], 11: [3087], 1: [3012], 2: [3072], 10: [2325], 3: [2341], 4: [3027]}</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>{0: [3102], 6: [2295, 3132], 8: [2310], 9: [3117], 5: [2280], 7: [3147], 11: [3087], 1: [3012], 2: [3072], 10: [2325], 3: [2341], 4: [3027]}</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.583</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>{0: [1078, 5420], 6: [1032, 1033, 5344], 's_0_6': [5405], 8: [5254, 1077, 5255], 's_0_8': [1123], 9: [1003, 1002], 's_0_9': [5450], 5: [972], 's_6_5': [5359], 7: [882, 5209], 's_6_7': [883], 's_6_8': [5135], 's_6_9': [5480], 11: [5300, 943], 's_6_11': [5389], 1: [5284, 928], 's_8_1': [913], 2: [5225, 1062], 's_8_2': [5195], 10: [5330, 1017], 's_8_10': [958], 's_8_11': [1108], 3: [5194, 1047], 's_9_3': [5270], 's_9_10': [1018], 's_5_11': [5269], 's_5_7': [5224], 's_7_3': [5179], 's_11_2': [5285], 's_11_10': [5315], 4: [837, 5329], 's_1_4': [763], 's_2_10': [1063], 's_10_4': [5240, 5239]}</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>5.882352941176471e-05</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.001314018111981687</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>{0: [1078, 5420], 6: [1032, 1033, 5344], 's_0_6': [5405], 8: [5254, 1077, 5255], 's_0_8': [1123], 9: [1003, 1002], 's_0_9': [5450], 5: [972], 's_6_5': [5359], 7: [882, 5209], 's_6_7': [883], 's_6_8': [5135], 's_6_9': [5480], 11: [5300, 943], 's_6_11': [5389], 1: [5284, 928], 's_8_1': [913], 2: [5225, 1062], 's_8_2': [5195], 10: [5330, 1017], 's_8_10': [958], 's_8_11': [1108], 3: [5194, 1047], 's_9_3': [5270], 's_9_10': [1018], 's_5_11': [5269], 's_5_7': [5224], 's_7_3': [5179], 's_11_2': [5285], 's_11_10': [5315], 4: [837, 5329], 's_1_4': [763], 's_2_10': [1063], 's_10_4': [5240, 5239]}</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>5.882352941176471e-05</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.001314018111981687</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>{0: [1201], 12: [3276], 2: [1262], 5: [1321], 9: [3291], 11: [1336], 4: [3336], 3: [1277], 7: [3351], 8: [3396], 10: [3411], 1: [1217], 6: [1202]}</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>{0: [1201], 12: [3276], 2: [1262], 5: [1321], 9: [3291], 11: [1336], 4: [3336], 3: [1277], 7: [3351], 8: [3396], 10: [3411], 1: [1217], 6: [1202]}</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.993</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>{0: [4202], 12: [412, 4321], 's_0_12': [4217], 2: [4276, 426, 4141], 's_12_2': [427], 5: [337], 's_12_5': [4261], 9: [4186], 's_12_9': [397], 11: [4291], 's_12_11': [442], 4: [4066, 381], 's_2_4': [4156], 3: [456], 's_2_3': [4142], 7: [4111], 's_2_7': [471], 8: [291], 's_2_8': [4171], 's_2_9': [276], 10: [4247], 's_2_10': [441], 's_5_11': [4306], 1: [351], 's_1_4': [4096], 6: [4081, 336], 's_1_6': [4201], 's_4_6': [4051], 's_4_7': [366], 's_6_7': [411], 's_7_3': [4126]}</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>6.451612903225807e-05</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.001441181155076689</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>{0: [4202], 12: [412, 4321], 's_0_12': [4217], 2: [4276, 426, 4141], 's_12_2': [427], 5: [337], 's_12_5': [4261], 9: [4186], 's_12_9': [397], 11: [4291], 's_12_11': [442], 4: [4066, 381], 's_2_4': [4156], 3: [456], 's_2_3': [4142], 7: [4111], 's_2_7': [471], 8: [291], 's_2_8': [4171], 's_2_9': [276], 10: [4247], 's_2_10': [441], 's_5_11': [4306], 1: [351], 's_1_4': [4096], 6: [4081, 336], 's_1_6': [4201], 's_4_6': [4051], 's_4_7': [366], 's_6_7': [411], 's_7_3': [4126]}</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>6.451612903225807e-05</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.001441181155076689</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>{0: [669], 2: [4698], 6: [654, 4652], 8: [4622], 3: [4697], 7: [564], 9: [519], 11: [4667], 4: [4637], 10: [594], 1: [534], 13: [4682], 5: [549], 12: [579]}</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0003779289493575207</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.005181900680575239</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>{0: [669], 2: [4698], 6: [654, 4652], 8: [4622], 3: [4697], 7: [564], 9: [519], 11: [4667], 4: [4637], 10: [594], 1: [534], 13: [4682], 5: [549], 12: [579]}</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0003779289493575207</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.005181900680575239</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.525</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>{0: [4422, 2348], 2: [4437, 4438, 2528], 's_0_2': [2242], 6: [2257, 4332], 's_0_6': [2272], 8: [4423, 2378], 's_0_8': [4527], 3: [2587, 4378], 's_2_3': [4453], 's_2_6': [2407], 7: [2317, 4272], 's_6_7': [4392], 9: [4362, 4363], 's_6_9': [4377], 11: [4347], 's_6_11': [2287], 4: [2437, 4393], 's_8_4': [2422], 's_8_9': [2543], 10: [2483], 's_8_10': [4497], 1: [2512], 's_3_1': [4303], 's_3_9': [2573], 13: [2468, 2467], 's_3_13': [4333], 's_7_13': [4317], 5: [2451], 's_7_5': [2436], 's_7_11': [2362], 's_9_1': [2497], 's_9_4': [2482], 's_4_1': [4408], 12: [2452, 4467], 's_4_12': [2393], 's_10_13': [4528], 's_10_12': [4452], 's_13_12': [4348]}</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0001578947368421053</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.002032287850137665</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>{0: [4422, 2348], 2: [4437, 4438, 2528], 's_0_2': [2242], 6: [2257, 4332], 's_0_6': [2272], 8: [4423, 2378], 's_0_8': [4527], 3: [2587, 4378], 's_2_3': [4453], 's_2_6': [2407], 7: [2317, 4272], 's_6_7': [4392], 9: [4362, 4363], 's_6_9': [4377], 11: [4347], 's_6_11': [2287], 4: [2437, 4393], 's_8_4': [2422], 's_8_9': [2543], 10: [2483], 's_8_10': [4497], 1: [2512], 's_3_1': [4303], 's_3_9': [2573], 13: [2468, 2467], 's_3_13': [4333], 's_7_13': [4317], 5: [2451], 's_7_5': [2436], 's_7_11': [2362], 's_9_1': [2497], 's_9_4': [2482], 's_4_1': [4408], 12: [2452, 4467], 's_4_12': [2393], 's_10_13': [4528], 's_10_12': [4452], 's_13_12': [4348]}</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0.0001578947368421053</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.002032287850137665</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>{0: [1502], 2: [3427], 7: [3457, 1367], 1: [1352], 3: [3442], 8: [1382], 9: [1427], 5: [3487], 14: [1488], 11: [3502], 12: [3472], 13: [3366], 10: [3397], 4: [3503]}</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>{0: [1502], 2: [3427], 7: [3457, 1367], 1: [1352], 3: [3442], 8: [1382], 9: [1427], 5: [3487], 14: [1488], 11: [3502], 12: [3472], 13: [3366], 10: [3397], 4: [3503]}</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.616</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>{0: [1254, 1255], 2: [1120, 4791], 's_0_2': [1240], 7: [4611, 1239], 's_0_7': [4701], 1: [1284, 1285], 's_2_1': [4776], 3: [1194, 4761], 's_2_3': [4820], 8: [4670, 1149], 's_2_8': [1179], 9: [1224, 4746], 's_2_9': [1225], 's_7_1': [4686], 's_7_3': [1193], 5: [4655, 4656], 's_7_5': [4671], 's_7_9': [4731], 14: [1119], 's_7_14': [4596], 's_1_3': [1270], 's_1_5': [4806, 1329], 11: [1269], 's_1_11': [4536], 's_3_8': [1209], 's_8_5': [1089], 12: [4685], 's_8_12': [1074], 13: [1059], 's_8_13': [4730], 's_9_5': [1164], 10: [4640], 's_9_10': [4625], 's_5_11': [1314, 4551], 's_14_12': [4700], 4: [4566], 's_11_4': [4581]}</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>{0: [1254, 1255], 2: [1120, 4791], 's_0_2': [1240], 7: [4611, 1239], 's_0_7': [4701], 1: [1284, 1285], 's_2_1': [4776], 3: [1194, 4761], 's_2_3': [4820], 8: [4670, 1149], 's_2_8': [1179], 9: [1224, 4746], 's_2_9': [1225], 's_7_1': [4686], 's_7_3': [1193], 5: [4655, 4656], 's_7_5': [4671], 's_7_9': [4731], 14: [1119], 's_7_14': [4596], 's_1_3': [1270], 's_1_5': [4806, 1329], 11: [1269], 's_1_11': [4536], 's_3_8': [1209], 's_8_5': [1089], 12: [4685], 's_8_12': [1074], 13: [1059], 's_8_13': [4730], 's_9_5': [1164], 10: [4640], 's_9_10': [4625], 's_5_11': [1314, 4551], 's_14_12': [4700], 4: [4566], 's_11_4': [4581]}</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>{0: [3072], 7: [2325, 2982], 15: [3071], 3: [3027], 8: [3011, 2205], 9: [2295], 10: [2997], 12: [3087], 6: [2160], 11: [3086], 1: [3026], 2: [2280], 4: [2145], 13: [3041], 5: [2130, 3056], 14: [2370]}</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>{0: [3072], 7: [2325, 2982], 15: [3071], 3: [3027], 8: [3011, 2205], 9: [2295], 10: [2997], 12: [3087], 6: [2160], 11: [3086], 1: [3026], 2: [2280], 4: [2145], 13: [3041], 5: [2130, 3056], 14: [2370]}</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.6860000000000001</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>{0: [5200, 2112], 7: [2113, 5380], 's_0_7': [1963, 1962], 15: [2142, 5306], 's_0_15': [5201], 3: [2128], 's_7_3': [5426], 8: [2038, 5350], 's_7_8': [5365], 9: [5471, 2174], 's_7_9': [2114, 5606], 10: [5441], 's_7_10': [5456], 12: [2083], 's_7_12': [5395], 6: [2051, 2052], 's_15_6': [5141], 11: [5291, 2023], 's_15_11': [2127], 1: [5486, 2098], 's_3_1': [5411], 2: [1933, 5425], 's_8_2': [1978], 4: [5321], 's_8_4': [2082], 's_8_11': [2097], 13: [5410, 2008], 's_8_13': [1993], 's_9_1': [2024], 5: [2067, 2068], 's_9_5': [2053], 's_9_10': [2143], 's_9_12': [5501], 14: [5516, 2129], 's_12_14': [5545], 's_6_5': [5245], 's_6_11': [5336], 's_11_5': [5260], 's_11_4': [2173], 's_1_5': [5530], 's_5_2': [5455], 's_5_13': [5275], 's_2_13': [1948]}</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>9.302325581395348e-05</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.001467882217493907</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>{0: [5200, 2112], 7: [2113, 5380], 's_0_7': [1963, 1962], 15: [2142, 5306], 's_0_15': [5201], 3: [2128], 's_7_3': [5426], 8: [2038, 5350], 's_7_8': [5365], 9: [5471, 2174], 's_7_9': [2114, 5606], 10: [5441], 's_7_10': [5456], 12: [2083], 's_7_12': [5395], 6: [2051, 2052], 's_15_6': [5141], 11: [5291, 2023], 's_15_11': [2127], 1: [5486, 2098], 's_3_1': [5411], 2: [1933, 5425], 's_8_2': [1978], 4: [5321], 's_8_4': [2082], 's_8_11': [2097], 13: [5410, 2008], 's_8_13': [1993], 's_9_1': [2024], 5: [2067, 2068], 's_9_5': [2053], 's_9_10': [2143], 's_9_12': [5501], 14: [5516, 2129], 's_12_14': [5545], 's_6_5': [5245], 's_6_11': [5336], 's_11_5': [5260], 's_11_4': [2173], 's_1_5': [5530], 's_5_2': [5455], 's_5_13': [5275], 's_2_13': [1948]}</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>9.302325581395348e-05</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.001467882217493907</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>{0: [5045], 1: [5060], 7: [4970, 1106], 12: [4895, 1121], 13: [1076], 6: [1061], 3: [5029, 5030], 5: [5000], 8: [956], 11: [1091], 14: [4910], 10: [1060], 4: [4955], 2: [1031], 9: [941], 16: [4925], 15: [1030]}</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0006464124111182935</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.006132406580804872</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>{0: [5045], 1: [5060], 7: [4970, 1106], 12: [4895, 1121], 13: [1076], 6: [1061], 3: [5029, 5030], 5: [5000], 8: [956], 11: [1091], 14: [4910], 10: [1060], 4: [4955], 2: [1031], 9: [941], 16: [4925], 15: [1030]}</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>0.0006464124111182935</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.006132406580804872</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>{0: [2327, 3312, 2326], 1: [3177], 's_0_1': [2311], 7: [2296, 2297, 3386], 's_0_7': [3387], 12: [2356, 3342, 2357], 's_0_12': [3207], 13: [2237, 3251, 2236], 's_0_13': [3492], 6: [2281, 3236], 's_1_6': [3162], 's_1_12': [2341], 3: [3265, 3266, 2221], 's_7_3': [3327], 5: [3282], 's_7_5': [3297], 's_7_6': [3221], 8: [3506, 2146, 2147], 's_7_8': [3191], 11: [2207, 2208], 's_7_11': [3507], 14: [3372, 2162, 3371], 's_7_14': [3416], 's_12_3': [3267], 's_12_5': [2266], 10: [2282, 3357], 's_12_10': [3447], 's_12_11': [2192], 's_12_14': [3341], 's_13_3': [3250], 4: [3537, 3536], 's_13_4': [3522], 's_13_6': [3252], 's_6_3': [2131], 's_6_10': [2251], 2: [2042, 2041], 's_3_2': [2056], 's_3_8': [3281], 9: [2178], 's_8_9': [3491], 16: [2117, 3461], 's_8_16': [3446], 's_11_4': [2193], 's_11_14': [3296], 's_11_16': [3476], 's_14_10': [3401], 15: [3431], 's_14_15': [2177], 's_4_2': [2057], 's_4_9': [3521], 's_9_16': [2163], 's_16_15': [2102]}</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>9.615384615384615e-05</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.00135641692112172</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>{0: [2327, 3312, 2326], 1: [3177], 's_0_1': [2311], 7: [2296, 2297, 3386], 's_0_7': [3387], 12: [2356, 3342, 2357], 's_0_12': [3207], 13: [2237, 3251, 2236], 's_0_13': [3492], 6: [2281, 3236], 's_1_6': [3162], 's_1_12': [2341], 3: [3265, 3266, 2221], 's_7_3': [3327], 5: [3282], 's_7_5': [3297], 's_7_6': [3221], 8: [3506, 2146, 2147], 's_7_8': [3191], 11: [2207, 2208], 's_7_11': [3507], 14: [3372, 2162, 3371], 's_7_14': [3416], 's_12_3': [3267], 's_12_5': [2266], 10: [2282, 3357], 's_12_10': [3447], 's_12_11': [2192], 's_12_14': [3341], 's_13_3': [3250], 4: [3537, 3536], 's_13_4': [3522], 's_13_6': [3252], 's_6_3': [2131], 's_6_10': [2251], 2: [2042, 2041], 's_3_2': [2056], 's_3_8': [3281], 9: [2178], 's_8_9': [3491], 16: [2117, 3461], 's_8_16': [3446], 's_11_4': [2193], 's_11_14': [3296], 's_11_16': [3476], 's_14_10': [3401], 15: [3431], 's_14_15': [2177], 's_4_2': [2057], 's_4_9': [3521], 's_9_16': [2163], 's_16_15': [2102]}</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>9.615384615384615e-05</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.00135641692112172</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>{0: [4559], 3: [2768], 13: [4634], 1: [2783], 2: [2829, 4679], 11: [2724], 14: [2709], 8: [2784], 4: [4694], 9: [4664], 15: [4709], 16: [2694], 5: [2679], 6: [2634], 7: [2769], 10: [4739], 12: [2678], 17: [2725]}</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0003584229390681004</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.004447911701071991</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.376</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>{0: [4559], 3: [2768], 13: [4634], 1: [2783], 2: [2829, 4679], 11: [2724], 14: [2709], 8: [2784], 4: [4694], 9: [4664], 15: [4709], 16: [2694], 5: [2679], 6: [2634], 7: [2769], 10: [4739], 12: [2678], 17: [2725]}</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>0.0003584229390681004</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.004447911701071991</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.376</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>{0: [1918], 3: [5440], 's_0_3': [1903], 13: [5381, 5380, 1978], 's_3_13': [2053], 1: [2218, 5276], 's_13_1': [5396], 2: [5291, 2038], 's_13_2': [2188], 11: [1887, 5320], 's_13_11': [5335], 14: [1963, 5365], 's_13_14': [5470], 8: [2127, 5184, 5185], 's_1_8': [5261], 's_8_2': [2112], 4: [5200, 2052], 's_8_4': [1992], 9: [5169], 's_8_9': [1827], 15: [1857, 5229], 's_8_15': [1842], 's_2_14': [2067], 16: [5425, 2008], 's_2_16': [5350], 's_4_14': [2082], 5: [5275], 's_4_5': [1962], 6: [5230], 's_4_6': [2007], 7: [1797], 's_9_7': [1782], 's_15_7': [5244], 's_15_11': [1858], 's_11_14': [1993], 's_16_5': [2023], 10: [1932, 5289, 5290], 's_16_10': [1933], 's_5_10': [1902], 12: [1977], 's_5_12': [5260], 's_10_6': [1917], 's_10_7': [5214], 17: [5304], 's_10_17': [1722]}</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>8.888888888888889e-05</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.001402643007827511</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>{0: [1918], 3: [5440], 's_0_3': [1903], 13: [5381, 5380, 1978], 's_3_13': [2053], 1: [2218, 5276], 's_13_1': [5396], 2: [5291, 2038], 's_13_2': [2188], 11: [1887, 5320], 's_13_11': [5335], 14: [1963, 5365], 's_13_14': [5470], 8: [2127, 5184, 5185], 's_1_8': [5261], 's_8_2': [2112], 4: [5200, 2052], 's_8_4': [1992], 9: [5169], 's_8_9': [1827], 15: [1857, 5229], 's_8_15': [1842], 's_2_14': [2067], 16: [5425, 2008], 's_2_16': [5350], 's_4_14': [2082], 5: [5275], 's_4_5': [1962], 6: [5230], 's_4_6': [2007], 7: [1797], 's_9_7': [1782], 's_15_7': [5244], 's_15_11': [1858], 's_11_14': [1993], 's_16_5': [2023], 10: [1932, 5289, 5290], 's_16_10': [1933], 's_5_10': [1902], 12: [1977], 's_5_12': [5260], 's_10_6': [1917], 's_10_7': [5214], 17: [5304], 's_10_17': [1722]}</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>8.888888888888889e-05</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.001402643007827511</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>{0: [1577], 2: [1547, 3488], 3: [3367, 1472], 10: [3353], 11: [3443, 3442], 12: [3412], 17: [3397], 4: [1516, 1517], 5: [1502], 7: [3503], 8: [3562], 13: [3487, 3502], 14: [1532, 1531], 16: [1412], 18: [1487], 1: [3382, 1427], 15: [3427], 9: [3457]}</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0008460236886632825</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.006803349171920371</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.668</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>{0: [1577], 2: [1547, 3488], 3: [3367, 1472], 10: [3353], 11: [3443, 3442], 12: [3412], 17: [3397], 4: [1516, 1517], 5: [1502], 7: [3503], 8: [3562], 13: [3487, 3502], 14: [1532, 1531], 16: [1412], 18: [1487], 1: [3382, 1427], 15: [3427], 9: [3457]}</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>0.0008460236886632825</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.006803349171920371</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.668</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>{0: [5046, 1166, 5045], 2: [5091, 5090, 942, 5089], 's_0_2': [1151], 3: [1045, 1046], 's_0_3': [5060], 10: [1181], 's_0_10': [5136], 11: [1076, 4984, 4985], 's_0_11': [1165], 12: [1031, 5076, 5075], 's_0_12': [1196], 17: [5121, 1136, 1137], 's_0_17': [5180], 4: [957, 5120], 's_2_4': [5224], 5: [5210, 5209], 's_2_5': [927], 7: [5074], 's_2_7': [912], 8: [1092], 's_2_8': [5135], 's_2_12': [1287], 13: [851, 5059], 's_2_13': [836], 14: [1317], 's_2_14': [1302], 's_2_17': [1241], 's_3_4': [5105], 's_3_11': [4970], 's_3_12': [1030], 16: [911, 5029], 's_3_16': [4999], 18: [1121, 4895], 's_3_18': [4910], 1: [5015, 986, 5014], 's_11_1': [926], 's_11_4': [1061], 15: [941], 's_11_15': [4955], 's_11_16': [881], 's_12_1': [1211], 's_12_4': [1016], 's_12_16': [1001], 's_12_17': [1256], 's_17_5': [1122], 's_17_18': [5030], 's_4_1': [971], 's_4_5': [5194], 's_4_8': [1107], 9: [1047, 5150], 's_5_9': [1062], 's_5_8': [5195], 's_7_13': [821], 's_13_1': [956], 's_13_16': [4954], 's_16_1': [896], 's_16_15': [4909], 's_18_1': [1091], 's_1_9': [5179, 1032]}</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0001186440677966102</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.001413095887938624</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>{0: [5046, 1166, 5045], 2: [5091, 5090, 942, 5089], 's_0_2': [1151], 3: [1045, 1046], 's_0_3': [5060], 10: [1181], 's_0_10': [5136], 11: [1076, 4984, 4985], 's_0_11': [1165], 12: [1031, 5076, 5075], 's_0_12': [1196], 17: [5121, 1136, 1137], 's_0_17': [5180], 4: [957, 5120], 's_2_4': [5224], 5: [5210, 5209], 's_2_5': [927], 7: [5074], 's_2_7': [912], 8: [1092], 's_2_8': [5135], 's_2_12': [1287], 13: [851, 5059], 's_2_13': [836], 14: [1317], 's_2_14': [1302], 's_2_17': [1241], 's_3_4': [5105], 's_3_11': [4970], 's_3_12': [1030], 16: [911, 5029], 's_3_16': [4999], 18: [1121, 4895], 's_3_18': [4910], 1: [5015, 986, 5014], 's_11_1': [926], 's_11_4': [1061], 15: [941], 's_11_15': [4955], 's_11_16': [881], 's_12_1': [1211], 's_12_4': [1016], 's_12_16': [1001], 's_12_17': [1256], 's_17_5': [1122], 's_17_18': [5030], 's_4_1': [971], 's_4_5': [5194], 's_4_8': [1107], 9: [1047, 5150], 's_5_9': [1062], 's_5_8': [5195], 's_7_13': [821], 's_13_1': [956], 's_13_16': [4954], 's_16_1': [896], 's_16_15': [4909], 's_18_1': [1091], 's_1_9': [5179, 1032]}</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>0.0001186440677966102</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.001413095887938624</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>{0: [152], 2: [3390], 3: [3435, 242], 10: [227, 3375], 11: [167], 12: [3360], 14: [3420, 137], 15: [3450], 16: [3345], 7: [182], 9: [317], 19: [257, 3405], 6: [228, 3555], 4: [213, 212], 13: [3285], 5: [3331, 3330], 8: [3465], 17: [197, 198], 1: [138, 3600], 18: [3481, 3480, 183]}</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0.001886792452830189</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.009527834847511395</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.632</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>{0: [152], 2: [3390], 3: [3435, 242], 10: [227, 3375], 11: [167], 12: [3360], 14: [3420, 137], 15: [3450], 16: [3345], 7: [182], 9: [317], 19: [257, 3405], 6: [228, 3555], 4: [213, 212], 13: [3285], 5: [3331, 3330], 8: [3465], 17: [197, 198], 1: [138, 3600], 18: [3481, 3480, 183]}</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>0.001886792452830189</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.009527834847511395</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.632</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>{0: [3854, 2688, 2690, 2689], 2: [2614, 2509, 3778], 's_0_2': [3794], 3: [4019, 2765, 3809, 2764], 's_0_3': [4004], 10: [2750, 3839, 3838, 2449], 's_0_10': [2555], 11: [2675, 3703, 3704, 2674], 's_0_11': [3899], 12: [2719, 2720], 's_0_12': [2705], 14: [3539, 2643], 's_0_14': [3644], 15: [2825, 3943, 3944], 's_0_15': [2570], 16: [2673], 's_0_16': [3569], 's_2_3': [2615], 7: [3689, 3913, 2629, 2628], 's_2_7': [2510], 9: [2538, 2539], 's_2_9': [3718], 's_2_10': [3793], 19: [2525, 2524, 2463, 3673], 's_2_19': [3853], 6: [3779, 3914, 2809, 2808], 's_3_6': [2734], 's_3_7': [2660], 's_3_10': [3824], 's_3_11': [2659], 's_3_15': [2630], 4: [2749, 2748, 3613, 3614], 's_10_4': [2448], 's_10_6': [2779], 's_10_12': [3989], 13: [2540], 's_10_13': [3868], 's_10_19': [2464], 5: [2598, 3599, 3598], 's_11_5': [2613], 8: [2644, 3733], 's_11_8': [3734], 's_11_12': [3869], 's_11_15': [3959], 's_11_19': [2389], 's_12_7': [3884], 17: [3749, 3748], 's_12_17': [2704], 1: [3583, 3584], 's_14_1': [2703], 's_14_4': [3659], 's_14_7': [2627], 's_14_16': [3524], 18: [2568, 3808, 2569], 's_14_18': [3568], 's_15_6': [3929], 's_15_19': [3958], 's_16_5': [3674], 's_16_7': [3629], 's_7_18': [2584], 's_7_5': [2658], 's_7_13': [3928], 's_7_17': [2554], 's_9_5': [3628], 's_9_19': [3523], 's_19_4': [2478], 's_19_18': [3643], 's_19_8': [3763], 's_6_1': [2793], 's_6_4': [3764], 's_6_17': [2824], 's_4_1': [2523], 's_4_5': [2493], 's_5_17': [2778], 's_8_18': [3719], 's_8_17': [2583], 's_1_18': [2553]}</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0002337662337662337</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.001726637906973533</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>{0: [3854, 2688, 2690, 2689], 2: [2614, 2509, 3778], 's_0_2': [3794], 3: [4019, 2765, 3809, 2764], 's_0_3': [4004], 10: [2750, 3839, 3838, 2449], 's_0_10': [2555], 11: [2675, 3703, 3704, 2674], 's_0_11': [3899], 12: [2719, 2720], 's_0_12': [2705], 14: [3539, 2643], 's_0_14': [3644], 15: [2825, 3943, 3944], 's_0_15': [2570], 16: [2673], 's_0_16': [3569], 's_2_3': [2615], 7: [3689, 3913, 2629, 2628], 's_2_7': [2510], 9: [2538, 2539], 's_2_9': [3718], 's_2_10': [3793], 19: [2525, 2524, 2463, 3673], 's_2_19': [3853], 6: [3779, 3914, 2809, 2808], 's_3_6': [2734], 's_3_7': [2660], 's_3_10': [3824], 's_3_11': [2659], 's_3_15': [2630], 4: [2749, 2748, 3613, 3614], 's_10_4': [2448], 's_10_6': [2779], 's_10_12': [3989], 13: [2540], 's_10_13': [3868], 's_10_19': [2464], 5: [2598, 3599, 3598], 's_11_5': [2613], 8: [2644, 3733], 's_11_8': [3734], 's_11_12': [3869], 's_11_15': [3959], 's_11_19': [2389], 's_12_7': [3884], 17: [3749, 3748], 's_12_17': [2704], 1: [3583, 3584], 's_14_1': [2703], 's_14_4': [3659], 's_14_7': [2627], 's_14_16': [3524], 18: [2568, 3808, 2569], 's_14_18': [3568], 's_15_6': [3929], 's_15_19': [3958], 's_16_5': [3674], 's_16_7': [3629], 's_7_18': [2584], 's_7_5': [2658], 's_7_13': [3928], 's_7_17': [2554], 's_9_5': [3628], 's_9_19': [3523], 's_19_4': [2478], 's_19_18': [3643], 's_19_8': [3763], 's_6_1': [2793], 's_6_4': [3764], 's_6_17': [2824], 's_4_1': [2523], 's_4_5': [2493], 's_5_17': [2778], 's_8_18': [3719], 's_8_17': [2583], 's_1_18': [2553]}</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>0.0002337662337662337</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.001726637906973533</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>{0: [4854], 2: [1855], 3: [1870, 4884], 6: [1840], 9: [1810, 4839], 17: [1780, 4794], 8: [4750], 15: [4824], 16: [4719], 20: [4765], 4: [1765], 7: [1795], 11: [1869, 4689], 10: [1884, 4734], 18: [4809, 4808], 1: [4764, 1825], 12: [1734], 13: [4718, 1660], 14: [4779, 1719], 19: [1779, 4749], 5: [4823]}</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0.0004478280340349306</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.004596149968156635</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>{0: [4854], 2: [1855], 3: [1870, 4884], 6: [1840], 9: [1810, 4839], 17: [1780, 4794], 8: [4750], 15: [4824], 16: [4719], 20: [4765], 4: [1765], 7: [1795], 11: [1869, 4689], 10: [1884, 4734], 18: [4809, 4808], 1: [4764, 1825], 12: [1734], 13: [4718, 1660], 14: [4779, 1719], 19: [1779, 4749], 5: [4823]}</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0.0004478280340349306</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.004596149968156635</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.806</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>{0: [1824, 4675, 4674], 2: [1644, 4660, 4659, 1645, 4658], 's_0_2': [2079], 3: [4809, 1869, 4509, 1868], 's_0_3': [1884], 6: [4705, 1735, 1734, 4704], 's_0_6': [2049], 9: [1913, 4720, 1914], 's_0_9': [1974], 17: [4644, 1794, 4763, 4764], 's_0_17': [1944], 8: [4628, 1719, 1718], 's_2_8': [4823], 's_2_9': [1989, 1990], 15: [1630], 's_2_15': [4733], 16: [2004, 4525, 4600, 1898], 's_2_16': [1899], 20: [4673, 1613, 1614], 's_2_20': [4583], 4: [4539, 1809], 's_3_4': [1793], 's_3_6': [1733], 7: [1779, 4735, 4734], 's_3_7': [1840, 4795], 's_3_9': [4570], 11: [1600, 1599, 1598, 4479, 4478], 's_3_11': [1823], 's_6_8': [1720], 's_6_9': [1959], 10: [4555, 4553, 4839, 1855, 1854, 4554], 's_6_10': [2019], 18: [1705, 4883, 4884], 's_6_18': [4974], 's_6_20': [4703], 's_9_7': [2005], 's_9_10': [4750], 's_9_16': [4585], 's_9_17': [4719], 1: [1539, 4613, 1538], 's_17_1': [1584], 's_17_4': [1883], 's_17_7': [4629], 12: [1825, 4778, 1554, 4779], 's_17_12': [1524], 13: [4599, 4493, 1688], 's_17_13': [1749], 14: [1810, 4853, 4854], 's_17_14': [1675], 's_17_15': [1480, 4793], 19: [4688, 1660, 1659], 's_17_19': [4643], 's_8_10': [1674], 's_8_20': [1629], 's_8_11': [4808], 's_15_18': [4868], 's_16_10': [2048], 's_16_11': [1943], 's_16_13': [4494], 's_20_1': [4598], 's_20_11': [4418], 5: [4614, 1765, 1764], 's_4_5': [4689], 's_7_14': [1780], 's_11_10': [1928], 's_11_12': [4748], 's_11_19': [1658], 's_11_14': [1615], 's_10_1': [1553], 's_10_12': [4824], 's_10_18': [1870], 's_18_5': [4869], 's_18_14': [1690], 's_1_12': [4672], 's_1_19': [4718], 's_12_14': [4749], 's_12_19': [4794], 's_13_19': [4569], 's_13_5': [1763], 's_14_5': [4838]}</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0.0002375</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.001706559037947413</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>{0: [1824, 4675, 4674], 2: [1644, 4660, 4659, 1645, 4658], 's_0_2': [2079], 3: [4809, 1869, 4509, 1868], 's_0_3': [1884], 6: [4705, 1735, 1734, 4704], 's_0_6': [2049], 9: [1913, 4720, 1914], 's_0_9': [1974], 17: [4644, 1794, 4763, 4764], 's_0_17': [1944], 8: [4628, 1719, 1718], 's_2_8': [4823], 's_2_9': [1989, 1990], 15: [1630], 's_2_15': [4733], 16: [2004, 4525, 4600, 1898], 's_2_16': [1899], 20: [4673, 1613, 1614], 's_2_20': [4583], 4: [4539, 1809], 's_3_4': [1793], 's_3_6': [1733], 7: [1779, 4735, 4734], 's_3_7': [1840, 4795], 's_3_9': [4570], 11: [1600, 1599, 1598, 4479, 4478], 's_3_11': [1823], 's_6_8': [1720], 's_6_9': [1959], 10: [4555, 4553, 4839, 1855, 1854, 4554], 's_6_10': [2019], 18: [1705, 4883, 4884], 's_6_18': [4974], 's_6_20': [4703], 's_9_7': [2005], 's_9_10': [4750], 's_9_16': [4585], 's_9_17': [4719], 1: [1539, 4613, 1538], 's_17_1': [1584], 's_17_4': [1883], 's_17_7': [4629], 12: [1825, 4778, 1554, 4779], 's_17_12': [1524], 13: [4599, 4493, 1688], 's_17_13': [1749], 14: [1810, 4853, 4854], 's_17_14': [1675], 's_17_15': [1480, 4793], 19: [4688, 1660, 1659], 's_17_19': [4643], 's_8_10': [1674], 's_8_20': [1629], 's_8_11': [4808], 's_15_18': [4868], 's_16_10': [2048], 's_16_11': [1943], 's_16_13': [4494], 's_20_1': [4598], 's_20_11': [4418], 5: [4614, 1765, 1764], 's_4_5': [4689], 's_7_14': [1780], 's_11_10': [1928], 's_11_12': [4748], 's_11_19': [1658], 's_11_14': [1615], 's_10_1': [1553], 's_10_12': [4824], 's_10_18': [1870], 's_18_5': [4869], 's_18_14': [1690], 's_1_12': [4672], 's_1_19': [4718], 's_12_14': [4749], 's_12_19': [4794], 's_13_19': [4569], 's_13_5': [1763], 's_14_5': [4838]}</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>0.0002375</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.001706559037947413</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>{0: [1540], 5: [4943, 4944], 7: [1539], 3: [1660, 1661], 8: [1705], 12: [1735, 4974], 15: [1600], 16: [4778, 1570], 1: [1554], 9: [4822, 4823], 11: [4793, 4794], 13: [1765, 4779], 21: [1675], 10: [1676, 4898], 4: [4883, 1555], 20: [1690, 4868], 2: [4853], 19: [1645, 4808], 14: [4807], 6: [1615], 17: [4838, 1630], 18: [4780]}</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0.000387396694214876</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.004178380601075268</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>{0: [1540], 5: [4943, 4944], 7: [1539], 3: [1660, 1661], 8: [1705], 12: [1735, 4974], 15: [1600], 16: [4778, 1570], 1: [1554], 9: [4822, 4823], 11: [4793, 4794], 13: [1765, 4779], 21: [1675], 10: [1676, 4898], 4: [4883, 1555], 20: [1690, 4868], 2: [4853], 19: [1645, 4808], 14: [4807], 6: [1615], 17: [4838, 1630], 18: [4780]}</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0.000387396694214876</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.004178380601075268</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>{0: [2015], 5: [1909, 3851, 3850], 's_0_5': [3866], 7: [3835, 1954], 's_0_7': [2030], 3: [3895, 1819, 1879, 3804], 's_5_3': [1985], 8: [1864, 3819], 's_5_8': [3865], 12: [3924], 's_5_12': [2000, 3925], 15: [3806, 3805], 's_5_15': [2134], 16: [3790, 3789, 1714], 's_5_16': [3849], 1: [3670, 1969, 1968], 's_7_1': [3820], 9: [3775, 1789, 3774], 's_7_9': [3760], 's_7_16': [2059], 11: [3730, 3729, 3728], 's_3_11': [1609, 3803], 's_3_12': [1925], 13: [1774, 3684, 1773], 's_3_13': [3669], 21: [1907, 1908, 3743, 3744], 's_3_21': [1744], 10: [3639, 1834], 's_3_10': [1835], 4: [3880, 1850, 1849, 1848], 's_8_4': [3759], 's_8_12': [1805], 20: [1862, 3624, 1863], 's_8_20': [1759, 1758], 2: [3594, 1894, 1893], 's_12_2': [3909], 's_15_2': [1984, 3640], 's_15_16': [3791], 19: [3655, 1924, 1923], 's_15_19': [2029], 's_16_4': [3879], 's_16_13': [3834], 's_16_10': [1713], 's_16_9': [3773], 's_16_19': [2014], 's_1_4': [1970], 's_1_11': [3745], 14: [3610], 's_1_14': [3625], 's_9_13': [3699], 's_9_21': [1804], 6: [1939, 3701, 3700], 's_9_6': [2119], 's_9_19': [1999], 's_4_6': [1940], 's_4_10': [1833], 17: [3609, 3715, 1878], 's_4_17': [3654], 's_4_20': [3490], 's_4_21': [3520], 's_11_6': [2088], 's_11_13': [1654], 's_11_21': [1639], 's_14_19': [1938], 's_6_17': [3716], 's_6_19': [2058], 's_10_21': [1728], 's_17_2': [1803], 's_17_13': [3579], 's_17_19': [3685], 's_17_20': [1743], 's_20_2': [1818], 's_20_21': [3414], 's_21_2': [1892], 's_21_19': [3535], 's_13_2': [1788], 18: [3714], 's_13_18': [1698]}</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0002307692307692308</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.001798348281548613</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>{0: [2015], 5: [1909, 3851, 3850], 's_0_5': [3866], 7: [3835, 1954], 's_0_7': [2030], 3: [3895, 1819, 1879, 3804], 's_5_3': [1985], 8: [1864, 3819], 's_5_8': [3865], 12: [3924], 's_5_12': [2000, 3925], 15: [3806, 3805], 's_5_15': [2134], 16: [3790, 3789, 1714], 's_5_16': [3849], 1: [3670, 1969, 1968], 's_7_1': [3820], 9: [3775, 1789, 3774], 's_7_9': [3760], 's_7_16': [2059], 11: [3730, 3729, 3728], 's_3_11': [1609, 3803], 's_3_12': [1925], 13: [1774, 3684, 1773], 's_3_13': [3669], 21: [1907, 1908, 3743, 3744], 's_3_21': [1744], 10: [3639, 1834], 's_3_10': [1835], 4: [3880, 1850, 1849, 1848], 's_8_4': [3759], 's_8_12': [1805], 20: [1862, 3624, 1863], 's_8_20': [1759, 1758], 2: [3594, 1894, 1893], 's_12_2': [3909], 's_15_2': [1984, 3640], 's_15_16': [3791], 19: [3655, 1924, 1923], 's_15_19': [2029], 's_16_4': [3879], 's_16_13': [3834], 's_16_10': [1713], 's_16_9': [3773], 's_16_19': [2014], 's_1_4': [1970], 's_1_11': [3745], 14: [3610], 's_1_14': [3625], 's_9_13': [3699], 's_9_21': [1804], 6: [1939, 3701, 3700], 's_9_6': [2119], 's_9_19': [1999], 's_4_6': [1940], 's_4_10': [1833], 17: [3609, 3715, 1878], 's_4_17': [3654], 's_4_20': [3490], 's_4_21': [3520], 's_11_6': [2088], 's_11_13': [1654], 's_11_21': [1639], 's_14_19': [1938], 's_6_17': [3716], 's_6_19': [2058], 's_10_21': [1728], 's_17_2': [1803], 's_17_13': [3579], 's_17_19': [3685], 's_17_20': [1743], 's_20_2': [1818], 's_20_21': [3414], 's_21_2': [1892], 's_21_19': [3535], 's_13_2': [1788], 18: [3714], 's_13_18': [1698]}</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0.0002307692307692308</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.001798348281548613</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>{0: [2599], 5: [3928], 9: [3913], 14: [3869], 17: [3899], 21: [3943, 2600], 12: [3988, 2525], 19: [2645], 6: [2660], 15: [3958, 2570], 3: [3868], 13: [2555], 20: [2615, 2614], 2: [3883, 3884], 7: [2705, 3944], 4: [4034, 2585], 22: [3973], 1: [4049, 2690], 8: [3854, 2584], 18: [3839, 3838], 16: [2449], 11: [3823], 10: [2689]}</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0.0007348438456827923</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.005604439039141481</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.324</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>{0: [2599], 5: [3928], 9: [3913], 14: [3869], 17: [3899], 21: [3943, 2600], 12: [3988, 2525], 19: [2645], 6: [2660], 15: [3958, 2570], 3: [3868], 13: [2555], 20: [2615, 2614], 2: [3883, 3884], 7: [2705, 3944], 4: [4034, 2585], 22: [3973], 1: [4049, 2690], 8: [3854, 2584], 18: [3839, 3838], 16: [2449], 11: [3823], 10: [2689]}</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>0.0007348438456827923</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.005604439039141481</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.324</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>{0: [2008, 1843, 5364, 5365], 5: [1722, 5274], 's_0_5': [5275], 9: [5379, 1797, 1798], 's_0_9': [1858], 14: [5589, 5590, 2009], 's_0_14': [5485, 1978], 17: [1768, 5423, 5424], 's_0_17': [5425], 21: [1784, 5439, 1783], 's_0_21': [1844], 12: [5288, 1782, 5289], 's_5_12': [5259], 19: [1753, 5334], 's_5_19': [1737], 6: [5320, 5319, 1603, 5318], 's_9_6': [1948], 's_9_12': [5214], 15: [5634, 1874, 1873, 5394], 's_9_15': [1933], 3: [5588, 1648, 5468, 1649], 's_14_3': [5470, 5469], 13: [5709, 1918, 5574, 1919], 's_14_13': [5455], 's_14_15': [5635, 1904], 20: [5514, 1769], 's_14_20': [1829], 2: [1889, 1888, 1618, 5453, 5454], 's_17_2': [1558], 's_17_6': [1633], 7: [1723, 5543], 's_17_7': [1738], 's_17_15': [1813], 's_17_20': [1693], 4: [1799, 5499, 1663, 1664], 's_21_4': [5484], 's_21_6': [5438], 's_21_7': [5544], 's_21_13': [1859], 22: [5290, 5529, 1902, 1903], 's_21_22': [5440], 's_12_3': [5303], 's_12_4': [1662, 5139], 's_12_22': [5199], 1: [5408, 5409], 's_19_1': [1678], 's_19_2': [5378], 's_19_6': [1707], 's_19_4': [5348], 's_6_1': [1828], 8: [1514, 5722, 5619, 1724, 5723], 's_15_8': [1739], 's_15_13': [5695], 's_15_4': [5393], 18: [5559, 5558, 1604], 's_15_18': [5633], 's_15_20': [5515], 16: [5498, 1634], 's_3_16': [1499], 's_13_2': [5665], 11: [1694, 5573], 's_13_11': [5708], 's_13_22': [5410], 's_20_8': [5649], 's_20_4': [5604], 's_20_18': [5528], 's_2_1': [1573], 's_2_8': [5724], 's_2_16': [1619], 's_7_1': [1708], 's_7_8': [1754], 's_4_8': [5664], 's_4_22': [5500], 10: [5587], 's_8_10': [5602], 's_8_11': [5679], 's_16_11': [5603], 's_16_18': [5513], 's_11_18': [1709]}</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0.0001518987341772152</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.001378294439373793</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>{0: [2008, 1843, 5364, 5365], 5: [1722, 5274], 's_0_5': [5275], 9: [5379, 1797, 1798], 's_0_9': [1858], 14: [5589, 5590, 2009], 's_0_14': [5485, 1978], 17: [1768, 5423, 5424], 's_0_17': [5425], 21: [1784, 5439, 1783], 's_0_21': [1844], 12: [5288, 1782, 5289], 's_5_12': [5259], 19: [1753, 5334], 's_5_19': [1737], 6: [5320, 5319, 1603, 5318], 's_9_6': [1948], 's_9_12': [5214], 15: [5634, 1874, 1873, 5394], 's_9_15': [1933], 3: [5588, 1648, 5468, 1649], 's_14_3': [5470, 5469], 13: [5709, 1918, 5574, 1919], 's_14_13': [5455], 's_14_15': [5635, 1904], 20: [5514, 1769], 's_14_20': [1829], 2: [1889, 1888, 1618, 5453, 5454], 's_17_2': [1558], 's_17_6': [1633], 7: [1723, 5543], 's_17_7': [1738], 's_17_15': [1813], 's_17_20': [1693], 4: [1799, 5499, 1663, 1664], 's_21_4': [5484], 's_21_6': [5438], 's_21_7': [5544], 's_21_13': [1859], 22: [5290, 5529, 1902, 1903], 's_21_22': [5440], 's_12_3': [5303], 's_12_4': [1662, 5139], 's_12_22': [5199], 1: [5408, 5409], 's_19_1': [1678], 's_19_2': [5378], 's_19_6': [1707], 's_19_4': [5348], 's_6_1': [1828], 8: [1514, 5722, 5619, 1724, 5723], 's_15_8': [1739], 's_15_13': [5695], 's_15_4': [5393], 18: [5559, 5558, 1604], 's_15_18': [5633], 's_15_20': [5515], 16: [5498, 1634], 's_3_16': [1499], 's_13_2': [5665], 11: [1694, 5573], 's_13_11': [5708], 's_13_22': [5410], 's_20_8': [5649], 's_20_4': [5604], 's_20_18': [5528], 's_2_1': [1573], 's_2_8': [5724], 's_2_16': [1619], 's_7_1': [1708], 's_7_8': [1754], 's_4_8': [5664], 's_4_22': [5500], 10: [5587], 's_8_10': [5602], 's_8_11': [5679], 's_16_11': [5603], 's_16_18': [5513], 's_11_18': [1709]}</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0.0001518987341772152</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.001378294439373793</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>{0: [4188, 742], 6: [651, 4173], 9: [4249, 4248], 12: [757, 4263], 15: [802, 801], 17: [4292, 4293], 20: [727], 23: [4234, 4233], 16: [667, 652, 4398], 4: [816, 817], 10: [862], 11: [682, 4338], 21: [877, 4399], 1: [4308, 847], 2: [758], 13: [786, 787], 18: [4323], 22: [772, 4278], 7: [4414, 773], 3: [637], 5: [4369, 4368], 19: [697, 4383], 8: [4384], 14: [4353, 712]}</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0.001755189255189255</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.008369719010298602</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>{0: [4188, 742], 6: [651, 4173], 9: [4249, 4248], 12: [757, 4263], 15: [802, 801], 17: [4292, 4293], 20: [727], 23: [4234, 4233], 16: [667, 652, 4398], 4: [816, 817], 10: [862], 11: [682, 4338], 21: [877, 4399], 1: [4308, 847], 2: [758], 13: [786, 787], 18: [4323], 22: [772, 4278], 7: [4414, 773], 3: [637], 5: [4369, 4368], 19: [697, 4383], 8: [4384], 14: [4353, 712]}</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0.001755189255189255</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.008369719010298602</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.373</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>{0: [4651, 430, 429], 6: [353, 355, 354], 's_0_6': [4846], 9: [549, 4562, 400, 399], 's_0_9': [4652], 12: [4696, 4470, 294, 295, 293], 's_0_12': [4891], 15: [386, 4666, 384, 385], 's_0_15': [4981], 17: [4800, 444, 4801], 's_0_17': [445], 20: [4921, 4681, 309, 310], 's_0_20': [4922], 23: [370, 368, 4531, 369], 's_0_23': [4861], 's_6_12': [4936], 's_6_15': [4906], 16: [415, 4711, 143, 144, 142, 4710], 's_6_16': [4876], 's_6_23': [4636], 4: [4607, 534], 's_9_4': [4697], 10: [279, 4547, 4546, 278], 's_9_10': [4501, 398], 11: [4577, 4576, 247, 248], 's_9_11': [564], 's_9_15': [4667], 's_9_16': [4772], 's_9_20': [4682], 21: [338, 4621, 339], 's_9_21': [473], 1: [4756, 4771, 4860, 220], 's_12_1': [4815], 2: [4980], 's_12_2': [4995], 13: [4727, 99, 4725, 4726], 's_12_13': [324], 18: [188, 4500], 's_12_18': [173], 's_12_20': [4830], 22: [4650, 190, 4695, 189], 's_12_22': [4845], 's_12_23': [4471], 7: [4740, 4742, 250, 249, 4741], 's_15_7': [4966], 's_15_11': [414], 's_15_13': [459], 's_15_17': [4816], 's_15_21': [4591], 's_15_23': [4606], 's_17_1': [175], 's_17_10': [443], 's_17_13': [235], 's_17_16': [264], 's_17_20': [325], 's_20_1': [221], 's_20_23': [371], 's_23_10': [323], 's_23_16': [4831], 's_23_21': [4456], 's_16_21': [4560, 4561], 3: [4350], 's_16_3': [127], 5: [4425, 4426, 519, 518, 4427], 's_16_5': [4410], 19: [4530], 's_16_19': [128], 's_4_7': [4757], 's_4_5': [533], 8: [158, 4620, 161, 160, 159], 's_10_8': [4485], 's_10_21': [458], 's_10_22': [4635], 's_10_5': [277], 's_11_3': [262], 14: [233, 4680, 234], 's_11_14': [4381], 's_11_18': [4455], 's_21_1': [340], 's_21_8': [4440, 4441], 's_21_7': [489], 's_21_13': [504], 's_1_8': [4770], 's_1_22': [4875], 's_2_8': [176], 's_2_7': [265], 's_13_8': [4755], 's_13_22': [129], 's_13_5': [4712], 's_13_14': [174], 's_18_22': [98, 4590], 's_18_3': [203], 's_18_14': [4365], 's_22_7': [4665], 's_22_14': [204], 's_22_19': [219], 's_7_8': [4890], 's_8_19': [263], 's_19_14': [4545], 's_14_5': [218]}</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0.0003100000000000001</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.001733176274935703</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>{0: [4651, 430, 429], 6: [353, 355, 354], 's_0_6': [4846], 9: [549, 4562, 400, 399], 's_0_9': [4652], 12: [4696, 4470, 294, 295, 293], 's_0_12': [4891], 15: [386, 4666, 384, 385], 's_0_15': [4981], 17: [4800, 444, 4801], 's_0_17': [445], 20: [4921, 4681, 309, 310], 's_0_20': [4922], 23: [370, 368, 4531, 369], 's_0_23': [4861], 's_6_12': [4936], 's_6_15': [4906], 16: [415, 4711, 143, 144, 142, 4710], 's_6_16': [4876], 's_6_23': [4636], 4: [4607, 534], 's_9_4': [4697], 10: [279, 4547, 4546, 278], 's_9_10': [4501, 398], 11: [4577, 4576, 247, 248], 's_9_11': [564], 's_9_15': [4667], 's_9_16': [4772], 's_9_20': [4682], 21: [338, 4621, 339], 's_9_21': [473], 1: [4756, 4771, 4860, 220], 's_12_1': [4815], 2: [4980], 's_12_2': [4995], 13: [4727, 99, 4725, 4726], 's_12_13': [324], 18: [188, 4500], 's_12_18': [173], 's_12_20': [4830], 22: [4650, 190, 4695, 189], 's_12_22': [4845], 's_12_23': [4471], 7: [4740, 4742, 250, 249, 4741], 's_15_7': [4966], 's_15_11': [414], 's_15_13': [459], 's_15_17': [4816], 's_15_21': [4591], 's_15_23': [4606], 's_17_1': [175], 's_17_10': [443], 's_17_13': [235], 's_17_16': [264], 's_17_20': [325], 's_20_1': [221], 's_20_23': [371], 's_23_10': [323], 's_23_16': [4831], 's_23_21': [4456], 's_16_21': [4560, 4561], 3: [4350], 's_16_3': [127], 5: [4425, 4426, 519, 518, 4427], 's_16_5': [4410], 19: [4530], 's_16_19': [128], 's_4_7': [4757], 's_4_5': [533], 8: [158, 4620, 161, 160, 159], 's_10_8': [4485], 's_10_21': [458], 's_10_22': [4635], 's_10_5': [277], 's_11_3': [262], 14: [233, 4680, 234], 's_11_14': [4381], 's_11_18': [4455], 's_21_1': [340], 's_21_8': [4440, 4441], 's_21_7': [489], 's_21_13': [504], 's_1_8': [4770], 's_1_22': [4875], 's_2_8': [176], 's_2_7': [265], 's_13_8': [4755], 's_13_22': [129], 's_13_5': [4712], 's_13_14': [174], 's_18_22': [98, 4590], 's_18_3': [203], 's_18_14': [4365], 's_22_7': [4665], 's_22_14': [204], 's_22_19': [219], 's_7_8': [4890], 's_8_19': [263], 's_19_14': [4545], 's_14_5': [218]}</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>0.0003100000000000001</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.001733176274935703</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>{0: [3211], 2: [3347, 451], 3: [331], 8: [346], 9: [3227, 3226, 376], 10: [3256, 436], 13: [3317, 481], 17: [3167, 361, 3166], 18: [3271, 421], 19: [3301, 466, 3302], 7: [3181, 406, 407], 20: [541, 3241, 3242], 23: [3377, 3376], 1: [3151, 3152], 11: [3197, 3196], 15: [362, 3286], 5: [377, 3361], 14: [511, 3287], 21: [496], 4: [3257], 24: [301], 6: [392], 12: [526], 16: [316], 22: [586, 587]}</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0.002528216704288939</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.009733282512478098</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>{0: [3211], 2: [3347, 451], 3: [331], 8: [346], 9: [3227, 3226, 376], 10: [3256, 436], 13: [3317, 481], 17: [3167, 361, 3166], 18: [3271, 421], 19: [3301, 466, 3302], 7: [3181, 406, 407], 20: [541, 3241, 3242], 23: [3377, 3376], 1: [3151, 3152], 11: [3197, 3196], 15: [362, 3286], 5: [377, 3361], 14: [511, 3287], 21: [496], 4: [3257], 24: [301], 6: [392], 12: [526], 16: [316], 22: [586, 587]}</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0.002528216704288939</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.009733282512478098</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.209</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>{0: [4733, 4732, 4731, 1271, 1270], 2: [4791, 1539, 4793, 4792], 's_0_2': [1645], 3: [4866, 1524, 1525, 4867], 's_0_3': [1495], 8: [1465, 4957, 1466], 's_0_8': [4956], 9: [5121, 1211, 4702, 4701, 1209, 1210], 's_0_9': [4971], 10: [4761, 4776, 4536, 1284, 1285], 's_0_10': [1269], 13: [4836, 5002, 5001, 1329, 1330], 's_0_13': [4986, 4987], 17: [1301, 4926, 4928, 4927], 's_0_17': [5016], 18: [1374, 4746, 4747], 's_0_18': [1179], 19: [1224, 1300, 1480, 4717, 4716], 's_0_19': [4718], 7: [4568, 4567, 1315, 1314, 4551], 's_2_7': [1538], 's_2_9': [4703], 's_2_13': [1540], 20: [5030, 5031, 1406, 4882, 1405], 's_2_20': [1554, 4883, 1555], 23: [4777, 1449, 1450], 's_2_23': [4657], 1: [1059, 4880, 4881, 1060], 's_3_1': [4865], 's_3_7': [1523], 11: [4806, 4941, 1239, 1240], 's_3_11': [1225], 15: [1435], 's_3_15': [4837], 's_3_17': [4943], 's_3_19': [1509], 's_8_17': [1451, 4972], 's_8_18': [1375], 's_8_19': [4807], 's_8_20': [5062], 5: [1404, 4762], 's_9_5': [1419], 's_9_11': [1241], 's_9_13': [5000], 14: [4913, 4911, 1360, 4912], 's_9_14': [5122, 1361], 's_9_17': [5061], 21: [1091, 4821, 4820, 1090], 's_9_21': [5046, 5045], 4: [4850, 4897, 4851, 1390], 's_10_4': [1135], 's_10_5': [4641], 's_10_13': [1328], 's_10_18': [1120], 's_10_19': [4611], 's_10_23': [4537], 24: [4655, 1149], 's_10_24': [1194], 's_13_1': [4835], 's_13_4': [1510], 6: [4671], 's_13_6': [1344], 's_13_14': [1496], 's_13_18': [4656], 's_13_19': [4686], 's_13_21': [1255], 12: [4895, 4896], 's_17_12': [1316], 's_17_14': [1631], 's_17_15': [1420], 's_18_5': [1434], 's_18_6': [1254], 's_18_7': [1373], 's_19_4': [1481], 's_19_7': [1223], 's_19_21': [4670, 1089], 's_19_23': [4822], 's_19_24': [4715], 's_7_1': [1193, 4625], 's_7_5': [1403], 's_7_6': [1299], 's_7_11': [1238], 's_7_21': [1105, 1104, 4550], 's_7_23': [4582], 's_20_1': [1061], 's_20_4': [1391], 's_20_11': [1121], 16: [1150, 1166, 1165], 's_20_16': [5015], 's_20_21': [1106], 's_23_5': [4597], 's_23_15': [4852], 22: [4613, 1359, 4612, 1358], 's_23_22': [4687], 's_1_12': [4925, 1000], 's_1_21': [4775], 's_1_24': [1074], 's_11_12': [1286], 's_11_21': [4940], 's_11_22': [4626], 's_15_14': [4942], 's_5_6': [1389], 's_14_12': [4910], 's_14_22': [1600, 1599], 's_4_12': [1075], 's_24_16': [1164]}</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0003679245283018868</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.001874464442322718</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>{0: [4733, 4732, 4731, 1271, 1270], 2: [4791, 1539, 4793, 4792], 's_0_2': [1645], 3: [4866, 1524, 1525, 4867], 's_0_3': [1495], 8: [1465, 4957, 1466], 's_0_8': [4956], 9: [5121, 1211, 4702, 4701, 1209, 1210], 's_0_9': [4971], 10: [4761, 4776, 4536, 1284, 1285], 's_0_10': [1269], 13: [4836, 5002, 5001, 1329, 1330], 's_0_13': [4986, 4987], 17: [1301, 4926, 4928, 4927], 's_0_17': [5016], 18: [1374, 4746, 4747], 's_0_18': [1179], 19: [1224, 1300, 1480, 4717, 4716], 's_0_19': [4718], 7: [4568, 4567, 1315, 1314, 4551], 's_2_7': [1538], 's_2_9': [4703], 's_2_13': [1540], 20: [5030, 5031, 1406, 4882, 1405], 's_2_20': [1554, 4883, 1555], 23: [4777, 1449, 1450], 's_2_23': [4657], 1: [1059, 4880, 4881, 1060], 's_3_1': [4865], 's_3_7': [1523], 11: [4806, 4941, 1239, 1240], 's_3_11': [1225], 15: [1435], 's_3_15': [4837], 's_3_17': [4943], 's_3_19': [1509], 's_8_17': [1451, 4972], 's_8_18': [1375], 's_8_19': [4807], 's_8_20': [5062], 5: [1404, 4762], 's_9_5': [1419], 's_9_11': [1241], 's_9_13': [5000], 14: [4913, 4911, 1360, 4912], 's_9_14': [5122, 1361], 's_9_17': [5061], 21: [1091, 4821, 4820, 1090], 's_9_21': [5046, 5045], 4: [4850, 4897, 4851, 1390], 's_10_4': [1135], 's_10_5': [4641], 's_10_13': [1328], 's_10_18': [1120], 's_10_19': [4611], 's_10_23': [4537], 24: [4655, 1149], 's_10_24': [1194], 's_13_1': [4835], 's_13_4': [1510], 6: [4671], 's_13_6': [1344], 's_13_14': [1496], 's_13_18': [4656], 's_13_19': [4686], 's_13_21': [1255], 12: [4895, 4896], 's_17_12': [1316], 's_17_14': [1631], 's_17_15': [1420], 's_18_5': [1434], 's_18_6': [1254], 's_18_7': [1373], 's_19_4': [1481], 's_19_7': [1223], 's_19_21': [4670, 1089], 's_19_23': [4822], 's_19_24': [4715], 's_7_1': [1193, 4625], 's_7_5': [1403], 's_7_6': [1299], 's_7_11': [1238], 's_7_21': [1105, 1104, 4550], 's_7_23': [4582], 's_20_1': [1061], 's_20_4': [1391], 's_20_11': [1121], 16: [1150, 1166, 1165], 's_20_16': [5015], 's_20_21': [1106], 's_23_5': [4597], 's_23_15': [4852], 22: [4613, 1359, 4612, 1358], 's_23_22': [4687], 's_1_12': [4925, 1000], 's_1_21': [4775], 's_1_24': [1074], 's_11_12': [1286], 's_11_21': [4940], 's_11_22': [4626], 's_15_14': [4942], 's_5_6': [1389], 's_14_12': [4910], 's_14_22': [1600, 1599], 's_4_12': [1075], 's_24_16': [1164]}</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0.0003679245283018868</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.001874464442322718</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>{0: [4757, 4756], 3: [4592, 489], 4: [4727, 4726, 444], 12: [339, 4636], 16: [459], 20: [385, 384], 24: [534, 4742], 8: [458], 14: [549, 4712, 550], 23: [4682], 1: [4666], 6: [370, 369], 11: [4711], 18: [4681, 428, 429], 19: [4787, 400], 21: [443, 4577, 4576], 22: [415, 4801], 7: [354], 15: [399], 17: [4651], 2: [4547, 4546], 10: [4561, 4562], 5: [504, 4621], 13: [4697, 414, 4696], 25: [4607], 9: [4471, 473]}</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0.00103950103950104</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.006794813083442658</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>{0: [4757, 4756], 3: [4592, 489], 4: [4727, 4726, 444], 12: [339, 4636], 16: [459], 20: [385, 384], 24: [534, 4742], 8: [458], 14: [549, 4712, 550], 23: [4682], 1: [4666], 6: [370, 369], 11: [4711], 18: [4681, 428, 429], 19: [4787, 400], 21: [443, 4577, 4576], 22: [415, 4801], 7: [354], 15: [399], 17: [4651], 2: [4547, 4546], 10: [4561, 4562], 5: [504, 4621], 13: [4697, 414, 4696], 25: [4607], 9: [4471, 473]}</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0.00103950103950104</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.006794813083442658</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.591</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>{0: [4051, 517, 4052, 516], 3: [532, 4502, 533], 's_0_3': [4322], 4: [277, 4246, 276, 411, 4141], 's_0_4': [275], 12: [563, 562, 4185, 4186, 4187], 's_0_12': [336], 16: [4081, 503, 502, 501], 's_0_16': [4082], 20: [173, 321, 172, 171, 4080], 's_0_20': [4067, 4066], 24: [308, 456, 4232, 307, 4231], 's_0_24': [4142], 8: [4562, 4561, 127, 128, 126, 4560], 's_3_8': [458], 's_3_12': [4262], 14: [4487, 4486, 383, 338, 4411], 's_3_14': [578], 23: [4472, 4636, 4471, 473], 's_3_23': [4532], 1: [4291, 292, 4290], 's_4_1': [322], 6: [291, 4276, 4275], 's_4_6': [426], 11: [245, 246], 's_4_11': [4125], 's_4_12': [382], 's_4_14': [337], 's_4_16': [381], 18: [548, 547, 546, 4037, 4036, 4035], 's_4_18': [4022], 19: [218, 4260, 217], 's_4_19': [4216], 21: [4501, 367, 368], 's_4_21': [366], 22: [4247, 441], 's_4_22': [440, 3991], 's_4_24': [306], 's_12_6': [4277], 7: [4427], 's_12_7': [4412], 's_12_8': [564], 's_12_11': [261], 15: [203, 201, 202], 's_12_15': [187], 17: [397, 4306], 's_12_17': [4307], 's_12_18': [4397], 's_12_20': [156], 's_16_1': [487], 's_16_8': [488], 's_16_14': [4456], 's_16_17': [396], 's_16_23': [4547], 's_16_24': [4157], 's_20_1': [157], 2: [4352, 4351, 142, 4350], 's_20_2': [4380], 's_20_6': [290], 10: [4500], 's_20_10': [158], 5: [278, 231, 232, 233, 4470], 's_24_5': [4485], 13: [4320, 443, 4321, 442], 's_24_13': [4336], 's_24_19': [4440], 's_24_22': [471], 25: [4546], 's_24_25': [323], 's_8_5': [248], 's_8_2': [188, 4410], 9: [4155, 186], 's_8_9': [4065], 's_8_10': [98], 's_14_5': [4396], 's_14_2': [593], 's_14_19': [4426], 's_14_21': [4441], 's_14_23': [339], 's_14_25': [428], 's_23_5': [4635], 's_23_13': [4621, 369], 's_23_18': [4517], 's_1_5': [293], 's_1_13': [247], 's_1_15': [4305], 's_1_17': [472], 's_6_5': [4201], 's_6_17': [352], 's_6_21': [4261], 's_6_22': [4171], 's_11_18': [4021], 's_11_19': [4170], 's_18_5': [3990, 140], 's_18_15': [4020], 's_18_2': [4367], 's_18_7': [4382, 457], 's_18_9': [216], 's_18_22': [4217], 's_19_15': [4365], 's_21_13': [4366], 's_21_10': [263, 4381, 262], 's_22_13': [412], 's_7_13': [427], 's_15_13': [4335], 's_15_2': [4395], 's_5_9': [4005], 's_5_25': [4531], 's_13_25': [4592, 414]}</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0003853211009174312</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.001885449447627977</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>{0: [4051, 517, 4052, 516], 3: [532, 4502, 533], 's_0_3': [4322], 4: [277, 4246, 276, 411, 4141], 's_0_4': [275], 12: [563, 562, 4185, 4186, 4187], 's_0_12': [336], 16: [4081, 503, 502, 501], 's_0_16': [4082], 20: [173, 321, 172, 171, 4080], 's_0_20': [4067, 4066], 24: [308, 456, 4232, 307, 4231], 's_0_24': [4142], 8: [4562, 4561, 127, 128, 126, 4560], 's_3_8': [458], 's_3_12': [4262], 14: [4487, 4486, 383, 338, 4411], 's_3_14': [578], 23: [4472, 4636, 4471, 473], 's_3_23': [4532], 1: [4291, 292, 4290], 's_4_1': [322], 6: [291, 4276, 4275], 's_4_6': [426], 11: [245, 246], 's_4_11': [4125], 's_4_12': [382], 's_4_14': [337], 's_4_16': [381], 18: [548, 547, 546, 4037, 4036, 4035], 's_4_18': [4022], 19: [218, 4260, 217], 's_4_19': [4216], 21: [4501, 367, 368], 's_4_21': [366], 22: [4247, 441], 's_4_22': [440, 3991], 's_4_24': [306], 's_12_6': [4277], 7: [4427], 's_12_7': [4412], 's_12_8': [564], 's_12_11': [261], 15: [203, 201, 202], 's_12_15': [187], 17: [397, 4306], 's_12_17': [4307], 's_12_18': [4397], 's_12_20': [156], 's_16_1': [487], 's_16_8': [488], 's_16_14': [4456], 's_16_17': [396], 's_16_23': [4547], 's_16_24': [4157], 's_20_1': [157], 2: [4352, 4351, 142, 4350], 's_20_2': [4380], 's_20_6': [290], 10: [4500], 's_20_10': [158], 5: [278, 231, 232, 233, 4470], 's_24_5': [4485], 13: [4320, 443, 4321, 442], 's_24_13': [4336], 's_24_19': [4440], 's_24_22': [471], 25: [4546], 's_24_25': [323], 's_8_5': [248], 's_8_2': [188, 4410], 9: [4155, 186], 's_8_9': [4065], 's_8_10': [98], 's_14_5': [4396], 's_14_2': [593], 's_14_19': [4426], 's_14_21': [4441], 's_14_23': [339], 's_14_25': [428], 's_23_5': [4635], 's_23_13': [4621, 369], 's_23_18': [4517], 's_1_5': [293], 's_1_13': [247], 's_1_15': [4305], 's_1_17': [472], 's_6_5': [4201], 's_6_17': [352], 's_6_21': [4261], 's_6_22': [4171], 's_11_18': [4021], 's_11_19': [4170], 's_18_5': [3990, 140], 's_18_15': [4020], 's_18_2': [4367], 's_18_7': [4382, 457], 's_18_9': [216], 's_18_22': [4217], 's_19_15': [4365], 's_21_13': [4366], 's_21_10': [263, 4381, 262], 's_22_13': [412], 's_7_13': [427], 's_15_13': [4335], 's_15_2': [4395], 's_5_9': [4005], 's_5_25': [4531], 's_13_25': [4592, 414]}</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0.0003853211009174312</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.001885449447627977</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>{0: [3196], 1: [405, 406], 5: [3226, 376, 375], 11: [391, 3091], 13: [3152, 450], 23: [331, 330, 3046], 26: [496], 2: [556, 3122], 6: [541, 3137], 10: [315, 3061], 15: [2987, 510, 3092], 16: [495, 345, 3031], 4: [2986], 9: [361, 360], 14: [3257, 3256], 18: [3241], 19: [3166, 3167], 8: [435], 25: [2972, 390], 3: [420], 12: [511], 21: [3181], 20: [3286], 22: [346, 3212, 3211], 17: [465, 3242, 466], 7: [526, 525], 24: [3107]}</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0.002722258041406978</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.009665075429605149</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>{0: [3196], 1: [405, 406], 5: [3226, 376, 375], 11: [391, 3091], 13: [3152, 450], 23: [331, 330, 3046], 26: [496], 2: [556, 3122], 6: [541, 3137], 10: [315, 3061], 15: [2987, 510, 3092], 16: [495, 345, 3031], 4: [2986], 9: [361, 360], 14: [3257, 3256], 18: [3241], 19: [3166, 3167], 8: [435], 25: [2972, 390], 3: [420], 12: [511], 21: [3181], 20: [3286], 22: [346, 3212, 3211], 17: [465, 3242, 466], 7: [526, 525], 24: [3107]}</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0.002722258041406978</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.009665075429605149</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.364</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>{0: [5455, 5425, 1918], 1: [5468, 5470, 1753, 5469], 's_0_1': [1978], 5: [5501, 5500, 5498, 1829, 5499], 's_0_5': [2024], 11: [1648, 5396, 5395, 5394, 5393], 's_0_11': [2068], 13: [1917, 5362, 5363, 5364], 's_0_13': [1948], 23: [2039, 5605, 1739, 5603, 5604], 's_0_23': [1919], 26: [1903, 1902], 's_0_26': [5515], 2: [5156, 5155, 5154, 1782, 1783], 's_1_2': [5424], 's_1_5': [1484], 6: [5347, 5348, 5274, 1737], 's_1_6': [1752], 10: [5333, 1574, 5453, 1573], 's_1_10': [5454], 's_1_11': [1618], 15: [5334, 5438, 5441, 1768, 5439, 5440], 's_1_15': [1558], 16: [2144, 1707, 5319, 5320, 2143, 5321], 's_1_16': [5471], 4: [1649, 5528], 's_5_4': [5513], 9: [5588, 5573, 1663, 1664], 's_5_9': [1619], 's_5_10': [1634], 14: [1724, 1723, 1722, 5231, 5230, 5229], 's_5_14': [1738], 18: [1784, 1769, 5649], 's_5_18': [5559], 19: [2172, 5381, 2174, 5291, 2173], 's_5_19': [5516], 's_5_23': [1844], 's_11_2': [1798], 's_11_6': [1633], 8: [1604, 5318, 1603], 's_11_8': [5378], 's_11_9': [5423], 's_11_10': [5392], 's_11_14': [2218, 2217], 's_11_15': [2233], 's_11_16': [2023], 's_11_19': [2248], 25: [2082, 5486, 5411, 2083], 's_11_25': [2203], 's_13_2': [1916], 3: [5288, 5228, 1557], 's_13_3': [1542], 's_13_6': [1423], 's_13_8': [1483], 12: [1872, 5336, 5335], 's_13_12': [5290], 's_13_15': [1813], 's_13_16': [1887], 21: [5258, 5260, 5261, 5259], 's_13_21': [5275], 's_13_26': [5199], 's_23_8': [5558], 's_23_9': [1694], 's_23_14': [5723], 's_23_18': [5589], 20: [2009], 's_23_20': [5560], 22: [5140, 1994, 1932, 1933, 5485], 's_23_22': [5590], 's_23_25': [5545], 17: [5365, 5529, 5530, 2127, 2128, 2129], 's_26_17': [5544], 's_26_22': [5410], 's_2_6': [1736], 's_2_14': [5244], 's_2_15': [1767], 's_2_16': [2142], 's_2_17': [5141], 's_2_19': [2157], 's_2_22': [1857], 7: [1828, 5379, 5380], 's_6_7': [1843], 's_6_8': [1498], 's_6_14': [5289], 's_10_3': [1572], 's_10_8': [5648], 's_10_9': [5572], 's_15_4': [1708], 's_15_12': [1873], 's_15_17': [1814], 's_15_25': [2158], 's_16_3': [5243], 's_16_9': [5273], 's_16_17': [5591], 's_16_22': [1993], 24: [5531], 's_16_24': [5546], 's_16_25': [5456], 's_9_14': [5304], 's_9_21': [1678], 's_9_18': [1754], 's_14_12': [2097], 's_14_17': [2112], 's_14_18': [5634], 's_14_22': [2007], 's_18_17': [1799], 's_19_17': [2052], 's_19_7': [2038], 's_19_12': [2188], 's_8_3': [1602], 's_25_7': [2053], 's_3_21': [1587], 's_12_17': [2008], 's_12_22': [5305], 's_21_17': [5276], 's_21_22': [1962], 's_20_22': [5575], 's_22_7': [1963], 's_17_7': [2113], 's_17_24': [5651, 2159]}</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0.0003166666666666666</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.001593301952271167</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>{0: [5455, 5425, 1918], 1: [5468, 5470, 1753, 5469], 's_0_1': [1978], 5: [5501, 5500, 5498, 1829, 5499], 's_0_5': [2024], 11: [1648, 5396, 5395, 5394, 5393], 's_0_11': [2068], 13: [1917, 5362, 5363, 5364], 's_0_13': [1948], 23: [2039, 5605, 1739, 5603, 5604], 's_0_23': [1919], 26: [1903, 1902], 's_0_26': [5515], 2: [5156, 5155, 5154, 1782, 1783], 's_1_2': [5424], 's_1_5': [1484], 6: [5347, 5348, 5274, 1737], 's_1_6': [1752], 10: [5333, 1574, 5453, 1573], 's_1_10': [5454], 's_1_11': [1618], 15: [5334, 5438, 5441, 1768, 5439, 5440], 's_1_15': [1558], 16: [2144, 1707, 5319, 5320, 2143, 5321], 's_1_16': [5471], 4: [1649, 5528], 's_5_4': [5513], 9: [5588, 5573, 1663, 1664], 's_5_9': [1619], 's_5_10': [1634], 14: [1724, 1723, 1722, 5231, 5230, 5229], 's_5_14': [1738], 18: [1784, 1769, 5649], 's_5_18': [5559], 19: [2172, 5381, 2174, 5291, 2173], 's_5_19': [5516], 's_5_23': [1844], 's_11_2': [1798], 's_11_6': [1633], 8: [1604, 5318, 1603], 's_11_8': [5378], 's_11_9': [5423], 's_11_10': [5392], 's_11_14': [2218, 2217], 's_11_15': [2233], 's_11_16': [2023], 's_11_19': [2248], 25: [2082, 5486, 5411, 2083], 's_11_25': [2203], 's_13_2': [1916], 3: [5288, 5228, 1557], 's_13_3': [1542], 's_13_6': [1423], 's_13_8': [1483], 12: [1872, 5336, 5335], 's_13_12': [5290], 's_13_15': [1813], 's_13_16': [1887], 21: [5258, 5260, 5261, 5259], 's_13_21': [5275], 's_13_26': [5199], 's_23_8': [5558], 's_23_9': [1694], 's_23_14': [5723], 's_23_18': [5589], 20: [2009], 's_23_20': [5560], 22: [5140, 1994, 1932, 1933, 5485], 's_23_22': [5590], 's_23_25': [5545], 17: [5365, 5529, 5530, 2127, 2128, 2129], 's_26_17': [5544], 's_26_22': [5410], 's_2_6': [1736], 's_2_14': [5244], 's_2_15': [1767], 's_2_16': [2142], 's_2_17': [5141], 's_2_19': [2157], 's_2_22': [1857], 7: [1828, 5379, 5380], 's_6_7': [1843], 's_6_8': [1498], 's_6_14': [5289], 's_10_3': [1572], 's_10_8': [5648], 's_10_9': [5572], 's_15_4': [1708], 's_15_12': [1873], 's_15_17': [1814], 's_15_25': [2158], 's_16_3': [5243], 's_16_9': [5273], 's_16_17': [5591], 's_16_22': [1993], 24: [5531], 's_16_24': [5546], 's_16_25': [5456], 's_9_14': [5304], 's_9_21': [1678], 's_9_18': [1754], 's_14_12': [2097], 's_14_17': [2112], 's_14_18': [5634], 's_14_22': [2007], 's_18_17': [1799], 's_19_17': [2052], 's_19_7': [2038], 's_19_12': [2188], 's_8_3': [1602], 's_25_7': [2053], 's_3_21': [1587], 's_12_17': [2008], 's_12_22': [5305], 's_21_17': [5276], 's_21_22': [1962], 's_20_22': [5575], 's_22_7': [1963], 's_17_7': [2113], 's_17_24': [5651, 2159]}</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0.0003166666666666666</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.001593301952271167</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>{0: [1449, 1450, 4777], 3: [4717, 4597, 1434], 4: [4672], 5: [1390, 1389], 7: [1464, 1465], 9: [4821, 1374], 15: [4611, 4612], 19: [1359, 1358], 23: [1404, 4747], 27: [4567, 1329, 1328], 8: [4686, 4687], 11: [4716, 1224], 20: [4536, 1315, 1314], 26: [4701, 4702], 2: [1344, 4671], 1: [4792], 6: [1388, 4582], 12: [1284, 4836, 1285], 17: [1239, 4656], 25: [4762], 14: [4806], 21: [4581, 1269], 10: [4626], 18: [1343, 4641], 13: [4746, 1254], 22: [1299], 16: [1209, 4596], 24: [1300, 4731]}</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0.002092352092352092</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.0086892174414572</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>{0: [1449, 1450, 4777], 3: [4717, 4597, 1434], 4: [4672], 5: [1390, 1389], 7: [1464, 1465], 9: [4821, 1374], 15: [4611, 4612], 19: [1359, 1358], 23: [1404, 4747], 27: [4567, 1329, 1328], 8: [4686, 4687], 11: [4716, 1224], 20: [4536, 1315, 1314], 26: [4701, 4702], 2: [1344, 4671], 1: [4792], 6: [1388, 4582], 12: [1284, 4836, 1285], 17: [1239, 4656], 25: [4762], 14: [4806], 21: [4581, 1269], 10: [4626], 18: [1343, 4641], 13: [4746, 1254], 22: [1299], 16: [1209, 4596], 24: [1300, 4731]}</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0.002092352092352092</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.0086892174414572</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.181</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>{0: [974, 973, 5301, 5300, 5223, 5224, 972], 3: [716, 5433, 718, 5178, 717], 's_0_3': [777], 4: [1256, 1257], 's_0_4': [1242], 5: [5358, 1032, 1033, 5361, 5360, 5359], 's_0_5': [1152], 7: [1004, 5554, 5555], 's_0_7': [5690], 9: [5464, 853, 5134, 851, 852], 's_0_9': [882], 15: [1034, 734, 5523, 5524], 's_0_15': [5510], 19: [5406, 5405, 869, 867, 5404, 868], 's_0_19': [5629], 23: [5013, 1199, 1198, 1197, 1196, 5014, 5015], 's_0_23': [971], 27: [5375, 5330, 1094, 1093], 's_0_27': [5465], 8: [5450, 898, 5449, 5448, 688], 's_3_8': [5372, 658], 's_3_9': [5163, 791], 11: [5329, 764, 5373, 763], 's_3_11': [5253], 's_3_15': [703, 704], 20: [808, 5494, 5495, 1182, 1183, 5496], 's_3_20': [5418], 's_3_23': [701], 26: [5509, 836, 837, 838], 's_3_26': [5434], 2: [5106, 944, 5089, 943, 942, 5105], 's_4_2': [5121], 1: [1274, 1272, 1273], 's_5_1': [1288], 6: [5420], 's_5_6': [1108], 's_5_9': [5135], 12: [5570, 928, 929, 5569], 's_5_12': [913], 's_5_15': [733], 17: [5208, 5209], 's_5_17': [807], 's_7_15': [884], 's_7_23': [1184], 25: [1049, 5615], 's_7_25': [1154], 's_7_27': [1109], 's_9_2': [5104], 's_9_8': [5463], 's_9_12': [5419], 14: [5585, 914, 5584], 's_9_14': [5479], 's_9_23': [956, 5059], 's_15_11': [5598], 's_15_12': [5568], 's_15_19': [5553], 21: [5539, 5538, 1167, 1168, 5540], 's_15_21': [854], 's_19_1': [1333, 5391], 's_19_2': [5254], 's_19_6': [5421], 's_19_8': [823], 10: [1227, 5451, 1228], 's_19_10': [1258], 's_19_17': [5193], 18: [5256, 1047, 1123, 5255], 's_19_18': [1303], 's_19_26': [5149], 's_23_2': [866], 's_23_10': [5151], 13: [5179, 5195, 5269, 897, 5194], 's_23_13': [1001], 's_23_20': [5226], 's_27_6': [1138], 's_27_8': [5435], 's_27_10': [5331], 's_27_11': [5374], 's_27_14': [5600], 's_27_18': [5270], 22: [5389, 1018, 1017, 5119, 5120, 1016], 's_27_22': [958], 's_8_12': [1139], 's_8_13': [5268, 687], 's_8_22': [5344], 16: [822, 5314], 's_8_16': [5313], 's_8_26': [899], 's_11_20': [5403], 's_11_16': [778], 's_11_26': [779], 's_20_1': [5286], 's_20_2': [1181], 's_20_12': [1229], 's_20_14': [959], 's_20_18': [5271, 1318], 's_20_21': [5210], 's_20_22': [988], 24: [987, 5315, 1079, 1078], 's_20_24': [5390], 's_20_25': [1064], 's_20_26': [5388], 's_26_21': [793], 's_26_22': [821], 's_2_1': [1287], 's_2_12': [927], 's_2_13': [1107], 's_2_17': [912], 's_2_21': [1166], 's_2_22': [1031], 's_2_24': [5480], 's_6_21': [1153], 's_6_18': [1062, 1063], 's_12_13': [5299], 's_12_14': [989], 's_12_16': [5284], 's_12_21': [1124], 's_17_16': [792], 's_17_18': [1002], 's_17_22': [957], 's_25_24': [5660], 's_21_18': [5225], 's_10_13': [5180], 's_10_18': [5316], 's_18_13': [1122], 's_18_22': [1046], 's_13_24': [1077], 's_22_24': [5285], 's_24_16': [5239]}</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0.0003828125</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.001686468868996327</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>{0: [974, 973, 5301, 5300, 5223, 5224, 972], 3: [716, 5433, 718, 5178, 717], 's_0_3': [777], 4: [1256, 1257], 's_0_4': [1242], 5: [5358, 1032, 1033, 5361, 5360, 5359], 's_0_5': [1152], 7: [1004, 5554, 5555], 's_0_7': [5690], 9: [5464, 853, 5134, 851, 852], 's_0_9': [882], 15: [1034, 734, 5523, 5524], 's_0_15': [5510], 19: [5406, 5405, 869, 867, 5404, 868], 's_0_19': [5629], 23: [5013, 1199, 1198, 1197, 1196, 5014, 5015], 's_0_23': [971], 27: [5375, 5330, 1094, 1093], 's_0_27': [5465], 8: [5450, 898, 5449, 5448, 688], 's_3_8': [5372, 658], 's_3_9': [5163, 791], 11: [5329, 764, 5373, 763], 's_3_11': [5253], 's_3_15': [703, 704], 20: [808, 5494, 5495, 1182, 1183, 5496], 's_3_20': [5418], 's_3_23': [701], 26: [5509, 836, 837, 838], 's_3_26': [5434], 2: [5106, 944, 5089, 943, 942, 5105], 's_4_2': [5121], 1: [1274, 1272, 1273], 's_5_1': [1288], 6: [5420], 's_5_6': [1108], 's_5_9': [5135], 12: [5570, 928, 929, 5569], 's_5_12': [913], 's_5_15': [733], 17: [5208, 5209], 's_5_17': [807], 's_7_15': [884], 's_7_23': [1184], 25: [1049, 5615], 's_7_25': [1154], 's_7_27': [1109], 's_9_2': [5104], 's_9_8': [5463], 's_9_12': [5419], 14: [5585, 914, 5584], 's_9_14': [5479], 's_9_23': [956, 5059], 's_15_11': [5598], 's_15_12': [5568], 's_15_19': [5553], 21: [5539, 5538, 1167, 1168, 5540], 's_15_21': [854], 's_19_1': [1333, 5391], 's_19_2': [5254], 's_19_6': [5421], 's_19_8': [823], 10: [1227, 5451, 1228], 's_19_10': [1258], 's_19_17': [5193], 18: [5256, 1047, 1123, 5255], 's_19_18': [1303], 's_19_26': [5149], 's_23_2': [866], 's_23_10': [5151], 13: [5179, 5195, 5269, 897, 5194], 's_23_13': [1001], 's_23_20': [5226], 's_27_6': [1138], 's_27_8': [5435], 's_27_10': [5331], 's_27_11': [5374], 's_27_14': [5600], 's_27_18': [5270], 22: [5389, 1018, 1017, 5119, 5120, 1016], 's_27_22': [958], 's_8_12': [1139], 's_8_13': [5268, 687], 's_8_22': [5344], 16: [822, 5314], 's_8_16': [5313], 's_8_26': [899], 's_11_20': [5403], 's_11_16': [778], 's_11_26': [779], 's_20_1': [5286], 's_20_2': [1181], 's_20_12': [1229], 's_20_14': [959], 's_20_18': [5271, 1318], 's_20_21': [5210], 's_20_22': [988], 24: [987, 5315, 1079, 1078], 's_20_24': [5390], 's_20_25': [1064], 's_20_26': [5388], 's_26_21': [793], 's_26_22': [821], 's_2_1': [1287], 's_2_12': [927], 's_2_13': [1107], 's_2_17': [912], 's_2_21': [1166], 's_2_22': [1031], 's_2_24': [5480], 's_6_21': [1153], 's_6_18': [1062, 1063], 's_12_13': [5299], 's_12_14': [989], 's_12_16': [5284], 's_12_21': [1124], 's_17_16': [792], 's_17_18': [1002], 's_17_22': [957], 's_25_24': [5660], 's_21_18': [5225], 's_10_13': [5180], 's_10_18': [5316], 's_18_13': [1122], 's_18_22': [1046], 's_13_24': [1077], 's_22_24': [5285], 's_24_16': [5239]}</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0.0003828125</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.001686468868996327</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>{0: [142, 4320], 4: [111, 4245], 5: [126, 127, 4335], 12: [217], 14: [262], 17: [4321, 4336], 18: [172], 22: [187, 4260], 23: [4365, 157], 26: [232, 233], 27: [4290, 247], 1: [246, 4246], 8: [4170, 4171], 20: [291, 4230, 4231], 24: [4155], 2: [4201, 4200], 16: [202], 11: [96, 4185], 25: [4216], 6: [292, 4381], 10: [203, 4440], 15: [382, 4305, 4306], 7: [337], 9: [397], 21: [4275], 13: [261, 4110], 3: [156], 19: [306, 307], 28: [322, 4351]}</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0.00225705329153605</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.008528489566461166</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>{0: [142, 4320], 4: [111, 4245], 5: [126, 127, 4335], 12: [217], 14: [262], 17: [4321, 4336], 18: [172], 22: [187, 4260], 23: [4365, 157], 26: [232, 233], 27: [4290, 247], 1: [246, 4246], 8: [4170, 4171], 20: [291, 4230, 4231], 24: [4155], 2: [4201, 4200], 16: [202], 11: [96, 4185], 25: [4216], 6: [292, 4381], 10: [203, 4440], 15: [382, 4305, 4306], 7: [337], 9: [397], 21: [4275], 13: [261, 4110], 3: [156], 19: [306, 307], 28: [322, 4351]}</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>0.00225705329153605</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.008528489566461166</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.462</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>{0: [3984, 1732, 1731, 3953, 1730], 4: [1702, 4133, 4224, 1701], 's_0_4': [4419], 5: [1955, 4179, 4180, 1956], 's_0_5': [3985], 12: [1791, 1535, 4209, 4208, 1536], 's_0_12': [4149], 14: [3895, 1850, 3909], 's_0_14': [1835], 17: [1865, 4075], 's_0_17': [3954], 18: [4375, 1716, 4373, 4374, 1717], 's_0_18': [4463], 22: [1552, 4283, 4282, 1551], 's_0_22': [3952, 1550], 23: [4194, 4193, 4418, 1643, 1642], 's_0_23': [4448], 26: [1597, 1595, 1596], 's_0_26': [1610], 27: [1790, 1670, 3894], 's_0_27': [1745], 1: [1747, 4103, 1746], 's_4_1': [1641], 8: [4254, 1657], 's_4_8': [4298], 's_4_18': [4358], 20: [1685, 4118, 1686], 's_4_20': [1656], 's_4_22': [4132], 24: [4225], 's_4_24': [4134, 1866], 2: [4284, 1852], 's_5_2': [1837], 16: [4178, 1567, 1565, 1566], 's_5_16': [3878, 3879, 3880], 's_5_17': [4045], 's_5_18': [1957], 's_5_23': [4195], 's_5_24': [1971], 's_12_1': [4102], 's_12_8': [1672], 11: [4314, 1627, 4313], 's_12_11': [1807], 's_12_20': [4117], 's_12_22': [4238], 25: [4165, 4088, 4164, 1851, 1761], 's_12_25': [4087], 's_12_26': [3968], 's_12_27': [3983], 6: [4044, 4015, 1775, 4014], 's_14_6': [3969], 10: [3893, 1640, 3924, 3923], 's_14_10': [1879], 15: [4150, 1940, 1942, 1941], 's_14_15': [3939], 's_14_27': [1820], 7: [1821, 4104], 's_17_7': [1836], 9: [4061, 4060], 's_17_9': [4076], 's_18_15': [4360], 's_18_20': [1687], 21: [1823, 4388, 4389], 's_18_21': [1537], 's_18_23': [1673, 4508], 's_22_8': [4253], 13: [4329, 1763, 1762], 's_22_13': [4328], 's_22_16': [4297], 's_22_20': [4163], 3: [1612, 4493, 4523, 1613], 's_23_3': [1568], 's_23_21': [1522], 's_23_26': [4343], 's_26_10': [3908], 's_26_11': [4223], 's_26_20': [4148], 's_26_21': [4403], 's_27_10': [1684], 's_1_7': [4074], 's_1_11': [1626], 's_1_21': [4404], 's_1_25': [1715], 's_8_13': [4434, 1658], 19: [1822, 1910, 1911, 4269], 's_8_19': [4239], 's_20_25': [4059], 's_20_6': [4029], 's_20_16': [1611], 's_2_11': [1927], 's_2_25': [1881], 's_2_13': [4344], 's_2_15': [4210], 's_2_19': [4255], 's_16_11': [4312], 's_16_21': [1582], 's_16_10': [3922], 's_11_3': [1628], 's_25_15': [2001], 's_25_19': [4030], 's_6_7': [1880], 's_6_15': [1925], 's_6_19': [4000], 's_6_10': [1760], 's_15_7': [1926], 's_15_9': [2031], 28: [1777, 1776], 's_7_28': [4089], 's_21_13': [4524], 's_21_28': [4359], 's_13_3': [4569, 1688], 's_13_19': [1792], 's_28_19': [4299]}</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0.0002389380530973451</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.001487963033333173</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>{0: [3984, 1732, 1731, 3953, 1730], 4: [1702, 4133, 4224, 1701], 's_0_4': [4419], 5: [1955, 4179, 4180, 1956], 's_0_5': [3985], 12: [1791, 1535, 4209, 4208, 1536], 's_0_12': [4149], 14: [3895, 1850, 3909], 's_0_14': [1835], 17: [1865, 4075], 's_0_17': [3954], 18: [4375, 1716, 4373, 4374, 1717], 's_0_18': [4463], 22: [1552, 4283, 4282, 1551], 's_0_22': [3952, 1550], 23: [4194, 4193, 4418, 1643, 1642], 's_0_23': [4448], 26: [1597, 1595, 1596], 's_0_26': [1610], 27: [1790, 1670, 3894], 's_0_27': [1745], 1: [1747, 4103, 1746], 's_4_1': [1641], 8: [4254, 1657], 's_4_8': [4298], 's_4_18': [4358], 20: [1685, 4118, 1686], 's_4_20': [1656], 's_4_22': [4132], 24: [4225], 's_4_24': [4134, 1866], 2: [4284, 1852], 's_5_2': [1837], 16: [4178, 1567, 1565, 1566], 's_5_16': [3878, 3879, 3880], 's_5_17': [4045], 's_5_18': [1957], 's_5_23': [4195], 's_5_24': [1971], 's_12_1': [4102], 's_12_8': [1672], 11: [4314, 1627, 4313], 's_12_11': [1807], 's_12_20': [4117], 's_12_22': [4238], 25: [4165, 4088, 4164, 1851, 1761], 's_12_25': [4087], 's_12_26': [3968], 's_12_27': [3983], 6: [4044, 4015, 1775, 4014], 's_14_6': [3969], 10: [3893, 1640, 3924, 3923], 's_14_10': [1879], 15: [4150, 1940, 1942, 1941], 's_14_15': [3939], 's_14_27': [1820], 7: [1821, 4104], 's_17_7': [1836], 9: [4061, 4060], 's_17_9': [4076], 's_18_15': [4360], 's_18_20': [1687], 21: [1823, 4388, 4389], 's_18_21': [1537], 's_18_23': [1673, 4508], 's_22_8': [4253], 13: [4329, 1763, 1762], 's_22_13': [4328], 's_22_16': [4297], 's_22_20': [4163], 3: [1612, 4493, 4523, 1613], 's_23_3': [1568], 's_23_21': [1522], 's_23_26': [4343], 's_26_10': [3908], 's_26_11': [4223], 's_26_20': [4148], 's_26_21': [4403], 's_27_10': [1684], 's_1_7': [4074], 's_1_11': [1626], 's_1_21': [4404], 's_1_25': [1715], 's_8_13': [4434, 1658], 19: [1822, 1910, 1911, 4269], 's_8_19': [4239], 's_20_25': [4059], 's_20_6': [4029], 's_20_16': [1611], 's_2_11': [1927], 's_2_25': [1881], 's_2_13': [4344], 's_2_15': [4210], 's_2_19': [4255], 's_16_11': [4312], 's_16_21': [1582], 's_16_10': [3922], 's_11_3': [1628], 's_25_15': [2001], 's_25_19': [4030], 's_6_7': [1880], 's_6_15': [1925], 's_6_19': [4000], 's_6_10': [1760], 's_15_7': [1926], 's_15_9': [2031], 28: [1777, 1776], 's_7_28': [4089], 's_21_13': [4524], 's_21_28': [4359], 's_13_3': [4569, 1688], 's_13_19': [1792], 's_28_19': [4299]}</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>0.0002389380530973451</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.001487963033333173</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>{0: [817, 4354], 6: [4338, 4339], 8: [773, 832, 4443], 10: [743, 4369, 4368], 14: [4264, 862, 4263], 16: [4293, 742], 17: [4429, 787], 21: [967, 4444], 29: [938], 9: [878, 877], 15: [937, 952], 19: [772, 4249], 7: [863], 13: [757, 758, 4414], 22: [727, 728], 24: [848, 847], 26: [4323, 4324], 1: [4398, 4248, 697], 4: [892, 893], 23: [4474, 4473], 25: [922, 923], 28: [4353, 712], 3: [4234, 801, 802], 5: [1027, 1028, 4489], 18: [908, 4399], 20: [4279, 4278], 27: [4383, 4384], 12: [982, 4308, 4309], 11: [4519, 953], 2: [4458, 4459]}</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0.003322949117341641</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.01049319759336046</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>{0: [817, 4354], 6: [4338, 4339], 8: [773, 832, 4443], 10: [743, 4369, 4368], 14: [4264, 862, 4263], 16: [4293, 742], 17: [4429, 787], 21: [967, 4444], 29: [938], 9: [878, 877], 15: [937, 952], 19: [772, 4249], 7: [863], 13: [757, 758, 4414], 22: [727, 728], 24: [848, 847], 26: [4323, 4324], 1: [4398, 4248, 697], 4: [892, 893], 23: [4474, 4473], 25: [922, 923], 28: [4353, 712], 3: [4234, 801, 802], 5: [1027, 1028, 4489], 18: [908, 4399], 20: [4279, 4278], 27: [4383, 4384], 12: [982, 4308, 4309], 11: [4519, 953], 2: [4458, 4459]}</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0.003322949117341641</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.01049319759336046</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>{0: [4637, 369, 4636], 6: [489, 4757, 669, 4758], 's_0_6': [4622], 8: [174, 4605, 4608, 4607, 4606], 's_0_8': [594], 10: [247, 248, 4577, 4576], 's_0_10': [234, 4635], 14: [502, 698, 4548, 4547, 503, 504], 's_0_14': [608, 4517], 16: [415, 414, 4545, 4546], 's_0_16': [384], 17: [4696, 172, 173, 4470, 279, 278], 's_0_17': [399], 21: [4411, 354, 353], 's_0_21': [4666], 29: [548, 653, 4473, 4472], 's_0_29': [623], 's_6_8': [684], 9: [218, 217, 519, 4246, 4247, 518, 517], 's_6_9': [4742], 's_6_14': [668], 15: [4698, 758, 759], 's_6_15': [654], 's_6_16': [400], 19: [4682, 4681, 309, 83, 4591, 4590], 's_6_19': [534], 7: [428, 427], 's_8_7': [4592], 13: [292, 144, 4425, 143, 4428, 4427, 4426], 's_8_13': [128, 129], 's_8_19': [54], 22: [729, 727, 728], 's_8_22': [4593], 24: [457, 159, 4456, 158, 4455], 's_8_24': [4680], 26: [4755, 235, 4756], 's_8_26': [4725], 1: [4381, 308, 307], 's_10_1': [4305], 4: [4561, 713, 4563, 4562], 's_10_4': [549], 's_10_17': [293], 23: [323, 4233, 4232, 4231, 4336, 322], 's_10_23': [246], 's_10_24': [4575], 25: [338, 4711, 339], 's_10_25': [443, 444], 28: [533, 579, 4532], 's_10_28': [4578], 3: [4485, 4486, 264, 263, 4440, 262], 's_14_3': [473], 's_14_4': [4533], 5: [697, 743, 4398], 's_14_5': [4458], 's_14_15': [803, 4579], 's_14_16': [4621], 18: [487, 233, 232, 4261, 4260], 's_14_18': [4276], 20: [4653, 4650, 4651, 4652], 's_14_20': [699], 27: [4323, 277, 4321, 4322], 's_14_27': [4443, 802], 's_16_1': [4531], 's_16_24': [4695, 189], 's_17_3': [4335], 's_17_4': [4560], 's_17_9': [4245], 12: [458, 4501, 4503, 593, 4502], 's_17_12': [4500], 's_17_25': [324], 's_17_26': [4771], 's_17_27': [4320], 's_21_9': [4727, 4726], 11: [4441, 413, 4367, 4368, 4366], 's_21_11': [352], 's_21_12': [383], 's_21_25': [4471], 's_21_26': [4741], 's_29_5': [4488], 's_29_11': [578], 's_29_15': [4623, 818], 's_9_18': [412], 's_9_19': [4697], 2: [4352, 442, 4350, 4351], 's_9_2': [4382], 's_9_3': [261], 's_9_4': [219], 's_9_27': [547], 's_15_12': [773], 's_15_11': [4353], 's_15_20': [774], 's_19_1': [4380, 82], 's_19_13': [38, 39], 's_19_20': [4683, 804], 's_19_24': [4620], 's_19_25': [429], 's_19_26': [84], 's_7_2': [4306], 's_7_11': [4397], 's_7_23': [426], 's_7_24': [4291], 's_13_18': [291], 's_13_2': [622], 's_13_3': [188], 's_13_4': [4413], 's_13_23': [4290], 's_13_24': [4530], 's_13_26': [4740], 's_13_27': [637], 's_13_28': [488], 's_22_12': [4518], 's_22_20': [4668], 's_22_23': [4248], 's_22_27': [4338], 's_24_12': [398], 's_24_18': [4515], 's_24_20': [4665], 's_24_26': [4710, 114], 's_24_23': [456], 's_24_27': [472], 's_26_3': [4800], 's_26_25': [370], 's_1_12': [368], 's_1_18': [4216, 306], 's_4_23': [682, 683], 's_23_5': [667, 4383], 's_25_12': [4712, 459], 's_25_11': [337], 's_28_12': [4457], 's_28_20': [4667], 's_3_2': [4365], 's_3_20': [249], 's_5_11': [652], 's_18_2': [441], 's_18_27': [4396], 's_12_2': [563], 's_11_2': [4412]}</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0.000583941605839416</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.002135582312164641</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>{0: [4637, 369, 4636], 6: [489, 4757, 669, 4758], 's_0_6': [4622], 8: [174, 4605, 4608, 4607, 4606], 's_0_8': [594], 10: [247, 248, 4577, 4576], 's_0_10': [234, 4635], 14: [502, 698, 4548, 4547, 503, 504], 's_0_14': [608, 4517], 16: [415, 414, 4545, 4546], 's_0_16': [384], 17: [4696, 172, 173, 4470, 279, 278], 's_0_17': [399], 21: [4411, 354, 353], 's_0_21': [4666], 29: [548, 653, 4473, 4472], 's_0_29': [623], 's_6_8': [684], 9: [218, 217, 519, 4246, 4247, 518, 517], 's_6_9': [4742], 's_6_14': [668], 15: [4698, 758, 759], 's_6_15': [654], 's_6_16': [400], 19: [4682, 4681, 309, 83, 4591, 4590], 's_6_19': [534], 7: [428, 427], 's_8_7': [4592], 13: [292, 144, 4425, 143, 4428, 4427, 4426], 's_8_13': [128, 129], 's_8_19': [54], 22: [729, 727, 728], 's_8_22': [4593], 24: [457, 159, 4456, 158, 4455], 's_8_24': [4680], 26: [4755, 235, 4756], 's_8_26': [4725], 1: [4381, 308, 307], 's_10_1': [4305], 4: [4561, 713, 4563, 4562], 's_10_4': [549], 's_10_17': [293], 23: [323, 4233, 4232, 4231, 4336, 322], 's_10_23': [246], 's_10_24': [4575], 25: [338, 4711, 339], 's_10_25': [443, 444], 28: [533, 579, 4532], 's_10_28': [4578], 3: [4485, 4486, 264, 263, 4440, 262], 's_14_3': [473], 's_14_4': [4533], 5: [697, 743, 4398], 's_14_5': [4458], 's_14_15': [803, 4579], 's_14_16': [4621], 18: [487, 233, 232, 4261, 4260], 's_14_18': [4276], 20: [4653, 4650, 4651, 4652], 's_14_20': [699], 27: [4323, 277, 4321, 4322], 's_14_27': [4443, 802], 's_16_1': [4531], 's_16_24': [4695, 189], 's_17_3': [4335], 's_17_4': [4560], 's_17_9': [4245], 12: [458, 4501, 4503, 593, 4502], 's_17_12': [4500], 's_17_25': [324], 's_17_26': [4771], 's_17_27': [4320], 's_21_9': [4727, 4726], 11: [4441, 413, 4367, 4368, 4366], 's_21_11': [352], 's_21_12': [383], 's_21_25': [4471], 's_21_26': [4741], 's_29_5': [4488], 's_29_11': [578], 's_29_15': [4623, 818], 's_9_18': [412], 's_9_19': [4697], 2: [4352, 442, 4350, 4351], 's_9_2': [4382], 's_9_3': [261], 's_9_4': [219], 's_9_27': [547], 's_15_12': [773], 's_15_11': [4353], 's_15_20': [774], 's_19_1': [4380, 82], 's_19_13': [38, 39], 's_19_20': [4683, 804], 's_19_24': [4620], 's_19_25': [429], 's_19_26': [84], 's_7_2': [4306], 's_7_11': [4397], 's_7_23': [426], 's_7_24': [4291], 's_13_18': [291], 's_13_2': [622], 's_13_3': [188], 's_13_4': [4413], 's_13_23': [4290], 's_13_24': [4530], 's_13_26': [4740], 's_13_27': [637], 's_13_28': [488], 's_22_12': [4518], 's_22_20': [4668], 's_22_23': [4248], 's_22_27': [4338], 's_24_12': [398], 's_24_18': [4515], 's_24_20': [4665], 's_24_26': [4710, 114], 's_24_23': [456], 's_24_27': [472], 's_26_3': [4800], 's_26_25': [370], 's_1_12': [368], 's_1_18': [4216, 306], 's_4_23': [682, 683], 's_23_5': [667, 4383], 's_25_12': [4712, 459], 's_25_11': [337], 's_28_12': [4457], 's_28_20': [4667], 's_3_2': [4365], 's_3_20': [249], 's_5_11': [652], 's_18_2': [441], 's_18_27': [4396], 's_12_2': [563], 's_11_2': [4412]}</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0.000583941605839416</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.002135582312164641</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>{0: [1576, 3201, 1471, 3202], 2: [3472, 3473, 1577], 3: [1307, 3261, 1306], 10: [1261, 1336, 3216], 13: [3248, 1396, 3247], 14: [1486, 3111, 3112], 17: [1531, 3367, 3263], 19: [3232, 3231], 20: [1276, 3186, 1382, 1381], 23: [1487, 3322, 3323], 16: [1607, 3502, 3503], 27: [1397, 3396], 29: [1426, 1427], 1: [1352, 3426, 3427], 6: [1291, 3246], 8: [3381, 3382, 1546], 15: [1321, 3366], 21: [3262, 1351], 30: [3337, 3338], 5: [1337], 12: [3352, 1442], 28: [1367, 1366], 4: [1517, 1516], 7: [3353, 1501], 11: [3307], 26: [3217, 1411], 9: [3442, 1457, 1456], 18: [3411, 3412, 1562], 22: [3277], 25: [1443, 3487], 24: [1412, 3397]}</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0.002932551319648094</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.009273541525420467</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>{0: [1576, 3201, 1471, 3202], 2: [3472, 3473, 1577], 3: [1307, 3261, 1306], 10: [1261, 1336, 3216], 13: [3248, 1396, 3247], 14: [1486, 3111, 3112], 17: [1531, 3367, 3263], 19: [3232, 3231], 20: [1276, 3186, 1382, 1381], 23: [1487, 3322, 3323], 16: [1607, 3502, 3503], 27: [1397, 3396], 29: [1426, 1427], 1: [1352, 3426, 3427], 6: [1291, 3246], 8: [3381, 3382, 1546], 15: [1321, 3366], 21: [3262, 1351], 30: [3337, 3338], 5: [1337], 12: [3352, 1442], 28: [1367, 1366], 4: [1517, 1516], 7: [3353, 1501], 11: [3307], 26: [3217, 1411], 9: [3442, 1457, 1456], 18: [3411, 3412, 1562], 22: [3277], 25: [1443, 3487], 24: [1412, 3397]}</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0.002932551319648094</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.009273541525420467</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.157</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>{0: [1793, 4449, 2091, 2092, 4450], 2: [1762, 1823, 4359], 's_0_2': [4494], 3: [4554, 4556, 4360, 2033, 2034, 4555], 's_0_3': [4539], 10: [2151, 4226, 2272, 2273, 4227, 2271], 's_0_10': [4451], 13: [4074, 4300, 1972, 4076, 4075, 4077, 1971], 's_0_13': [2077], 14: [1987, 1989, 4420, 1988], 's_0_14': [1912], 17: [4135, 4015, 2016], 's_0_17': [4061, 2090], 19: [1926, 2046, 4166, 4165], 's_0_19': [2047], 20: [1776, 2169, 1777, 4375, 4374, 4376, 2168], 's_0_20': [1792], 23: [1673, 1672, 4209, 4031, 2031, 4210, 4211, 2032], 's_0_23': [4448], 16: [4464, 4465, 2257, 4466], 's_2_16': [1867], 27: [4405, 1808, 4404], 's_2_27': [1732], 29: [1895, 1822, 1821, 4104], 's_2_29': [4254], 1: [4269, 4435, 1928, 1927], 's_3_1': [4540], 6: [2109, 4645, 4646], 's_3_6': [2214], 8: [4344, 2061, 2062, 4345], 's_3_8': [1898, 1897], 's_3_14': [4675], 15: [2108, 4270, 2076, 4571, 2107], 's_3_15': [2019], 's_3_20': [1778], 21: [1957, 4255, 4150, 1911], 's_3_21': [1958], 's_3_23': [1718, 4478], 30: [4181, 2240, 2243, 2241, 2242], 's_3_30': [4361], 5: [4301], 's_10_5': [2182], 's_10_6': [4631], 's_10_8': [2017], 12: [1851, 1852, 1853, 4481, 4480, 4479], 's_10_12': [2258], 's_10_13': [2270], 's_10_15': [4271], 's_10_19': [4167], 28: [4194, 4196, 4195], 's_10_28': [4121, 2136], 4: [1837, 1836, 4091, 4090, 4089], 's_13_4': [2301], 7: [2123, 2122, 2120, 2121], 's_13_7': [4315], 's_13_8': [4180], 11: [4103, 1731, 1730], 's_13_11': [1715], 's_13_14': [1973], 's_13_19': [2211], 's_13_20': [4059], 26: [3939, 2060, 2015, 3940], 's_13_26': [2075], 's_14_6': [4630], 9: [4179, 4225, 1880, 1881], 's_14_9': [2002], 's_14_23': [4419], 's_17_7': [4046], 's_17_15': [2106], 's_17_19': [1956], 's_17_21': [1986], 's_17_23': [2045], 's_17_26': [1925], 's_17_29': [4014], 's_19_8': [4120], 's_19_15': [4241], 's_19_21': [2001], 's_19_28': [2226], 's_19_29': [4164, 1806], 's_20_6': [4601], 's_20_15': [4421], 18: [4212, 4524, 4525, 4526, 2197, 2198], 's_20_18': [4436, 2018], 22: [4149, 1747, 1746], 's_20_22': [1791], 25: [2153, 2152], 's_20_25': [4586], 's_20_27': [4389], 's_20_30': [4541], 's_23_4': [2166], 's_23_8': [4343], 's_23_9': [1761], 's_23_18': [4523], 's_23_22': [4313], 24: [1943, 1940, 1941, 1942], 's_23_24': [4000], 's_23_26': [2030], 's_23_28': [4193], 's_16_18': [2183], 's_16_5': [2227], 's_16_25': [4316], 's_16_30': [4392], 's_27_1': [4434], 's_27_18': [4509], 's_27_12': [2003], 's_27_24': [4390], 's_29_1': [4299], 's_29_9': [4030], 's_29_11': [4029], 's_29_12': [4060], 's_29_22': [4224], 's_29_26': [1820], 's_1_4': [4314], 's_1_18': [1838], 's_1_21': [4284], 's_6_15': [2048], 's_8_4': [4329], 's_8_15': [4346], 's_8_28': [1807], 's_15_21': [4256], 's_15_12': [2138], 's_21_9': [4134], 's_21_22': [4240, 4239], 's_21_28': [1866], 's_30_4': [2181, 4136], 's_30_18': [4257], 's_30_7': [4151], 's_30_12': [2228], 's_5_18': [2212], 's_5_25': [2137], 's_12_7': [4495], 's_12_25': [4496], 's_12_9': [3999], 's_28_18': [4331, 2167], 's_28_11': [1716], 's_4_7': [3896, 2255, 3956, 2150], 's_4_22': [4088], 's_4_24': [4119], 's_4_26': [1910], 's_7_18': [4511], 's_7_26': [3986, 3985], 's_11_9': [3984], 's_26_24': [3970], 's_26_9': [3954], 's_18_24': [4510]}</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0.0003655172413793104</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.001545058480281922</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>{0: [1793, 4449, 2091, 2092, 4450], 2: [1762, 1823, 4359], 's_0_2': [4494], 3: [4554, 4556, 4360, 2033, 2034, 4555], 's_0_3': [4539], 10: [2151, 4226, 2272, 2273, 4227, 2271], 's_0_10': [4451], 13: [4074, 4300, 1972, 4076, 4075, 4077, 1971], 's_0_13': [2077], 14: [1987, 1989, 4420, 1988], 's_0_14': [1912], 17: [4135, 4015, 2016], 's_0_17': [4061, 2090], 19: [1926, 2046, 4166, 4165], 's_0_19': [2047], 20: [1776, 2169, 1777, 4375, 4374, 4376, 2168], 's_0_20': [1792], 23: [1673, 1672, 4209, 4031, 2031, 4210, 4211, 2032], 's_0_23': [4448], 16: [4464, 4465, 2257, 4466], 's_2_16': [1867], 27: [4405, 1808, 4404], 's_2_27': [1732], 29: [1895, 1822, 1821, 4104], 's_2_29': [4254], 1: [4269, 4435, 1928, 1927], 's_3_1': [4540], 6: [2109, 4645, 4646], 's_3_6': [2214], 8: [4344, 2061, 2062, 4345], 's_3_8': [1898, 1897], 's_3_14': [4675], 15: [2108, 4270, 2076, 4571, 2107], 's_3_15': [2019], 's_3_20': [1778], 21: [1957, 4255, 4150, 1911], 's_3_21': [1958], 's_3_23': [1718, 4478], 30: [4181, 2240, 2243, 2241, 2242], 's_3_30': [4361], 5: [4301], 's_10_5': [2182], 's_10_6': [4631], 's_10_8': [2017], 12: [1851, 1852, 1853, 4481, 4480, 4479], 's_10_12': [2258], 's_10_13': [2270], 's_10_15': [4271], 's_10_19': [4167], 28: [4194, 4196, 4195], 's_10_28': [4121, 2136], 4: [1837, 1836, 4091, 4090, 4089], 's_13_4': [2301], 7: [2123, 2122, 2120, 2121], 's_13_7': [4315], 's_13_8': [4180], 11: [4103, 1731, 1730], 's_13_11': [1715], 's_13_14': [1973], 's_13_19': [2211], 's_13_20': [4059], 26: [3939, 2060, 2015, 3940], 's_13_26': [2075], 's_14_6': [4630], 9: [4179, 4225, 1880, 1881], 's_14_9': [2002], 's_14_23': [4419], 's_17_7': [4046], 's_17_15': [2106], 's_17_19': [1956], 's_17_21': [1986], 's_17_23': [2045], 's_17_26': [1925], 's_17_29': [4014], 's_19_8': [4120], 's_19_15': [4241], 's_19_21': [2001], 's_19_28': [2226], 's_19_29': [4164, 1806], 's_20_6': [4601], 's_20_15': [4421], 18: [4212, 4524, 4525, 4526, 2197, 2198], 's_20_18': [4436, 2018], 22: [4149, 1747, 1746], 's_20_22': [1791], 25: [2153, 2152], 's_20_25': [4586], 's_20_27': [4389], 's_20_30': [4541], 's_23_4': [2166], 's_23_8': [4343], 's_23_9': [1761], 's_23_18': [4523], 's_23_22': [4313], 24: [1943, 1940, 1941, 1942], 's_23_24': [4000], 's_23_26': [2030], 's_23_28': [4193], 's_16_18': [2183], 's_16_5': [2227], 's_16_25': [4316], 's_16_30': [4392], 's_27_1': [4434], 's_27_18': [4509], 's_27_12': [2003], 's_27_24': [4390], 's_29_1': [4299], 's_29_9': [4030], 's_29_11': [4029], 's_29_12': [4060], 's_29_22': [4224], 's_29_26': [1820], 's_1_4': [4314], 's_1_18': [1838], 's_1_21': [4284], 's_6_15': [2048], 's_8_4': [4329], 's_8_15': [4346], 's_8_28': [1807], 's_15_21': [4256], 's_15_12': [2138], 's_21_9': [4134], 's_21_22': [4240, 4239], 's_21_28': [1866], 's_30_4': [2181, 4136], 's_30_18': [4257], 's_30_7': [4151], 's_30_12': [2228], 's_5_18': [2212], 's_5_25': [2137], 's_12_7': [4495], 's_12_25': [4496], 's_12_9': [3999], 's_28_18': [4331, 2167], 's_28_11': [1716], 's_4_7': [3896, 2255, 3956, 2150], 's_4_22': [4088], 's_4_24': [4119], 's_4_26': [1910], 's_7_18': [4511], 's_7_26': [3986, 3985], 's_11_9': [3984], 's_26_24': [3970], 's_26_9': [3954], 's_18_24': [4510]}</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0.0003655172413793104</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.001545058480281922</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>{0: [2204, 2203, 5396], 1: [5380, 5381], 2: [2189, 2188], 3: [5502, 2053, 5501], 4: [5592, 5591], 7: [5441, 5442, 2354], 11: [5576, 2219], 12: [2294, 2293], 15: [5411, 2159, 2158], 16: [2264, 5426, 2263, 5427], 19: [5545, 5546], 23: [2113, 5456, 5455], 24: [2249, 2248], 26: [5471, 5472], 8: [2308, 5667, 2309], 28: [2099, 2098], 31: [5487, 5486], 5: [2069, 2068], 17: [2024, 5561, 5560], 22: [2174], 27: [2144, 2143, 5651], 9: [2084], 13: [2128, 2129, 5666], 14: [2338, 2339], 20: [5652, 2323, 2324], 6: [5517, 2083, 5516], 10: [5412, 5457, 2278], 21: [5607, 5606], 18: [2009, 5531, 5530], 29: [5575, 1964], 25: [2114, 5622, 5621], 30: [2233, 2234]}</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>0.00631768953068592</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.01349789137447173</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>{0: [2204, 2203, 5396], 1: [5380, 5381], 2: [2189, 2188], 3: [5502, 2053, 5501], 4: [5592, 5591], 7: [5441, 5442, 2354], 11: [5576, 2219], 12: [2294, 2293], 15: [5411, 2159, 2158], 16: [2264, 5426, 2263, 5427], 19: [5545, 5546], 23: [2113, 5456, 5455], 24: [2249, 2248], 26: [5471, 5472], 8: [2308, 5667, 2309], 28: [2099, 2098], 31: [5487, 5486], 5: [2069, 2068], 17: [2024, 5561, 5560], 22: [2174], 27: [2144, 2143, 5651], 9: [2084], 13: [2128, 2129, 5666], 14: [2338, 2339], 20: [5652, 2323, 2324], 6: [5517, 2083, 5516], 10: [5412, 5457, 2278], 21: [5607, 5606], 18: [2009, 5531, 5530], 29: [5575, 1964], 25: [2114, 5622, 5621], 30: [2233, 2234]}</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0.00631768953068592</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.01349789137447173</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.407</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>{0: [369, 4531, 5010, 323, 5086, 326, 325, 324], 1: [249, 4995, 250], 's_0_1': [4980], 2: [4530, 264, 262, 263], 's_0_2': [4650], 3: [758, 5011, 491, 759, 760, 761, 5058, 5057], 's_0_3': [431], 4: [4576, 4577, 400, 399], 's_0_4': [4876], 7: [356, 4682, 4996, 4681, 445, 444], 's_0_7': [446], 11: [472, 473, 218, 4470, 4472, 4471], 's_0_11': [4455], 12: [4966, 4891, 386], 's_0_12': [206, 4965], 15: [4710, 459, 385, 4711, 4713, 4712], 's_0_15': [4771], 16: [4532, 4381, 566, 565, 564, 4382, 563], 's_0_16': [322], 19: [4425, 4728, 714, 713, 4428, 4427, 4426], 's_0_19': [4411], 23: [4861, 416, 413, 414, 415], 's_0_23': [5041], 24: [4638, 4636, 638, 4637], 's_0_24': [4635], 26: [4501, 4502, 4503, 773, 774, 775], 's_0_26': [368], 's_1_2': [4680], 8: [4936, 4952, 4951, 221], 's_1_8': [265], 's_1_12': [311], 28: [4833, 4830, 4832, 4831], 's_1_28': [280], 's_2_4': [4561], 's_2_16': [4396], 's_2_19': [247], 31: [4365, 4366, 4368, 4367], 's_2_31': [4350], 5: [4863, 790], 's_3_5': [4998], 's_3_7': [5056], 's_3_12': [5026], 's_3_16': [4533], 17: [502, 506, 505, 503, 4620, 4621, 504], 's_3_17': [5117], 's_3_19': [4473], 22: [4321, 4399, 4398, 442, 4397, 487], 's_3_22': [4384], 's_3_23': [4967], 's_3_24': [4623], 's_3_26': [4744], 27: [596, 4547, 593, 594, 595], 's_3_27': [5012], 's_4_7': [4666], 9: [4696, 550, 4697, 549], 's_4_9': [4742], 13: [517, 518, 4905, 4906, 4862, 4907, 520, 519], 's_4_13': [533], 14: [4789, 4787, 654, 4788], 's_4_14': [4772], 's_4_16': [4757], 20: [4607, 730, 4608, 728, 729], 's_4_20': [4578], 6: [4546, 352, 354, 353], 's_7_6': [443], 's_7_8': [371], 10: [804, 4800, 4803, 4802, 4801], 's_7_10': [279], 's_7_12': [341], 's_7_14': [4683], 's_7_16': [4997], 21: [4982, 623, 624, 625], 's_7_21': [609], 's_7_27': [579], 's_7_28': [460], 's_11_6': [308], 's_11_17': [4441], 18: [4665, 293, 4815, 295, 294], 's_11_18': [4485], 's_11_21': [608], 's_11_22': [4352], 's_11_26': [4500], 's_11_27': [4517], 29: [188, 190, 189], 's_11_29': [4440], 's_11_31': [233], 's_12_8': [340], 's_12_18': [310], 25: [430, 4846, 4847, 669, 670], 's_12_25': [475, 4981], 's_15_6': [4651], 's_15_10': [789], 's_15_13': [580], 's_15_17': [159], 's_15_19': [699], 's_15_25': [429], 's_15_28': [745], 30: [236, 458, 235, 4592, 4591, 234], 's_15_30': [4741], 's_16_8': [4937], 's_16_10': [4817], 's_16_17': [5042], 's_16_20': [4383], 's_16_26': [398], 's_16_30': [457], 's_19_10': [4698], 's_19_25': [668], 's_19_27': [4413], 's_19_29': [4410], 's_23_13': [4412], 's_23_18': [4726], 's_23_22': [4456], 's_23_25': [535, 4922], 's_23_28': [370], 's_24_6': [428], 's_24_17': [339], 's_24_20': [534], 's_24_21': [4487], 's_24_26': [803], 's_24_30': [4593], 's_26_5': [776, 4969], 's_26_6': [338], 's_26_14': [4774], 's_26_17': [278], 's_26_20': [4668], 's_26_22': [4458, 743], 's_26_27': [488], 's_26_28': [4848], 's_8_13': [521], 's_8_30': [5040], 's_28_9': [489, 490], 's_28_13': [355], 's_28_18': [220], 's_28_21': [640], 's_28_29': [205], 's_31_6': [337], 's_31_13': [532], 's_31_20': [4353], 's_31_22': [697], 's_31_27': [4442, 607], 's_5_13': [4908], 's_17_9': [4562], 's_17_13': [4727], 's_17_18': [174], 's_17_22': [4276], 's_17_25': [4622], 's_17_27': [4892], 's_17_29': [204], 's_17_30': [309], 's_22_6': [4336], 's_27_13': [4457], 's_27_20': [4548], 's_27_25': [4758], 's_9_6': [384], 's_9_13': [4667], 's_9_21': [4652], 's_9_25': [4877, 4878], 's_13_18': [160], 's_14_10': [850], 's_14_21': [655], 's_14_25': [4743], 's_20_10': [4653], 's_20_21': [4968, 731], 's_20_25': [684], 's_6_30': [4545], 's_10_18': [4816], 's_21_25': [4938], 's_18_30': [4606], 's_18_29': [4845]}</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0.0005739644970414202</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.001848494571332518</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>{0: [369, 4531, 5010, 323, 5086, 326, 325, 324], 1: [249, 4995, 250], 's_0_1': [4980], 2: [4530, 264, 262, 263], 's_0_2': [4650], 3: [758, 5011, 491, 759, 760, 761, 5058, 5057], 's_0_3': [431], 4: [4576, 4577, 400, 399], 's_0_4': [4876], 7: [356, 4682, 4996, 4681, 445, 444], 's_0_7': [446], 11: [472, 473, 218, 4470, 4472, 4471], 's_0_11': [4455], 12: [4966, 4891, 386], 's_0_12': [206, 4965], 15: [4710, 459, 385, 4711, 4713, 4712], 's_0_15': [4771], 16: [4532, 4381, 566, 565, 564, 4382, 563], 's_0_16': [322], 19: [4425, 4728, 714, 713, 4428, 4427, 4426], 's_0_19': [4411], 23: [4861, 416, 413, 414, 415], 's_0_23': [5041], 24: [4638, 4636, 638, 4637], 's_0_24': [4635], 26: [4501, 4502, 4503, 773, 774, 775], 's_0_26': [368], 's_1_2': [4680], 8: [4936, 4952, 4951, 221], 's_1_8': [265], 's_1_12': [311], 28: [4833, 4830, 4832, 4831], 's_1_28': [280], 's_2_4': [4561], 's_2_16': [4396], 's_2_19': [247], 31: [4365, 4366, 4368, 4367], 's_2_31': [4350], 5: [4863, 790], 's_3_5': [4998], 's_3_7': [5056], 's_3_12': [5026], 's_3_16': [4533], 17: [502, 506, 505, 503, 4620, 4621, 504], 's_3_17': [5117], 's_3_19': [4473], 22: [4321, 4399, 4398, 442, 4397, 487], 's_3_22': [4384], 's_3_23': [4967], 's_3_24': [4623], 's_3_26': [4744], 27: [596, 4547, 593, 594, 595], 's_3_27': [5012], 's_4_7': [4666], 9: [4696, 550, 4697, 549], 's_4_9': [4742], 13: [517, 518, 4905, 4906, 4862, 4907, 520, 519], 's_4_13': [533], 14: [4789, 4787, 654, 4788], 's_4_14': [4772], 's_4_16': [4757], 20: [4607, 730, 4608, 728, 729], 's_4_20': [4578], 6: [4546, 352, 354, 353], 's_7_6': [443], 's_7_8': [371], 10: [804, 4800, 4803, 4802, 4801], 's_7_10': [279], 's_7_12': [341], 's_7_14': [4683], 's_7_16': [4997], 21: [4982, 623, 624, 625], 's_7_21': [609], 's_7_27': [579], 's_7_28': [460], 's_11_6': [308], 's_11_17': [4441], 18: [4665, 293, 4815, 295, 294], 's_11_18': [4485], 's_11_21': [608], 's_11_22': [4352], 's_11_26': [4500], 's_11_27': [4517], 29: [188, 190, 189], 's_11_29': [4440], 's_11_31': [233], 's_12_8': [340], 's_12_18': [310], 25: [430, 4846, 4847, 669, 670], 's_12_25': [475, 4981], 's_15_6': [4651], 's_15_10': [789], 's_15_13': [580], 's_15_17': [159], 's_15_19': [699], 's_15_25': [429], 's_15_28': [745], 30: [236, 458, 235, 4592, 4591, 234], 's_15_30': [4741], 's_16_8': [4937], 's_16_10': [4817], 's_16_17': [5042], 's_16_20': [4383], 's_16_26': [398], 's_16_30': [457], 's_19_10': [4698], 's_19_25': [668], 's_19_27': [4413], 's_19_29': [4410], 's_23_13': [4412], 's_23_18': [4726], 's_23_22': [4456], 's_23_25': [535, 4922], 's_23_28': [370], 's_24_6': [428], 's_24_17': [339], 's_24_20': [534], 's_24_21': [4487], 's_24_26': [803], 's_24_30': [4593], 's_26_5': [776, 4969], 's_26_6': [338], 's_26_14': [4774], 's_26_17': [278], 's_26_20': [4668], 's_26_22': [4458, 743], 's_26_27': [488], 's_26_28': [4848], 's_8_13': [521], 's_8_30': [5040], 's_28_9': [489, 490], 's_28_13': [355], 's_28_18': [220], 's_28_21': [640], 's_28_29': [205], 's_31_6': [337], 's_31_13': [532], 's_31_20': [4353], 's_31_22': [697], 's_31_27': [4442, 607], 's_5_13': [4908], 's_17_9': [4562], 's_17_13': [4727], 's_17_18': [174], 's_17_22': [4276], 's_17_25': [4622], 's_17_27': [4892], 's_17_29': [204], 's_17_30': [309], 's_22_6': [4336], 's_27_13': [4457], 's_27_20': [4548], 's_27_25': [4758], 's_9_6': [384], 's_9_13': [4667], 's_9_21': [4652], 's_9_25': [4877, 4878], 's_13_18': [160], 's_14_10': [850], 's_14_21': [655], 's_14_25': [4743], 's_20_10': [4653], 's_20_21': [4968, 731], 's_20_25': [684], 's_6_30': [4545], 's_10_18': [4816], 's_21_25': [4938], 's_18_30': [4606], 's_18_29': [4845]}</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0.0005739644970414202</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.001848494571332518</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>{0: [235, 5055, 236], 4: [251], 14: [4920, 386, 4921], 19: [4845, 310], 21: [160, 4965, 161], 25: [101, 100], 26: [4801, 4800], 29: [221, 5160, 222], 1: [5040, 5041, 401], 8: [311, 5116], 18: [5146, 266], 24: [5025, 5026], 28: [5085, 5086, 341], 32: [5010, 5011], 5: [192, 191, 4995], 10: [250, 4861, 4860], 13: [5100, 387, 356, 5101], 20: [5056, 371, 4936], 22: [416, 4966, 4967], 31: [4996, 446, 445], 15: [326, 4980, 325], 17: [205, 207, 206], 23: [4830, 281, 280], 27: [295, 296], 2: [5131, 5130], 6: [431, 5070, 5071, 372], 9: [340, 4906, 4905], 12: [265, 4890], 7: [355, 4891], 16: [430, 4951, 4952], 11: [175, 176], 30: [4876], 3: [5132]}</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0.005325415900843583</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.01189894259097112</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>{0: [235, 5055, 236], 4: [251], 14: [4920, 386, 4921], 19: [4845, 310], 21: [160, 4965, 161], 25: [101, 100], 26: [4801, 4800], 29: [221, 5160, 222], 1: [5040, 5041, 401], 8: [311, 5116], 18: [5146, 266], 24: [5025, 5026], 28: [5085, 5086, 341], 32: [5010, 5011], 5: [192, 191, 4995], 10: [250, 4861, 4860], 13: [5100, 387, 356, 5101], 20: [5056, 371, 4936], 22: [416, 4966, 4967], 31: [4996, 446, 445], 15: [326, 4980, 325], 17: [205, 207, 206], 23: [4830, 281, 280], 27: [295, 296], 2: [5131, 5130], 6: [431, 5070, 5071, 372], 9: [340, 4906, 4905], 12: [265, 4890], 7: [355, 4891], 16: [430, 4951, 4952], 11: [175, 176], 30: [4876], 3: [5132]}</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0.005325415900843583</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.01189894259097112</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>{0: [4563, 4248, 682, 683], 4: [606, 4277, 519, 518, 517], 's_0_4': [621], 14: [4246, 4261, 4262, 4530, 4531, 353, 352], 's_0_14': [636], 19: [696, 697, 698, 4545, 4546, 4547, 4548], 's_0_19': [4368], 21: [4398, 578], 's_0_21': [667], 25: [4367, 4637, 609, 607, 608], 's_0_25': [4383], 26: [4457, 4458], 's_0_26': [863, 4564], 29: [547, 548, 4486, 4487], 's_0_29': [4472], 1: [504, 502, 503, 803, 4503, 4502], 's_4_1': [4757], 8: [742, 4217, 4218], 's_4_8': [4278], 18: [4713, 459, 4711, 4712], 's_4_18': [4742], 24: [4125, 4126, 4413, 4127, 651, 4412, 652], 's_4_24': [4203], 28: [4576, 4577, 486, 487, 488], 's_4_28': [4187], 32: [533, 444, 323, 4561, 443, 4562], 's_4_32': [4517], 's_14_1': [4247], 5: [654, 655, 4832, 4426, 368, 369, 370, 4831], 's_14_5': [338], 10: [398, 4620, 4621, 399], 's_14_10': [234], 13: [4650, 4485, 4321, 277, 279, 278], 's_14_13': [276], 's_14_19': [143], 20: [4847, 4846, 415, 4171, 412, 413, 414], 's_14_20': [291], 22: [441, 442, 787, 4351, 4353, 4352], 's_14_22': [4276], 31: [4095, 201, 263, 202, 203, 4500], 's_14_31': [4260], 's_14_32': [322], 's_19_8': [4173], 's_19_10': [204], 15: [4609, 4608, 309, 4606, 563, 564, 4607], 's_19_15': [699], 17: [4365, 218, 220, 219], 's_19_17': [173, 4350, 172], 's_19_21': [712], 23: [714, 549, 4593, 4591, 4592], 's_19_23': [744], 27: [625, 624, 622, 623], 's_19_27': [4532], 's_21_22': [4399], 's_21_24': [728], 's_21_25': [579], 's_21_26': [743], 2: [4725, 4726, 534, 4728, 4727], 's_25_2': [594, 595], 6: [382, 383, 384, 4651, 774, 4653, 4652], 's_25_6': [4638], 9: [4443, 4442, 188, 4440, 4441], 's_25_9': [457], 12: [336, 4366, 337], 's_25_12': [472, 4306], 7: [802, 4293, 367, 4291, 4292], 's_26_7': [817], 's_26_9': [832], 's_26_15': [848, 849], 's_29_1': [4488], 's_29_5': [653], 's_29_6': [4231, 4232], 's_29_8': [562], 16: [427, 4666, 4471, 428, 4470, 429, 4772, 4773], 's_29_16': [4397], 's_29_23': [638], 's_29_28': [4172], 's_1_6': [4623], 's_1_9': [758], 11: [4427, 4428, 669, 668], 's_1_11': [4533], 's_1_18': [804], 's_1_24': [713], 's_8_20': [4202], 's_8_22': [4308], 's_8_28': [501], 's_18_6': [684], 's_18_2': [760], 's_18_13': [294], 's_18_27': [4682], 's_24_11': [637], 's_24_22': [4338], 's_24_28': [4143, 4142], 's_24_31': [171], 's_24_32': [4411], 's_28_9': [308], 's_28_11': [4578], 's_28_23': [248], 's_28_31': [4096], 's_28_15': [458], 's_28_16': [293], 's_28_22': [4111], 's_32_17': [4455], 's_32_31': [4560, 98], 's_32_5': [4801], 's_32_20': [445], 's_32_22': [532], 's_5_6': [4698], 's_5_11': [670], 's_5_17': [4830], 's_5_23': [4758], 's_5_12': [292], 's_5_15': [4741], 's_5_27': [4802], 's_10_9': [189], 's_10_11': [4622], 's_10_17': [4635], 's_10_23': [473], 's_10_20': [400], 's_10_16': [354], 30: [489], 's_10_30': [4636], 's_13_6': [4396], 's_13_2': [249], 's_13_7': [4290], 's_13_15': [4756], 's_13_16': [4501], 's_13_17': [4815], 's_13_22': [307], 's_13_31': [264], 's_20_6': [385], 's_20_9': [187, 4170], 's_20_23': [550], 's_20_12': [351], 's_20_15': [4696], 's_20_27': [610], 's_20_7': [397], 's_22_15': [4382], 's_22_27': [4322, 4323], 's_22_7': [4384], 's_22_16': [426], 's_31_9': [262], 3: [4216, 306], 's_31_3': [4080], 's_31_16': [233], 's_15_6': [864], 's_15_17': [4665], 's_15_23': [324], 's_15_16': [565], 's_17_2': [235], 's_17_12': [4381], 's_23_6': [4668], 's_23_11': [4683], 's_23_2': [339], 's_23_30': [4697], 's_27_6': [4667], 's_27_7': [4307], 's_27_16': [4788], 's_2_6': [789], 's_6_3': [4186], 's_9_11': [593], 's_9_16': [158], 's_12_7': [4201], 's_12_16': [4336], 's_16_30': [490]}</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0.0005757575757575758</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.001877565584807233</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>{0: [4563, 4248, 682, 683], 4: [606, 4277, 519, 518, 517], 's_0_4': [621], 14: [4246, 4261, 4262, 4530, 4531, 353, 352], 's_0_14': [636], 19: [696, 697, 698, 4545, 4546, 4547, 4548], 's_0_19': [4368], 21: [4398, 578], 's_0_21': [667], 25: [4367, 4637, 609, 607, 608], 's_0_25': [4383], 26: [4457, 4458], 's_0_26': [863, 4564], 29: [547, 548, 4486, 4487], 's_0_29': [4472], 1: [504, 502, 503, 803, 4503, 4502], 's_4_1': [4757], 8: [742, 4217, 4218], 's_4_8': [4278], 18: [4713, 459, 4711, 4712], 's_4_18': [4742], 24: [4125, 4126, 4413, 4127, 651, 4412, 652], 's_4_24': [4203], 28: [4576, 4577, 486, 487, 488], 's_4_28': [4187], 32: [533, 444, 323, 4561, 443, 4562], 's_4_32': [4517], 's_14_1': [4247], 5: [654, 655, 4832, 4426, 368, 369, 370, 4831], 's_14_5': [338], 10: [398, 4620, 4621, 399], 's_14_10': [234], 13: [4650, 4485, 4321, 277, 279, 278], 's_14_13': [276], 's_14_19': [143], 20: [4847, 4846, 415, 4171, 412, 413, 414], 's_14_20': [291], 22: [441, 442, 787, 4351, 4353, 4352], 's_14_22': [4276], 31: [4095, 201, 263, 202, 203, 4500], 's_14_31': [4260], 's_14_32': [322], 's_19_8': [4173], 's_19_10': [204], 15: [4609, 4608, 309, 4606, 563, 564, 4607], 's_19_15': [699], 17: [4365, 218, 220, 219], 's_19_17': [173, 4350, 172], 's_19_21': [712], 23: [714, 549, 4593, 4591, 4592], 's_19_23': [744], 27: [625, 624, 622, 623], 's_19_27': [4532], 's_21_22': [4399], 's_21_24': [728], 's_21_25': [579], 's_21_26': [743], 2: [4725, 4726, 534, 4728, 4727], 's_25_2': [594, 595], 6: [382, 383, 384, 4651, 774, 4653, 4652], 's_25_6': [4638], 9: [4443, 4442, 188, 4440, 4441], 's_25_9': [457], 12: [336, 4366, 337], 's_25_12': [472, 4306], 7: [802, 4293, 367, 4291, 4292], 's_26_7': [817], 's_26_9': [832], 's_26_15': [848, 849], 's_29_1': [4488], 's_29_5': [653], 's_29_6': [4231, 4232], 's_29_8': [562], 16: [427, 4666, 4471, 428, 4470, 429, 4772, 4773], 's_29_16': [4397], 's_29_23': [638], 's_29_28': [4172], 's_1_6': [4623], 's_1_9': [758], 11: [4427, 4428, 669, 668], 's_1_11': [4533], 's_1_18': [804], 's_1_24': [713], 's_8_20': [4202], 's_8_22': [4308], 's_8_28': [501], 's_18_6': [684], 's_18_2': [760], 's_18_13': [294], 's_18_27': [4682], 's_24_11': [637], 's_24_22': [4338], 's_24_28': [4143, 4142], 's_24_31': [171], 's_24_32': [4411], 's_28_9': [308], 's_28_11': [4578], 's_28_23': [248], 's_28_31': [4096], 's_28_15': [458], 's_28_16': [293], 's_28_22': [4111], 's_32_17': [4455], 's_32_31': [4560, 98], 's_32_5': [4801], 's_32_20': [445], 's_32_22': [532], 's_5_6': [4698], 's_5_11': [670], 's_5_17': [4830], 's_5_23': [4758], 's_5_12': [292], 's_5_15': [4741], 's_5_27': [4802], 's_10_9': [189], 's_10_11': [4622], 's_10_17': [4635], 's_10_23': [473], 's_10_20': [400], 's_10_16': [354], 30: [489], 's_10_30': [4636], 's_13_6': [4396], 's_13_2': [249], 's_13_7': [4290], 's_13_15': [4756], 's_13_16': [4501], 's_13_17': [4815], 's_13_22': [307], 's_13_31': [264], 's_20_6': [385], 's_20_9': [187, 4170], 's_20_23': [550], 's_20_12': [351], 's_20_15': [4696], 's_20_27': [610], 's_20_7': [397], 's_22_15': [4382], 's_22_27': [4322, 4323], 's_22_7': [4384], 's_22_16': [426], 's_31_9': [262], 3: [4216, 306], 's_31_3': [4080], 's_31_16': [233], 's_15_6': [864], 's_15_17': [4665], 's_15_23': [324], 's_15_16': [565], 's_17_2': [235], 's_17_12': [4381], 's_23_6': [4668], 's_23_11': [4683], 's_23_2': [339], 's_23_30': [4697], 's_27_6': [4667], 's_27_7': [4307], 's_27_16': [4788], 's_2_6': [789], 's_6_3': [4186], 's_9_11': [593], 's_9_16': [158], 's_12_7': [4201], 's_12_16': [4336], 's_16_30': [490]}</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0.0005757575757575758</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.001877565584807233</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>{0: [1913, 4600], 1: [4569, 4570], 2: [1898, 1794, 4629], 6: [1927, 1928, 4555], 14: [1854, 4390, 1853], 16: [1884, 4480, 4479, 1883], 17: [1777, 4314, 1912], 20: [4540, 1868, 4539], 21: [1717, 4599, 1718], 28: [1808, 4494], 29: [4614, 4615], 32: [4675, 1989], 5: [1793, 4419], 7: [1944, 1943, 4464], 9: [1958, 1959, 4434, 4435], 11: [4554, 1778], 23: [4584, 4660, 4659, 1809], 4: [1733, 4525, 4524], 12: [1897, 4375], 18: [4674, 1869], 24: [1839, 1838], 25: [4509, 4510], 27: [1734, 4734], 31: [4690, 4689, 1824], 15: [2063, 4644, 4645], 22: [1867, 1988, 4420], 26: [4704, 4705, 2004], 13: [2003], 33: [1823, 4360, 4359], 3: [2019, 4465, 2018], 30: [1748, 1749], 8: [4493, 1764, 1763], 10: [1973, 4585], 19: [4495, 2034, 2033]}</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0.002725968436154949</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.009010225806661453</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>{0: [1913, 4600], 1: [4569, 4570], 2: [1898, 1794, 4629], 6: [1927, 1928, 4555], 14: [1854, 4390, 1853], 16: [1884, 4480, 4479, 1883], 17: [1777, 4314, 1912], 20: [4540, 1868, 4539], 21: [1717, 4599, 1718], 28: [1808, 4494], 29: [4614, 4615], 32: [4675, 1989], 5: [1793, 4419], 7: [1944, 1943, 4464], 9: [1958, 1959, 4434, 4435], 11: [4554, 1778], 23: [4584, 4660, 4659, 1809], 4: [1733, 4525, 4524], 12: [1897, 4375], 18: [4674, 1869], 24: [1839, 1838], 25: [4509, 4510], 27: [1734, 4734], 31: [4690, 4689, 1824], 15: [2063, 4644, 4645], 22: [1867, 1988, 4420], 26: [4704, 4705, 2004], 13: [2003], 33: [1823, 4360, 4359], 3: [2019, 4465, 2018], 30: [1748, 1749], 8: [4493, 1764, 1763], 10: [1973, 4585], 19: [4495, 2034, 2033]}</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0.002725968436154949</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.009010225806661453</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>{0: [2111, 5245, 2187, 5246, 2114, 2113, 5516, 2112], 1: [5544, 5545, 5547, 2233, 5546], 's_0_1': [2189], 2: [2607, 5216, 5217, 2443, 5248, 2441, 2442], 's_0_2': [5215], 6: [5309, 5501, 2713, 2714, 2248, 5502, 5503, 5504], 's_0_6': [5411], 14: [5262, 2413, 2412, 2411, 5067, 5066], 's_0_14': [2186], 16: [5455, 1946, 5065, 1947, 1949, 1948], 's_0_16': [5515], 17: [5427, 2218, 5426], 's_0_17': [2217], 20: [5159, 5605, 5606, 2562, 2563, 2564, 5608, 5607], 's_0_20': [5591], 21: [5140, 2142, 5142, 5141], 's_0_21': [1992], 28: [5339, 5336, 5337, 5338], 's_0_28': [2082], 29: [5173, 2487, 5172, 5169, 5170, 5171], 's_0_29': [5185], 32: [2249, 5574, 2009, 5576, 5575], 's_0_32': [5560], 5: [5352, 2231, 2232, 5351], 's_1_5': [2473, 2474], 's_1_6': [2159], 7: [2337, 2339, 2338], 's_1_7': [5487], 9: [5577, 2096, 2097, 5305, 5306, 2354, 2353, 5307], 's_1_9': [2489], 11: [2369, 2036, 4931, 4932, 2366, 5397, 2368, 2367], 's_1_11': [5517], 's_1_16': [1994], 23: [2591, 1964, 2592, 2593, 2594, 5623, 5622, 5621, 5620], 's_1_23': [2234], 's_1_32': [1799], 4: [5081, 5125, 2471, 5007, 5006, 2171, 5126, 2172], 's_2_4': [5098], 's_2_5': [5353], 's_2_6': [2608], 12: [2203, 5396, 2307, 2308], 's_2_12': [5247], 's_2_14': [5128], 18: [5022, 2621, 5023], 's_2_18': [2606], 's_2_20': [2577], 's_2_21': [2292], 's_2_23': [5294], 24: [5037, 5036, 2067, 2066, 5035], 's_2_24': [2456], 25: [5156, 5157, 5158, 2532, 5382, 5143, 2397, 2398], 's_2_25': [2382], 27: [2516, 5069, 5068], 's_2_27': [5053], 's_2_28': [2427], 31: [2549, 5530, 5529, 5533, 5532, 5531], 's_2_31': [5458], 's_6_14': [5308], 15: [2682, 2683, 5110, 5111, 5112, 5113, 5114, 2681], 's_6_15': [5384], 's_6_17': [2219], 22: [2157, 2158, 5442, 5440, 5441], 's_6_22': [2204], 26: [2666, 2667, 2668, 5474, 5470, 5471, 5472, 5473], 's_6_26': [5459], 's_6_32': [2174], 's_14_4': [2141, 4961], 's_14_7': [2322], 's_14_9': [2414], 13: [2291], 's_14_13': [5097], 's_14_18': [2336], 's_14_22': [2156], 's_14_28': [5323], 's_16_11': [4976, 4975], 's_16_15': [1931], 's_16_20': [1934], 's_16_22': [1933], 's_16_23': [5635], 33: [2038, 5276, 5275], 's_16_33': [1932], 's_17_9': [2098], 's_17_11': [2383], 's_17_12': [2278], 's_17_22': [5366], 's_17_33': [5425], 3: [2294, 2293, 1993, 5380, 5381], 's_20_3': [2309], 's_20_7': [5592], 's_20_9': [2459], 's_20_11': [5083, 5082], 's_20_15': [2684, 5609], 's_20_18': [5188], 's_20_23': [2504, 2503, 5413], 's_20_25': [5383], 's_20_26': [5368], 's_20_28': [2578], 's_20_29': [5278], 's_20_31': [2579], 's_20_32': [5590], 's_21_5': [2246], 's_21_25': [2022], 30: [5409, 1844, 1842, 1843], 's_21_30': [1857], 's_21_33': [5291], 's_28_5': [2143], 's_28_7': [5322], 8: [5563, 2534, 5263, 2533], 's_28_8': [2548], 's_28_9': [2188], 's_28_11': [2488], 's_28_24': [5321], 's_28_33': [2023], 's_29_4': [1901], 's_29_8': [2472], 's_29_9': [1962], 's_29_30': [5184], 's_32_9': [2008], 10: [5320, 1919, 5500, 2127, 5231, 1918, 1917, 5230], 's_32_10': [1904], 's_32_23': [2144], 's_32_26': [2024], 's_32_31': [1784], 's_5_4': [5021], 's_5_7': [5292], 's_5_9': [5096], 's_5_33': [2247], 's_7_11': [5457], 's_7_22': [2323], 's_7_25': [5367], 's_7_31': [2324], 's_9_4': [5051], 's_9_15': [2352], 's_9_24': [2081], 's_9_26': [2384], 's_9_30': [1858], 's_11_4': [2260], 's_11_24': [4930, 2006], 's_11_25': [5187], 's_11_31': [5398, 2638], 's_23_8': [5548], 's_23_10': [5665], 's_23_15': [5489], 's_23_18': [5129], 19: [1963, 5127, 2202, 1978, 1977, 5200, 5201], 's_23_19': [1979], 's_4_10': [1916], 's_4_19': [4916, 2201], 's_4_27': [2486], 's_4_30': [5080, 5079], 's_12_3': [2173], 's_12_22': [5186], 's_12_33': [5277], 's_18_24': [2426], 's_18_26': [2651], 's_18_27': [2576], 's_24_10': [2126], 's_24_15': [1961], 's_24_33': [5350], 's_25_3': [5412], 's_25_8': [2517], 's_25_10': [5232], 's_25_19': [5155], 's_25_22': [2428], 's_27_26': [5054], 's_31_3': [2083], 's_31_8': [2519], 's_31_30': [1859], 's_15_19': [2007], 's_15_26': [5444], 's_22_3': [2053], 's_22_10': [2128], 's_22_33': [2039], 's_26_3': [2263], 's_26_10': [1903], 's_26_8': [2669], 's_26_30': [1888], 's_13_19': [2306], 's_33_19': [5395], 's_3_10': [5379], 's_3_19': [2052, 5365], 's_10_19': [5199]}</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0.0006043956043956045</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.001804842605017235</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>{0: [2111, 5245, 2187, 5246, 2114, 2113, 5516, 2112], 1: [5544, 5545, 5547, 2233, 5546], 's_0_1': [2189], 2: [2607, 5216, 5217, 2443, 5248, 2441, 2442], 's_0_2': [5215], 6: [5309, 5501, 2713, 2714, 2248, 5502, 5503, 5504], 's_0_6': [5411], 14: [5262, 2413, 2412, 2411, 5067, 5066], 's_0_14': [2186], 16: [5455, 1946, 5065, 1947, 1949, 1948], 's_0_16': [5515], 17: [5427, 2218, 5426], 's_0_17': [2217], 20: [5159, 5605, 5606, 2562, 2563, 2564, 5608, 5607], 's_0_20': [5591], 21: [5140, 2142, 5142, 5141], 's_0_21': [1992], 28: [5339, 5336, 5337, 5338], 's_0_28': [2082], 29: [5173, 2487, 5172, 5169, 5170, 5171], 's_0_29': [5185], 32: [2249, 5574, 2009, 5576, 5575], 's_0_32': [5560], 5: [5352, 2231, 2232, 5351], 's_1_5': [2473, 2474], 's_1_6': [2159], 7: [2337, 2339, 2338], 's_1_7': [5487], 9: [5577, 2096, 2097, 5305, 5306, 2354, 2353, 5307], 's_1_9': [2489], 11: [2369, 2036, 4931, 4932, 2366, 5397, 2368, 2367], 's_1_11': [5517], 's_1_16': [1994], 23: [2591, 1964, 2592, 2593, 2594, 5623, 5622, 5621, 5620], 's_1_23': [2234], 's_1_32': [1799], 4: [5081, 5125, 2471, 5007, 5006, 2171, 5126, 2172], 's_2_4': [5098], 's_2_5': [5353], 's_2_6': [2608], 12: [2203, 5396, 2307, 2308], 's_2_12': [5247], 's_2_14': [5128], 18: [5022, 2621, 5023], 's_2_18': [2606], 's_2_20': [2577], 's_2_21': [2292], 's_2_23': [5294], 24: [5037, 5036, 2067, 2066, 5035], 's_2_24': [2456], 25: [5156, 5157, 5158, 2532, 5382, 5143, 2397, 2398], 's_2_25': [2382], 27: [2516, 5069, 5068], 's_2_27': [5053], 's_2_28': [2427], 31: [2549, 5530, 5529, 5533, 5532, 5531], 's_2_31': [5458], 's_6_14': [5308], 15: [2682, 2683, 5110, 5111, 5112, 5113, 5114, 2681], 's_6_15': [5384], 's_6_17': [2219], 22: [2157, 2158, 5442, 5440, 5441], 's_6_22': [2204], 26: [2666, 2667, 2668, 5474, 5470, 5471, 5472, 5473], 's_6_26': [5459], 's_6_32': [2174], 's_14_4': [2141, 4961], 's_14_7': [2322], 's_14_9': [2414], 13: [2291], 's_14_13': [5097], 's_14_18': [2336], 's_14_22': [2156], 's_14_28': [5323], 's_16_11': [4976, 4975], 's_16_15': [1931], 's_16_20': [1934], 's_16_22': [1933], 's_16_23': [5635], 33: [2038, 5276, 5275], 's_16_33': [1932], 's_17_9': [2098], 's_17_11': [2383], 's_17_12': [2278], 's_17_22': [5366], 's_17_33': [5425], 3: [2294, 2293, 1993, 5380, 5381], 's_20_3': [2309], 's_20_7': [5592], 's_20_9': [2459], 's_20_11': [5083, 5082], 's_20_15': [2684, 5609], 's_20_18': [5188], 's_20_23': [2504, 2503, 5413], 's_20_25': [5383], 's_20_26': [5368], 's_20_28': [2578], 's_20_29': [5278], 's_20_31': [2579], 's_20_32': [5590], 's_21_5': [2246], 's_21_25': [2022], 30: [5409, 1844, 1842, 1843], 's_21_30': [1857], 's_21_33': [5291], 's_28_5': [2143], 's_28_7': [5322], 8: [5563, 2534, 5263, 2533], 's_28_8': [2548], 's_28_9': [2188], 's_28_11': [2488], 's_28_24': [5321], 's_28_33': [2023], 's_29_4': [1901], 's_29_8': [2472], 's_29_9': [1962], 's_29_30': [5184], 's_32_9': [2008], 10: [5320, 1919, 5500, 2127, 5231, 1918, 1917, 5230], 's_32_10': [1904], 's_32_23': [2144], 's_32_26': [2024], 's_32_31': [1784], 's_5_4': [5021], 's_5_7': [5292], 's_5_9': [5096], 's_5_33': [2247], 's_7_11': [5457], 's_7_22': [2323], 's_7_25': [5367], 's_7_31': [2324], 's_9_4': [5051], 's_9_15': [2352], 's_9_24': [2081], 's_9_26': [2384], 's_9_30': [1858], 's_11_4': [2260], 's_11_24': [4930, 2006], 's_11_25': [5187], 's_11_31': [5398, 2638], 's_23_8': [5548], 's_23_10': [5665], 's_23_15': [5489], 's_23_18': [5129], 19: [1963, 5127, 2202, 1978, 1977, 5200, 5201], 's_23_19': [1979], 's_4_10': [1916], 's_4_19': [4916, 2201], 's_4_27': [2486], 's_4_30': [5080, 5079], 's_12_3': [2173], 's_12_22': [5186], 's_12_33': [5277], 's_18_24': [2426], 's_18_26': [2651], 's_18_27': [2576], 's_24_10': [2126], 's_24_15': [1961], 's_24_33': [5350], 's_25_3': [5412], 's_25_8': [2517], 's_25_10': [5232], 's_25_19': [5155], 's_25_22': [2428], 's_27_26': [5054], 's_31_3': [2083], 's_31_8': [2519], 's_31_30': [1859], 's_15_19': [2007], 's_15_26': [5444], 's_22_3': [2053], 's_22_10': [2128], 's_22_33': [2039], 's_26_3': [2263], 's_26_10': [1903], 's_26_8': [2669], 's_26_30': [1888], 's_13_19': [2306], 's_33_19': [5395], 's_3_10': [5379], 's_3_19': [2052, 5365], 's_10_19': [5199]}</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0.0006043956043956045</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.001804842605017235</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>{0: [1554, 1555], 7: [4882, 4883], 19: [1600, 4748, 4598, 1599], 20: [4716, 4718, 4717], 21: [1570, 4793, 4792], 23: [1540, 1539, 1538], 27: [1629, 4702, 4703], 31: [1464, 4807, 1465], 8: [4851, 1374, 1375], 10: [4836, 1495, 4837], 11: [1479, 1480], 15: [4897, 1359, 1360], 18: [1420, 4732, 1419], 29: [1404, 1405], 34: [4733, 1630], 2: [4597, 1390, 1389], 4: [4778, 1510, 1509], 12: [4943, 4942], 25: [1450, 4747], 26: [4688, 4687], 32: [4823, 4821, 4822], 33: [1614, 1644, 4643], 13: [1584, 4642], 30: [4777, 1299, 1300], 9: [4867, 4868, 1645], 17: [1435, 4852], 22: [1329, 1330, 4927], 6: [4567, 4568, 1494], 16: [4613, 4612], 28: [4671, 1434, 4672], 24: [4912, 1524, 1525], 3: [1449, 4656, 4657], 1: [4762, 4763], 5: [4866, 4641, 1315, 1314], 14: [4626, 4627]}</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0.003756796836381612</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.01008451822471574</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>{0: [1554, 1555], 7: [4882, 4883], 19: [1600, 4748, 4598, 1599], 20: [4716, 4718, 4717], 21: [1570, 4793, 4792], 23: [1540, 1539, 1538], 27: [1629, 4702, 4703], 31: [1464, 4807, 1465], 8: [4851, 1374, 1375], 10: [4836, 1495, 4837], 11: [1479, 1480], 15: [4897, 1359, 1360], 18: [1420, 4732, 1419], 29: [1404, 1405], 34: [4733, 1630], 2: [4597, 1390, 1389], 4: [4778, 1510, 1509], 12: [4943, 4942], 25: [1450, 4747], 26: [4688, 4687], 32: [4823, 4821, 4822], 33: [1614, 1644, 4643], 13: [1584, 4642], 30: [4777, 1299, 1300], 9: [4867, 4868, 1645], 17: [1435, 4852], 22: [1329, 1330, 4927], 6: [4567, 4568, 1494], 16: [4613, 4612], 28: [4671, 1434, 4672], 24: [4912, 1524, 1525], 3: [1449, 4656, 4657], 1: [4762, 4763], 5: [4866, 4641, 1315, 1314], 14: [4626, 4627]}</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0.003756796836381612</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.01008451822471574</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>{0: [216, 217, 4412, 548, 547, 4232, 4231], 7: [757, 4173, 276, 4171, 4172], 's_0_7': [4201], 19: [457, 4351, 4354, 4353, 593, 578, 579, 4352], 's_0_19': [413], 20: [215, 3994, 3993, 3930, 3931, 3932, 665], 's_0_20': [3990, 155], 21: [4591, 4592, 4472, 4143, 4590, 636, 638, 637, 4593], 's_0_21': [549], 23: [519, 4532, 518, 4097, 516, 4067, 517], 's_0_23': [488], 27: [4400, 4399, 787, 4323, 4276, 4277, 667], 's_0_27': [4275], 31: [621, 726, 4128, 546, 4125, 4126, 4127], 's_0_31': [231], 8: [4381, 951, 4383, 4382, 952, 4309, 4308, 697], 's_7_8': [4174], 10: [4263, 713, 711, 712], 's_7_10': [786], 11: [576, 4083, 4082, 353, 352, 351, 4081], 's_7_11': [4141], 15: [966, 741, 4185, 4189, 4186, 4187, 4188, 742], 's_7_15': [801], 18: [185, 4426, 186, 187, 4305, 4608, 4607, 4606, 278, 277], 's_7_18': [382, 4336], 29: [864, 320, 321, 4110, 4111, 4112, 4113, 861, 862, 863], 's_7_29': [291], 's_7_31': [306], 34: [680, 682, 681], 's_7_34': [666], 2: [4667, 4666, 4665, 234, 141, 142, 4365, 233], 's_19_2': [4350], 4: [876, 594, 4578, 877, 878, 4579], 's_19_4': [4369], 's_19_10': [4428], 's_19_11': [4456], 12: [4695, 624, 4696, 4697], 's_19_12': [4682], 's_19_23': [4517], 25: [292, 249, 248, 4455, 245, 246, 247], 's_19_25': [322, 4290], 26: [4339, 968, 967], 's_19_26': [892], 's_19_27': [923], 32: [729, 4651, 4650, 758, 759, 4652, 4653], 's_19_32': [728], 33: [4292, 4291], 's_19_33': [622], 's_19_34': [4368], 's_20_8': [4009], 13: [3888, 3885, 3886, 3887], 's_20_13': [695], 's_20_25': [3945], 30: [425, 773, 772, 3946, 3947, 3948, 845, 846, 4219], 's_20_30': [860], 's_20_31': [3992], 's_20_34': [4008], 's_21_8': [4398], 9: [501, 4307, 562, 4217], 's_21_9': [4158, 4157], 's_21_10': [4473], 17: [4427, 563, 4563, 4561, 4562, 564], 's_21_17': [399], 22: [410, 174, 173, 172, 171, 4155, 4156, 411], 's_21_22': [4605], 's_21_25': [158, 159], 's_21_32': [714], 's_21_34': [683], 6: [485, 3857, 3976, 620, 545, 3977], 's_23_6': [515], 16: [4411, 4096, 366, 368, 367], 's_23_16': [486], 's_23_17': [4487], 28: [472, 470, 471], 's_23_28': [4202], 's_23_32': [4533], 's_27_11': [337], 's_27_15': [397], 24: [440, 441, 4504, 4247, 4503, 4502, 534, 532, 533], 's_27_24': [908], 's_27_26': [832, 4414, 4415], 's_27_31': [456], 's_27_33': [487], 's_27_34': [4338], 3: [891, 890, 4021, 4024, 500, 4022, 4023], 's_31_3': [756, 4039], 's_31_9': [4142], 's_31_10': [727], 's_31_11': [696], 's_31_18': [201], 's_31_25': [261], 's_8_10': [4278], 's_8_15': [743], 's_8_28': [4397], 's_8_2': [398, 4366], 's_8_17': [4457, 652], 's_8_26': [817], 's_8_29': [4159], 's_8_30': [922, 4294], 1: [604, 605, 4234, 4321, 607, 4322, 606, 4233], 's_10_1': [816], 5: [274, 275, 4053, 4052, 4051], 's_10_5': [4068], 's_10_11': [4098], 's_10_17': [698], 's_10_24': [4518], 's_10_30': [4458], 's_11_18': [4546], 's_11_28': [4441], 's_11_3': [785], 's_11_6': [350], 's_11_17': [4576], 's_15_1': [651], 's_15_4': [981, 4129], 's_15_9': [412], 's_15_2': [232], 's_15_3': [4038], 's_15_18': [202], 's_15_22': [96], 's_15_25': [111, 4140], 's_15_26': [937], 's_15_29': [426], 's_15_30': [740, 3903], 's_18_1': [307], 's_18_4': [744], 's_18_13': [200], 's_18_2': [4335], 14: [140, 4005, 335, 125, 3870, 3871], 's_18_14': [4035], 's_18_16': [4501], 's_18_17': [608], 's_18_22': [4050], 's_18_25': [3960], 's_18_29': [3900], 's_18_32': [654, 653], 's_29_9': [531], 's_29_24': [848], 's_29_25': [156, 4095], 's_29_14': [305], 's_29_32': [4564], 's_29_26': [847], 's_34_1': [3917], 's_34_9': [4262], 's_34_13': [3873], 's_2_12': [324], 's_2_14': [126], 's_2_16': [369], 's_2_22': [4620], 's_2_32': [684], 's_4_1': [4249], 's_4_3': [875], 's_4_12': [623], 's_4_17': [4637], 's_4_30': [4069], 's_12_24': [4712], 's_12_22': [4680, 4681], 's_25_1': [4320], 's_25_3': [4036], 's_25_5': [4080], 's_25_17': [323], 's_25_32': [279, 4741], 's_26_24': [4519], 's_32_24': [4443, 4442], 's_32_22': [4395, 203, 204], 's_32_30': [4429], 's_33_1': [427], 's_33_9': [577], 's_13_1': [619], 's_13_5': [289], 's_13_6': [454], 's_30_14': [380], 's_30_16': [365], 's_30_22': [3961], 's_30_5': [4054], 's_30_6': [395], 's_9_1': [4218], 's_9_5': [561], 's_9_17': [502, 503], 's_17_28': [473, 458], 's_22_3': [3916], 's_6_28': [469], 's_6_14': [3975], 's_6_5': [3856], 's_16_28': [4261], 's_16_5': [336], 's_28_1': [4007], 's_28_24': [4367], 's_28_3': [455], 's_24_1': [4248], 's_24_3': [4037], 's_3_14': [3901], 's_5_14': [4006]}</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0.0006614583333333332</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.00181075556618946</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>{0: [216, 217, 4412, 548, 547, 4232, 4231], 7: [757, 4173, 276, 4171, 4172], 's_0_7': [4201], 19: [457, 4351, 4354, 4353, 593, 578, 579, 4352], 's_0_19': [413], 20: [215, 3994, 3993, 3930, 3931, 3932, 665], 's_0_20': [3990, 155], 21: [4591, 4592, 4472, 4143, 4590, 636, 638, 637, 4593], 's_0_21': [549], 23: [519, 4532, 518, 4097, 516, 4067, 517], 's_0_23': [488], 27: [4400, 4399, 787, 4323, 4276, 4277, 667], 's_0_27': [4275], 31: [621, 726, 4128, 546, 4125, 4126, 4127], 's_0_31': [231], 8: [4381, 951, 4383, 4382, 952, 4309, 4308, 697], 's_7_8': [4174], 10: [4263, 713, 711, 712], 's_7_10': [786], 11: [576, 4083, 4082, 353, 352, 351, 4081], 's_7_11': [4141], 15: [966, 741, 4185, 4189, 4186, 4187, 4188, 742], 's_7_15': [801], 18: [185, 4426, 186, 187, 4305, 4608, 4607, 4606, 278, 277], 's_7_18': [382, 4336], 29: [864, 320, 321, 4110, 4111, 4112, 4113, 861, 862, 863], 's_7_29': [291], 's_7_31': [306], 34: [680, 682, 681], 's_7_34': [666], 2: [4667, 4666, 4665, 234, 141, 142, 4365, 233], 's_19_2': [4350], 4: [876, 594, 4578, 877, 878, 4579], 's_19_4': [4369], 's_19_10': [4428], 's_19_11': [4456], 12: [4695, 624, 4696, 4697], 's_19_12': [4682], 's_19_23': [4517], 25: [292, 249, 248, 4455, 245, 246, 247], 's_19_25': [322, 4290], 26: [4339, 968, 967], 's_19_26': [892], 's_19_27': [923], 32: [729, 4651, 4650, 758, 759, 4652, 4653], 's_19_32': [728], 33: [4292, 4291], 's_19_33': [622], 's_19_34': [4368], 's_20_8': [4009], 13: [3888, 3885, 3886, 3887], 's_20_13': [695], 's_20_25': [3945], 30: [425, 773, 772, 3946, 3947, 3948, 845, 846, 4219], 's_20_30': [860], 's_20_31': [3992], 's_20_34': [4008], 's_21_8': [4398], 9: [501, 4307, 562, 4217], 's_21_9': [4158, 4157], 's_21_10': [4473], 17: [4427, 563, 4563, 4561, 4562, 564], 's_21_17': [399], 22: [410, 174, 173, 172, 171, 4155, 4156, 411], 's_21_22': [4605], 's_21_25': [158, 159], 's_21_32': [714], 's_21_34': [683], 6: [485, 3857, 3976, 620, 545, 3977], 's_23_6': [515], 16: [4411, 4096, 366, 368, 367], 's_23_16': [486], 's_23_17': [4487], 28: [472, 470, 471], 's_23_28': [4202], 's_23_32': [4533], 's_27_11': [337], 's_27_15': [397], 24: [440, 441, 4504, 4247, 4503, 4502, 534, 532, 533], 's_27_24': [908], 's_27_26': [832, 4414, 4415], 's_27_31': [456], 's_27_33': [487], 's_27_34': [4338], 3: [891, 890, 4021, 4024, 500, 4022, 4023], 's_31_3': [756, 4039], 's_31_9': [4142], 's_31_10': [727], 's_31_11': [696], 's_31_18': [201], 's_31_25': [261], 's_8_10': [4278], 's_8_15': [743], 's_8_28': [4397], 's_8_2': [398, 4366], 's_8_17': [4457, 652], 's_8_26': [817], 's_8_29': [4159], 's_8_30': [922, 4294], 1: [604, 605, 4234, 4321, 607, 4322, 606, 4233], 's_10_1': [816], 5: [274, 275, 4053, 4052, 4051], 's_10_5': [4068], 's_10_11': [4098], 's_10_17': [698], 's_10_24': [4518], 's_10_30': [4458], 's_11_18': [4546], 's_11_28': [4441], 's_11_3': [785], 's_11_6': [350], 's_11_17': [4576], 's_15_1': [651], 's_15_4': [981, 4129], 's_15_9': [412], 's_15_2': [232], 's_15_3': [4038], 's_15_18': [202], 's_15_22': [96], 's_15_25': [111, 4140], 's_15_26': [937], 's_15_29': [426], 's_15_30': [740, 3903], 's_18_1': [307], 's_18_4': [744], 's_18_13': [200], 's_18_2': [4335], 14: [140, 4005, 335, 125, 3870, 3871], 's_18_14': [4035], 's_18_16': [4501], 's_18_17': [608], 's_18_22': [4050], 's_18_25': [3960], 's_18_29': [3900], 's_18_32': [654, 653], 's_29_9': [531], 's_29_24': [848], 's_29_25': [156, 4095], 's_29_14': [305], 's_29_32': [4564], 's_29_26': [847], 's_34_1': [3917], 's_34_9': [4262], 's_34_13': [3873], 's_2_12': [324], 's_2_14': [126], 's_2_16': [369], 's_2_22': [4620], 's_2_32': [684], 's_4_1': [4249], 's_4_3': [875], 's_4_12': [623], 's_4_17': [4637], 's_4_30': [4069], 's_12_24': [4712], 's_12_22': [4680, 4681], 's_25_1': [4320], 's_25_3': [4036], 's_25_5': [4080], 's_25_17': [323], 's_25_32': [279, 4741], 's_26_24': [4519], 's_32_24': [4443, 4442], 's_32_22': [4395, 203, 204], 's_32_30': [4429], 's_33_1': [427], 's_33_9': [577], 's_13_1': [619], 's_13_5': [289], 's_13_6': [454], 's_30_14': [380], 's_30_16': [365], 's_30_22': [3961], 's_30_5': [4054], 's_30_6': [395], 's_9_1': [4218], 's_9_5': [561], 's_9_17': [502, 503], 's_17_28': [473, 458], 's_22_3': [3916], 's_6_28': [469], 's_6_14': [3975], 's_6_5': [3856], 's_16_28': [4261], 's_16_5': [336], 's_28_1': [4007], 's_28_24': [4367], 's_28_3': [455], 's_24_1': [4248], 's_24_3': [4037], 's_3_14': [3901], 's_5_14': [4006]}</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0.0006614583333333332</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.00181075556618946</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>{0: [2141, 2096, 5096], 3: [2142, 5276, 5275], 7: [2128, 5141, 2127], 13: [2202, 2203], 15: [5080, 5081, 2217], 16: [5230, 2172, 5231], 25: [5186, 5185, 1977], 34: [5095, 1993, 1992], 1: [2022, 5306, 2023], 4: [5171, 2246], 8: [2247, 5261], 19: [2187, 5396, 2188], 20: [5410, 2173, 5411], 29: [1962, 1963], 30: [1901, 5260, 1902], 35: [2053, 5350, 2052], 11: [2067, 2066], 22: [5290, 5291], 24: [5200, 2307, 5201], 26: [2038, 5395], 27: [5142], 28: [5381, 5380], 31: [1903, 5485, 2083, 5486], 32: [2218, 5365, 5366], 2: [5155, 5157, 5156], 9: [1918, 5246, 5245, 1917], 10: [2112, 2113], 12: [2232, 5456, 5351, 2143], 18: [1932, 5305], 6: [2157, 2158], 14: [5426, 5425, 1978], 17: [5336, 5335], 21: [2098, 5215, 2097], 23: [1858, 5321, 5320], 33: [2082], 5: [5170, 2007, 2008]}</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0.005707310636051729</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.01246144715097644</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>{0: [2141, 2096, 5096], 3: [2142, 5276, 5275], 7: [2128, 5141, 2127], 13: [2202, 2203], 15: [5080, 5081, 2217], 16: [5230, 2172, 5231], 25: [5186, 5185, 1977], 34: [5095, 1993, 1992], 1: [2022, 5306, 2023], 4: [5171, 2246], 8: [2247, 5261], 19: [2187, 5396, 2188], 20: [5410, 2173, 5411], 29: [1962, 1963], 30: [1901, 5260, 1902], 35: [2053, 5350, 2052], 11: [2067, 2066], 22: [5290, 5291], 24: [5200, 2307, 5201], 26: [2038, 5395], 27: [5142], 28: [5381, 5380], 31: [1903, 5485, 2083, 5486], 32: [2218, 5365, 5366], 2: [5155, 5157, 5156], 9: [1918, 5246, 5245, 1917], 10: [2112, 2113], 12: [2232, 5456, 5351, 2143], 18: [1932, 5305], 6: [2157, 2158], 14: [5426, 5425, 1978], 17: [5336, 5335], 21: [2098, 5215, 2097], 23: [1858, 5321, 5320], 33: [2082], 5: [5170, 2007, 2008]}</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0.005707310636051729</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.01246144715097644</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.046</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>{0: [5262, 2112, 5260, 5261], 3: [1874, 5215, 5214, 1872, 1873], 's_0_3': [5259], 7: [2158, 4945, 5202, 5201, 4946, 2155, 2156, 2157], 's_0_7': [2412], 13: [5005, 1993, 1992, 1991], 's_0_13': [5170], 15: [5454, 2246, 2247, 5216, 5455, 2248, 5456], 's_0_15': [2307], 16: [2261, 2260, 1842, 5139, 5140, 5184, 5141, 5142], 's_0_16': [5185], 25: [2068, 2067, 2217, 5231, 5230], 's_0_25': [1917], 34: [5694, 5246, 2097, 1889, 2098, 2099, 5696, 5695], 's_0_34': [5306], 1: [5532, 5531, 1903, 5515, 1934, 5620, 5621, 2159], 's_3_1': [5379], 4: [4871, 4826, 2035, 2127, 4825, 2125, 5051, 2126], 's_3_4': [5200], 8: [5067, 2083, 2082, 1721, 2081, 1796, 5064, 5066, 5065], 's_3_8': [5650, 5651, 2084], 's_3_16': [5244, 1767], 19: [5303, 5304, 1945, 1946, 1947, 5305], 's_3_19': [1797], 20: [2113, 5485, 5486], 's_3_20': [1888], 29: [5484, 5199, 1783, 1916, 5169, 1782], 's_3_29': [5424], 30: [1647, 1648, 1649, 5603, 1827, 1828, 1829, 5604], 's_3_30': [5544], 35: [5487, 1453, 1454, 5572, 2308, 2309, 5576, 5575, 5574, 5573], 's_3_35': [5529, 1949], 's_7_8': [2171], 11: [5410, 1768, 5411, 5409, 2427, 2428, 5412], 's_7_11': [5217], 22: [2440, 2038, 5350, 2441, 2442, 2143, 5351, 5352], 's_7_22': [2457], 24: [4975, 1856, 1857, 5560, 5559, 1859, 1858], 's_7_24': [1841], 26: [2173, 2141, 1557, 5273, 2142, 5274, 5277, 5276, 5275], 's_7_26': [4961], 27: [5171, 5125, 2172, 5126], 's_7_27': [5186], 28: [5095, 2354, 2353, 2111, 5096, 5097, 5247, 2352], 's_7_28': [2110], 31: [1826, 5362, 1542, 1541, 1540, 4930, 4929, 4928], 's_7_31': [2006], 32: [2290, 2291, 5394, 2292, 5395, 5396, 2203, 5292], 's_7_32': [4947], 2: [5364, 5050, 1933, 1931, 1932], 's_13_2': [5004], 's_13_4': [1990], 9: [2533, 2532, 2531, 4915, 4916, 4918, 4917], 's_13_9': [2021], 's_13_25': [2007], 's_13_28': [4990], 's_13_32': [5006], 's_15_1': [2189], 's_15_4': [2128], 's_15_11': [1723], 's_15_24': [2024], 's_15_27': [5081], 's_15_30': [1814], 's_15_32': [5426], 's_16_4': [2259], 's_16_8': [5094], 's_16_9': [2275], 10: [1736, 5363, 5337, 1737, 5336, 5335, 5334], 's_16_10': [1843], 12: [5109, 1663, 1662], 's_16_12': [5154], 18: [2022, 2186, 5155, 5156, 2187], 's_16_18': [4991], 's_16_25': [5229], 's_16_30': [5138], 's_25_2': [2066], 's_25_4': [5291], 6: [1975, 1976, 1978, 1977], 's_25_6': [5440], 's_25_10': [2218], 's_25_11': [5232], 14: [5318, 5319, 1887, 5320, 5321, 2547, 2548, 5323, 5322], 's_25_14': [1902], 's_25_22': [5471], 17: [5258, 5592, 5591, 5590, 5589, 1602, 1603, 5438, 5439, 1844], 's_34_17': [1694, 5588], 's_34_18': [2096], 21: [2039, 2053, 5502, 5501], 's_34_21': [5530], 23: [5380, 1962, 1964, 1963], 's_34_23': [5635, 1919], 's_34_24': [2069], 's_34_26': [2232], 's_34_28': [2202], 's_34_30': [1739], 's_1_11': [2233], 's_1_17': [1904], 's_1_21': [2144], 's_1_23': [5546, 5545], 's_1_32': [1918], 33: [5503, 4931, 4932, 4933, 2381, 2382, 2383, 2384], 's_1_33': [5547], 's_1_35': [2294], 's_4_2': [2036], 5: [2231, 2338, 2337, 5157], 's_4_5': [2230], 's_4_6': [4840], 's_4_8': [5052], 's_4_27': [5111], 's_8_21': [5516], 's_8_33': [2366], 's_8_6': [5020], 's_8_10': [5168], 's_8_12': [1722, 5213], 's_8_19': [5183, 1617], 's_19_17': [1633], 's_19_23': [2008], 's_19_6': [4885], 's_19_9': [4900], 's_19_12': [5289], 's_19_14': [1498], 's_19_26': [1572, 5197], 's_20_17': [1994], 's_20_6': [5365], 's_20_14': [1948], 's_20_22': [5441], 's_29_17': [1708], 's_29_32': [5393, 1738], 's_29_18': [5080], 's_29_24': [1915], 's_29_14': [1798], 's_29_28': [5034, 5035], 's_29_30': [1781, 5124], 's_30_35': [1544], 's_30_31': [5078], 's_35_17': [1799], 's_35_5': [5442], 's_35_10': [2293], 's_35_14': [2323], 's_35_22': [5381], 's_35_24': [5561], 's_35_31': [5347], 's_11_2': [5425], 's_11_17': [2429], 's_22_21': [2052], 's_22_33': [5037], 's_22_5': [5158], 's_22_9': [2455], 's_22_10': [2188], 's_22_26': [2398], 's_24_21': [2129], 's_24_2': [5049], 's_24_6': [1979], 's_24_10': [5079], 's_24_27': [1961], 's_26_17': [1558], 's_26_32': [5021], 's_26_5': [2322], 's_26_14': [5278], 's_26_28': [4976], 's_26_31': [5333], 's_27_2': [5110], 's_28_21': [5517], 's_28_5': [5472], 's_28_10': [2368], 's_28_14': [5248], 's_31_33': [2065, 1900, 4870], 's_31_6': [1960], 's_31_14': [1483], 's_31_10': [1631, 5018, 1691], 's_32_5': [5127], 's_32_33': [5293], 's_2_6': [5470], 's_2_18': [2051], 's_9_33': [2410], 's_9_18': [4901], 's_9_14': [2546], 's_10_12': [5348], 's_12_17': [5378], 's_18_23': [5245], 's_18_5': [5036], 's_6_14': [5290], 's_14_17': [1573], 's_14_23': [2023], 's_17_33': [5605, 5606, 5607], 's_21_23': [5500], 's_21_33': [5577, 2369]}</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0.0007112299465240642</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.001877843102652338</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>{0: [5262, 2112, 5260, 5261], 3: [1874, 5215, 5214, 1872, 1873], 's_0_3': [5259], 7: [2158, 4945, 5202, 5201, 4946, 2155, 2156, 2157], 's_0_7': [2412], 13: [5005, 1993, 1992, 1991], 's_0_13': [5170], 15: [5454, 2246, 2247, 5216, 5455, 2248, 5456], 's_0_15': [2307], 16: [2261, 2260, 1842, 5139, 5140, 5184, 5141, 5142], 's_0_16': [5185], 25: [2068, 2067, 2217, 5231, 5230], 's_0_25': [1917], 34: [5694, 5246, 2097, 1889, 2098, 2099, 5696, 5695], 's_0_34': [5306], 1: [5532, 5531, 1903, 5515, 1934, 5620, 5621, 2159], 's_3_1': [5379], 4: [4871, 4826, 2035, 2127, 4825, 2125, 5051, 2126], 's_3_4': [5200], 8: [5067, 2083, 2082, 1721, 2081, 1796, 5064, 5066, 5065], 's_3_8': [5650, 5651, 2084], 's_3_16': [5244, 1767], 19: [5303, 5304, 1945, 1946, 1947, 5305], 's_3_19': [1797], 20: [2113, 5485, 5486], 's_3_20': [1888], 29: [5484, 5199, 1783, 1916, 5169, 1782], 's_3_29': [5424], 30: [1647, 1648, 1649, 5603, 1827, 1828, 1829, 5604], 's_3_30': [5544], 35: [5487, 1453, 1454, 5572, 2308, 2309, 5576, 5575, 5574, 5573], 's_3_35': [5529, 1949], 's_7_8': [2171], 11: [5410, 1768, 5411, 5409, 2427, 2428, 5412], 's_7_11': [5217], 22: [2440, 2038, 5350, 2441, 2442, 2143, 5351, 5352], 's_7_22': [2457], 24: [4975, 1856, 1857, 5560, 5559, 1859, 1858], 's_7_24': [1841], 26: [2173, 2141, 1557, 5273, 2142, 5274, 5277, 5276, 5275], 's_7_26': [4961], 27: [5171, 5125, 2172, 5126], 's_7_27': [5186], 28: [5095, 2354, 2353, 2111, 5096, 5097, 5247, 2352], 's_7_28': [2110], 31: [1826, 5362, 1542, 1541, 1540, 4930, 4929, 4928], 's_7_31': [2006], 32: [2290, 2291, 5394, 2292, 5395, 5396, 2203, 5292], 's_7_32': [4947], 2: [5364, 5050, 1933, 1931, 1932], 's_13_2': [5004], 's_13_4': [1990], 9: [2533, 2532, 2531, 4915, 4916, 4918, 4917], 's_13_9': [2021], 's_13_25': [2007], 's_13_28': [4990], 's_13_32': [5006], 's_15_1': [2189], 's_15_4': [2128], 's_15_11': [1723], 's_15_24': [2024], 's_15_27': [5081], 's_15_30': [1814], 's_15_32': [5426], 's_16_4': [2259], 's_16_8': [5094], 's_16_9': [2275], 10: [1736, 5363, 5337, 1737, 5336, 5335, 5334], 's_16_10': [1843], 12: [5109, 1663, 1662], 's_16_12': [5154], 18: [2022, 2186, 5155, 5156, 2187], 's_16_18': [4991], 's_16_25': [5229], 's_16_30': [5138], 's_25_2': [2066], 's_25_4': [5291], 6: [1975, 1976, 1978, 1977], 's_25_6': [5440], 's_25_10': [2218], 's_25_11': [5232], 14: [5318, 5319, 1887, 5320, 5321, 2547, 2548, 5323, 5322], 's_25_14': [1902], 's_25_22': [5471], 17: [5258, 5592, 5591, 5590, 5589, 1602, 1603, 5438, 5439, 1844], 's_34_17': [1694, 5588], 's_34_18': [2096], 21: [2039, 2053, 5502, 5501], 's_34_21': [5530], 23: [5380, 1962, 1964, 1963], 's_34_23': [5635, 1919], 's_34_24': [2069], 's_34_26': [2232], 's_34_28': [2202], 's_34_30': [1739], 's_1_11': [2233], 's_1_17': [1904], 's_1_21': [2144], 's_1_23': [5546, 5545], 's_1_32': [1918], 33: [5503, 4931, 4932, 4933, 2381, 2382, 2383, 2384], 's_1_33': [5547], 's_1_35': [2294], 's_4_2': [2036], 5: [2231, 2338, 2337, 5157], 's_4_5': [2230], 's_4_6': [4840], 's_4_8': [5052], 's_4_27': [5111], 's_8_21': [5516], 's_8_33': [2366], 's_8_6': [5020], 's_8_10': [5168], 's_8_12': [1722, 5213], 's_8_19': [5183, 1617], 's_19_17': [1633], 's_19_23': [2008], 's_19_6': [4885], 's_19_9': [4900], 's_19_12': [5289], 's_19_14': [1498], 's_19_26': [1572, 5197], 's_20_17': [1994], 's_20_6': [5365], 's_20_14': [1948], 's_20_22': [5441], 's_29_17': [1708], 's_29_32': [5393, 1738], 's_29_18': [5080], 's_29_24': [1915], 's_29_14': [1798], 's_29_28': [5034, 5035], 's_29_30': [1781, 5124], 's_30_35': [1544], 's_30_31': [5078], 's_35_17': [1799], 's_35_5': [5442], 's_35_10': [2293], 's_35_14': [2323], 's_35_22': [5381], 's_35_24': [5561], 's_35_31': [5347], 's_11_2': [5425], 's_11_17': [2429], 's_22_21': [2052], 's_22_33': [5037], 's_22_5': [5158], 's_22_9': [2455], 's_22_10': [2188], 's_22_26': [2398], 's_24_21': [2129], 's_24_2': [5049], 's_24_6': [1979], 's_24_10': [5079], 's_24_27': [1961], 's_26_17': [1558], 's_26_32': [5021], 's_26_5': [2322], 's_26_14': [5278], 's_26_28': [4976], 's_26_31': [5333], 's_27_2': [5110], 's_28_21': [5517], 's_28_5': [5472], 's_28_10': [2368], 's_28_14': [5248], 's_31_33': [2065, 1900, 4870], 's_31_6': [1960], 's_31_14': [1483], 's_31_10': [1631, 5018, 1691], 's_32_5': [5127], 's_32_33': [5293], 's_2_6': [5470], 's_2_18': [2051], 's_9_33': [2410], 's_9_18': [4901], 's_9_14': [2546], 's_10_12': [5348], 's_12_17': [5378], 's_18_23': [5245], 's_18_5': [5036], 's_6_14': [5290], 's_14_17': [1573], 's_14_23': [2023], 's_17_33': [5605, 5606, 5607], 's_21_23': [5500], 's_21_33': [5577, 2369]}</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0.0007112299465240642</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.001877843102652338</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>{0: [5467, 1379, 1377, 1378], 2: [5391, 5392, 1559, 1558], 3: [1573, 5332, 5333], 11: [1784, 5664, 5662, 5663], 19: [1424, 5422, 1423], 24: [5361, 5363, 5362], 26: [5318, 1484, 5257, 1483], 31: [5347, 5272, 1454, 1453], 33: [5649, 5647, 5648], 34: [1469, 5454, 5452, 5453], 13: [1664, 1557, 1663, 5258], 14: [1589, 5602, 5603], 21: [5617, 5619, 5618], 35: [5587, 1409, 5526, 1528, 5527], 36: [1722, 1723, 5378, 5377], 15: [1618, 1619], 22: [5541, 1393, 5497, 1394], 25: [5273, 1707, 1798, 1799, 5334], 28: [1498, 1499], 1: [1604, 5393, 1603], 4: [1753, 5588, 5589, 1754], 8: [5499, 5498], 17: [1708, 1709], 27: [5469, 1783], 7: [5572, 1574, 5633], 12: [5423, 1649, 1648], 5: [5348], 10: [1737, 1739, 5528, 1738], 9: [5557, 5558], 20: [5514, 5513], 30: [5409, 5407, 5408], 23: [5543, 5542], 29: [5438, 1514, 1513, 5437], 6: [1769, 1768], 18: [5439], 32: [5468, 1634], 16: [1694, 1693]}</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0.00459666827953273</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.01077878522635089</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>{0: [5467, 1379, 1377, 1378], 2: [5391, 5392, 1559, 1558], 3: [1573, 5332, 5333], 11: [1784, 5664, 5662, 5663], 19: [1424, 5422, 1423], 24: [5361, 5363, 5362], 26: [5318, 1484, 5257, 1483], 31: [5347, 5272, 1454, 1453], 33: [5649, 5647, 5648], 34: [1469, 5454, 5452, 5453], 13: [1664, 1557, 1663, 5258], 14: [1589, 5602, 5603], 21: [5617, 5619, 5618], 35: [5587, 1409, 5526, 1528, 5527], 36: [1722, 1723, 5378, 5377], 15: [1618, 1619], 22: [5541, 1393, 5497, 1394], 25: [5273, 1707, 1798, 1799, 5334], 28: [1498, 1499], 1: [1604, 5393, 1603], 4: [1753, 5588, 5589, 1754], 8: [5499, 5498], 17: [1708, 1709], 27: [5469, 1783], 7: [5572, 1574, 5633], 12: [5423, 1649, 1648], 5: [5348], 10: [1737, 1739, 5528, 1738], 9: [5557, 5558], 20: [5514, 5513], 30: [5409, 5407, 5408], 23: [5543, 5542], 29: [5438, 1514, 1513, 5437], 6: [1769, 1768], 18: [5439], 32: [5468, 1634], 16: [1694, 1693]}</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0.00459666827953273</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.01077878522635089</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>{0: [1842, 5143, 5140, 5142, 2112, 5141], 2: [2591, 2635, 2472, 2636, 5159, 5158], 's_0_2': [2502], 3: [5261, 2424, 5037, 2425, 2426, 5262, 2427], 's_0_3': [2322], 11: [5201, 5068, 5067, 2307, 2306], 's_0_11': [2142], 19: [5275, 5276, 5279, 5278, 2038, 5277], 's_0_19': [1947], 24: [4842, 4841, 2067, 2066, 2065, 4840], 's_0_24': [5291], 26: [2350, 2351, 1993, 2125, 4947, 4946, 1992, 1991, 4945], 's_0_26': [2352], 31: [1855, 1856, 1857, 5155, 5156, 5399, 2172, 5398, 5397, 5396, 2173], 's_0_31': [5244], 33: [1974, 5110, 1975, 1976], 's_0_33': [1901], 34: [2679, 2680, 5350, 5351, 5352, 2457, 2456, 5083, 5084, 2681], 's_0_34': [2113], 's_2_11': [5069], 13: [2398, 5097, 2397, 5052, 4933, 5051, 2396], 's_2_13': [2382], 14: [2726, 2728, 5144, 2727], 's_2_14': [5174, 2697], 21: [4854, 4855, 4856, 4857, 2622, 2621, 2620, 4858], 's_2_21': [5054], 's_2_34': [2682], 35: [4705, 5187, 5186, 5185, 5184, 1916, 1915, 1914], 's_2_35': [5172], 36: [4750, 4751, 4754, 4752, 4753, 2545, 2035, 2546, 2547], 's_2_36': [2634], 's_3_13': [5217], 15: [2517, 2516, 4976, 4977, 4978], 's_3_15': [5263], 's_3_19': [2368], 22: [2202, 2203], 's_3_22': [2218], 's_3_24': [2410], 25: [4734, 4735, 4738, 4737, 4736], 's_3_25': [2409], 's_3_26': [2366], 28: [2140, 4769, 4768, 4886, 4887, 2395], 's_3_28': [4872], 's_3_34': [2353], 1: [5293, 5367, 2412, 2126, 2127, 5246, 5247], 's_11_1': [5202], 4: [4900, 4901, 4663, 4662, 2379, 2380, 4903, 4902, 2381], 's_11_4': [2576], 8: [2319, 5112, 2321, 2320], 's_11_8': [2261], 's_11_15': [2291], 17: [5339, 2607, 4661, 2289, 4692, 2604, 4693, 2605, 5338, 2606], 's_11_17': [5053], 's_11_22': [5127], 27: [2184, 4991, 2186, 2185], 's_11_27': [5036], 's_11_35': [5171], 7: [4979, 2413, 5381, 4948, 4949, 2561, 2562, 5382, 2563, 5383], 's_19_7': [2188], 12: [5414, 2529, 2530, 2531, 4918, 2713, 2712, 2711, 4919], 's_19_12': [2743], 's_19_21': [5264], 's_19_24': [2052], 's_19_26': [5260], 's_19_34': [2082], 's_24_4': [2305], 5: [5096, 2022, 5095], 's_24_5': [2051], 10: [2337, 2336, 2455, 5005, 5006, 5007], 's_24_10': [2095], 's_24_26': [5365], 's_24_28': [2215], 's_24_31': [5111], 's_24_36': [2365], 's_26_1': [5245], 's_26_7': [5380], 9: [2335, 2500, 4795, 4796, 4798, 2290, 4797], 's_26_9': [2155], 's_26_13': [4932, 2216], 20: [5020, 5021, 5233, 2487, 2486, 5024, 5023, 5022], 's_26_20': [2036], 's_26_28': [2275], 30: [5216, 2097, 5231, 2230, 2231, 2232], 's_26_30': [5215], 's_26_34': [2008], 's_26_36': [2124], 's_31_5': [5094], 's_31_7': [2263], 's_31_13': [2171], 's_31_14': [5384], 's_31_22': [5426], 23: [5413, 2245, 5065, 5066, 2246, 2247, 2248, 5412, 5411], 's_31_23': [2278], 's_31_25': [1840], 29: [5128, 2411, 2664, 2665, 2666, 2533, 2532, 5098, 5099], 's_31_29': [2548], 's_31_30': [2233], 6: [4961, 1930, 5125, 1931, 4960], 's_33_6': [2007], 's_33_10': [4990], 's_33_25': [1959], 's_33_35': [4930], 's_34_1': [2128], 's_34_7': [2143], 's_34_10': [5082], 's_34_14': [5039], 18: [4709, 2649, 2499, 4633], 's_34_18': [4694], 's_34_23': [2323], 's_34_28': [2695, 2694], 's_34_29': [2757], 's_34_35': [2441], 's_13_1': [5232], 's_13_5': [2081], 's_13_4': [4992], 's_13_8': [2367], 's_13_9': [2470], 's_13_12': [2485], 's_13_23': [5050], 's_14_7': [5129], 's_14_17': [4934], 's_14_20': [5234], 's_14_29': [2577], 's_14_21': [5249], 32: [4859, 2725, 2724, 4619, 4706, 4618, 2394, 4707], 's_14_32': [4904, 2770], 's_21_6': [1900], 's_21_29': [4889], 's_21_10': [2080], 's_21_35': [4839], 's_35_20': [5019], 's_35_29': [5188], 's_35_4': [4915], 's_35_30': [2157], 's_35_32': [2109, 4675, 4674], 's_35_36': [4765], 's_36_15': [5038], 's_36_20': [4963], 's_36_29': [4843], 's_36_4': [2589], 's_36_12': [4813], 's_36_18': [2544], 's_36_25': [2079], 's_36_27': [4781], 's_36_28': [2170], 's_15_1': [5035, 2111], 's_15_7': [5008], 's_15_8': [5113], 's_15_12': [5369, 5368, 2518], 's_15_20': [2471], 's_15_29': [2501], 's_15_30': [4962], 's_22_8': [2217], 's_22_23': [5322], 's_22_30': [5157], 's_25_4': [2484], 's_25_8': [4722], 's_25_18': [4723], 's_25_27': [4721], 's_28_23': [2141], 's_28_30': [4871], 's_28_32': [2469], 's_1_5': [5170], 's_1_6': [5126], 's_1_7': [2473], 's_1_17': [5248], 's_1_20': [2488], 's_1_29': [5323], 's_4_6': [2006], 's_4_7': [2590], 's_4_17': [2574], 's_4_20': [2021], 's_4_8': [4647], 's_4_9': [1960], 's_4_10': [2454], 's_4_12': [4573], 's_4_18': [2559], 's_4_32': [2349], 's_8_20': [2201, 2200, 4782], 's_8_32': [4617], 's_17_9': [2229], 's_17_12': [4708], 16: [5307, 5309, 5308], 's_17_16': [2592], 's_17_27': [4676], 's_27_6': [2156], 's_27_32': [2169], 's_27_30': [2187], 's_7_9': [2515], 's_7_16': [5294], 's_7_23': [2593], 's_7_29': [2651, 2650], 's_12_20': [2756], 's_12_29': [4828], 's_12_10': [4888], 's_12_16': [5324, 2578], 's_12_23': [4917, 4916], 's_12_32': [2785], 's_5_6': [5080], 's_10_9': [4873], 's_10_16': [5292], 's_10_23': [1961], 's_9_6': [4780], 's_20_16': [2442], 's_30_16': [5306], 's_23_6': [1946], 's_29_16': [2667], 's_29_18': [4739], 's_29_32': [4784]}</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0.0005406698564593302</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.001544728524267479</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>{0: [1842, 5143, 5140, 5142, 2112, 5141], 2: [2591, 2635, 2472, 2636, 5159, 5158], 's_0_2': [2502], 3: [5261, 2424, 5037, 2425, 2426, 5262, 2427], 's_0_3': [2322], 11: [5201, 5068, 5067, 2307, 2306], 's_0_11': [2142], 19: [5275, 5276, 5279, 5278, 2038, 5277], 's_0_19': [1947], 24: [4842, 4841, 2067, 2066, 2065, 4840], 's_0_24': [5291], 26: [2350, 2351, 1993, 2125, 4947, 4946, 1992, 1991, 4945], 's_0_26': [2352], 31: [1855, 1856, 1857, 5155, 5156, 5399, 2172, 5398, 5397, 5396, 2173], 's_0_31': [5244], 33: [1974, 5110, 1975, 1976], 's_0_33': [1901], 34: [2679, 2680, 5350, 5351, 5352, 2457, 2456, 5083, 5084, 2681], 's_0_34': [2113], 's_2_11': [5069], 13: [2398, 5097, 2397, 5052, 4933, 5051, 2396], 's_2_13': [2382], 14: [2726, 2728, 5144, 2727], 's_2_14': [5174, 2697], 21: [4854, 4855, 4856, 4857, 2622, 2621, 2620, 4858], 's_2_21': [5054], 's_2_34': [2682], 35: [4705, 5187, 5186, 5185, 5184, 1916, 1915, 1914], 's_2_35': [5172], 36: [4750, 4751, 4754, 4752, 4753, 2545, 2035, 2546, 2547], 's_2_36': [2634], 's_3_13': [5217], 15: [2517, 2516, 4976, 4977, 4978], 's_3_15': [5263], 's_3_19': [2368], 22: [2202, 2203], 's_3_22': [2218], 's_3_24': [2410], 25: [4734, 4735, 4738, 4737, 4736], 's_3_25': [2409], 's_3_26': [2366], 28: [2140, 4769, 4768, 4886, 4887, 2395], 's_3_28': [4872], 's_3_34': [2353], 1: [5293, 5367, 2412, 2126, 2127, 5246, 5247], 's_11_1': [5202], 4: [4900, 4901, 4663, 4662, 2379, 2380, 4903, 4902, 2381], 's_11_4': [2576], 8: [2319, 5112, 2321, 2320], 's_11_8': [2261], 's_11_15': [2291], 17: [5339, 2607, 4661, 2289, 4692, 2604, 4693, 2605, 5338, 2606], 's_11_17': [5053], 's_11_22': [5127], 27: [2184, 4991, 2186, 2185], 's_11_27': [5036], 's_11_35': [5171], 7: [4979, 2413, 5381, 4948, 4949, 2561, 2562, 5382, 2563, 5383], 's_19_7': [2188], 12: [5414, 2529, 2530, 2531, 4918, 2713, 2712, 2711, 4919], 's_19_12': [2743], 's_19_21': [5264], 's_19_24': [2052], 's_19_26': [5260], 's_19_34': [2082], 's_24_4': [2305], 5: [5096, 2022, 5095], 's_24_5': [2051], 10: [2337, 2336, 2455, 5005, 5006, 5007], 's_24_10': [2095], 's_24_26': [5365], 's_24_28': [2215], 's_24_31': [5111], 's_24_36': [2365], 's_26_1': [5245], 's_26_7': [5380], 9: [2335, 2500, 4795, 4796, 4798, 2290, 4797], 's_26_9': [2155], 's_26_13': [4932, 2216], 20: [5020, 5021, 5233, 2487, 2486, 5024, 5023, 5022], 's_26_20': [2036], 's_26_28': [2275], 30: [5216, 2097, 5231, 2230, 2231, 2232], 's_26_30': [5215], 's_26_34': [2008], 's_26_36': [2124], 's_31_5': [5094], 's_31_7': [2263], 's_31_13': [2171], 's_31_14': [5384], 's_31_22': [5426], 23: [5413, 2245, 5065, 5066, 2246, 2247, 2248, 5412, 5411], 's_31_23': [2278], 's_31_25': [1840], 29: [5128, 2411, 2664, 2665, 2666, 2533, 2532, 5098, 5099], 's_31_29': [2548], 's_31_30': [2233], 6: [4961, 1930, 5125, 1931, 4960], 's_33_6': [2007], 's_33_10': [4990], 's_33_25': [1959], 's_33_35': [4930], 's_34_1': [2128], 's_34_7': [2143], 's_34_10': [5082], 's_34_14': [5039], 18: [4709, 2649, 2499, 4633], 's_34_18': [4694], 's_34_23': [2323], 's_34_28': [2695, 2694], 's_34_29': [2757], 's_34_35': [2441], 's_13_1': [5232], 's_13_5': [2081], 's_13_4': [4992], 's_13_8': [2367], 's_13_9': [2470], 's_13_12': [2485], 's_13_23': [5050], 's_14_7': [5129], 's_14_17': [4934], 's_14_20': [5234], 's_14_29': [2577], 's_14_21': [5249], 32: [4859, 2725, 2724, 4619, 4706, 4618, 2394, 4707], 's_14_32': [4904, 2770], 's_21_6': [1900], 's_21_29': [4889], 's_21_10': [2080], 's_21_35': [4839], 's_35_20': [5019], 's_35_29': [5188], 's_35_4': [4915], 's_35_30': [2157], 's_35_32': [2109, 4675, 4674], 's_35_36': [4765], 's_36_15': [5038], 's_36_20': [4963], 's_36_29': [4843], 's_36_4': [2589], 's_36_12': [4813], 's_36_18': [2544], 's_36_25': [2079], 's_36_27': [4781], 's_36_28': [2170], 's_15_1': [5035, 2111], 's_15_7': [5008], 's_15_8': [5113], 's_15_12': [5369, 5368, 2518], 's_15_20': [2471], 's_15_29': [2501], 's_15_30': [4962], 's_22_8': [2217], 's_22_23': [5322], 's_22_30': [5157], 's_25_4': [2484], 's_25_8': [4722], 's_25_18': [4723], 's_25_27': [4721], 's_28_23': [2141], 's_28_30': [4871], 's_28_32': [2469], 's_1_5': [5170], 's_1_6': [5126], 's_1_7': [2473], 's_1_17': [5248], 's_1_20': [2488], 's_1_29': [5323], 's_4_6': [2006], 's_4_7': [2590], 's_4_17': [2574], 's_4_20': [2021], 's_4_8': [4647], 's_4_9': [1960], 's_4_10': [2454], 's_4_12': [4573], 's_4_18': [2559], 's_4_32': [2349], 's_8_20': [2201, 2200, 4782], 's_8_32': [4617], 's_17_9': [2229], 's_17_12': [4708], 16: [5307, 5309, 5308], 's_17_16': [2592], 's_17_27': [4676], 's_27_6': [2156], 's_27_32': [2169], 's_27_30': [2187], 's_7_9': [2515], 's_7_16': [5294], 's_7_23': [2593], 's_7_29': [2651, 2650], 's_12_20': [2756], 's_12_29': [4828], 's_12_10': [4888], 's_12_16': [5324, 2578], 's_12_23': [4917, 4916], 's_12_32': [2785], 's_5_6': [5080], 's_10_9': [4873], 's_10_16': [5292], 's_10_23': [1961], 's_9_6': [4780], 's_20_16': [2442], 's_30_16': [5306], 's_23_6': [1946], 's_29_16': [2667], 's_29_18': [4739], 's_29_32': [4784]}</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0.0005406698564593302</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.001544728524267479</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>{0: [3358, 2506, 2507], 5: [3298, 3299], 8: [2626, 3312, 3313, 3314], 9: [3194, 2356, 3192, 3193], 17: [2431, 3238, 3236, 3237], 24: [3253, 2537, 2536], 28: [2551, 3359, 3433, 2552], 37: [3402, 2566, 3403, 2567], 2: [2581, 2580], 16: [2655, 2656], 23: [2492, 3208, 2491], 25: [2640, 3239, 2984, 2670, 2671], 32: [2612, 3284, 2610, 2611], 33: [3178, 2641, 3179], 1: [3147, 2251, 2250], 13: [3372, 3373], 18: [2387, 3043, 2386, 3148, 2490], 20: [2296, 3327, 2717, 3328, 3329], 29: [2312, 2310, 2311], 35: [2625, 3087, 3088, 3089], 36: [3222, 3223], 10: [3252], 22: [3104, 2702, 2701], 27: [2326], 31: [2430, 3118, 2716, 3119], 7: [3344, 3343, 2400, 2401], 12: [2445, 2446], 3: [3269, 3267, 3268], 15: [2791, 3387, 3388, 3389], 19: [3162, 2476, 3164, 3163], 30: [3102, 2521, 3103], 6: [2983, 2462, 3207, 2460, 2461], 14: [3058, 2596, 2595], 11: [2475, 3133, 3134], 21: [2416, 3073, 3072, 2415], 4: [2776, 3074, 3224, 2775], 26: [3282, 2372, 2371], 34: [2998, 2505]}</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0.008716690971761898</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.01482202841659199</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>{0: [3358, 2506, 2507], 5: [3298, 3299], 8: [2626, 3312, 3313, 3314], 9: [3194, 2356, 3192, 3193], 17: [2431, 3238, 3236, 3237], 24: [3253, 2537, 2536], 28: [2551, 3359, 3433, 2552], 37: [3402, 2566, 3403, 2567], 2: [2581, 2580], 16: [2655, 2656], 23: [2492, 3208, 2491], 25: [2640, 3239, 2984, 2670, 2671], 32: [2612, 3284, 2610, 2611], 33: [3178, 2641, 3179], 1: [3147, 2251, 2250], 13: [3372, 3373], 18: [2387, 3043, 2386, 3148, 2490], 20: [2296, 3327, 2717, 3328, 3329], 29: [2312, 2310, 2311], 35: [2625, 3087, 3088, 3089], 36: [3222, 3223], 10: [3252], 22: [3104, 2702, 2701], 27: [2326], 31: [2430, 3118, 2716, 3119], 7: [3344, 3343, 2400, 2401], 12: [2445, 2446], 3: [3269, 3267, 3268], 15: [2791, 3387, 3388, 3389], 19: [3162, 2476, 3164, 3163], 30: [3102, 2521, 3103], 6: [2983, 2462, 3207, 2460, 2461], 14: [3058, 2596, 2595], 11: [2475, 3133, 3134], 21: [2416, 3073, 3072, 2415], 4: [2776, 3074, 3224, 2775], 26: [3282, 2372, 2371], 34: [2998, 2505]}</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0.008716690971761898</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.01482202841659199</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.051</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>{0: [925, 928, 927, 926], 5: [5194, 1165, 5510, 1168, 5450, 1018, 4865, 1015, 1016, 1017], 's_0_5': [4834], 8: [4910, 4909, 956, 5138, 5137, 5136, 5135, 957], 's_0_8': [5239], 9: [5344, 1393, 5346, 1197, 5345], 's_0_9': [912, 913], 17: [4999, 5000, 1274, 1273, 1272, 5016, 5001, 1271], 's_0_17': [5015, 5014], 24: [5044, 1481, 5045, 5047, 5046], 's_0_24': [5059], 28: [883, 5404, 5405, 5409, 5408, 5407, 5406], 's_0_28': [5419], 37: [4808, 4807, 911, 4894, 4806, 4805, 4804, 4849, 895], 's_0_37': [4819], 2: [4837, 4835, 1347, 1346, 1345, 4836], 's_5_2': [4866], 's_5_8': [5105], 16: [1705, 1706, 5525, 1707, 5526, 1363, 1362, 5273, 5272], 's_5_16': [1079], 's_5_17': [5511], 23: [5540, 5541, 5122, 1376, 1377, 1378], 's_5_23': [1064], 25: [5451, 5452, 5600, 1420, 1421, 1422, 1423, 1424, 5601, 5602], 's_5_25': [1094], 32: [1135, 5302, 1437, 1436, 4791, 4792, 1435], 's_5_32': [1120, 4746], 33: [4924, 1633, 4925, 4926, 4927, 1632, 1631, 4928], 's_5_33': [1150], 's_5_37': [5029], 1: [958, 5330, 943, 988, 5374], 's_8_1': [942], 's_8_2': [1060], 13: [1374, 5106, 5107, 4747, 1465, 1466, 1467], 's_8_13': [1452], 18: [5079, 1482, 5078, 972, 5077, 5076, 5075, 5074, 971], 's_8_18': [5179], 20: [5513, 4911, 4912, 1496, 1497, 5586, 5587, 5303, 1498, 1499], 's_8_20': [1602], 's_8_23': [1331], 29: [4956, 868, 4970, 4969, 866, 4955, 867, 5224], 's_8_29': [1000], 's_8_33': [790, 4908], 35: [899, 898, 4868, 4867, 1375, 897, 896, 4984, 4986, 4985], 's_8_35': [5134], 36: [1511, 5375, 5123, 5198, 5376, 5377, 1647, 1648, 5378], 's_8_36': [1541], 's_8_37': [1030], 's_9_1': [5359], 10: [5315, 5316, 5317, 1736, 1737, 5319, 5318], 's_9_10': [1033], 's_9_16': [5437], 's_9_17': [5271], 22: [820, 1303, 1304, 5571, 5570, 821, 822, 823, 5494, 5569, 884], 's_9_22': [5331, 5332], 's_9_23': [5482], 's_9_25': [1394], 27: [1243, 5226, 1241, 1242], 's_9_27': [5391], 31: [1152, 5363, 1557, 5362, 5360, 5361], 's_9_31': [5347], 's_9_36': [1078], 7: [1660, 5166, 5167, 1753, 1752, 5168, 4838, 1690, 1691], 's_17_7': [1287], 12: [1315, 1330, 4881], 's_17_12': [1270], 's_17_13': [5121], 's_17_18': [1031], 's_17_20': [1286], 's_17_23': [1289], 's_17_27': [5196], 's_17_29': [941], 's_17_33': [970], 's_17_36': [1183, 5496], 's_24_2': [1480], 3: [1316, 1317, 1318, 1319, 5468, 5464, 5465, 5466, 5467], 's_24_3': [5061], 15: [5119, 5120, 4899, 4898, 1405, 1076, 1075, 4897, 4820, 4821], 's_24_15': [836], 19: [4972, 1618, 4971, 1617, 1616, 4973], 's_24_19': [1136], 's_24_20': [4958], 's_24_23': [5062], 30: [1091, 5181, 5180, 1092], 's_24_30': [5060], 's_24_36': [5017], 's_28_3': [1063, 5480], 6: [1483, 1210, 1211, 5255, 1212, 5256, 5258, 5257], 's_28_6': [1678], 's_28_7': [1768], 14: [5090, 1138, 1137], 's_28_14': [5420], 's_28_19': [5423], 's_28_20': [1528], 's_28_22': [1003, 1004], 's_28_36': [1693], 's_37_6': [4776, 1285], 's_37_7': [1645], 11: [4943, 4942, 1392, 1391, 1390], 's_37_11': [1615], 's_37_13': [1300], 's_37_15': [1149], 's_37_29': [865], 's_37_32': [1194], 's_37_33': [850], 's_2_18': [5091], 's_2_7': [1360, 4882, 4883], 's_2_11': [4957], 's_2_13': [4748, 1495], 21: [1570, 5453, 4988, 4987, 1571, 1573, 1572], 's_2_21': [1555], 's_2_23': [5031], 's_2_30': [1090, 4850], 's_2_31': [1332], 's_16_3': [1124], 's_16_35': [5524], 's_16_11': [5211], 's_16_23': [1259], 4: [4959, 1722, 1720, 1721], 's_16_4': [5274], 's_16_19': [4974], 's_16_32': [1453], 's_16_33': [5093], 's_16_36': [5289, 1767], 's_23_3': [1153], 's_23_7': [1361], 's_23_6': [5422], 's_23_30': [1302], 's_25_18': [5242], 's_25_11': [4777], 's_25_31': [1438], 's_25_6': [1484], 's_25_20': [1514, 5632], 's_25_22': [1169], 's_25_15': [4822], 's_25_32': [5032], 's_32_18': [5227], 's_32_13': [1434], 's_32_19': [1451, 1450], 's_32_20': [5002], 's_32_22': [5287], 's_32_15': [1179], 's_33_7': [5393], 's_33_21': [5108], 's_33_30': [4940], 's_33_31': [5243], 's_33_19': [5183], 's_33_22': [808, 807, 806, 805], 's_33_36': [1646], 's_33_12': [1255], 26: [1227, 5151, 5152, 1661, 1662, 5154, 5153], 's_33_26': [4929], 's_1_3': [944], 's_1_10': [1048], 's_1_18': [973, 5539], 's_1_35': [5434], 's_13_18': [1151], 's_13_7': [4852, 4853], 's_13_12': [1329], 's_13_14': [1122], 's_13_26': [1196], 's_18_10': [5094], 's_18_7': [1556], 's_18_14': [5089], 's_18_20': [5092], 's_18_21': [5182], 's_18_26': [1812], 's_18_30': [5150], 34: [5209, 5210], 's_18_34': [987], 's_18_36': [1601], 's_20_3': [1454], 's_20_10': [5304], 's_20_7': [4913], 's_20_21': [1510], 's_20_31': [1542], 's_20_19': [1619], 's_20_12': [1240], 's_20_15': [1525], 's_20_22': [5572], 's_29_3': [853], 's_29_35': [985], 's_29_30': [1106], 's_29_6': [1077, 5300, 5299], 's_29_27': [5225], 's_29_15': [851], 's_35_6': [5254], 's_35_7': [1675], 's_35_11': [1406], 's_35_21': [1540], 's_35_22': [5644], 's_35_34': [882], 's_36_6': [1288], 's_36_19': [1586], 's_36_27': [1258], 's_36_4': [1723], 's_36_14': [1123], 's_36_26': [5124], 's_10_7': [5229], 's_10_21': [1603], 's_10_26': [5018], 's_22_3': [914], 's_22_15': [5104], 's_27_3': [5481], 's_27_6': [5286], 's_27_19': [1256], 's_27_26': [5301], 's_31_4': [5348], 's_31_19': [5333], 's_31_34': [1182], 's_7_3': [5469], 's_12_6': [1225], 's_3_6': [5241], 's_3_19': [1301], 's_3_21': [1558], 's_15_4': [4914], 's_15_14': [1061], 's_15_26': [1676], 's_19_21': [5228], 's_19_26': [5063], 's_30_11': [1407], 's_30_6': [1093], 's_30_14': [5195], 's_30_26': [1181], 's_30_34': [1062], 's_6_11': [4941], 's_6_21': [1587], 's_6_26': [1663], 's_6_34': [1047], 's_14_34': [5240, 1107], 's_11_26': [4944], 's_21_4': [1735]}</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0.0005905172413793103</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.001614113354239081</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>{0: [925, 928, 927, 926], 5: [5194, 1165, 5510, 1168, 5450, 1018, 4865, 1015, 1016, 1017], 's_0_5': [4834], 8: [4910, 4909, 956, 5138, 5137, 5136, 5135, 957], 's_0_8': [5239], 9: [5344, 1393, 5346, 1197, 5345], 's_0_9': [912, 913], 17: [4999, 5000, 1274, 1273, 1272, 5016, 5001, 1271], 's_0_17': [5015, 5014], 24: [5044, 1481, 5045, 5047, 5046], 's_0_24': [5059], 28: [883, 5404, 5405, 5409, 5408, 5407, 5406], 's_0_28': [5419], 37: [4808, 4807, 911, 4894, 4806, 4805, 4804, 4849, 895], 's_0_37': [4819], 2: [4837, 4835, 1347, 1346, 1345, 4836], 's_5_2': [4866], 's_5_8': [5105], 16: [1705, 1706, 5525, 1707, 5526, 1363, 1362, 5273, 5272], 's_5_16': [1079], 's_5_17': [5511], 23: [5540, 5541, 5122, 1376, 1377, 1378], 's_5_23': [1064], 25: [5451, 5452, 5600, 1420, 1421, 1422, 1423, 1424, 5601, 5602], 's_5_25': [1094], 32: [1135, 5302, 1437, 1436, 4791, 4792, 1435], 's_5_32': [1120, 4746], 33: [4924, 1633, 4925, 4926, 4927, 1632, 1631, 4928], 's_5_33': [1150], 's_5_37': [5029], 1: [958, 5330, 943, 988, 5374], 's_8_1': [942], 's_8_2': [1060], 13: [1374, 5106, 5107, 4747, 1465, 1466, 1467], 's_8_13': [1452], 18: [5079, 1482, 5078, 972, 5077, 5076, 5075, 5074, 971], 's_8_18': [5179], 20: [5513, 4911, 4912, 1496, 1497, 5586, 5587, 5303, 1498, 1499], 's_8_20': [1602], 's_8_23': [1331], 29: [4956, 868, 4970, 4969, 866, 4955, 867, 5224], 's_8_29': [1000], 's_8_33': [790, 4908], 35: [899, 898, 4868, 4867, 1375, 897, 896, 4984, 4986, 4985], 's_8_35': [5134], 36: [1511, 5375, 5123, 5198, 5376, 5377, 1647, 1648, 5378], 's_8_36': [1541], 's_8_37': [1030], 's_9_1': [5359], 10: [5315, 5316, 5317, 1736, 1737, 5319, 5318], 's_9_10': [1033], 's_9_16': [5437], 's_9_17': [5271], 22: [820, 1303, 1304, 5571, 5570, 821, 822, 823, 5494, 5569, 884], 's_9_22': [5331, 5332], 's_9_23': [5482], 's_9_25': [1394], 27: [1243, 5226, 1241, 1242], 's_9_27': [5391], 31: [1152, 5363, 1557, 5362, 5360, 5361], 's_9_31': [5347], 's_9_36': [1078], 7: [1660, 5166, 5167, 1753, 1752, 5168, 4838, 1690, 1691], 's_17_7': [1287], 12: [1315, 1330, 4881], 's_17_12': [1270], 's_17_13': [5121], 's_17_18': [1031], 's_17_20': [1286], 's_17_23': [1289], 's_17_27': [5196], 's_17_29': [941], 's_17_33': [970], 's_17_36': [1183, 5496], 's_24_2': [1480], 3: [1316, 1317, 1318, 1319, 5468, 5464, 5465, 5466, 5467], 's_24_3': [5061], 15: [5119, 5120, 4899, 4898, 1405, 1076, 1075, 4897, 4820, 4821], 's_24_15': [836], 19: [4972, 1618, 4971, 1617, 1616, 4973], 's_24_19': [1136], 's_24_20': [4958], 's_24_23': [5062], 30: [1091, 5181, 5180, 1092], 's_24_30': [5060], 's_24_36': [5017], 's_28_3': [1063, 5480], 6: [1483, 1210, 1211, 5255, 1212, 5256, 5258, 5257], 's_28_6': [1678], 's_28_7': [1768], 14: [5090, 1138, 1137], 's_28_14': [5420], 's_28_19': [5423], 's_28_20': [1528], 's_28_22': [1003, 1004], 's_28_36': [1693], 's_37_6': [4776, 1285], 's_37_7': [1645], 11: [4943, 4942, 1392, 1391, 1390], 's_37_11': [1615], 's_37_13': [1300], 's_37_15': [1149], 's_37_29': [865], 's_37_32': [1194], 's_37_33': [850], 's_2_18': [5091], 's_2_7': [1360, 4882, 4883], 's_2_11': [4957], 's_2_13': [4748, 1495], 21: [1570, 5453, 4988, 4987, 1571, 1573, 1572], 's_2_21': [1555], 's_2_23': [5031], 's_2_30': [1090, 4850], 's_2_31': [1332], 's_16_3': [1124], 's_16_35': [5524], 's_16_11': [5211], 's_16_23': [1259], 4: [4959, 1722, 1720, 1721], 's_16_4': [5274], 's_16_19': [4974], 's_16_32': [1453], 's_16_33': [5093], 's_16_36': [5289, 1767], 's_23_3': [1153], 's_23_7': [1361], 's_23_6': [5422], 's_23_30': [1302], 's_25_18': [5242], 's_25_11': [4777], 's_25_31': [1438], 's_25_6': [1484], 's_25_20': [1514, 5632], 's_25_22': [1169], 's_25_15': [4822], 's_25_32': [5032], 's_32_18': [5227], 's_32_13': [1434], 's_32_19': [1451, 1450], 's_32_20': [5002], 's_32_22': [5287], 's_32_15': [1179], 's_33_7': [5393], 's_33_21': [5108], 's_33_30': [4940], 's_33_31': [5243], 's_33_19': [5183], 's_33_22': [808, 807, 806, 805], 's_33_36': [1646], 's_33_12': [1255], 26: [1227, 5151, 5152, 1661, 1662, 5154, 5153], 's_33_26': [4929], 's_1_3': [944], 's_1_10': [1048], 's_1_18': [973, 5539], 's_1_35': [5434], 's_13_18': [1151], 's_13_7': [4852, 4853], 's_13_12': [1329], 's_13_14': [1122], 's_13_26': [1196], 's_18_10': [5094], 's_18_7': [1556], 's_18_14': [5089], 's_18_20': [5092], 's_18_21': [5182], 's_18_26': [1812], 's_18_30': [5150], 34: [5209, 5210], 's_18_34': [987], 's_18_36': [1601], 's_20_3': [1454], 's_20_10': [5304], 's_20_7': [4913], 's_20_21': [1510], 's_20_31': [1542], 's_20_19': [1619], 's_20_12': [1240], 's_20_15': [1525], 's_20_22': [5572], 's_29_3': [853], 's_29_35': [985], 's_29_30': [1106], 's_29_6': [1077, 5300, 5299], 's_29_27': [5225], 's_29_15': [851], 's_35_6': [5254], 's_35_7': [1675], 's_35_11': [1406], 's_35_21': [1540], 's_35_22': [5644], 's_35_34': [882], 's_36_6': [1288], 's_36_19': [1586], 's_36_27': [1258], 's_36_4': [1723], 's_36_14': [1123], 's_36_26': [5124], 's_10_7': [5229], 's_10_21': [1603], 's_10_26': [5018], 's_22_3': [914], 's_22_15': [5104], 's_27_3': [5481], 's_27_6': [5286], 's_27_19': [1256], 's_27_26': [5301], 's_31_4': [5348], 's_31_19': [5333], 's_31_34': [1182], 's_7_3': [5469], 's_12_6': [1225], 's_3_6': [5241], 's_3_19': [1301], 's_3_21': [1558], 's_15_4': [4914], 's_15_14': [1061], 's_15_26': [1676], 's_19_21': [5228], 's_19_26': [5063], 's_30_11': [1407], 's_30_6': [1093], 's_30_14': [5195], 's_30_26': [1181], 's_30_34': [1062], 's_6_11': [4941], 's_6_21': [1587], 's_6_26': [1663], 's_6_34': [1047], 's_14_34': [5240, 1107], 's_11_26': [4944], 's_21_4': [1735]}</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0.0005905172413793103</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.001614113354239081</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>{0: [3233, 1605, 1607, 1606], 9: [3248, 1622, 1621, 3203], 14: [3443, 3445, 3444], 15: [1862, 1861, 3234], 22: [3368, 3370, 3369], 30: [3038, 3039, 3115, 1905], 34: [3219, 3218], 1: [3113, 1636, 1637], 3: [3250, 3249], 5: [3084, 1757, 1755, 1756], 6: [1591, 3308, 3310, 3309], 21: [3295, 3204, 1921], 2: [1831, 1982, 1981, 3175], 11: [1742, 1740, 1741], 20: [2042, 3459, 3460], 4: [3429, 1846, 1847], 7: [3069, 1860], 10: [1965, 1966, 1967, 3489, 3490], 13: [1876], 17: [3355, 3354, 1816, 1817], 33: [1906, 3340], 37: [3505, 1877], 38: [1995, 3235, 1997, 1996], 19: [1832], 23: [3311, 3400, 2026, 2027], 25: [3054, 1770, 1772, 1771], 12: [3114], 24: [1801, 3100, 3099], 16: [3294, 1725, 1726], 27: [1785, 3399, 1786, 1787], 29: [1891, 3264, 3265], 36: [3383, 3279, 1711], 18: [1652, 1651, 3189, 3188], 8: [1875, 1952, 1951, 3160], 26: [1936, 1935, 1890, 3070], 31: [3324, 3325], 28: [3280, 2055, 2056], 35: [1803, 3414, 1802, 3384], 32: [1710, 3130, 3129]}</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0.00304383788254756</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.008790083009363738</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.221</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>{0: [3233, 1605, 1607, 1606], 9: [3248, 1622, 1621, 3203], 14: [3443, 3445, 3444], 15: [1862, 1861, 3234], 22: [3368, 3370, 3369], 30: [3038, 3039, 3115, 1905], 34: [3219, 3218], 1: [3113, 1636, 1637], 3: [3250, 3249], 5: [3084, 1757, 1755, 1756], 6: [1591, 3308, 3310, 3309], 21: [3295, 3204, 1921], 2: [1831, 1982, 1981, 3175], 11: [1742, 1740, 1741], 20: [2042, 3459, 3460], 4: [3429, 1846, 1847], 7: [3069, 1860], 10: [1965, 1966, 1967, 3489, 3490], 13: [1876], 17: [3355, 3354, 1816, 1817], 33: [1906, 3340], 37: [3505, 1877], 38: [1995, 3235, 1997, 1996], 19: [1832], 23: [3311, 3400, 2026, 2027], 25: [3054, 1770, 1772, 1771], 12: [3114], 24: [1801, 3100, 3099], 16: [3294, 1725, 1726], 27: [1785, 3399, 1786, 1787], 29: [1891, 3264, 3265], 36: [3383, 3279, 1711], 18: [1652, 1651, 3189, 3188], 8: [1875, 1952, 1951, 3160], 26: [1936, 1935, 1890, 3070], 31: [3324, 3325], 28: [3280, 2055, 2056], 35: [1803, 3414, 1802, 3384], 32: [1710, 3130, 3129]}</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0.00304383788254756</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.008790083009363738</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.221</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>{0: [471, 697, 4187, 4233, 621], 9: [3691, 3692, 696, 695, 694, 3693], 's_0_9': [4203], 14: [306, 501, 4143, 4142, 4141], 's_0_14': [636], 15: [634, 3917, 4201, 4202, 516, 515], 's_0_15': [456], 22: [4112, 561, 4023, 4020, 4021, 4022], 's_0_22': [531], 30: [470, 469, 785, 784, 3798, 3797], 's_0_30': [786, 4263], 34: [4277, 424, 425, 4275, 4276, 426], 's_0_34': [4278], 1: [4007, 500, 3736, 499], 's_9_1': [349], 3: [3661, 3735, 3630, 228, 229], 's_9_3': [319], 5: [725, 4068, 726, 727, 605, 606, 4248, 4247, 517], 's_9_5': [651, 4188], 6: [439, 438, 618, 3572, 3571], 's_9_6': [648], 's_9_14': [4158], 21: [3405, 242, 3585, 243], 's_9_21': [288], 's_14_1': [591], 2: [302, 4080, 187, 3466, 186, 184, 183, 185, 3465], 's_14_2': [4095], 11: [4081, 396, 3844, 3843, 529, 3842, 395], 's_14_11': [4096], 20: [367, 366], 's_14_20': [4126], 4: [604, 603, 602, 123, 122, 3437, 3435, 3436], 's_15_4': [3873], 7: [547, 546, 3632, 436, 437, 545, 544, 543, 3527], 's_15_7': [4172], 10: [350, 3963, 3962, 275, 3961], 's_15_10': [335, 336], 13: [412], 's_15_13': [4217], 17: [3542, 560, 3706, 422, 3512, 3707, 559, 558], 's_15_17': [3767], 33: [232, 4290, 157, 3376, 3375, 156, 155, 154, 153, 152], 's_15_33': [4200, 170, 171], 's_15_34': [246], 37: [276, 321, 4156], 's_15_37': [4216], 38: [362, 363, 3750, 3752, 3751, 364], 's_15_38': [514], 's_22_2': [260], 's_22_5': [562], 19: [200, 4050, 201], 's_22_19': [80], 23: [4037, 3708, 574, 530, 3946, 3947, 575], 's_22_23': [576], 25: [287, 3421, 3422, 710, 709, 708, 3528, 617], 's_22_25': [4038], 's_22_33': [4005, 231], 's_30_7': [3827], 's_30_10': [3901], 's_30_11': [3859], 12: [3647, 3886, 453, 454, 3887], 's_30_12': [455], 's_30_23': [3948], 24: [4008, 800, 799, 798, 797, 3453, 511, 3452, 512], 's_30_24': [3753, 754], 's_30_25': [3768], 's_30_38': [649], 's_34_2': [202], 's_34_6': [3766], 's_34_11': [3826], 's_34_13': [397], 16: [4140, 4232, 4231, 3677, 217, 216, 3676, 214, 215], 's_34_16': [307], 27: [3976, 304, 411, 305, 4006], 's_34_27': [4067], 29: [682, 681, 680, 679, 678, 392, 393, 3586, 3587], 's_34_29': [4262], 's_34_33': [172], 36: [3780, 3783, 3782, 3781], 's_34_36': [3796], 's_1_6': [3872], 's_1_12': [3721], 18: [3556, 331, 332, 3856, 334, 333], 's_1_18': [498], 's_1_36': [394], 's_3_2': [3555], 's_3_4': [3645], 's_3_17': [273], 's_3_21': [3720], 's_3_27': [3765], 's_3_38': [3511], 's_5_4': [620, 619], 's_5_7': [4322], 8: [3992, 4110, 481, 482, 483, 484, 485, 486, 4111], 's_5_8': [441], 's_5_10': [741, 740], 's_5_11': [3858], 's_5_16': [487], 's_5_24': [3978], 's_5_29': [4323], 's_6_11': [440], 's_6_16': [513], 's_6_17': [3602], 's_6_18': [3811], 's_6_23': [573], 's_6_25': [3663], 's_6_29': [663], 's_21_2': [198], 's_21_4': [3600], 's_21_16': [168, 3675], 's_21_25': [3390], 26: [92, 3420, 212, 451, 3346, 3347], 's_21_26': [3526, 3525], 31: [3795, 94, 3616, 3615, 93], 's_21_31': [318], 's_2_4': [317], 's_2_7': [408], 's_2_8': [4125], 's_2_10': [3960], 's_2_17': [3705], 's_2_26': [107], 28: [3241, 3332, 3331, 286], 's_2_28': [3330, 137], 's_2_33': [3930], 's_2_38': [199], 's_11_12': [3812], 's_11_7': [528], 's_11_10': [3931], 's_11_17': [3722], 's_11_20': [381], 's_11_24': [3874, 755], 's_20_8': [3991], 's_20_27': [4036], 35: [4098, 4291, 351, 244, 245, 711, 352, 4053, 4052, 4051], 's_20_35': [4261], 's_20_37': [4171], 's_4_12': [3617], 's_4_36': [124], 's_4_25': [572], 's_4_31': [138], 32: [3451, 380, 379, 377, 378], 's_4_32': [3481, 272], 's_4_33': [3510], 's_7_18': [3226], 's_7_8': [3467], 's_7_16': [3631, 409], 's_7_25': [3633], 's_7_26': [421], 's_10_23': [590], 's_10_27': [290], 's_10_29': [665], 's_10_32': [3871], 's_10_37': [4066], 's_13_35': [4321], 's_17_12': [452], 's_17_18': [3557], 's_17_24': [3497, 527, 3362], 's_17_25': [557], 's_17_32': [3406], 's_17_38': [3541], 's_33_28': [3360, 167], 's_33_19': [3945], 's_33_29': [407], 's_33_31': [3690], 's_33_35': [3900], 's_33_38': [169], 's_37_8': [291], 's_37_27': [320], 's_37_35': [4186], 's_38_26': [497, 3361], 's_38_23': [365], 's_38_32': [3646], 's_19_16': [126], 's_19_35': [3990], 's_23_27': [3977], 's_23_29': [633], 's_25_8': [3993], 's_25_24': [3723], 's_12_8': [3916], 's_12_16': [3662], 's_12_27': [410], 's_24_26': [3302], 's_24_28': [3242, 526], 's_24_32': [3272, 3271], 's_24_35': [801, 4113], 's_16_31': [348], 's_16_35': [502], 's_27_18': [3841], 's_29_36': [664], 's_29_26': [3317], 's_29_28': [3286], 's_29_31': [3601], 's_29_35': [4292], 's_36_31': [109], 's_36_35': [259], 's_18_8': [3857], 's_18_26': [466, 467], 's_18_31': [3855], 's_18_32': [3316], 's_8_26': [3211], 's_8_28': [406, 3167], 's_26_28': [227, 3285], 's_26_31': [213]}</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0.0005172413793103448</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.001557577512685948</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>{0: [471, 697, 4187, 4233, 621], 9: [3691, 3692, 696, 695, 694, 3693], 's_0_9': [4203], 14: [306, 501, 4143, 4142, 4141], 's_0_14': [636], 15: [634, 3917, 4201, 4202, 516, 515], 's_0_15': [456], 22: [4112, 561, 4023, 4020, 4021, 4022], 's_0_22': [531], 30: [470, 469, 785, 784, 3798, 3797], 's_0_30': [786, 4263], 34: [4277, 424, 425, 4275, 4276, 426], 's_0_34': [4278], 1: [4007, 500, 3736, 499], 's_9_1': [349], 3: [3661, 3735, 3630, 228, 229], 's_9_3': [319], 5: [725, 4068, 726, 727, 605, 606, 4248, 4247, 517], 's_9_5': [651, 4188], 6: [439, 438, 618, 3572, 3571], 's_9_6': [648], 's_9_14': [4158], 21: [3405, 242, 3585, 243], 's_9_21': [288], 's_14_1': [591], 2: [302, 4080, 187, 3466, 186, 184, 183, 185, 3465], 's_14_2': [4095], 11: [4081, 396, 3844, 3843, 529, 3842, 395], 's_14_11': [4096], 20: [367, 366], 's_14_20': [4126], 4: [604, 603, 602, 123, 122, 3437, 3435, 3436], 's_15_4': [3873], 7: [547, 546, 3632, 436, 437, 545, 544, 543, 3527], 's_15_7': [4172], 10: [350, 3963, 3962, 275, 3961], 's_15_10': [335, 336], 13: [412], 's_15_13': [4217], 17: [3542, 560, 3706, 422, 3512, 3707, 559, 558], 's_15_17': [3767], 33: [232, 4290, 157, 3376, 3375, 156, 155, 154, 153, 152], 's_15_33': [4200, 170, 171], 's_15_34': [246], 37: [276, 321, 4156], 's_15_37': [4216], 38: [362, 363, 3750, 3752, 3751, 364], 's_15_38': [514], 's_22_2': [260], 's_22_5': [562], 19: [200, 4050, 201], 's_22_19': [80], 23: [4037, 3708, 574, 530, 3946, 3947, 575], 's_22_23': [576], 25: [287, 3421, 3422, 710, 709, 708, 3528, 617], 's_22_25': [4038], 's_22_33': [4005, 231], 's_30_7': [3827], 's_30_10': [3901], 's_30_11': [3859], 12: [3647, 3886, 453, 454, 3887], 's_30_12': [455], 's_30_23': [3948], 24: [4008, 800, 799, 798, 797, 3453, 511, 3452, 512], 's_30_24': [3753, 754], 's_30_25': [3768], 's_30_38': [649], 's_34_2': [202], 's_34_6': [3766], 's_34_11': [3826], 's_34_13': [397], 16: [4140, 4232, 4231, 3677, 217, 216, 3676, 214, 215], 's_34_16': [307], 27: [3976, 304, 411, 305, 4006], 's_34_27': [4067], 29: [682, 681, 680, 679, 678, 392, 393, 3586, 3587], 's_34_29': [4262], 's_34_33': [172], 36: [3780, 3783, 3782, 3781], 's_34_36': [3796], 's_1_6': [3872], 's_1_12': [3721], 18: [3556, 331, 332, 3856, 334, 333], 's_1_18': [498], 's_1_36': [394], 's_3_2': [3555], 's_3_4': [3645], 's_3_17': [273], 's_3_21': [3720], 's_3_27': [3765], 's_3_38': [3511], 's_5_4': [620, 619], 's_5_7': [4322], 8: [3992, 4110, 481, 482, 483, 484, 485, 486, 4111], 's_5_8': [441], 's_5_10': [741, 740], 's_5_11': [3858], 's_5_16': [487], 's_5_24': [3978], 's_5_29': [4323], 's_6_11': [440], 's_6_16': [513], 's_6_17': [3602], 's_6_18': [3811], 's_6_23': [573], 's_6_25': [3663], 's_6_29': [663], 's_21_2': [198], 's_21_4': [3600], 's_21_16': [168, 3675], 's_21_25': [3390], 26: [92, 3420, 212, 451, 3346, 3347], 's_21_26': [3526, 3525], 31: [3795, 94, 3616, 3615, 93], 's_21_31': [318], 's_2_4': [317], 's_2_7': [408], 's_2_8': [4125], 's_2_10': [3960], 's_2_17': [3705], 's_2_26': [107], 28: [3241, 3332, 3331, 286], 's_2_28': [3330, 137], 's_2_33': [3930], 's_2_38': [199], 's_11_12': [3812], 's_11_7': [528], 's_11_10': [3931], 's_11_17': [3722], 's_11_20': [381], 's_11_24': [3874, 755], 's_20_8': [3991], 's_20_27': [4036], 35: [4098, 4291, 351, 244, 245, 711, 352, 4053, 4052, 4051], 's_20_35': [4261], 's_20_37': [4171], 's_4_12': [3617], 's_4_36': [124], 's_4_25': [572], 's_4_31': [138], 32: [3451, 380, 379, 377, 378], 's_4_32': [3481, 272], 's_4_33': [3510], 's_7_18': [3226], 's_7_8': [3467], 's_7_16': [3631, 409], 's_7_25': [3633], 's_7_26': [421], 's_10_23': [590], 's_10_27': [290], 's_10_29': [665], 's_10_32': [3871], 's_10_37': [4066], 's_13_35': [4321], 's_17_12': [452], 's_17_18': [3557], 's_17_24': [3497, 527, 3362], 's_17_25': [557], 's_17_32': [3406], 's_17_38': [3541], 's_33_28': [3360, 167], 's_33_19': [3945], 's_33_29': [407], 's_33_31': [3690], 's_33_35': [3900], 's_33_38': [169], 's_37_8': [291], 's_37_27': [320], 's_37_35': [4186], 's_38_26': [497, 3361], 's_38_23': [365], 's_38_32': [3646], 's_19_16': [126], 's_19_35': [3990], 's_23_27': [3977], 's_23_29': [633], 's_25_8': [3993], 's_25_24': [3723], 's_12_8': [3916], 's_12_16': [3662], 's_12_27': [410], 's_24_26': [3302], 's_24_28': [3242, 526], 's_24_32': [3272, 3271], 's_24_35': [801, 4113], 's_16_31': [348], 's_16_35': [502], 's_27_18': [3841], 's_29_36': [664], 's_29_26': [3317], 's_29_28': [3286], 's_29_31': [3601], 's_29_35': [4292], 's_36_31': [109], 's_36_35': [259], 's_18_8': [3857], 's_18_26': [466, 467], 's_18_31': [3855], 's_18_32': [3316], 's_8_26': [3211], 's_8_28': [406, 3167], 's_26_28': [227, 3285], 's_26_31': [213]}</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0.0005172413793103448</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.001557577512685948</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>{0: [3743, 1939, 3745, 3744], 1: [1849, 3684, 3685], 2: [3474, 1834, 1833], 8: [3775, 1968, 1969], 9: [2043], 14: [3550, 3549, 1819, 1818], 17: [1864, 1909, 3850], 21: [3716, 1654, 3715, 3714], 24: [3701, 3699, 3700], 25: [3789, 3790], 26: [1984, 3655], 28: [3534, 3654, 1727, 1728], 29: [1803, 1804], 30: [1743, 1744], 36: [3624, 1908, 3625], 11: [3609, 1848], 16: [3686, 2028, 2029], 18: [3669, 3670], 23: [3640, 3639], 32: [3489, 1773, 1772], 33: [1998, 3760, 3759, 1999], 34: [3579, 1863], 5: [1714, 1712, 1713], 7: [3459, 3460], 15: [1893, 3593, 3595, 3594], 37: [1937, 3490, 3491], 4: [1952, 1954, 1953], 13: [3520, 1862], 22: [1924, 3729, 3730], 31: [3536, 1923, 3535], 39: [3610, 3563, 3564, 1938], 38: [2059, 3445, 2057, 2058], 3: [3623, 3548, 1653], 12: [1789, 1788, 3519], 19: [1759, 3805, 3804], 20: [1877, 3819, 1879, 1878], 10: [3849, 1774], 35: [2013, 2014], 6: [3504, 3506, 1892, 3505], 27: [3444, 1758, 1757]}</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0.006203241895261845</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.01202728981164531</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>{0: [3743, 1939, 3745, 3744], 1: [1849, 3684, 3685], 2: [3474, 1834, 1833], 8: [3775, 1968, 1969], 9: [2043], 14: [3550, 3549, 1819, 1818], 17: [1864, 1909, 3850], 21: [3716, 1654, 3715, 3714], 24: [3701, 3699, 3700], 25: [3789, 3790], 26: [1984, 3655], 28: [3534, 3654, 1727, 1728], 29: [1803, 1804], 30: [1743, 1744], 36: [3624, 1908, 3625], 11: [3609, 1848], 16: [3686, 2028, 2029], 18: [3669, 3670], 23: [3640, 3639], 32: [3489, 1773, 1772], 33: [1998, 3760, 3759, 1999], 34: [3579, 1863], 5: [1714, 1712, 1713], 7: [3459, 3460], 15: [1893, 3593, 3595, 3594], 37: [1937, 3490, 3491], 4: [1952, 1954, 1953], 13: [3520, 1862], 22: [1924, 3729, 3730], 31: [3536, 1923, 3535], 39: [3610, 3563, 3564, 1938], 38: [2059, 3445, 2057, 2058], 3: [3623, 3548, 1653], 12: [1789, 1788, 3519], 19: [1759, 3805, 3804], 20: [1877, 3819, 1879, 1878], 10: [3849, 1774], 35: [2013, 2014], 6: [3504, 3506, 1892, 3505], 27: [3444, 1758, 1757]}</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0.006203241895261845</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.01202728981164531</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.078</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>{0: [1114, 3711, 3712, 3713, 3246, 3247, 1515, 1516, 1517, 1518], 1: [1470, 1471, 1472, 1339, 1338, 1473, 3606, 3607], 's_0_1': [3592], 2: [887, 3454, 1067, 3457, 3456, 3455], 's_0_2': [1113], 8: [3262, 1440, 1441, 1442, 1443, 1609, 1608, 3548, 3547], 's_0_8': [3698], 9: [1201, 1202, 1204, 1203], 's_0_9': [3770], 14: [1474, 3065, 3668, 3667, 3666, 3665, 990, 991, 992, 993], 's_0_14': [3637, 1459], 17: [3561, 1502, 3562], 's_0_17': [3488], 21: [1292, 3276, 3277, 1699, 1698, 1697, 1696, 1575, 1576, 3278], 's_0_21': [3714], 24: [722, 723, 3288, 3289, 3052, 3051, 3050, 3049, 870, 871], 's_0_24': [3034, 3035, 3036, 3037], 25: [1009, 1008, 3682, 3681, 3679, 3680], 's_0_25': [3683], 26: [3620, 1486, 3621, 1487, 1488, 3622], 's_0_26': [3367], 28: [1530, 3293, 1531, 3382, 1412, 1414, 1413], 's_0_28': [1501], 29: [3245, 3228, 3229, 3230, 1052, 1050, 1051], 's_0_29': [1216], 30: [724, 3756, 3753, 3754, 3755], 's_0_30': [1279], 36: [3695, 1425, 3487, 3696, 1426, 1427, 1428, 1429, 3697], 's_0_36': [3710], 's_1_2': [1293], 11: [3773, 3786, 1505, 1264, 3771, 1504, 3772], 's_1_11': [3801], 16: [1068, 3590, 3591, 1351, 1352, 1353], 's_1_16': [3576], 18: [3532, 1381, 1382, 1385, 1384, 1383], 's_1_18': [3847], 's_1_21': [1622, 1623, 3608], 23: [3740, 1007, 3741, 3530, 1053, 1054], 's_1_23': [1368], 's_1_25': [1233], 's_1_26': [1458], 's_1_30': [1324], 32: [3424, 3427, 3426, 1081, 1082, 3425], 's_1_32': [3442], 33: [3408, 843, 842, 1500, 3082, 3081, 3080, 3079, 840, 841], 's_1_33': [3158], 34: [3818, 1579, 1249, 1548, 3727, 1187, 1188, 3725, 1547, 3726], 's_1_34': [3816], 5: [1175, 3319, 3320, 1097, 1098, 1174, 1173, 3575], 's_2_5': [886], 7: [3409, 947], 's_2_7': [3335], 's_2_14': [1066, 1065], 15: [857, 858, 3634, 3635, 3878, 3877, 3876, 1144, 1143], 's_2_15': [3334], 's_2_23': [3470], 's_2_28': [3458, 1562], 's_2_29': [811, 812], 's_2_36': [3472], 37: [3502, 3500, 1172, 3501], 's_2_37': [1263], 4: [3290, 1141, 1261, 3215, 3217, 3216], 's_8_4': [1456], 13: [3848], 's_8_13': [1594], 's_8_14': [1593], 's_8_16': [1366, 3337], 's_8_17': [1563], 's_8_18': [1396], 22: [3619, 933, 1350, 3172, 3171, 932, 931, 3170], 's_8_22': [3127], 's_8_24': [1455], 's_8_26': [3577], 31: [3307, 3518, 1336, 1337, 3514, 3515, 3516, 3517], 's_8_31': [1578], 's_8_33': [3112], 39: [1171, 1640, 1639, 1638, 1637, 1636, 3143, 3142, 1291, 3261], 's_8_39': [3788], 's_9_16': [3560], 's_9_21': [3441], 's_9_23': [3545], 's_9_36': [3486], 38: [3348, 3349, 3364, 3365, 873, 872], 's_9_38': [1217], 3: [1140, 3202, 3200, 3201], 's_14_3': [1155], 's_14_4': [3214], 12: [3966, 3095, 3096, 3098, 1651, 1652, 1653, 3967, 3968, 3097, 1655, 1654], 's_14_12': [3669], 19: [3351, 1247, 919, 3649, 3650, 1248, 1246, 3651], 's_14_19': [3724], 's_14_23': [1294], 's_14_28': [3802], 's_14_29': [3140], 's_14_33': [1125], 's_14_34': [1489], 's_14_38': [3559], 's_14_39': [1624], 's_17_19': [3396, 3397], 's_17_34': [1532], 's_17_36': [3412], 's_21_3': [1561], 's_21_18': [3411], 20: [977, 3894, 3893, 3892, 3604, 978, 979, 3891, 3846, 3890, 1280], 's_21_20': [3879], 's_21_24': [1560], 's_21_26': [3308], 's_21_36': [3022], 10: [3694, 752, 754, 708, 753, 827, 3543], 's_24_10': [3513], 's_24_22': [930], 's_24_28': [1546, 1545], 's_24_29': [3169, 766], 's_24_30': [737, 738, 739], 's_24_33': [3064, 885], 's_24_38': [3333], 's_25_10': [828], 's_25_16': [1218], 's_25_19': [934], 's_25_20': [3889, 814, 813], 's_25_38': [3664], 's_26_4': [3232], 's_26_15': [1158], 's_26_22': [3173], 's_26_28': [3353], 's_26_31': [3533], 35: [1036, 1038, 1037], 's_26_35': [3605], 6: [1306, 1307, 3378, 3379, 3380, 3381], 's_28_6': [3352, 1397], 's_28_11': [1415, 3907], 's_28_12': [3383], 's_28_31': [3652, 1398], 's_28_36': [3817], 's_28_39': [3263], 's_29_6': [796], 's_29_12': [1111], 's_29_22': [3244, 3259], 's_29_23': [1006], 's_29_32': [3125], 's_29_39': [3260], 's_30_11': [3757], 's_30_19': [3769], 's_30_20': [1159], 's_36_3': [3187], 's_36_4': [1411], 's_36_15': [949], 's_36_22': [3067], 's_36_23': [1084], 's_36_31': [1322], 's_36_33': [1485, 3007], 's_36_34': [1309], 's_11_5': [3636], 's_11_13': [1549], 's_11_15': [1369], 27: [1475, 3305, 1127, 1128, 1129, 1130, 3306, 1220, 3937, 3936, 3935], 's_11_27': [1520], 's_11_34': [1399], 's_11_39': [3863], 's_16_6': [3322], 's_16_15': [1354], 's_16_19': [3366], 's_16_22': [3589], 's_16_23': [1323], 's_16_37': [1367], 's_18_4': [3186], 's_18_12': [3982], 's_18_20': [3921], 's_18_27': [3951], 's_18_31': [3231], 's_23_5': [3785, 1099], 's_23_15': [3830], 's_23_20': [3845], 's_23_32': [1083], 's_23_34': [1234], 's_23_35': [3544], 's_32_3': [1096], 's_32_5': [902], 's_32_7': [962], 's_32_10': [3423], 's_32_12': [3110], 's_32_34': [3428], 's_32_37': [1157], 's_33_7': [3274], 's_33_10': [707], 's_33_12': [1170], 's_33_15': [3393], 's_33_20': [3469], 's_33_39': [3128], 's_34_13': [1564], 's_34_20': [1189], 's_34_31': [3531], 's_34_39': [3833], 's_5_7': [917], 's_5_10': [767], 's_5_12': [3981], 's_5_20': [3574], 's_7_27': [3410], 's_7_35': [3350], 's_15_6': [3363], 's_15_20': [1460], 's_15_27': [1310], 's_15_31': [888], 's_15_38': [3484], 's_15_39': [1625], 's_37_20': [948], 's_37_39': [3503], 's_4_39': [3218], 's_4_6': [1186], 's_4_19': [1276, 1277], 's_4_22': [3156], 's_13_27': [1490], 's_22_12': [1185], 's_22_20': [3485], 's_22_35': [3394], 's_31_6': [1321], 's_31_20': [918], 's_31_38': [3529], 's_39_3': [1335], 's_39_12': [3398], 's_39_20': [3923, 1729, 1728], 's_39_38': [3336, 1112], 's_38_6': [692], 's_38_27': [976], 's_12_27': [1205], 's_19_10': [3648, 3633], 's_19_20': [964, 3799], 's_19_27': [1262], 's_19_35': [1023], 's_20_27': [1400], 's_35_6': [1022]}</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0.001142857142857143</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.002148442587287472</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>{0: [1114, 3711, 3712, 3713, 3246, 3247, 1515, 1516, 1517, 1518], 1: [1470, 1471, 1472, 1339, 1338, 1473, 3606, 3607], 's_0_1': [3592], 2: [887, 3454, 1067, 3457, 3456, 3455], 's_0_2': [1113], 8: [3262, 1440, 1441, 1442, 1443, 1609, 1608, 3548, 3547], 's_0_8': [3698], 9: [1201, 1202, 1204, 1203], 's_0_9': [3770], 14: [1474, 3065, 3668, 3667, 3666, 3665, 990, 991, 992, 993], 's_0_14': [3637, 1459], 17: [3561, 1502, 3562], 's_0_17': [3488], 21: [1292, 3276, 3277, 1699, 1698, 1697, 1696, 1575, 1576, 3278], 's_0_21': [3714], 24: [722, 723, 3288, 3289, 3052, 3051, 3050, 3049, 870, 871], 's_0_24': [3034, 3035, 3036, 3037], 25: [1009, 1008, 3682, 3681, 3679, 3680], 's_0_25': [3683], 26: [3620, 1486, 3621, 1487, 1488, 3622], 's_0_26': [3367], 28: [1530, 3293, 1531, 3382, 1412, 1414, 1413], 's_0_28': [1501], 29: [3245, 3228, 3229, 3230, 1052, 1050, 1051], 's_0_29': [1216], 30: [724, 3756, 3753, 3754, 3755], 's_0_30': [1279], 36: [3695, 1425, 3487, 3696, 1426, 1427, 1428, 1429, 3697], 's_0_36': [3710], 's_1_2': [1293], 11: [3773, 3786, 1505, 1264, 3771, 1504, 3772], 's_1_11': [3801], 16: [1068, 3590, 3591, 1351, 1352, 1353], 's_1_16': [3576], 18: [3532, 1381, 1382, 1385, 1384, 1383], 's_1_18': [3847], 's_1_21': [1622, 1623, 3608], 23: [3740, 1007, 3741, 3530, 1053, 1054], 's_1_23': [1368], 's_1_25': [1233], 's_1_26': [1458], 's_1_30': [1324], 32: [3424, 3427, 3426, 1081, 1082, 3425], 's_1_32': [3442], 33: [3408, 843, 842, 1500, 3082, 3081, 3080, 3079, 840, 841], 's_1_33': [3158], 34: [3818, 1579, 1249, 1548, 3727, 1187, 1188, 3725, 1547, 3726], 's_1_34': [3816], 5: [1175, 3319, 3320, 1097, 1098, 1174, 1173, 3575], 's_2_5': [886], 7: [3409, 947], 's_2_7': [3335], 's_2_14': [1066, 1065], 15: [857, 858, 3634, 3635, 3878, 3877, 3876, 1144, 1143], 's_2_15': [3334], 's_2_23': [3470], 's_2_28': [3458, 1562], 's_2_29': [811, 812], 's_2_36': [3472], 37: [3502, 3500, 1172, 3501], 's_2_37': [1263], 4: [3290, 1141, 1261, 3215, 3217, 3216], 's_8_4': [1456], 13: [3848], 's_8_13': [1594], 's_8_14': [1593], 's_8_16': [1366, 3337], 's_8_17': [1563], 's_8_18': [1396], 22: [3619, 933, 1350, 3172, 3171, 932, 931, 3170], 's_8_22': [3127], 's_8_24': [1455], 's_8_26': [3577], 31: [3307, 3518, 1336, 1337, 3514, 3515, 3516, 3517], 's_8_31': [1578], 's_8_33': [3112], 39: [1171, 1640, 1639, 1638, 1637, 1636, 3143, 3142, 1291, 3261], 's_8_39': [3788], 's_9_16': [3560], 's_9_21': [3441], 's_9_23': [3545], 's_9_36': [3486], 38: [3348, 3349, 3364, 3365, 873, 872], 's_9_38': [1217], 3: [1140, 3202, 3200, 3201], 's_14_3': [1155], 's_14_4': [3214], 12: [3966, 3095, 3096, 3098, 1651, 1652, 1653, 3967, 3968, 3097, 1655, 1654], 's_14_12': [3669], 19: [3351, 1247, 919, 3649, 3650, 1248, 1246, 3651], 's_14_19': [3724], 's_14_23': [1294], 's_14_28': [3802], 's_14_29': [3140], 's_14_33': [1125], 's_14_34': [1489], 's_14_38': [3559], 's_14_39': [1624], 's_17_19': [3396, 3397], 's_17_34': [1532], 's_17_36': [3412], 's_21_3': [1561], 's_21_18': [3411], 20: [977, 3894, 3893, 3892, 3604, 978, 979, 3891, 3846, 3890, 1280], 's_21_20': [3879], 's_21_24': [1560], 's_21_26': [3308], 's_21_36': [3022], 10: [3694, 752, 754, 708, 753, 827, 3543], 's_24_10': [3513], 's_24_22': [930], 's_24_28': [1546, 1545], 's_24_29': [3169, 766], 's_24_30': [737, 738, 739], 's_24_33': [3064, 885], 's_24_38': [3333], 's_25_10': [828], 's_25_16': [1218], 's_25_19': [934], 's_25_20': [3889, 814, 813], 's_25_38': [3664], 's_26_4': [3232], 's_26_15': [1158], 's_26_22': [3173], 's_26_28': [3353], 's_26_31': [3533], 35: [1036, 1038, 1037], 's_26_35': [3605], 6: [1306, 1307, 3378, 3379, 3380, 3381], 's_28_6': [3352, 1397], 's_28_11': [1415, 3907], 's_28_12': [3383], 's_28_31': [3652, 1398], 's_28_36': [3817], 's_28_39': [3263], 's_29_6': [796], 's_29_12': [1111], 's_29_22': [3244, 3259], 's_29_23': [1006], 's_29_32': [3125], 's_29_39': [3260], 's_30_11': [3757], 's_30_19': [3769], 's_30_20': [1159], 's_36_3': [3187], 's_36_4': [1411], 's_36_15': [949], 's_36_22': [3067], 's_36_23': [1084], 's_36_31': [1322], 's_36_33': [1485, 3007], 's_36_34': [1309], 's_11_5': [3636], 's_11_13': [1549], 's_11_15': [1369], 27: [1475, 3305, 1127, 1128, 1129, 1130, 3306, 1220, 3937, 3936, 3935], 's_11_27': [1520], 's_11_34': [1399], 's_11_39': [3863], 's_16_6': [3322], 's_16_15': [1354], 's_16_19': [3366], 's_16_22': [3589], 's_16_23': [1323], 's_16_37': [1367], 's_18_4': [3186], 's_18_12': [3982], 's_18_20': [3921], 's_18_27': [3951], 's_18_31': [3231], 's_23_5': [3785, 1099], 's_23_15': [3830], 's_23_20': [3845], 's_23_32': [1083], 's_23_34': [1234], 's_23_35': [3544], 's_32_3': [1096], 's_32_5': [902], 's_32_7': [962], 's_32_10': [3423], 's_32_12': [3110], 's_32_34': [3428], 's_32_37': [1157], 's_33_7': [3274], 's_33_10': [707], 's_33_12': [1170], 's_33_15': [3393], 's_33_20': [3469], 's_33_39': [3128], 's_34_13': [1564], 's_34_20': [1189], 's_34_31': [3531], 's_34_39': [3833], 's_5_7': [917], 's_5_10': [767], 's_5_12': [3981], 's_5_20': [3574], 's_7_27': [3410], 's_7_35': [3350], 's_15_6': [3363], 's_15_20': [1460], 's_15_27': [1310], 's_15_31': [888], 's_15_38': [3484], 's_15_39': [1625], 's_37_20': [948], 's_37_39': [3503], 's_4_39': [3218], 's_4_6': [1186], 's_4_19': [1276, 1277], 's_4_22': [3156], 's_13_27': [1490], 's_22_12': [1185], 's_22_20': [3485], 's_22_35': [3394], 's_31_6': [1321], 's_31_20': [918], 's_31_38': [3529], 's_39_3': [1335], 's_39_12': [3398], 's_39_20': [3923, 1729, 1728], 's_39_38': [3336, 1112], 's_38_6': [692], 's_38_27': [976], 's_12_27': [1205], 's_19_10': [3648, 3633], 's_19_20': [964, 3799], 's_19_27': [1262], 's_19_35': [1023], 's_20_27': [1400], 's_35_6': [1022]}</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0.001142857142857143</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.002148442587287472</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>{0: [1137, 5181, 5180], 4: [5075, 1197, 1196, 5076], 15: [1272, 1273, 5330, 5331], 16: [5374, 1227, 1228, 5375], 20: [1139, 5286, 5361, 1138, 5360], 23: [1333, 5210, 1332, 5211], 25: [1166, 1167], 39: [1256, 5466, 1257, 1258], 40: [5526, 5257, 1361, 1363, 1362], 3: [1107, 1109, 1108], 13: [1346, 5090, 1302, 5091], 24: [1181, 1182, 1183], 30: [1003, 5300, 1001, 1002], 36: [1124, 1122, 1123], 38: [5302, 5301], 1: [5345, 5346, 1347], 5: [1317, 5421, 1319, 1318], 7: [5315, 5316, 5317], 21: [5242, 1242, 5240, 5241], 31: [1046, 1048, 1047], 32: [5571, 1394, 5377, 1393, 5376], 33: [5285, 1017, 1016], 6: [5225, 5227, 5226], 10: [1063, 1032, 5420, 1033], 11: [5287, 1453, 5150, 1392, 5152, 5151], 17: [1303, 5255, 1212, 5256], 34: [5390, 1092, 1093], 14: [1168, 5511, 5512], 18: [1184, 1077, 1078, 5570, 1079], 29: [5496, 1289, 1287, 1288], 8: [5122, 1286, 5045, 1331, 5046], 26: [5272, 5270, 5271], 28: [5513, 5391, 1528, 5392], 35: [1437, 5480, 5481, 5482, 1438], 37: [5497, 1422, 1423, 1424], 9: [1376, 5136, 5137], 12: [1243, 5405, 5406], 2: [5197, 1062, 5195, 5196], 22: [1151, 1152, 1153, 5525], 27: [5450, 5452, 5451], 19: [5540, 5541, 1377, 1378]}</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0.020341966306261</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.02036538794526576</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>{0: [1137, 5181, 5180], 4: [5075, 1197, 1196, 5076], 15: [1272, 1273, 5330, 5331], 16: [5374, 1227, 1228, 5375], 20: [1139, 5286, 5361, 1138, 5360], 23: [1333, 5210, 1332, 5211], 25: [1166, 1167], 39: [1256, 5466, 1257, 1258], 40: [5526, 5257, 1361, 1363, 1362], 3: [1107, 1109, 1108], 13: [1346, 5090, 1302, 5091], 24: [1181, 1182, 1183], 30: [1003, 5300, 1001, 1002], 36: [1124, 1122, 1123], 38: [5302, 5301], 1: [5345, 5346, 1347], 5: [1317, 5421, 1319, 1318], 7: [5315, 5316, 5317], 21: [5242, 1242, 5240, 5241], 31: [1046, 1048, 1047], 32: [5571, 1394, 5377, 1393, 5376], 33: [5285, 1017, 1016], 6: [5225, 5227, 5226], 10: [1063, 1032, 5420, 1033], 11: [5287, 1453, 5150, 1392, 5152, 5151], 17: [1303, 5255, 1212, 5256], 34: [5390, 1092, 1093], 14: [1168, 5511, 5512], 18: [1184, 1077, 1078, 5570, 1079], 29: [5496, 1289, 1287, 1288], 8: [5122, 1286, 5045, 1331, 5046], 26: [5272, 5270, 5271], 28: [5513, 5391, 1528, 5392], 35: [1437, 5480, 5481, 5482, 1438], 37: [5497, 1422, 1423, 1424], 9: [1376, 5136, 5137], 12: [1243, 5405, 5406], 2: [5197, 1062, 5195, 5196], 22: [1151, 1152, 1153, 5525], 27: [5450, 5452, 5451], 19: [5540, 5541, 1377, 1378]}</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0.020341966306261</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.02036538794526576</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.026</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>{0: [4953, 4713, 4667, 655, 654], 4: [534, 4682, 4941, 1225, 983, 4683, 4684, 984, 4819, 4820], 's_0_4': [4669, 4668], 15: [429, 790, 4954, 4700, 4699, 4695, 4696, 4697, 4698, 789], 's_0_15': [609], 16: [4787, 882, 881, 5087, 5088, 4788, 5089, 5086, 701, 700, 326, 325], 's_0_16': [4878], 20: [4997, 4995, 4580, 4579, 4578, 549, 4996, 416, 415, 414, 4577], 's_0_20': [564], 23: [4712, 5235, 504, 505, 4907, 5045, 1001, 5179, 5178, 5177, 5236, 5237, 581, 582], 's_0_23': [624], 25: [4741, 4743, 4742], 's_0_25': [519], 39: [4728, 5209, 924, 4729, 927, 926, 925], 's_0_39': [4714, 894], 40: [5311, 5312, 462, 686, 5310, 687, 5268, 5267], 's_0_40': [4968], 3: [866, 596, 595, 5057, 5058, 5061, 5060, 1271, 5059], 's_4_3': [4911], 13: [430, 431, 5117, 552, 553, 5357, 5358, 1121, 5359, 5360, 1197, 1196, 5015], 's_4_13': [1286, 1287, 1288, 5331, 5332], 's_4_15': [1164], 's_4_20': [729], 24: [1135, 4865, 640, 4863, 5298, 4864, 641, 642], 's_4_24': [760, 4789, 4790], 's_4_25': [684], 30: [1210, 4546, 1211, 4547, 579, 1209, 4611, 4610, 4545, 4609, 4608], 's_4_30': [1179, 4670], 36: [1060, 1061, 1062, 432, 5282, 5286, 5283, 5284, 5285], 's_4_36': [4805], 38: [1016, 4489, 4984, 893, 1015, 1013, 1014], 's_4_38': [4639], 's_4_39': [4534], 1: [5044, 761, 5043, 5041, 5042], 's_15_1': [776], 's_15_3': [714, 715, 716, 5013], 5: [853, 1149, 1150, 1151, 5106, 328, 5416, 5417, 5418, 5419, 5420, 1093, 1092, 5105], 's_15_5': [4685], 7: [1012, 4730, 1076, 4925, 1075, 5120, 4415, 1073, 1074], 's_15_7': [4924], 's_15_20': [759], 21: [4651, 4650, 264, 265, 4980, 311, 5075, 5074, 5073, 5072, 5070, 5071], 's_15_21': [174], 's_15_25': [324], 31: [4936, 354, 4891, 355], 's_15_31': [4681], 32: [4475, 804, 403, 402, 401, 400, 4726, 4474, 803, 4473, 4472, 4471, 443, 728, 444], 's_15_32': [294], 33: [4638, 160, 159, 4637, 4636, 4635], 's_15_33': [339], 's_15_39': [4759], 6: [114, 130, 4832, 520, 385, 4770, 4771, 4772], 's_16_6': [4922, 4921], 10: [848, 4801, 4802, 4803, 849, 852, 851, 985, 4879, 850], 's_16_10': [4848], 11: [5340, 4576, 219, 5341, 220, 221, 295, 5010, 297, 296], 's_16_11': [4845], 17: [4860, 448, 4775, 4774, 4773, 447, 446, 445, 580, 4862, 370, 4861], 's_16_17': [4876], 's_16_20': [356], 's_16_21': [5025], 's_16_23': [372], 's_16_31': [4906], 34: [837, 5208, 747, 4909, 4908, 746], 's_16_34': [895, 896, 5104, 836], 's_16_36': [5299], 's_16_38': [5090], 's_16_39': [777, 5134, 897], 's_20_1': [506], 14: [1104, 1105, 957, 955, 956, 4970, 1106], 's_20_14': [954], 's_20_17': [4711], 18: [775, 338, 833, 774, 773, 820, 819, 818, 4486, 503, 4487, 4488], 's_20_18': [4562], 's_20_21': [191, 192], 's_20_25': [698, 699], 29: [5539, 176, 5161, 5160, 177, 5538, 5537, 175, 5536, 5535, 179, 178], 's_20_29': [161], 's_20_32': [428], 's_20_40': [671], 's_23_5': [1091], 's_23_7': [1000], 8: [688, 689, 5522, 5521, 253, 4905, 252, 251, 5520, 250], 's_23_8': [267], 's_23_13': [5046], 's_23_14': [1107, 5135], 's_23_18': [489, 488], 's_23_25': [565], 26: [371, 4981, 4892, 459, 458, 460], 's_23_26': [535], 28: [5460, 73, 5461, 72, 71, 342, 5100, 5101, 5029, 5028, 5027, 5026, 341], 's_23_28': [222], 35: [625, 821, 5146, 5147, 5148, 911, 912, 626, 5149], 's_23_35': [327], 's_23_36': [1032], 37: [133, 132, 131, 4950, 4443, 4442, 4441, 4440, 203, 4444, 204, 205, 206], 's_23_37': [5220], 's_23_39': [1047], 's_25_6': [4833, 730], 's_25_17': [4758], 's_25_21': [309], 's_39_1': [4969], 's_39_7': [4549, 4550, 4535], 9: [987, 988, 313, 717, 5433, 5430, 5431, 718, 5432, 5434], 's_39_9': [928, 929], 12: [5210, 1043, 1168, 1044, 1045, 1167, 1166, 1165, 4895], 's_39_12': [4804], 's_39_24': [940, 4745], 's_39_28': [5014], 's_40_1': [5012, 656], 2: [4470, 5224, 5223, 5222, 5221, 278, 279, 280, 281, 282], 's_40_2': [522], 's_40_8': [5250, 117], 's_40_11': [238], 's_40_17': [5356], 22: [583, 116, 115, 266, 5405, 5404, 5403, 5402, 493, 492, 5085, 5176, 5175], 's_40_22': [5206], 27: [628, 5372, 5297, 5193, 807, 5252, 791, 792, 568, 5253], 's_40_27': [598], 's_40_32': [5327, 538], 's_40_37': [5325], 's_3_1': [971], 's_3_6': [4877], 's_3_10': [865], 's_3_12': [1136], 's_3_13': [5000, 5001], 19: [4952, 567, 941, 566, 942, 5164, 5162, 943, 5163], 's_3_19': [536, 537], 's_3_26': [4727], 's_3_27': [806], 's_3_35': [4982], 's_13_1': [5011, 386], 's_13_2': [972], 's_13_5': [883], 's_13_8': [5116], 's_13_9': [898], 's_13_21': [521], 's_13_29': [554], 's_13_30': [1120, 4761], 's_13_31': [4937], 's_13_34': [5118], 's_13_36': [763], 's_24_17': [670], 's_24_22': [5313], 's_24_34': [805], 's_24_12': [4849, 910], 's_24_27': [748], 's_24_9': [5328], 's_24_18': [835], 's_30_11': [323], 's_30_26': [4532], 's_30_2': [4591, 369], 's_30_10': [4594], 's_30_12': [1029], 's_30_33': [4622], 's_30_38': [998], 's_36_11': [418], 's_36_10': [4955], 's_36_22': [5191], 's_36_12': [5240], 's_36_27': [778], 's_36_7': [1059, 4640], 's_36_9': [703, 702], 's_38_21': [1031], 's_38_17': [999], 's_38_35': [5150], 's_38_37': [878], 's_1_11': [5056], 's_1_21': [762], 's_1_26': [491, 490], 's_5_11': [388], 's_5_10': [5254, 5255, 1137, 1138], 's_5_19': [958], 's_5_12': [4835], 's_5_14': [1046], 's_5_28': [268, 5415], 's_5_32': [404, 5477, 5476], 's_7_10': [4940], 's_7_19': [1077, 5300], 's_7_37': [4414, 832], 's_7_12': [4520], 's_7_32': [938], 's_21_11': [4680], 's_21_2': [312], 's_21_10': [986], 's_21_12': [5076, 5121, 1241], 's_21_34': [732], 's_21_35': [237], 's_21_37': [4951], 's_31_11': [4606], 's_31_26': [4846], 's_31_6': [340], 's_32_11': [353], 's_32_17': [4725, 235], 's_32_19': [4757, 550, 551], 's_32_37': [533], 's_32_12': [1028], 's_32_27': [5371], 's_32_28': [5251], 's_32_18': [398], 's_33_26': [4621], 's_33_2': [293], 's_33_8': [4875], 's_33_18': [473], 's_6_10': [4818, 4817], 's_6_17': [4756], 's_6_22': [4935], 's_6_35': [4847], 's_6_37': [40, 41], 's_6_29': [4890], 's_10_26': [4816], 's_10_2': [5239], 's_10_14': [4834], 's_10_18': [4653], 's_10_27': [5119], 's_11_9': [163], 's_11_17': [508, 5386], 's_11_18': [218, 4426], 's_11_28': [5281], 's_11_35': [5132, 5131], 's_17_26': [475], 's_17_2': [5266], 's_17_9': [5446, 419], 's_17_12': [1030], 's_17_18': [834], 's_17_22': [5401], 's_17_28': [101, 100], 's_17_29': [524, 5507], 's_34_2': [867], 's_34_14': [4910], 's_34_18': [4998], 's_14_19': [4999], 's_14_28': [5030], 's_18_35': [4939], 's_29_19': [944], 's_29_22': [5406, 5540, 1198, 5451], 's_29_37': [4800], 's_29_27': [793], 's_29_28': [5505], 's_29_8': [145, 4785], 's_8_22': [5040], 's_26_19': [610, 611], 's_28_37': [5115], 's_28_27': [569, 5462], 's_35_2': [387], 's_35_19': [4894], 's_35_22': [507], 's_35_27': [627], 's_37_2': [4485], 's_37_9': [5445], 's_9_19': [5373, 5374], 's_9_22': [5387, 658], 's_12_22': [1153], 's_2_19': [672], 's_2_22': [357], 's_27_19': [5192]}</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0.00208203125</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.002872916088330102</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>{0: [4953, 4713, 4667, 655, 654], 4: [534, 4682, 4941, 1225, 983, 4683, 4684, 984, 4819, 4820], 's_0_4': [4669, 4668], 15: [429, 790, 4954, 4700, 4699, 4695, 4696, 4697, 4698, 789], 's_0_15': [609], 16: [4787, 882, 881, 5087, 5088, 4788, 5089, 5086, 701, 700, 326, 325], 's_0_16': [4878], 20: [4997, 4995, 4580, 4579, 4578, 549, 4996, 416, 415, 414, 4577], 's_0_20': [564], 23: [4712, 5235, 504, 505, 4907, 5045, 1001, 5179, 5178, 5177, 5236, 5237, 581, 582], 's_0_23': [624], 25: [4741, 4743, 4742], 's_0_25': [519], 39: [4728, 5209, 924, 4729, 927, 926, 925], 's_0_39': [4714, 894], 40: [5311, 5312, 462, 686, 5310, 687, 5268, 5267], 's_0_40': [4968], 3: [866, 596, 595, 5057, 5058, 5061, 5060, 1271, 5059], 's_4_3': [4911], 13: [430, 431, 5117, 552, 553, 5357, 5358, 1121, 5359, 5360, 1197, 1196, 5015], 's_4_13': [1286, 1287, 1288, 5331, 5332], 's_4_15': [1164], 's_4_20': [729], 24: [1135, 4865, 640, 4863, 5298, 4864, 641, 642], 's_4_24': [760, 4789, 4790], 's_4_25': [684], 30: [1210, 4546, 1211, 4547, 579, 1209, 4611, 4610, 4545, 4609, 4608], 's_4_30': [1179, 4670], 36: [1060, 1061, 1062, 432, 5282, 5286, 5283, 5284, 5285], 's_4_36': [4805], 38: [1016, 4489, 4984, 893, 1015, 1013, 1014], 's_4_38': [4639], 's_4_39': [4534], 1: [5044, 761, 5043, 5041, 5042], 's_15_1': [776], 's_15_3': [714, 715, 716, 5013], 5: [853, 1149, 1150, 1151, 5106, 328, 5416, 5417, 5418, 5419, 5420, 1093, 1092, 5105], 's_15_5': [4685], 7: [1012, 4730, 1076, 4925, 1075, 5120, 4415, 1073, 1074], 's_15_7': [4924], 's_15_20': [759], 21: [4651, 4650, 264, 265, 4980, 311, 5075, 5074, 5073, 5072, 5070, 5071], 's_15_21': [174], 's_15_25': [324], 31: [4936, 354, 4891, 355], 's_15_31': [4681], 32: [4475, 804, 403, 402, 401, 400, 4726, 4474, 803, 4473, 4472, 4471, 443, 728, 444], 's_15_32': [294], 33: [4638, 160, 159, 4637, 4636, 4635], 's_15_33': [339], 's_15_39': [4759], 6: [114, 130, 4832, 520, 385, 4770, 4771, 4772], 's_16_6': [4922, 4921], 10: [848, 4801, 4802, 4803, 849, 852, 851, 985, 4879, 850], 's_16_10': [4848], 11: [5340, 4576, 219, 5341, 220, 221, 295, 5010, 297, 296], 's_16_11': [4845], 17: [4860, 448, 4775, 4774, 4773, 447, 446, 445, 580, 4862, 370, 4861], 's_16_17': [4876], 's_16_20': [356], 's_16_21': [5025], 's_16_23': [372], 's_16_31': [4906], 34: [837, 5208, 747, 4909, 4908, 746], 's_16_34': [895, 896, 5104, 836], 's_16_36': [5299], 's_16_38': [5090], 's_16_39': [777, 5134, 897], 's_20_1': [506], 14: [1104, 1105, 957, 955, 956, 4970, 1106], 's_20_14': [954], 's_20_17': [4711], 18: [775, 338, 833, 774, 773, 820, 819, 818, 4486, 503, 4487, 4488], 's_20_18': [4562], 's_20_21': [191, 192], 's_20_25': [698, 699], 29: [5539, 176, 5161, 5160, 177, 5538, 5537, 175, 5536, 5535, 179, 178], 's_20_29': [161], 's_20_32': [428], 's_20_40': [671], 's_23_5': [1091], 's_23_7': [1000], 8: [688, 689, 5522, 5521, 253, 4905, 252, 251, 5520, 250], 's_23_8': [267], 's_23_13': [5046], 's_23_14': [1107, 5135], 's_23_18': [489, 488], 's_23_25': [565], 26: [371, 4981, 4892, 459, 458, 460], 's_23_26': [535], 28: [5460, 73, 5461, 72, 71, 342, 5100, 5101, 5029, 5028, 5027, 5026, 341], 's_23_28': [222], 35: [625, 821, 5146, 5147, 5148, 911, 912, 626, 5149], 's_23_35': [327], 's_23_36': [1032], 37: [133, 132, 131, 4950, 4443, 4442, 4441, 4440, 203, 4444, 204, 205, 206], 's_23_37': [5220], 's_23_39': [1047], 's_25_6': [4833, 730], 's_25_17': [4758], 's_25_21': [309], 's_39_1': [4969], 's_39_7': [4549, 4550, 4535], 9: [987, 988, 313, 717, 5433, 5430, 5431, 718, 5432, 5434], 's_39_9': [928, 929], 12: [5210, 1043, 1168, 1044, 1045, 1167, 1166, 1165, 4895], 's_39_12': [4804], 's_39_24': [940, 4745], 's_39_28': [5014], 's_40_1': [5012, 656], 2: [4470, 5224, 5223, 5222, 5221, 278, 279, 280, 281, 282], 's_40_2': [522], 's_40_8': [5250, 117], 's_40_11': [238], 's_40_17': [5356], 22: [583, 116, 115, 266, 5405, 5404, 5403, 5402, 493, 492, 5085, 5176, 5175], 's_40_22': [5206], 27: [628, 5372, 5297, 5193, 807, 5252, 791, 792, 568, 5253], 's_40_27': [598], 's_40_32': [5327, 538], 's_40_37': [5325], 's_3_1': [971], 's_3_6': [4877], 's_3_10': [865], 's_3_12': [1136], 's_3_13': [5000, 5001], 19: [4952, 567, 941, 566, 942, 5164, 5162, 943, 5163], 's_3_19': [536, 537], 's_3_26': [4727], 's_3_27': [806], 's_3_35': [4982], 's_13_1': [5011, 386], 's_13_2': [972], 's_13_5': [883], 's_13_8': [5116], 's_13_9': [898], 's_13_21': [521], 's_13_29': [554], 's_13_30': [1120, 4761], 's_13_31': [4937], 's_13_34': [5118], 's_13_36': [763], 's_24_17': [670], 's_24_22': [5313], 's_24_34': [805], 's_24_12': [4849, 910], 's_24_27': [748], 's_24_9': [5328], 's_24_18': [835], 's_30_11': [323], 's_30_26': [4532], 's_30_2': [4591, 369], 's_30_10': [4594], 's_30_12': [1029], 's_30_33': [4622], 's_30_38': [998], 's_36_11': [418], 's_36_10': [4955], 's_36_22': [5191], 's_36_12': [5240], 's_36_27': [778], 's_36_7': [1059, 4640], 's_36_9': [703, 702], 's_38_21': [1031], 's_38_17': [999], 's_38_35': [5150], 's_38_37': [878], 's_1_11': [5056], 's_1_21': [762], 's_1_26': [491, 490], 's_5_11': [388], 's_5_10': [5254, 5255, 1137, 1138], 's_5_19': [958], 's_5_12': [4835], 's_5_14': [1046], 's_5_28': [268, 5415], 's_5_32': [404, 5477, 5476], 's_7_10': [4940], 's_7_19': [1077, 5300], 's_7_37': [4414, 832], 's_7_12': [4520], 's_7_32': [938], 's_21_11': [4680], 's_21_2': [312], 's_21_10': [986], 's_21_12': [5076, 5121, 1241], 's_21_34': [732], 's_21_35': [237], 's_21_37': [4951], 's_31_11': [4606], 's_31_26': [4846], 's_31_6': [340], 's_32_11': [353], 's_32_17': [4725, 235], 's_32_19': [4757, 550, 551], 's_32_37': [533], 's_32_12': [1028], 's_32_27': [5371], 's_32_28': [5251], 's_32_18': [398], 's_33_26': [4621], 's_33_2': [293], 's_33_8': [4875], 's_33_18': [473], 's_6_10': [4818, 4817], 's_6_17': [4756], 's_6_22': [4935], 's_6_35': [4847], 's_6_37': [40, 41], 's_6_29': [4890], 's_10_26': [4816], 's_10_2': [5239], 's_10_14': [4834], 's_10_18': [4653], 's_10_27': [5119], 's_11_9': [163], 's_11_17': [508, 5386], 's_11_18': [218, 4426], 's_11_28': [5281], 's_11_35': [5132, 5131], 's_17_26': [475], 's_17_2': [5266], 's_17_9': [5446, 419], 's_17_12': [1030], 's_17_18': [834], 's_17_22': [5401], 's_17_28': [101, 100], 's_17_29': [524, 5507], 's_34_2': [867], 's_34_14': [4910], 's_34_18': [4998], 's_14_19': [4999], 's_14_28': [5030], 's_18_35': [4939], 's_29_19': [944], 's_29_22': [5406, 5540, 1198, 5451], 's_29_37': [4800], 's_29_27': [793], 's_29_28': [5505], 's_29_8': [145, 4785], 's_8_22': [5040], 's_26_19': [610, 611], 's_28_37': [5115], 's_28_27': [569, 5462], 's_35_2': [387], 's_35_19': [4894], 's_35_22': [507], 's_35_27': [627], 's_37_2': [4485], 's_37_9': [5445], 's_9_19': [5373, 5374], 's_9_22': [5387, 658], 's_12_22': [1153], 's_2_19': [672], 's_2_22': [357], 's_27_19': [5192]}</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0.00208203125</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.002872916088330102</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>{0: [1774, 1773, 3684], 1: [1969, 3699, 3700], 8: [3548, 1745, 1744, 1743], 12: [1564, 3714, 3713], 14: [3970, 1940, 3758, 3759, 1939], 17: [3879, 1669, 1670], 22: [1595, 3683, 1594, 1593], 23: [1849, 3654, 1548, 3653], 27: [3818, 3820, 3819], 29: [3640, 1804, 1878, 3638, 1805, 3639], 30: [3610, 3609, 1713], 35: [3624, 1909, 1908, 3625], 36: [1863, 1924, 3743, 3744], 38: [3729, 1894, 1893], 39: [3728, 1655, 1654], 2: [1833, 1835, 1834], 9: [1984, 3894, 3895, 1684, 1985], 21: [1699, 1698, 1697], 24: [4014, 3774, 1790, 1788, 1789], 33: [1850, 3849, 3850], 3: [3790, 3788, 3789], 6: [4043, 4044, 1758, 1759, 1760], 7: [1625, 1624, 1623, 3594, 3593], 15: [3923, 3924], 16: [3563, 3565, 3564], 31: [1579, 3865, 3864, 3863], 4: [1938, 3579, 1639, 1638, 3578], 5: [1609, 1610, 3910, 3909, 3908], 18: [1474, 1475, 1910, 1880, 3954, 3953, 3952], 19: [1819, 3834, 1820], 25: [3968, 3833, 1640], 13: [1729, 3669, 1728], 34: [4028, 1925, 4029, 4030], 40: [1864, 3804, 3880, 1879], 41: [1775, 3969], 11: [1535, 3803, 1534], 32: [3984, 3983], 20: [1608, 1578, 3534, 3533, 1473], 26: [1549, 3848], 10: [3670, 1968], 28: [3925, 3685, 3985, 1999, 2000], 37: [1714, 3773]}</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0.01153765470946088</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.0161310775098189</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>{0: [1774, 1773, 3684], 1: [1969, 3699, 3700], 8: [3548, 1745, 1744, 1743], 12: [1564, 3714, 3713], 14: [3970, 1940, 3758, 3759, 1939], 17: [3879, 1669, 1670], 22: [1595, 3683, 1594, 1593], 23: [1849, 3654, 1548, 3653], 27: [3818, 3820, 3819], 29: [3640, 1804, 1878, 3638, 1805, 3639], 30: [3610, 3609, 1713], 35: [3624, 1909, 1908, 3625], 36: [1863, 1924, 3743, 3744], 38: [3729, 1894, 1893], 39: [3728, 1655, 1654], 2: [1833, 1835, 1834], 9: [1984, 3894, 3895, 1684, 1985], 21: [1699, 1698, 1697], 24: [4014, 3774, 1790, 1788, 1789], 33: [1850, 3849, 3850], 3: [3790, 3788, 3789], 6: [4043, 4044, 1758, 1759, 1760], 7: [1625, 1624, 1623, 3594, 3593], 15: [3923, 3924], 16: [3563, 3565, 3564], 31: [1579, 3865, 3864, 3863], 4: [1938, 3579, 1639, 1638, 3578], 5: [1609, 1610, 3910, 3909, 3908], 18: [1474, 1475, 1910, 1880, 3954, 3953, 3952], 19: [1819, 3834, 1820], 25: [3968, 3833, 1640], 13: [1729, 3669, 1728], 34: [4028, 1925, 4029, 4030], 40: [1864, 3804, 3880, 1879], 41: [1775, 3969], 11: [1535, 3803, 1534], 32: [3984, 3983], 20: [1608, 1578, 3534, 3533, 1473], 26: [1549, 3848], 10: [3670, 1968], 28: [3925, 3685, 3985, 1999, 2000], 37: [1714, 3773]}</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0.01153765470946088</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.0161310775098189</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>{0: [1010, 4010, 4009, 4008, 4007, 4487, 548, 547, 546], 1: [905, 3964, 3917, 3919, 1327, 3918, 1326, 1325, 3966, 1040, 3965], 's_0_1': [545], 8: [4279, 937, 938, 4502, 4503, 4504], 's_0_8': [623], 12: [1299, 4536, 1238, 1144, 1145, 4056, 1236, 1237], 's_0_12': [3995], 14: [4024, 775, 774, 4458, 4142, 4143, 773, 772, 771], 's_0_14': [4457], 17: [4265, 1176, 3948, 3949, 890, 1175, 3950], 's_0_17': [1055], 22: [4382, 4383, 4384, 4475, 4474, 908], 's_0_22': [563], 23: [1284, 4037, 4038, 4039, 4040, 1283, 1282, 1281, 4041], 's_0_23': [485], 27: [860, 861, 864, 863, 862], 's_0_27': [845], 29: [4471, 414, 995, 413, 412, 4055, 4054, 4053, 4052, 411], 's_0_29': [4486], 30: [619, 4413, 622, 620, 621], 's_0_30': [4097], 35: [4126, 4127, 664, 665, 667, 4112, 666], 's_0_35': [561], 36: [1160, 4188, 4189, 4190, 1164, 1163, 1162, 1161], 's_0_36': [3980], 38: [4101, 4100, 4099, 712, 711, 726, 4098], 's_0_38': [710], 39: [684, 4580, 983, 683, 4533, 4534], 's_0_39': [638], 2: [473, 472, 471, 4157, 950, 951, 4159, 4158], 's_1_2': [3829], 9: [923, 922, 4084, 921, 920, 3858, 799, 3860, 3859], 's_1_9': [1039], 's_1_12': [4057], 's_1_17': [1205, 4011], 21: [1373, 1372, 1207, 4327, 4324, 4325, 4326], 's_1_21': [4371], 24: [895, 4445, 518, 965, 966, 967, 894, 893, 4442, 4443, 4444], 's_1_24': [964], 's_1_27': [3889], 's_1_29': [4025], 's_1_30': [604], 33: [1223, 1222, 3873, 3874, 3876, 1220, 4221, 3875, 4146, 1221], 's_1_33': [1265], 3: [1026, 1027, 4386, 4385, 1119, 4535, 1043, 1042], 's_8_3': [4505], 6: [4611, 4352, 606, 607, 608, 4610, 4608, 818, 4609], 's_8_6': [939], 7: [847, 801, 4276, 4277, 727, 4278], 's_8_7': [4234, 4235], 's_8_9': [4264], 15: [755, 756, 757, 654, 653, 652, 4338], 's_8_15': [758], 16: [4441, 458, 457], 's_8_16': [488], 's_8_21': [4294, 892], 's_8_27': [4369], 31: [4519, 4220, 952, 954, 4430, 953], 's_8_31': [4459], 's_12_3': [1252], 4: [4641, 441, 442, 4640, 4639, 4638, 4637, 4636, 443], 's_12_4': [1239, 4626], 5: [4232, 4233, 3935, 3933, 740, 3934, 741, 742], 's_12_5': [1190], 18: [4521, 999, 998, 4520], 's_12_18': [1253], 19: [3890, 1070, 1072, 4176, 4175, 1071], 's_12_19': [3920], 's_12_21': [1206], 's_12_23': [4086], 25: [3815, 935, 3814], 's_12_25': [1159], 's_14_2': [501], 's_14_5': [785], 's_14_9': [4144], 13: [515, 517, 516], 's_14_13': [531], 's_14_17': [815], 's_14_22': [817], 's_14_23': [4023], 's_14_24': [4759], 34: [4820, 4818, 4819], 's_14_34': [760], 40: [4472, 1118, 4355, 4354, 834, 832, 833, 4473], 's_14_40': [4353], 41: [4218, 3904, 3903, 700, 699, 698, 697, 696, 695], 's_14_41': [4518], 's_17_5': [1115], 11: [4744, 1085, 4745, 1090, 1086, 1087, 1088, 1089], 's_17_11': [4280], 's_17_15': [770, 3813], 's_17_19': [4191], 's_17_24': [1177], 32: [759, 874, 848, 4115, 4114, 875, 876, 877, 878, 4564], 's_17_32': [4130], 's_17_36': [4251, 1132], 's_22_4': [4397], 's_22_15': [787], 's_22_18': [1328, 4476], 20: [4399, 1104, 1103, 4400], 's_22_20': [4414, 4415], 26: [1268, 1193, 4506], 's_22_26': [1178, 4551], 's_22_27': [4429], 's_22_29': [398], 's_22_36': [1148], 's_23_3': [1025], 10: [426, 4202, 456, 590, 3977, 4096, 455], 's_23_10': [500], 's_23_13': [530], 's_23_19': [1267], 's_23_24': [4205, 4206], 's_23_26': [4461], 28: [1224, 4671, 4670, 4607, 4622, 4669, 4668, 4667, 534], 's_23_28': [1344, 4491, 1343], 's_23_29': [980], 's_23_38': [830], 's_27_2': [846], 's_27_6': [849], 's_27_11': [4714, 4715], 's_27_28': [4653], 's_27_29': [4069], 's_27_38': [4263], 's_27_40': [4339], 's_29_2': [470], 's_29_3': [4070], 's_29_4': [4321], 's_29_7': [397], 's_29_9': [994], 's_29_10': [4186], 's_29_13': [4022], 's_29_19': [1056], 's_29_28': [4621], 's_29_30': [605], 's_29_32': [891], 's_29_40': [533, 4577], 's_30_10': [3812], 's_30_35': [4082], 's_30_39': [668], 's_35_4': [4111], 's_35_6': [4292], 's_35_7': [4248], 's_35_9': [634, 3752], 's_35_13': [4262], 's_35_15': [3963], 's_35_33': [3888], 's_35_36': [636], 's_36_6': [4187], 's_36_19': [1146], 's_36_28': [1149], 's_36_33': [4236], 's_36_34': [4805], 's_36_38': [4085], 's_36_40': [4431], 's_38_2': [906], 's_38_3': [1041], 's_38_7': [4293], 's_38_15': [4368], 's_38_19': [1251], 's_38_33': [1296], 's_39_4': [968], 's_39_11': [984], 's_39_18': [4595], 's_39_31': [1058], 's_39_32': [4489], 37: [637, 982, 4307, 4308, 4310, 4309], 's_39_37': [4428], 's_2_7': [786], 's_2_9': [3994], 's_2_10': [4217], 's_2_16': [4306], 's_2_19': [4160], 's_2_24': [4547], 's_2_28': [4592], 's_2_31': [981], 's_2_41': [681], 's_9_3': [4129], 's_9_5': [3828], 's_9_10': [3843], 's_9_11': [1100], 's_9_24': [3979], 's_9_25': [1054], 's_9_33': [649], 's_9_41': [784], 's_21_4': [1358, 1357], 's_21_7': [4323], 's_21_33': [4356], 's_21_37': [997], 's_24_5': [743], 's_24_6': [4532], 's_24_13': [578, 4367], 's_24_16': [4562], 's_24_20': [4460], 's_24_31': [4684], 's_24_33': [1208], 's_24_34': [880], 's_24_40': [4729], 's_33_19': [1191], 's_33_26': [4416], 's_33_28': [1269, 4581], 's_33_31': [4145, 996], 's_33_41': [1009], 's_3_28': [4655], 's_3_31': [4624, 4700, 1029], 's_3_4': [4596, 1209], 's_3_26': [4566], 's_3_37': [1192], 's_3_40': [1057], 's_6_7': [728, 729, 744], 's_6_41': [4593], 's_6_40': [4623], 's_6_11': [1044], 's_6_13': [4322], 's_6_32': [4563], 's_7_4': [4261], 's_7_20': [682, 4398], 's_7_32': [4219], 's_15_28': [4652], 's_15_41': [4743], 's_15_5': [4173], 's_16_10': [427], 's_31_19': [1011], 's_31_18': [4565], 's_31_20': [1073, 4550], 's_31_37': [1102], 's_31_40': [1012], 's_4_10': [440], 's_4_28': [489], 's_4_11': [1059], 's_4_20': [4625], 's_5_37': [562], 's_5_13': [4247], 's_5_25': [1130], 's_5_32': [4113], 's_18_28': [4654], 's_18_26': [1298], 's_18_40': [1133], 's_18_20': [4685], 's_18_34': [1014], 's_19_25': [979], 's_19_37': [1117], 's_19_40': [4370], 's_25_41': [814], 's_25_11': [3830], 's_25_32': [889], 's_13_10': [4172], 's_13_37': [532], 's_34_41': [4803], 's_34_11': [1105], 's_40_28': [819], 's_40_37': [1147], 's_41_32': [4488], 's_11_32': [1101], 's_32_28': [924, 4579]}</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0.000748031496062992</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.001751415466105136</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>{0: [1010, 4010, 4009, 4008, 4007, 4487, 548, 547, 546], 1: [905, 3964, 3917, 3919, 1327, 3918, 1326, 1325, 3966, 1040, 3965], 's_0_1': [545], 8: [4279, 937, 938, 4502, 4503, 4504], 's_0_8': [623], 12: [1299, 4536, 1238, 1144, 1145, 4056, 1236, 1237], 's_0_12': [3995], 14: [4024, 775, 774, 4458, 4142, 4143, 773, 772, 771], 's_0_14': [4457], 17: [4265, 1176, 3948, 3949, 890, 1175, 3950], 's_0_17': [1055], 22: [4382, 4383, 4384, 4475, 4474, 908], 's_0_22': [563], 23: [1284, 4037, 4038, 4039, 4040, 1283, 1282, 1281, 4041], 's_0_23': [485], 27: [860, 861, 864, 863, 862], 's_0_27': [845], 29: [4471, 414, 995, 413, 412, 4055, 4054, 4053, 4052, 411], 's_0_29': [4486], 30: [619, 4413, 622, 620, 621], 's_0_30': [4097], 35: [4126, 4127, 664, 665, 667, 4112, 666], 's_0_35': [561], 36: [1160, 4188, 4189, 4190, 1164, 1163, 1162, 1161], 's_0_36': [3980], 38: [4101, 4100, 4099, 712, 711, 726, 4098], 's_0_38': [710], 39: [684, 4580, 983, 683, 4533, 4534], 's_0_39': [638], 2: [473, 472, 471, 4157, 950, 951, 4159, 4158], 's_1_2': [3829], 9: [923, 922, 4084, 921, 920, 3858, 799, 3860, 3859], 's_1_9': [1039], 's_1_12': [4057], 's_1_17': [1205, 4011], 21: [1373, 1372, 1207, 4327, 4324, 4325, 4326], 's_1_21': [4371], 24: [895, 4445, 518, 965, 966, 967, 894, 893, 4442, 4443, 4444], 's_1_24': [964], 's_1_27': [3889], 's_1_29': [4025], 's_1_30': [604], 33: [1223, 1222, 3873, 3874, 3876, 1220, 4221, 3875, 4146, 1221], 's_1_33': [1265], 3: [1026, 1027, 4386, 4385, 1119, 4535, 1043, 1042], 's_8_3': [4505], 6: [4611, 4352, 606, 607, 608, 4610, 4608, 818, 4609], 's_8_6': [939], 7: [847, 801, 4276, 4277, 727, 4278], 's_8_7': [4234, 4235], 's_8_9': [4264], 15: [755, 756, 757, 654, 653, 652, 4338], 's_8_15': [758], 16: [4441, 458, 457], 's_8_16': [488], 's_8_21': [4294, 892], 's_8_27': [4369], 31: [4519, 4220, 952, 954, 4430, 953], 's_8_31': [4459], 's_12_3': [1252], 4: [4641, 441, 442, 4640, 4639, 4638, 4637, 4636, 443], 's_12_4': [1239, 4626], 5: [4232, 4233, 3935, 3933, 740, 3934, 741, 742], 's_12_5': [1190], 18: [4521, 999, 998, 4520], 's_12_18': [1253], 19: [3890, 1070, 1072, 4176, 4175, 1071], 's_12_19': [3920], 's_12_21': [1206], 's_12_23': [4086], 25: [3815, 935, 3814], 's_12_25': [1159], 's_14_2': [501], 's_14_5': [785], 's_14_9': [4144], 13: [515, 517, 516], 's_14_13': [531], 's_14_17': [815], 's_14_22': [817], 's_14_23': [4023], 's_14_24': [4759], 34: [4820, 4818, 4819], 's_14_34': [760], 40: [4472, 1118, 4355, 4354, 834, 832, 833, 4473], 's_14_40': [4353], 41: [4218, 3904, 3903, 700, 699, 698, 697, 696, 695], 's_14_41': [4518], 's_17_5': [1115], 11: [4744, 1085, 4745, 1090, 1086, 1087, 1088, 1089], 's_17_11': [4280], 's_17_15': [770, 3813], 's_17_19': [4191], 's_17_24': [1177], 32: [759, 874, 848, 4115, 4114, 875, 876, 877, 878, 4564], 's_17_32': [4130], 's_17_36': [4251, 1132], 's_22_4': [4397], 's_22_15': [787], 's_22_18': [1328, 4476], 20: [4399, 1104, 1103, 4400], 's_22_20': [4414, 4415], 26: [1268, 1193, 4506], 's_22_26': [1178, 4551], 's_22_27': [4429], 's_22_29': [398], 's_22_36': [1148], 's_23_3': [1025], 10: [426, 4202, 456, 590, 3977, 4096, 455], 's_23_10': [500], 's_23_13': [530], 's_23_19': [1267], 's_23_24': [4205, 4206], 's_23_26': [4461], 28: [1224, 4671, 4670, 4607, 4622, 4669, 4668, 4667, 534], 's_23_28': [1344, 4491, 1343], 's_23_29': [980], 's_23_38': [830], 's_27_2': [846], 's_27_6': [849], 's_27_11': [4714, 4715], 's_27_28': [4653], 's_27_29': [4069], 's_27_38': [4263], 's_27_40': [4339], 's_29_2': [470], 's_29_3': [4070], 's_29_4': [4321], 's_29_7': [397], 's_29_9': [994], 's_29_10': [4186], 's_29_13': [4022], 's_29_19': [1056], 's_29_28': [4621], 's_29_30': [605], 's_29_32': [891], 's_29_40': [533, 4577], 's_30_10': [3812], 's_30_35': [4082], 's_30_39': [668], 's_35_4': [4111], 's_35_6': [4292], 's_35_7': [4248], 's_35_9': [634, 3752], 's_35_13': [4262], 's_35_15': [3963], 's_35_33': [3888], 's_35_36': [636], 's_36_6': [4187], 's_36_19': [1146], 's_36_28': [1149], 's_36_33': [4236], 's_36_34': [4805], 's_36_38': [4085], 's_36_40': [4431], 's_38_2': [906], 's_38_3': [1041], 's_38_7': [4293], 's_38_15': [4368], 's_38_19': [1251], 's_38_33': [1296], 's_39_4': [968], 's_39_11': [984], 's_39_18': [4595], 's_39_31': [1058], 's_39_32': [4489], 37: [637, 982, 4307, 4308, 4310, 4309], 's_39_37': [4428], 's_2_7': [786], 's_2_9': [3994], 's_2_10': [4217], 's_2_16': [4306], 's_2_19': [4160], 's_2_24': [4547], 's_2_28': [4592], 's_2_31': [981], 's_2_41': [681], 's_9_3': [4129], 's_9_5': [3828], 's_9_10': [3843], 's_9_11': [1100], 's_9_24': [3979], 's_9_25': [1054], 's_9_33': [649], 's_9_41': [784], 's_21_4': [1358, 1357], 's_21_7': [4323], 's_21_33': [4356], 's_21_37': [997], 's_24_5': [743], 's_24_6': [4532], 's_24_13': [578, 4367], 's_24_16': [4562], 's_24_20': [4460], 's_24_31': [4684], 's_24_33': [1208], 's_24_34': [880], 's_24_40': [4729], 's_33_19': [1191], 's_33_26': [4416], 's_33_28': [1269, 4581], 's_33_31': [4145, 996], 's_33_41': [1009], 's_3_28': [4655], 's_3_31': [4624, 4700, 1029], 's_3_4': [4596, 1209], 's_3_26': [4566], 's_3_37': [1192], 's_3_40': [1057], 's_6_7': [728, 729, 744], 's_6_41': [4593], 's_6_40': [4623], 's_6_11': [1044], 's_6_13': [4322], 's_6_32': [4563], 's_7_4': [4261], 's_7_20': [682, 4398], 's_7_32': [4219], 's_15_28': [4652], 's_15_41': [4743], 's_15_5': [4173], 's_16_10': [427], 's_31_19': [1011], 's_31_18': [4565], 's_31_20': [1073, 4550], 's_31_37': [1102], 's_31_40': [1012], 's_4_10': [440], 's_4_28': [489], 's_4_11': [1059], 's_4_20': [4625], 's_5_37': [562], 's_5_13': [4247], 's_5_25': [1130], 's_5_32': [4113], 's_18_28': [4654], 's_18_26': [1298], 's_18_40': [1133], 's_18_20': [4685], 's_18_34': [1014], 's_19_25': [979], 's_19_37': [1117], 's_19_40': [4370], 's_25_41': [814], 's_25_11': [3830], 's_25_32': [889], 's_13_10': [4172], 's_13_37': [532], 's_34_41': [4803], 's_34_11': [1105], 's_40_28': [819], 's_40_37': [1147], 's_41_32': [4488], 's_11_32': [1101], 's_32_28': [924, 4579]}</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0.000748031496062992</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.001751415466105136</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>{0: [5412, 5082, 2367, 2368], 1: [2217, 5125, 5126, 5127], 14: [5184, 5185, 5187, 5186], 16: [5155, 5157, 2128, 5156, 2127], 18: [5262, 5260, 5261], 21: [5080, 2172, 5081], 22: [5411, 2097, 5530, 2098], 25: [2337, 5291, 5292], 3: [5471, 1916, 1917, 1918, 5470], 5: [5440, 5441, 2246, 2247, 2248], 15: [5171, 5170], 19: [5216, 2157], 20: [2052, 5231, 5230], 26: [5350, 1976, 1978, 1977], 28: [1931, 1933, 1932], 34: [5379, 2218, 5380, 5381], 35: [2189, 2187, 2188], 38: [2112, 5140, 5142, 5141], 40: [1946, 1947, 1948], 4: [2142, 5486, 2143], 8: [5199, 5200, 2292, 5201], 10: [5472, 5322, 2307, 2308], 11: [5425, 2202, 2203, 5426], 32: [5111, 2096], 33: [2066, 2068, 2067], 2: [5276, 2038, 5275], 12: [2233, 2232, 2231], 17: [1902, 5246, 5245], 27: [2022, 5410, 2023], 30: [2173, 5320, 2113, 5321], 31: [5274, 1843, 5214, 1842], 41: [1964, 1962, 1963], 7: [1992, 5335, 1993], 37: [2009, 5110, 2008, 2007], 23: [5501, 2039, 5455], 29: [2158, 2293, 5366], 39: [5454, 1859, 5306, 1858, 5305], 42: [5290, 5364, 1887], 24: [1857, 5094, 5096, 5169, 5095], 9: [5337, 5336], 6: [5215, 5365, 2082], 36: [5394, 2083, 5396, 5395], 13: [2053]}</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0.008500819721901753</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.01289885028367551</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>{0: [5412, 5082, 2367, 2368], 1: [2217, 5125, 5126, 5127], 14: [5184, 5185, 5187, 5186], 16: [5155, 5157, 2128, 5156, 2127], 18: [5262, 5260, 5261], 21: [5080, 2172, 5081], 22: [5411, 2097, 5530, 2098], 25: [2337, 5291, 5292], 3: [5471, 1916, 1917, 1918, 5470], 5: [5440, 5441, 2246, 2247, 2248], 15: [5171, 5170], 19: [5216, 2157], 20: [2052, 5231, 5230], 26: [5350, 1976, 1978, 1977], 28: [1931, 1933, 1932], 34: [5379, 2218, 5380, 5381], 35: [2189, 2187, 2188], 38: [2112, 5140, 5142, 5141], 40: [1946, 1947, 1948], 4: [2142, 5486, 2143], 8: [5199, 5200, 2292, 5201], 10: [5472, 5322, 2307, 2308], 11: [5425, 2202, 2203, 5426], 32: [5111, 2096], 33: [2066, 2068, 2067], 2: [5276, 2038, 5275], 12: [2233, 2232, 2231], 17: [1902, 5246, 5245], 27: [2022, 5410, 2023], 30: [2173, 5320, 2113, 5321], 31: [5274, 1843, 5214, 1842], 41: [1964, 1962, 1963], 7: [1992, 5335, 1993], 37: [2009, 5110, 2008, 2007], 23: [5501, 2039, 5455], 29: [2158, 2293, 5366], 39: [5454, 1859, 5306, 1858, 5305], 42: [5290, 5364, 1887], 24: [1857, 5094, 5096, 5169, 5095], 9: [5337, 5336], 6: [5215, 5365, 2082], 36: [5394, 2083, 5396, 5395], 13: [2053]}</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0.008500819721901753</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.01289885028367551</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.162</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>{0: [2199, 2197, 2198], 1: [4192, 4193, 1746, 4196, 4195, 4194], 's_0_1': [2212], 14: [2287, 2286, 4212, 4328, 1672, 4209, 4210, 4211], 's_0_14': [4392], 16: [4477, 4479, 4481, 2003, 2016, 2017, 2018, 4478, 4480], 's_0_16': [2213], 18: [4631, 4630, 4434, 4435, 1988, 1989], 's_0_18': [2214], 21: [2225, 2226, 1943, 4555, 2229, 2228, 4422, 4556, 2227], 's_0_21': [4437], 22: [4613, 4451, 1866, 4614, 1794, 1867, 4450, 4449, 1793], 's_0_22': [4466], 25: [4316, 2185, 2181, 2184, 2182, 4376, 2183], 's_0_25': [4361], 3: [3999, 4720, 4254, 1806, 1807, 4719, 1810, 4253, 1809, 1808], 's_1_3': [1506], 5: [2105, 1599, 2106, 1598, 1597, 4298, 2107, 4300, 4299], 's_1_5': [2002], 15: [2094, 2093, 2092, 4347, 4346, 4074, 4075, 1986, 1987, 4345], 's_1_15': [1761], 19: [4497, 1476, 4102, 4103, 4104, 4105, 4106, 2301, 4182, 2392, 2393], 's_1_19': [1431, 4177], 20: [3941, 3940, 3939, 3938, 1610, 1614, 1613, 1612, 1611], 's_1_20': [4223, 1521], 26: [2020, 4766, 2079, 2076, 2077, 2078], 's_1_26': [2091], 28: [1837, 1464, 1463, 4372, 4373, 1777, 4495, 4494, 1838, 4374], 's_1_28': [4179], 34: [4240, 1884, 1883, 4524, 4239, 1747, 4569, 1748], 's_1_34': [1822], 35: [1687, 4117, 4358, 1567, 1551, 4284, 4283, 4282], 's_1_35': [1447], 38: [4090, 1645, 1644, 1643, 4388, 4389, 1956, 1957, 4390], 's_1_38': [1642], 40: [1854, 4629, 1913, 4118, 4119, 1911, 1912], 's_1_40': [1926], 4: [4167, 2316, 2317, 2318, 4542, 4541, 2108, 2109, 2110, 4931, 4930], 's_14_4': [2256], 's_14_5': [2121], 8: [4824, 4014, 4809, 1825, 1824, 1823, 1851, 1852, 1853, 4464], 's_14_8': [4329], 10: [1971, 4059, 4061, 4060], 's_14_10': [2151], 11: [4301, 4255, 2153, 2152, 4256, 3984, 3985, 2045, 2046], 's_14_11': [2347, 4272, 4271], 's_14_15': [2302], 's_14_16': [2288], 's_14_21': [4227], 's_14_25': [4286], 32: [4553, 1552, 1553], 's_14_32': [4343], 33: [4643, 4647, 2138, 1702, 1703, 4599, 4600, 4646, 2139, 4601], 's_14_33': [1701], 's_14_40': [1686], 2: [1779, 4733, 4734, 4527, 4526, 2123, 4735, 4736, 2124], 's_16_2': [2243], 's_16_8': [4405], 12: [4044, 4046, 4045], 's_16_12': [4015, 1970], 17: [4148, 4871, 4870, 2035, 2034, 2033, 2032, 2031, 4149, 4150], 's_16_17': [4000], 's_16_22': [1523], 's_16_25': [4241], 's_16_26': [4120], 27: [2275, 2274, 2273, 2272, 2271, 2270, 3970, 3971, 3972], 's_16_27': [2015], 's_16_28': [1432, 1433], 30: [2005, 4763, 1958, 1959, 4764, 4765], 's_16_30': [4465], 31: [4779, 1720, 4493, 4689, 1718, 1719], 's_16_31': [1688], 's_16_32': [4492], 's_16_33': [2258], 41: [4512, 2168, 4509, 4510, 4511], 's_16_41': [1733], 's_18_2': [4645], 's_18_17': [4360], 's_18_22': [4615], 's_18_25': [2169], 's_18_26': [4675], 's_18_33': [2004], 's_18_35': [1673], 's_18_40': [4375], 's_18_41': [2304, 2303], 7: [4525, 2048, 4826, 4825, 2049], 's_21_7': [1898], 's_21_11': [4257], 's_21_15': [2257], 's_21_20': [2240], 's_21_26': [4331], 's_21_27': [4032], 's_21_28': [4420], 's_21_30': [4570], 37: [1855, 1554, 4688, 4797, 1508, 1509, 4796, 4795, 4794, 4793], 's_21_37': [4782], 's_21_40': [4585], 's_22_4': [4452], 's_22_17': [1881], 23: [4705, 4707, 4704, 4706], 's_22_23': [1764], 29: [1791, 4166, 1836, 4164, 4165], 's_22_29': [4134], 's_22_32': [4598], 's_22_34': [4359], 's_22_37': [1674], 39: [1974, 1537, 1538, 1539, 1540, 4913, 4914, 4915, 1975], 's_22_39': [1795], 's_22_41': [1973], 's_25_4': [4571], 's_25_5': [4001], 's_25_10': [4121, 2136], 's_25_11': [2122], 's_25_19': [4377], 's_25_27': [4136, 2242, 2241], 42: [1465, 2245, 4841, 4840, 4839, 4837, 4838], 's_25_42': [2170], 's_3_8': [4344], 's_3_10': [1730], 's_3_11': [1775], 's_3_23': [1869], 24: [4463, 1685, 3998, 1626, 4418, 1628, 1627], 's_3_24': [4419], 's_3_26': [4721], 's_3_29': [4089], 's_3_31': [4869], 's_3_33': [4584], 's_3_35': [1477], 's_3_37': [1990], 's_3_38': [4718], 's_3_39': [1811], 's_3_42': [4854], 's_5_4': [4151, 4152], 9: [3924, 1942, 1941, 1940], 's_5_9': [3925], 's_5_15': [2062], 's_5_19': [1596, 4058], 's_5_20': [2120], 's_5_24': [4238], 's_5_26': [4315], 's_5_28': [1762], 's_5_30': [4748], 's_5_38': [4270], 's_15_4': [4691], 's_15_7': [2047], 's_15_10': [4076], 's_15_12': [1895], 's_15_24': [4073], 's_15_26': [4810], 's_15_27': [4332], 's_15_37': [4781], 's_19_2': [2378], 's_19_4': [4302], 6: [2363, 2364, 2349, 2350, 4884, 4885, 4886, 4887], 's_19_6': [4467], 's_19_8': [1880], 's_19_17': [1641], 's_19_20': [1566, 4208], 's_19_29': [2166], 's_19_35': [4132], 's_19_38': [2090], 's_20_9': [3923], 's_20_11': [1850], 's_20_17': [2030], 's_20_30': [1660, 1615, 4853], 's_20_33': [4313], 's_20_37': [4672, 4673], 's_20_40': [1910], 's_26_6': [2080], 's_26_11': [4226], 's_26_23': [2154], 's_26_33': [4586], 's_26_41': [4421], 's_28_2': [1778], 's_28_7': [4540, 4539, 1868], 's_28_11': [4496], 's_28_17': [1776], 's_28_24': [4417], 36: [4224, 1656, 4662, 1657, 1658, 4661, 1659, 4658, 4659, 4660], 's_28_36': [4657], 's_28_38': [1522], 's_28_42': [1448, 1449, 1450], 's_34_2': [4644], 's_34_7': [4751, 4750], 's_34_9': [1927], 's_34_30': [1749], 's_34_36': [4404], 's_34_37': [4780], 's_34_40': [4674], 's_34_41': [1763], 's_35_9': [4269], 's_35_32': [4297], 's_35_36': [4163], 's_35_38': [1792], 's_35_39': [1536], 's_38_2': [1630], 's_38_8': [1897], 's_38_10': [2075], 's_38_11': [1972], 's_38_17': [4135, 2001], 's_38_37': [4568], 's_40_17': [1731], 's_40_23': [1944], 's_40_24': [4133], 's_40_31': [1839], 's_40_37': [4627, 4628], 's_4_2': [2333], 13: [4737, 2424, 2423], 's_4_13': [4482], 's_4_17': [2155], 's_4_23': [2379], 's_4_29': [4062, 2211], 's_4_33': [2140], 's_4_36': [2394], 's_4_39': [2006], 's_8_6': [1945], 's_8_31': [4749], 's_8_7': [1928], 's_8_10': [1715], 's_8_12': [4030], 's_8_29': [1821], 's_8_37': [1780], 's_8_42': [1930], 's_10_36': [1671], 's_10_9': [4225], 's_10_11': [4180], 's_11_9': [1925], 's_11_12': [1745], 's_11_27': [1955], 's_11_33': [2137], 's_11_41': [2167], 's_32_24': [4523], 's_32_33': [4538], 's_32_37': [4583], 's_33_6': [4602], 's_33_23': [2319], 's_33_27': [4676], 's_2_6': [2215], 's_2_17': [2125], 's_2_30': [1584], 's_2_31': [1675], 's_2_36': [1914], 's_12_17': [4031], 's_12_24': [4043], 's_17_7': [2200], 's_17_39': [1915], 's_17_41': [4436], 's_17_42': [2065], 's_27_6': [4572], 's_27_36': [2259], 's_27_13': [4557], 's_27_9': [3969, 1820], 's_27_7': [4811], 's_27_41': [4362, 2348], 's_30_6': [1840], 's_30_42': [1480], 's_31_6': [1765], 's_31_24': [1717], 's_31_37': [4808, 4807], 's_41_7': [2063], 's_7_37': [2305], 's_7_39': [1960], 's_23_13': [2409], 's_23_39': [4703], 's_29_36': [1716], 's_29_9': [1790], 's_39_24': [4508], 's_39_42': [1555], 's_42_6': [2230], 's_6_36': [1899, 1900]}</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0.0008592592592592592</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.001784616476187024</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>{0: [2199, 2197, 2198], 1: [4192, 4193, 1746, 4196, 4195, 4194], 's_0_1': [2212], 14: [2287, 2286, 4212, 4328, 1672, 4209, 4210, 4211], 's_0_14': [4392], 16: [4477, 4479, 4481, 2003, 2016, 2017, 2018, 4478, 4480], 's_0_16': [2213], 18: [4631, 4630, 4434, 4435, 1988, 1989], 's_0_18': [2214], 21: [2225, 2226, 1943, 4555, 2229, 2228, 4422, 4556, 2227], 's_0_21': [4437], 22: [4613, 4451, 1866, 4614, 1794, 1867, 4450, 4449, 1793], 's_0_22': [4466], 25: [4316, 2185, 2181, 2184, 2182, 4376, 2183], 's_0_25': [4361], 3: [3999, 4720, 4254, 1806, 1807, 4719, 1810, 4253, 1809, 1808], 's_1_3': [1506], 5: [2105, 1599, 2106, 1598, 1597, 4298, 2107, 4300, 4299], 's_1_5': [2002], 15: [2094, 2093, 2092, 4347, 4346, 4074, 4075, 1986, 1987, 4345], 's_1_15': [1761], 19: [4497, 1476, 4102, 4103, 4104, 4105, 4106, 2301, 4182, 2392, 2393], 's_1_19': [1431, 4177], 20: [3941, 3940, 3939, 3938, 1610, 1614, 1613, 1612, 1611], 's_1_20': [4223, 1521], 26: [2020, 4766, 2079, 2076, 2077, 2078], 's_1_26': [2091], 28: [1837, 1464, 1463, 4372, 4373, 1777, 4495, 4494, 1838, 4374], 's_1_28': [4179], 34: [4240, 1884, 1883, 4524, 4239, 1747, 4569, 1748], 's_1_34': [1822], 35: [1687, 4117, 4358, 1567, 1551, 4284, 4283, 4282], 's_1_35': [1447], 38: [4090, 1645, 1644, 1643, 4388, 4389, 1956, 1957, 4390], 's_1_38': [1642], 40: [1854, 4629, 1913, 4118, 4119, 1911, 1912], 's_1_40': [1926], 4: [4167, 2316, 2317, 2318, 4542, 4541, 2108, 2109, 2110, 4931, 4930], 's_14_4': [2256], 's_14_5': [2121], 8: [4824, 4014, 4809, 1825, 1824, 1823, 1851, 1852, 1853, 4464], 's_14_8': [4329], 10: [1971, 4059, 4061, 4060], 's_14_10': [2151], 11: [4301, 4255, 2153, 2152, 4256, 3984, 3985, 2045, 2046], 's_14_11': [2347, 4272, 4271], 's_14_15': [2302], 's_14_16': [2288], 's_14_21': [4227], 's_14_25': [4286], 32: [4553, 1552, 1553], 's_14_32': [4343], 33: [4643, 4647, 2138, 1702, 1703, 4599, 4600, 4646, 2139, 4601], 's_14_33': [1701], 's_14_40': [1686], 2: [1779, 4733, 4734, 4527, 4526, 2123, 4735, 4736, 2124], 's_16_2': [2243], 's_16_8': [4405], 12: [4044, 4046, 4045], 's_16_12': [4015, 1970], 17: [4148, 4871, 4870, 2035, 2034, 2033, 2032, 2031, 4149, 4150], 's_16_17': [4000], 's_16_22': [1523], 's_16_25': [4241], 's_16_26': [4120], 27: [2275, 2274, 2273, 2272, 2271, 2270, 3970, 3971, 3972], 's_16_27': [2015], 's_16_28': [1432, 1433], 30: [2005, 4763, 1958, 1959, 4764, 4765], 's_16_30': [4465], 31: [4779, 1720, 4493, 4689, 1718, 1719], 's_16_31': [1688], 's_16_32': [4492], 's_16_33': [2258], 41: [4512, 2168, 4509, 4510, 4511], 's_16_41': [1733], 's_18_2': [4645], 's_18_17': [4360], 's_18_22': [4615], 's_18_25': [2169], 's_18_26': [4675], 's_18_33': [2004], 's_18_35': [1673], 's_18_40': [4375], 's_18_41': [2304, 2303], 7: [4525, 2048, 4826, 4825, 2049], 's_21_7': [1898], 's_21_11': [4257], 's_21_15': [2257], 's_21_20': [2240], 's_21_26': [4331], 's_21_27': [4032], 's_21_28': [4420], 's_21_30': [4570], 37: [1855, 1554, 4688, 4797, 1508, 1509, 4796, 4795, 4794, 4793], 's_21_37': [4782], 's_21_40': [4585], 's_22_4': [4452], 's_22_17': [1881], 23: [4705, 4707, 4704, 4706], 's_22_23': [1764], 29: [1791, 4166, 1836, 4164, 4165], 's_22_29': [4134], 's_22_32': [4598], 's_22_34': [4359], 's_22_37': [1674], 39: [1974, 1537, 1538, 1539, 1540, 4913, 4914, 4915, 1975], 's_22_39': [1795], 's_22_41': [1973], 's_25_4': [4571], 's_25_5': [4001], 's_25_10': [4121, 2136], 's_25_11': [2122], 's_25_19': [4377], 's_25_27': [4136, 2242, 2241], 42: [1465, 2245, 4841, 4840, 4839, 4837, 4838], 's_25_42': [2170], 's_3_8': [4344], 's_3_10': [1730], 's_3_11': [1775], 's_3_23': [1869], 24: [4463, 1685, 3998, 1626, 4418, 1628, 1627], 's_3_24': [4419], 's_3_26': [4721], 's_3_29': [4089], 's_3_31': [4869], 's_3_33': [4584], 's_3_35': [1477], 's_3_37': [1990], 's_3_38': [4718], 's_3_39': [1811], 's_3_42': [4854], 's_5_4': [4151, 4152], 9: [3924, 1942, 1941, 1940], 's_5_9': [3925], 's_5_15': [2062], 's_5_19': [1596, 4058], 's_5_20': [2120], 's_5_24': [4238], 's_5_26': [4315], 's_5_28': [1762], 's_5_30': [4748], 's_5_38': [4270], 's_15_4': [4691], 's_15_7': [2047], 's_15_10': [4076], 's_15_12': [1895], 's_15_24': [4073], 's_15_26': [4810], 's_15_27': [4332], 's_15_37': [4781], 's_19_2': [2378], 's_19_4': [4302], 6: [2363, 2364, 2349, 2350, 4884, 4885, 4886, 4887], 's_19_6': [4467], 's_19_8': [1880], 's_19_17': [1641], 's_19_20': [1566, 4208], 's_19_29': [2166], 's_19_35': [4132], 's_19_38': [2090], 's_20_9': [3923], 's_20_11': [1850], 's_20_17': [2030], 's_20_30': [1660, 1615, 4853], 's_20_33': [4313], 's_20_37': [4672, 4673], 's_20_40': [1910], 's_26_6': [2080], 's_26_11': [4226], 's_26_23': [2154], 's_26_33': [4586], 's_26_41': [4421], 's_28_2': [1778], 's_28_7': [4540, 4539, 1868], 's_28_11': [4496], 's_28_17': [1776], 's_28_24': [4417], 36: [4224, 1656, 4662, 1657, 1658, 4661, 1659, 4658, 4659, 4660], 's_28_36': [4657], 's_28_38': [1522], 's_28_42': [1448, 1449, 1450], 's_34_2': [4644], 's_34_7': [4751, 4750], 's_34_9': [1927], 's_34_30': [1749], 's_34_36': [4404], 's_34_37': [4780], 's_34_40': [4674], 's_34_41': [1763], 's_35_9': [4269], 's_35_32': [4297], 's_35_36': [4163], 's_35_38': [1792], 's_35_39': [1536], 's_38_2': [1630], 's_38_8': [1897], 's_38_10': [2075], 's_38_11': [1972], 's_38_17': [4135, 2001], 's_38_37': [4568], 's_40_17': [1731], 's_40_23': [1944], 's_40_24': [4133], 's_40_31': [1839], 's_40_37': [4627, 4628], 's_4_2': [2333], 13: [4737, 2424, 2423], 's_4_13': [4482], 's_4_17': [2155], 's_4_23': [2379], 's_4_29': [4062, 2211], 's_4_33': [2140], 's_4_36': [2394], 's_4_39': [2006], 's_8_6': [1945], 's_8_31': [4749], 's_8_7': [1928], 's_8_10': [1715], 's_8_12': [4030], 's_8_29': [1821], 's_8_37': [1780], 's_8_42': [1930], 's_10_36': [1671], 's_10_9': [4225], 's_10_11': [4180], 's_11_9': [1925], 's_11_12': [1745], 's_11_27': [1955], 's_11_33': [2137], 's_11_41': [2167], 's_32_24': [4523], 's_32_33': [4538], 's_32_37': [4583], 's_33_6': [4602], 's_33_23': [2319], 's_33_27': [4676], 's_2_6': [2215], 's_2_17': [2125], 's_2_30': [1584], 's_2_31': [1675], 's_2_36': [1914], 's_12_17': [4031], 's_12_24': [4043], 's_17_7': [2200], 's_17_39': [1915], 's_17_41': [4436], 's_17_42': [2065], 's_27_6': [4572], 's_27_36': [2259], 's_27_13': [4557], 's_27_9': [3969, 1820], 's_27_7': [4811], 's_27_41': [4362, 2348], 's_30_6': [1840], 's_30_42': [1480], 's_31_6': [1765], 's_31_24': [1717], 's_31_37': [4808, 4807], 's_41_7': [2063], 's_7_37': [2305], 's_7_39': [1960], 's_23_13': [2409], 's_23_39': [4703], 's_29_36': [1716], 's_29_9': [1790], 's_39_24': [4508], 's_39_42': [1555], 's_42_6': [2230], 's_6_36': [1899, 1900]}</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0.0008592592592592592</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.001784616476187024</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>{0: [1959, 1958], 3: [4464, 4465], 15: [1972, 1974, 1973], 18: [2018, 4509, 4510], 24: [4718, 4720, 4719], 25: [4601, 2047, 4540, 4571, 2048], 28: [4598, 4600, 4599], 33: [2077, 4449, 4450], 35: [1613, 4495, 4494, 4493], 6: [4375, 2035, 2034, 2033], 14: [2003, 4420, 1732, 4419], 30: [4539, 1808, 1810, 1809], 39: [1674, 1673, 4389, 4390, 1838], 41: [1779, 1778], 1: [4796, 4660, 2020, 2019], 5: [1975, 4823, 4824, 4825, 2078, 2079], 8: [4435, 1943, 1944, 4749, 4750], 10: [4586, 2063, 4524, 4525], 22: [4673, 4675, 4674], 31: [1749, 4615, 4614], 37: [4645, 4644], 9: [1927, 1928, 2004, 4554, 4555], 17: [4735, 1883, 1884, 4734], 27: [4705, 1793, 1794, 4704], 34: [1855, 4795, 1913, 1914], 42: [4359, 1703, 1823, 4404, 1702], 11: [2049, 1868, 1867, 4810, 4809, 1869], 12: [4763, 1615, 4748, 1614], 21: [4405, 1988, 1990, 1989], 32: [1825, 4766, 4764, 4765], 43: [4568, 1643, 4733, 4808, 1644, 1645], 19: [4691, 4706, 4630, 2109], 40: [4570, 1824, 4569], 16: [4688, 1853, 1854, 4689], 26: [4523, 1658, 1660, 1659], 36: [4690, 1898, 1899], 38: [1599, 4659, 4658], 13: [4448, 1764, 1763], 20: [4374, 1719, 1718, 1717], 29: [1748, 2108, 4480, 4478, 4479], 23: [4643, 4780, 1733, 1734, 4779], 7: [1687, 4629, 1688, 4628], 4: [1839, 1840], 2: [4585, 4584]}</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0.01427738927738928</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.01681919544249628</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>{0: [1959, 1958], 3: [4464, 4465], 15: [1972, 1974, 1973], 18: [2018, 4509, 4510], 24: [4718, 4720, 4719], 25: [4601, 2047, 4540, 4571, 2048], 28: [4598, 4600, 4599], 33: [2077, 4449, 4450], 35: [1613, 4495, 4494, 4493], 6: [4375, 2035, 2034, 2033], 14: [2003, 4420, 1732, 4419], 30: [4539, 1808, 1810, 1809], 39: [1674, 1673, 4389, 4390, 1838], 41: [1779, 1778], 1: [4796, 4660, 2020, 2019], 5: [1975, 4823, 4824, 4825, 2078, 2079], 8: [4435, 1943, 1944, 4749, 4750], 10: [4586, 2063, 4524, 4525], 22: [4673, 4675, 4674], 31: [1749, 4615, 4614], 37: [4645, 4644], 9: [1927, 1928, 2004, 4554, 4555], 17: [4735, 1883, 1884, 4734], 27: [4705, 1793, 1794, 4704], 34: [1855, 4795, 1913, 1914], 42: [4359, 1703, 1823, 4404, 1702], 11: [2049, 1868, 1867, 4810, 4809, 1869], 12: [4763, 1615, 4748, 1614], 21: [4405, 1988, 1990, 1989], 32: [1825, 4766, 4764, 4765], 43: [4568, 1643, 4733, 4808, 1644, 1645], 19: [4691, 4706, 4630, 2109], 40: [4570, 1824, 4569], 16: [4688, 1853, 1854, 4689], 26: [4523, 1658, 1660, 1659], 36: [4690, 1898, 1899], 38: [1599, 4659, 4658], 13: [4448, 1764, 1763], 20: [4374, 1719, 1718, 1717], 29: [1748, 2108, 4480, 4478, 4479], 23: [4643, 4780, 1733, 1734, 4779], 7: [1687, 4629, 1688, 4628], 4: [1839, 1840], 2: [4585, 4584]}</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0.01427738927738928</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.01681919544249628</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>{0: [5430, 611, 612, 5431, 5432, 613], 3: [640, 4847, 4846, 4831, 445, 477, 5297, 4996, 582, 491, 5222, 492], 's_0_3': [5177], 15: [5596, 428, 4981, 4937, 329, 328, 327, 5236, 429, 430, 431, 432], 's_0_15': [5446], 18: [1032, 1031, 5014, 5011, 5012, 5013], 's_0_18': [5027], 24: [567, 5582, 5327, 568, 569], 's_0_24': [614], 25: [5550, 239, 238, 237, 236, 4774, 4773, 4772, 4771, 235], 's_0_25': [5461, 313], 28: [5025, 251, 252, 253, 5506, 5269, 913, 5508, 914, 5511, 5510, 5507, 5509], 's_0_28': [404], 33: [5476, 5147, 5477, 5253, 5252, 523, 522], 's_0_33': [5267], 35: [688, 1122, 1091, 1092, 5328, 5329, 807, 5193, 5195, 5194], 's_0_35': [5192], 6: [5479, 764, 309, 310, 311, 312, 5251, 763, 5388, 5387, 5386, 418], 's_3_6': [4995], 14: [748, 4953, 5223, 747, 746], 's_3_14': [581], 's_3_15': [386], 's_3_18': [401], 30: [627, 628, 629, 5658, 5659, 899, 1166, 1167, 5121, 1168, 5539, 5540], 's_3_30': [5298], 39: [4910, 1165, 4832, 4865, 4864, 4863, 521, 4982, 655], 's_3_39': [4997], 41: [5405, 1048, 5355, 5356, 5359, 5358, 5357], 's_3_41': [462], 1: [460, 700, 459, 4756, 699, 624, 4758, 4757], 's_15_1': [4651], 5: [809, 808, 5373, 340, 341, 342, 5266, 388, 5371, 5372], 's_15_5': [4876], 8: [4775, 449, 5672, 5673, 5674, 5675, 1019, 1018, 464, 1017, 5270, 1062, 1060, 1061], 's_15_8': [5626], 10: [1079, 1078, 5150, 1077, 5149, 534, 535, 536, 5072, 5073, 806], 's_15_10': [506], 22: [5045, 1121, 820, 4971, 4970, 4966, 4967, 4968, 4969], 's_15_22': [566], 's_15_25': [5565], 31: [4905, 5416, 373, 371, 372, 4906, 5281, 4804, 4803, 4802, 520, 4907], 's_15_31': [5041], 37: [4895, 4607, 1181, 5091, 4608, 5090, 1076, 1075, 4610, 4609, 1074], 's_15_37': [443], 's_15_39': [5087, 5086], 's_18_8': [5000, 4999], 9: [4878, 1272, 4787, 5211, 822, 4788, 5210, 715, 716, 717, 5209, 5208], 's_18_9': [1046, 1047], 's_18_10': [5225], 17: [5010, 654, 594, 774, 4698, 296, 295, 4697, 4696, 294], 's_18_17': [4951, 356], 27: [656, 657, 5467, 658, 5463, 5464, 5361, 5256, 1273, 1274, 5466, 5465], 's_18_27': [5255], 34: [674, 673, 5134, 5133, 672, 4743, 669, 670, 671], 's_18_34': [626], 42: [955, 5088, 956, 5120, 5089, 957], 's_18_42': [1001], 11: [804, 5312, 538, 537, 4713, 733, 5162, 5163, 730, 731, 732], 's_24_11': [403], 12: [1123, 5390, 1198, 1199, 5552, 659, 5628, 5629, 5630, 5631, 5616], 's_24_12': [524], 21: [5374, 4729, 926, 927, 849, 5344, 5597, 5598, 925, 5599, 929, 928], 's_24_21': [479], 's_24_30': [5567], 32: [554, 493, 5407, 1422, 1423, 5452, 5451, 5447, 5448, 5449, 5450], 's_24_32': [5522], 43: [5056, 1241, 912, 5106, 5105, 446, 5102, 5103, 5104], 's_24_43': [447], 's_25_5': [5370], 's_25_8': [5551, 5566], 's_25_11': [789], 19: [1030, 4816, 4817, 4818, 4819, 4820, 4815, 4821, 1393, 1392, 1391, 1390], 's_25_19': [220], 's_25_21': [834], 's_25_28': [5415], 's_25_33': [5131, 5132], 's_25_34': [609], 40: [4699, 1330, 894, 1332, 897, 1331, 5031, 895, 896, 5029, 5030], 's_25_40': [4789], 's_28_9': [5254], 's_28_12': [1259], 16: [5148, 1124, 5435, 702, 703, 5433, 5434], 's_28_16': [793], 's_28_17': [5146, 281], 's_28_21': [5569], 26: [5553, 5554, 1346, 5075, 5076, 1107, 1108, 1109, 5074, 5600, 1034], 's_28_26': [1064], 's_28_27': [749], 's_28_30': [884], 36: [1137, 1138, 5302, 1318, 5421, 823, 5419, 5420], 's_28_36': [5404, 958], 38: [4939, 4833, 866, 867, 5584, 865, 944, 943, 5300, 5299], 's_28_38': [869], 's_28_40': [1333, 5512], 's_28_43': [5101], 's_33_5': [598], 's_33_6': [5282], 13: [4637, 549, 550, 5403, 5402, 551, 553, 552], 's_33_13': [5237], 's_33_16': [5478], 's_33_27': [5462], 's_33_39': [686, 687], 's_33_41': [583], 's_35_5': [718], 's_35_9': [1182], 's_35_11': [5313, 5314], 's_35_12': [1093], 20: [5287, 761, 4998, 5286, 5284, 760, 5059, 759, 851, 5285, 852], 's_35_20': [792], 's_35_21': [1002], 's_35_26': [5346, 5345, 1362, 5196], 29: [969, 972, 971, 970], 's_35_29': [4925], 's_35_30': [5136], 's_35_34': [882], 's_35_39': [4985], 's_35_42': [4955], 's_6_1': [4741], 's_6_5': [643], 's_6_19': [4800], 's_6_20': [762], 's_6_21': [5389], 's_6_36': [853], 's_14_9': [701], 's_14_11': [5058], 's_14_13': [4952], 's_14_16': [5268], 23: [1244, 1243, 1242, 5181, 790, 791, 5178, 5179, 5180], 's_14_23': [5028], 's_14_27': [5418], 's_14_39': [596], 's_14_42': [5224], 's_30_22': [1256], 's_30_38': [5583, 719], 7: [1289, 1288, 1287, 1286, 5406, 4940, 4941], 's_30_7': [5541], 4: [448, 1229, 5496, 5495, 5492, 5494, 5493], 's_30_4': [1049], 's_30_16': [1153], 's_30_20': [5301], 's_30_23': [5316], 's_30_27': [1094], 's_30_37': [5060, 5061], 's_30_39': [1211, 4956], 's_30_40': [5015], 's_30_41': [5360], 's_39_9': [595], 's_39_10': [5057], 's_39_38': [835], 's_39_7': [1150], 's_39_8': [4835], 's_39_29': [985], 's_39_21': [910], 's_39_40': [4866], 's_41_9': [837], 's_41_16': [883], 's_41_31': [297], 's_41_32': [868], 's_1_9': [400], 's_1_10': [4652], 's_1_11': [4938], 's_1_17': [444], 's_1_22': [625], 's_1_34': [684], 's_1_38': [745], 's_5_11': [5311], 's_5_22': [5116, 326], 's_5_4': [5401], 's_5_12': [5613], 's_5_19': [355], 's_5_26': [794], 's_5_32': [5341], 's_5_36': [5538], 's_8_9': [5240, 1197, 5241], 's_8_10': [5330], 2: [1000, 4683, 4682, 999, 4685, 4684], 's_8_2': [1059], 's_8_12': [5719, 5718, 5717], 's_8_16': [1063], 's_8_21': [824], 's_8_32': [463], 's_8_37': [4880], 's_10_2': [519], 's_10_13': [5117], 's_10_16': [5555], 's_10_17': [4667], 's_10_26': [5615], 's_10_27': [5480], 's_10_29': [5315], 's_10_34': [4622], 's_10_42': [641], 's_22_11': [4848], 's_22_23': [805], 's_22_40': [4894], 's_31_9': [505], 's_31_11': [4908], 's_31_38': [850], 's_31_13': [4922], 's_31_4': [5491, 268, 267, 266, 265], 's_31_40': [880], 's_31_42': [940], 's_37_9': [1302], 's_37_17': [714], 's_37_34': [4593], 's_37_19': [4790], 's_37_36': [5151], 's_37_21': [4730, 1029], 's_9_11': [777], 's_9_17': [775], 's_9_19': [4897, 4896, 1271], 's_9_21': [987], 's_9_29': [4879], 's_17_2': [504], 's_17_20': [4579], 's_17_40': [4594], 's_17_43': [5071, 402], 's_27_13': [5207], 's_27_19': [5482], 's_27_36': [1319], 's_27_20': [1257], 's_27_40': [5226, 1212], 's_34_11': [5043], 's_34_4': [689], 's_34_16': [5283], 's_34_21': [5119, 5118, 597], 's_34_32': [5537], 's_34_40': [4744], 's_42_11': [4714], 's_42_29': [4849], 's_42_23': [1016], 's_42_20': [881], 's_42_21': [4909], 's_11_43': [821], 's_12_7': [5391], 's_12_16': [5481, 1258], 's_12_23': [5646], 's_12_32': [5617, 1379, 1378], 's_21_29': [4984], 's_21_23': [4924], 's_21_19': [4834], 's_32_13': [5417], 's_32_4': [1228], 's_32_23': [5182], 's_32_19': [5137], 's_32_20': [1453, 5332], 's_32_26': [5152], 's_43_7': [1240], 's_43_29': [986], 's_43_23': [1196], 's_43_26': [836], 's_43_20': [5239], 's_43_40': [5046], 's_19_29': [984], 's_19_36': [1407], 's_40_7': [4942], 's_40_23': [1361], 's_40_26': [5166], 's_40_20': [911], 's_16_4': [734], 's_16_23': [5571, 5570], 's_16_26': [5585], 's_16_36': [898], 's_26_38': [5660, 974], 's_26_29': [5135], 's_36_38': [778, 779, 5523], 's_36_7': [1136], 's_38_7': [941, 5044], 's_13_2': [564], 's_20_7': [1227, 5271], 's_29_2': [4760], 's_2_7': [1015, 1014, 4669], 's_23_7': [5556], 's_23_4': [5661], 's_4_7': [5601]}</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0.001514598540145985</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.002263877173849533</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>{0: [5430, 611, 612, 5431, 5432, 613], 3: [640, 4847, 4846, 4831, 445, 477, 5297, 4996, 582, 491, 5222, 492], 's_0_3': [5177], 15: [5596, 428, 4981, 4937, 329, 328, 327, 5236, 429, 430, 431, 432], 's_0_15': [5446], 18: [1032, 1031, 5014, 5011, 5012, 5013], 's_0_18': [5027], 24: [567, 5582, 5327, 568, 569], 's_0_24': [614], 25: [5550, 239, 238, 237, 236, 4774, 4773, 4772, 4771, 235], 's_0_25': [5461, 313], 28: [5025, 251, 252, 253, 5506, 5269, 913, 5508, 914, 5511, 5510, 5507, 5509], 's_0_28': [404], 33: [5476, 5147, 5477, 5253, 5252, 523, 522], 's_0_33': [5267], 35: [688, 1122, 1091, 1092, 5328, 5329, 807, 5193, 5195, 5194], 's_0_35': [5192], 6: [5479, 764, 309, 310, 311, 312, 5251, 763, 5388, 5387, 5386, 418], 's_3_6': [4995], 14: [748, 4953, 5223, 747, 746], 's_3_14': [581], 's_3_15': [386], 's_3_18': [401], 30: [627, 628, 629, 5658, 5659, 899, 1166, 1167, 5121, 1168, 5539, 5540], 's_3_30': [5298], 39: [4910, 1165, 4832, 4865, 4864, 4863, 521, 4982, 655], 's_3_39': [4997], 41: [5405, 1048, 5355, 5356, 5359, 5358, 5357], 's_3_41': [462], 1: [460, 700, 459, 4756, 699, 624, 4758, 4757], 's_15_1': [4651], 5: [809, 808, 5373, 340, 341, 342, 5266, 388, 5371, 5372], 's_15_5': [4876], 8: [4775, 449, 5672, 5673, 5674, 5675, 1019, 1018, 464, 1017, 5270, 1062, 1060, 1061], 's_15_8': [5626], 10: [1079, 1078, 5150, 1077, 5149, 534, 535, 536, 5072, 5073, 806], 's_15_10': [506], 22: [5045, 1121, 820, 4971, 4970, 4966, 4967, 4968, 4969], 's_15_22': [566], 's_15_25': [5565], 31: [4905, 5416, 373, 371, 372, 4906, 5281, 4804, 4803, 4802, 520, 4907], 's_15_31': [5041], 37: [4895, 4607, 1181, 5091, 4608, 5090, 1076, 1075, 4610, 4609, 1074], 's_15_37': [443], 's_15_39': [5087, 5086], 's_18_8': [5000, 4999], 9: [4878, 1272, 4787, 5211, 822, 4788, 5210, 715, 716, 717, 5209, 5208], 's_18_9': [1046, 1047], 's_18_10': [5225], 17: [5010, 654, 594, 774, 4698, 296, 295, 4697, 4696, 294], 's_18_17': [4951, 356], 27: [656, 657, 5467, 658, 5463, 5464, 5361, 5256, 1273, 1274, 5466, 5465], 's_18_27': [5255], 34: [674, 673, 5134, 5133, 672, 4743, 669, 670, 671], 's_18_34': [626], 42: [955, 5088, 956, 5120, 5089, 957], 's_18_42': [1001], 11: [804, 5312, 538, 537, 4713, 733, 5162, 5163, 730, 731, 732], 's_24_11': [403], 12: [1123, 5390, 1198, 1199, 5552, 659, 5628, 5629, 5630, 5631, 5616], 's_24_12': [524], 21: [5374, 4729, 926, 927, 849, 5344, 5597, 5598, 925, 5599, 929, 928], 's_24_21': [479], 's_24_30': [5567], 32: [554, 493, 5407, 1422, 1423, 5452, 5451, 5447, 5448, 5449, 5450], 's_24_32': [5522], 43: [5056, 1241, 912, 5106, 5105, 446, 5102, 5103, 5104], 's_24_43': [447], 's_25_5': [5370], 's_25_8': [5551, 5566], 's_25_11': [789], 19: [1030, 4816, 4817, 4818, 4819, 4820, 4815, 4821, 1393, 1392, 1391, 1390], 's_25_19': [220], 's_25_21': [834], 's_25_28': [5415], 's_25_33': [5131, 5132], 's_25_34': [609], 40: [4699, 1330, 894, 1332, 897, 1331, 5031, 895, 896, 5029, 5030], 's_25_40': [4789], 's_28_9': [5254], 's_28_12': [1259], 16: [5148, 1124, 5435, 702, 703, 5433, 5434], 's_28_16': [793], 's_28_17': [5146, 281], 's_28_21': [5569], 26: [5553, 5554, 1346, 5075, 5076, 1107, 1108, 1109, 5074, 5600, 1034], 's_28_26': [1064], 's_28_27': [749], 's_28_30': [884], 36: [1137, 1138, 5302, 1318, 5421, 823, 5419, 5420], 's_28_36': [5404, 958], 38: [4939, 4833, 866, 867, 5584, 865, 944, 943, 5300, 5299], 's_28_38': [869], 's_28_40': [1333, 5512], 's_28_43': [5101], 's_33_5': [598], 's_33_6': [5282], 13: [4637, 549, 550, 5403, 5402, 551, 553, 552], 's_33_13': [5237], 's_33_16': [5478], 's_33_27': [5462], 's_33_39': [686, 687], 's_33_41': [583], 's_35_5': [718], 's_35_9': [1182], 's_35_11': [5313, 5314], 's_35_12': [1093], 20: [5287, 761, 4998, 5286, 5284, 760, 5059, 759, 851, 5285, 852], 's_35_20': [792], 's_35_21': [1002], 's_35_26': [5346, 5345, 1362, 5196], 29: [969, 972, 971, 970], 's_35_29': [4925], 's_35_30': [5136], 's_35_34': [882], 's_35_39': [4985], 's_35_42': [4955], 's_6_1': [4741], 's_6_5': [643], 's_6_19': [4800], 's_6_20': [762], 's_6_21': [5389], 's_6_36': [853], 's_14_9': [701], 's_14_11': [5058], 's_14_13': [4952], 's_14_16': [5268], 23: [1244, 1243, 1242, 5181, 790, 791, 5178, 5179, 5180], 's_14_23': [5028], 's_14_27': [5418], 's_14_39': [596], 's_14_42': [5224], 's_30_22': [1256], 's_30_38': [5583, 719], 7: [1289, 1288, 1287, 1286, 5406, 4940, 4941], 's_30_7': [5541], 4: [448, 1229, 5496, 5495, 5492, 5494, 5493], 's_30_4': [1049], 's_30_16': [1153], 's_30_20': [5301], 's_30_23': [5316], 's_30_27': [1094], 's_30_37': [5060, 5061], 's_30_39': [1211, 4956], 's_30_40': [5015], 's_30_41': [5360], 's_39_9': [595], 's_39_10': [5057], 's_39_38': [835], 's_39_7': [1150], 's_39_8': [4835], 's_39_29': [985], 's_39_21': [910], 's_39_40': [4866], 's_41_9': [837], 's_41_16': [883], 's_41_31': [297], 's_41_32': [868], 's_1_9': [400], 's_1_10': [4652], 's_1_11': [4938], 's_1_17': [444], 's_1_22': [625], 's_1_34': [684], 's_1_38': [745], 's_5_11': [5311], 's_5_22': [5116, 326], 's_5_4': [5401], 's_5_12': [5613], 's_5_19': [355], 's_5_26': [794], 's_5_32': [5341], 's_5_36': [5538], 's_8_9': [5240, 1197, 5241], 's_8_10': [5330], 2: [1000, 4683, 4682, 999, 4685, 4684], 's_8_2': [1059], 's_8_12': [5719, 5718, 5717], 's_8_16': [1063], 's_8_21': [824], 's_8_32': [463], 's_8_37': [4880], 's_10_2': [519], 's_10_13': [5117], 's_10_16': [5555], 's_10_17': [4667], 's_10_26': [5615], 's_10_27': [5480], 's_10_29': [5315], 's_10_34': [4622], 's_10_42': [641], 's_22_11': [4848], 's_22_23': [805], 's_22_40': [4894], 's_31_9': [505], 's_31_11': [4908], 's_31_38': [850], 's_31_13': [4922], 's_31_4': [5491, 268, 267, 266, 265], 's_31_40': [880], 's_31_42': [940], 's_37_9': [1302], 's_37_17': [714], 's_37_34': [4593], 's_37_19': [4790], 's_37_36': [5151], 's_37_21': [4730, 1029], 's_9_11': [777], 's_9_17': [775], 's_9_19': [4897, 4896, 1271], 's_9_21': [987], 's_9_29': [4879], 's_17_2': [504], 's_17_20': [4579], 's_17_40': [4594], 's_17_43': [5071, 402], 's_27_13': [5207], 's_27_19': [5482], 's_27_36': [1319], 's_27_20': [1257], 's_27_40': [5226, 1212], 's_34_11': [5043], 's_34_4': [689], 's_34_16': [5283], 's_34_21': [5119, 5118, 597], 's_34_32': [5537], 's_34_40': [4744], 's_42_11': [4714], 's_42_29': [4849], 's_42_23': [1016], 's_42_20': [881], 's_42_21': [4909], 's_11_43': [821], 's_12_7': [5391], 's_12_16': [5481, 1258], 's_12_23': [5646], 's_12_32': [5617, 1379, 1378], 's_21_29': [4984], 's_21_23': [4924], 's_21_19': [4834], 's_32_13': [5417], 's_32_4': [1228], 's_32_23': [5182], 's_32_19': [5137], 's_32_20': [1453, 5332], 's_32_26': [5152], 's_43_7': [1240], 's_43_29': [986], 's_43_23': [1196], 's_43_26': [836], 's_43_20': [5239], 's_43_40': [5046], 's_19_29': [984], 's_19_36': [1407], 's_40_7': [4942], 's_40_23': [1361], 's_40_26': [5166], 's_40_20': [911], 's_16_4': [734], 's_16_23': [5571, 5570], 's_16_26': [5585], 's_16_36': [898], 's_26_38': [5660, 974], 's_26_29': [5135], 's_36_38': [778, 779, 5523], 's_36_7': [1136], 's_38_7': [941, 5044], 's_13_2': [564], 's_20_7': [1227, 5271], 's_29_2': [4760], 's_2_7': [1015, 1014, 4669], 's_23_7': [5556], 's_23_4': [5661], 's_4_7': [5601]}</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0.001514598540145985</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.002263877173849533</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>{0: [3353, 1502, 1500, 1501], 5: [1472, 3396, 3398, 3397], 6: [1217, 3367, 3366, 3365], 9: [1653, 1652, 1651, 3096, 3097, 3098], 15: [1530, 3111, 3112, 3113], 17: [1636, 1517, 1382, 3442, 1637, 3443], 20: [3352, 1442, 1441], 29: [1592, 3471, 3472, 3473], 30: [3278, 3276, 3277], 34: [3188, 3185, 3186, 3187], 41: [3037, 3036, 1140, 3035], 4: [3531, 1278, 3336, 1277], 12: [1622, 1621], 13: [3412, 1577, 1575, 1576], 14: [1293, 3291, 1291, 1292], 21: [1231, 1232], 27: [3456, 3457, 1607, 3458], 38: [3142, 1471, 3143], 42: [1562, 1560, 3293, 1561], 2: [1427, 1350, 1351, 3503, 3502, 1352], 7: [1141, 3351, 3427, 3426, 1262], 16: [1172, 3067, 3066, 1170, 1171], 19: [3262, 1185, 1186, 3261], 25: [1396, 1397, 3338, 3337], 31: [3411, 1066, 1067, 3410], 33: [1366, 1276, 3231], 35: [2993, 1487, 1486, 1485], 36: [1337, 1335, 3381, 1336], 39: [1443, 3487, 1187, 3486], 44: [1546, 1545], 3: [1620, 3053, 3052, 3051, 1320], 23: [1247, 1245, 1246], 32: [3380, 1200, 1201, 1202], 37: [1515, 1516], 8: [3306, 3307, 1590, 1591, 3308], 10: [3007, 3006, 1381, 1380], 11: [1605, 3321, 1606, 3323, 3322], 18: [1531, 3382], 26: [1216, 3200, 3202, 3201], 24: [1457, 1456, 1455], 1: [3233, 3232, 1426], 28: [3218, 3217, 3215, 3216], 40: [3173, 1412, 3171, 1411, 3172], 22: [1261, 3128, 3127, 3126], 43: [3248, 1321, 3247, 3246]}</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0.02428940568475452</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.02243047769663527</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>{0: [3353, 1502, 1500, 1501], 5: [1472, 3396, 3398, 3397], 6: [1217, 3367, 3366, 3365], 9: [1653, 1652, 1651, 3096, 3097, 3098], 15: [1530, 3111, 3112, 3113], 17: [1636, 1517, 1382, 3442, 1637, 3443], 20: [3352, 1442, 1441], 29: [1592, 3471, 3472, 3473], 30: [3278, 3276, 3277], 34: [3188, 3185, 3186, 3187], 41: [3037, 3036, 1140, 3035], 4: [3531, 1278, 3336, 1277], 12: [1622, 1621], 13: [3412, 1577, 1575, 1576], 14: [1293, 3291, 1291, 1292], 21: [1231, 1232], 27: [3456, 3457, 1607, 3458], 38: [3142, 1471, 3143], 42: [1562, 1560, 3293, 1561], 2: [1427, 1350, 1351, 3503, 3502, 1352], 7: [1141, 3351, 3427, 3426, 1262], 16: [1172, 3067, 3066, 1170, 1171], 19: [3262, 1185, 1186, 3261], 25: [1396, 1397, 3338, 3337], 31: [3411, 1066, 1067, 3410], 33: [1366, 1276, 3231], 35: [2993, 1487, 1486, 1485], 36: [1337, 1335, 3381, 1336], 39: [1443, 3487, 1187, 3486], 44: [1546, 1545], 3: [1620, 3053, 3052, 3051, 1320], 23: [1247, 1245, 1246], 32: [3380, 1200, 1201, 1202], 37: [1515, 1516], 8: [3306, 3307, 1590, 1591, 3308], 10: [3007, 3006, 1381, 1380], 11: [1605, 3321, 1606, 3323, 3322], 18: [1531, 3382], 26: [1216, 3200, 3202, 3201], 24: [1457, 1456, 1455], 1: [3233, 3232, 1426], 28: [3218, 3217, 3215, 3216], 40: [3173, 1412, 3171, 1411, 3172], 22: [1261, 3128, 3127, 3126], 43: [3248, 1321, 3247, 3246]}</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0.02428940568475452</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.02243047769663527</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.023</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>{0: [4710, 4711, 4726, 4787, 442, 443, 444], 5: [504, 458, 4621, 339, 342, 341, 340], 's_0_5': [4816], 6: [4788, 654, 5418, 658, 657, 4937, 4938, 655, 656], 's_0_6': [490], 9: [488, 489, 4940, 1060, 1059, 4730, 4727, 4728, 4729], 's_0_9': [4577], 15: [4581, 4563, 4411, 4580, 4579, 4578, 563, 4472, 4412, 608], 's_0_15': [4397], 17: [538, 189, 5449, 5448, 5447, 508, 5341, 190, 191, 192, 193, 5340], 's_0_17': [4725], 20: [4280, 4279, 5026, 416, 415, 414, 413, 412, 4276, 4277, 4278], 's_0_20': [4651], 29: [4695, 4696, 4697, 4698, 4699, 4700, 1120, 1119], 's_0_29': [174], 30: [5161, 431, 428, 4981, 430, 429], 's_0_30': [445], 34: [4864, 732, 5193, 822, 821, 820, 818, 4665, 4666, 4667, 4668, 819], 's_0_34': [159], 41: [593, 892, 4351, 4352, 4353, 955, 954, 953, 4354], 's_0_41': [427], 4: [221, 491, 4996, 4995, 5175, 236, 237], 's_5_4': [4936], 's_5_9': [459], 12: [4575, 370, 4576, 369], 's_5_12': [4681], 13: [5327, 432, 1042, 5206, 5207, 5208, 5209, 1043, 1044, 1045, 1046, 1047], 's_5_13': [5191], 14: [387, 5221, 5224, 5223, 627, 386, 5222], 's_5_14': [5071], 21: [267, 263, 264, 4951, 266, 265], 's_5_21': [5146], 27: [4865, 312, 1000, 1001, 1002, 5359, 5358, 5357, 5281, 5282, 5312, 568], 's_5_27': [5236], 's_5_30': [4562], 38: [728, 4520, 4517, 4518, 4519], 's_5_38': [473], 42: [4486, 1104, 4640, 1193, 4490, 624, 4532, 4489, 578, 4488, 4487, 623], 's_5_42': [4682], 2: [4670, 4967, 1164, 791, 506, 5072, 5073, 5074, 1165, 1166, 5075], 's_6_2': [505], 7: [355, 4845, 4846, 847, 848, 849, 850, 4847, 4848, 1015, 4849], 's_6_7': [4832], 16: [5134, 1147, 5283, 5284, 897, 896, 4984, 1148, 1149, 1150, 4985], 's_6_16': [5298], 's_6_17': [5433], 19: [5087, 672, 5027, 637, 4413, 4414, 878, 879, 880, 881, 5089, 5088, 671], 's_6_19': [5012], 25: [5132, 598, 5133, 595, 596, 597], 's_6_25': [4982], 's_6_27': [5372], 31: [5330, 5329, 5328], 's_6_31': [703], 33: [4950, 161, 5040, 4609, 5041, 5042, 5043, 758, 759, 760, 761, 5058], 's_6_33': [641], 35: [609, 4805, 4804, 834, 4802, 4803], 's_6_35': [610], 36: [537, 532, 533, 534, 5101, 535, 5105, 5104, 5103, 5102, 536], 's_6_36': [5118], 39: [4891, 5269, 5237, 295, 5268, 5267, 583, 296, 297, 5250, 5251, 612, 5252], 's_6_39': [5387], 44: [4338, 684, 712, 4758, 714, 713], 's_6_44': [715], 's_9_2': [4835], 3: [923, 1057, 368, 4441, 4442, 668, 667, 4368, 4370, 4369], 's_9_3': [1058], 's_9_19': [4939], 23: [1030, 4790, 804, 803, 4503, 4789, 4502, 4501, 278, 279, 4771, 220], 's_9_23': [4594, 4595], 's_9_27': [4895], 's_9_29': [4715], 32: [4775, 4774, 4759, 774, 475, 4862, 4863, 778, 777, 776, 775], 's_9_32': [999], 's_9_33': [864], 's_9_35': [969], 's_9_36': [4607], 37: [5404, 973, 972, 5044, 970, 971], 's_9_37': [4925], 's_9_42': [503], 's_15_3': [4367], 8: [522, 520, 521, 4909, 4908, 371, 323, 324, 325, 4907, 4906], 's_15_8': [233, 4485], 10: [188, 218, 4455, 4456, 4459, 4458, 4457], 's_15_10': [247], 11: [308, 309, 310, 311, 5086, 1032, 5179, 307, 5178, 5177, 5176, 446], 's_15_11': [4426], 's_15_16': [4566], 18: [727, 4263, 4264, 4265, 1210, 1209, 4460, 1207, 1208], 's_15_18': [1073], 's_15_19': [638], 's_15_23': [398], 26: [4545, 683, 911, 910, 909, 4546, 4547, 4549, 4548], 's_15_26': [653], 's_15_32': [4564], 's_15_33': [4608, 594], 's_15_35': [729, 730], 's_15_36': [4427], 's_15_38': [968], 's_15_41': [383], 's_17_10': [219, 4530], 's_17_12': [4560], 24: [4941, 1121, 988, 987, 986, 5030, 4969, 926, 1016, 4968, 5029], 's_17_24': [5434], 's_17_27': [223], 's_17_29': [4680], 's_17_34': [204], 's_17_36': [5100], 's_17_37': [853], 's_17_39': [5355], 1: [4741, 4757, 4742, 566, 564, 565], 's_20_1': [400], 's_20_8': [401], 's_20_11': [4336], 's_20_14': [5056], 's_20_18': [1222], 's_20_19': [636], 's_20_26': [399], 28: [5180, 1093, 1092, 1091, 1090, 1089, 1088, 4385, 4384, 4383, 4382], 's_20_28': [502], 's_20_36': [4592], 's_20_39': [4876], 40: [702, 701, 700, 4233, 697, 698, 699], 's_20_40': [651], 's_29_8': [4531, 384], 's_29_13': [1029], 's_29_27': [1135], 's_29_32': [894], 's_29_42': [4611], 's_30_2': [5011], 's_30_4': [5117], 's_30_13': [372], 's_30_25': [5147], 's_30_32': [4922], 's_30_42': [4471], 's_34_1': [519], 's_34_11': [4650], 's_34_13': [5194], 's_34_16': [837], 's_34_21': [249], 22: [942, 1076, 4970, 940, 941], 's_34_22': [4894], 's_34_23': [294], 's_34_25': [5148], 's_34_26': [4879], 's_34_31': [733], 's_34_32': [4998], 's_34_33': [4473], 's_34_35': [835], 's_34_36': [5119], 's_34_37': [836], 's_34_41': [817, 4324], 's_34_42': [549], 's_41_3': [4366], 's_41_7': [4339], 's_41_10': [607], 's_41_19': [4624], 's_41_22': [939], 's_41_32': [4760], 's_41_42': [4565], 's_4_19': [4997], 's_4_27': [238], 's_4_36': [5057], 's_4_8': [4905], 's_4_21': [5070], 's_4_23': [235], 's_4_39': [162], 's_12_1': [4756], 's_12_3': [353], 's_13_2': [4669], 43: [4655, 580, 4712, 4713, 852, 851, 924, 4654, 4954, 790, 789, 4653], 's_13_43': [4639], 's_13_3': [4400], 's_13_10': [4444], 's_13_11': [5270], 's_13_22': [5120], 's_13_31': [1017], 's_13_38': [4505], 's_14_19': [762], 's_14_43': [5239], 's_14_27': [477], 's_14_16': [912], 's_14_8': [4921], 's_14_21': [4830, 4831, 385], 's_14_39': [388], 's_14_11': [626], 's_14_31': [642], 's_21_33': [356], 's_21_27': [5160], 's_21_8': [4815], 's_21_7': [250], 's_21_11': [4800], 's_21_26': [248], 's_21_39': [5010], 's_27_2': [792], 's_27_25': [5402], 's_27_11': [5225], 's_27_16': [928], 's_27_23': [4880], 's_27_32': [763], 's_27_36': [5297], 's_27_39': [5311], 's_38_28': [908], 's_38_36': [518], 's_38_40': [4398], 's_38_10': [863], 's_42_1': [4637], 's_42_2': [1163], 's_42_35': [1194], 's_42_10': [1028], 's_42_18': [1133], 's_42_28': [4610], 's_42_40': [4773], 's_2_1': [4952], 's_2_22': [4971], 's_2_25': [747], 's_2_28': [5015], 's_2_33': [806], 's_2_36': [1107], 's_2_40': [5163], 's_7_19': [4429], 's_7_28': [4850], 's_7_40': [4234], 's_7_16': [895], 's_7_39': [280], 's_7_24': [640], 's_7_32': [625], 's_16_35': [4820], 's_16_40': [717], 's_16_3': [4355], 's_16_26': [5059], 's_16_37': [4999], 's_16_39': [687], 's_19_1': [567], 's_19_10': [622], 's_19_11': [5162], 's_19_23': [743], 's_19_24': [5090], 's_19_28': [4415], 's_19_32': [670], 's_19_39': [552, 553], 's_19_40': [4428], 's_19_43': [4714], 's_25_33': [611], 's_25_35': [4817], 's_25_43': [581], 's_25_44': [4743], 's_25_24': [4953], 's_25_31': [5313], 's_25_39': [5192], 's_31_28': [1108], 's_31_32': [5314], 's_33_1': [551], 's_33_8': [731], 's_33_10': [773], 's_33_11': [326, 4966], 's_33_40': [4443], 's_33_43': [805, 4878], 's_35_1': [550], 's_35_26': [4684], 's_35_43': [745], 's_36_43': [4652], 's_36_22': [1061], 's_36_3': [4262], 's_36_32': [4892], 's_36_39': [582], 's_44_1': [4622], 's_44_18': [4308], 's_44_26': [4533], 's_44_28': [652], 's_3_43': [669], 's_3_40': [4323], 's_23_22': [1075], 's_23_8': [4620], 's_23_26': [833, 4504], 's_32_43': [925], 's_32_40': [4833], 's_32_8': [460], 's_32_11': [4861], 's_32_26': [744, 4638], 's_37_43': [4955], 's_37_8': [985], 's_37_26': [4834], 's_8_22': [956], 's_8_10': [4470], 's_8_26': [4606, 293], 's_10_11': [4381], 's_10_26': [338], 's_11_43': [867], 's_11_28': [5300], 's_11_24': [1031], 's_11_26': [173, 4440], 's_18_43': [1224], 's_18_28': [1087], 's_18_40': [742], 's_18_24': [1225], 's_26_43': [579], 's_24_43': [866, 5028], 's_24_22': [1106], 's_24_28': [5135], 's_1_43': [4877], 's_28_22': [5045], 's_28_40': [682], 's_40_43': [4818]}</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0.001023102310231023</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.001758490667294683</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>{0: [4710, 4711, 4726, 4787, 442, 443, 444], 5: [504, 458, 4621, 339, 342, 341, 340], 's_0_5': [4816], 6: [4788, 654, 5418, 658, 657, 4937, 4938, 655, 656], 's_0_6': [490], 9: [488, 489, 4940, 1060, 1059, 4730, 4727, 4728, 4729], 's_0_9': [4577], 15: [4581, 4563, 4411, 4580, 4579, 4578, 563, 4472, 4412, 608], 's_0_15': [4397], 17: [538, 189, 5449, 5448, 5447, 508, 5341, 190, 191, 192, 193, 5340], 's_0_17': [4725], 20: [4280, 4279, 5026, 416, 415, 414, 413, 412, 4276, 4277, 4278], 's_0_20': [4651], 29: [4695, 4696, 4697, 4698, 4699, 4700, 1120, 1119], 's_0_29': [174], 30: [5161, 431, 428, 4981, 430, 429], 's_0_30': [445], 34: [4864, 732, 5193, 822, 821, 820, 818, 4665, 4666, 4667, 4668, 819], 's_0_34': [159], 41: [593, 892, 4351, 4352, 4353, 955, 954, 953, 4354], 's_0_41': [427], 4: [221, 491, 4996, 4995, 5175, 236, 237], 's_5_4': [4936], 's_5_9': [459], 12: [4575, 370, 4576, 369], 's_5_12': [4681], 13: [5327, 432, 1042, 5206, 5207, 5208, 5209, 1043, 1044, 1045, 1046, 1047], 's_5_13': [5191], 14: [387, 5221, 5224, 5223, 627, 386, 5222], 's_5_14': [5071], 21: [267, 263, 264, 4951, 266, 265], 's_5_21': [5146], 27: [4865, 312, 1000, 1001, 1002, 5359, 5358, 5357, 5281, 5282, 5312, 568], 's_5_27': [5236], 's_5_30': [4562], 38: [728, 4520, 4517, 4518, 4519], 's_5_38': [473], 42: [4486, 1104, 4640, 1193, 4490, 624, 4532, 4489, 578, 4488, 4487, 623], 's_5_42': [4682], 2: [4670, 4967, 1164, 791, 506, 5072, 5073, 5074, 1165, 1166, 5075], 's_6_2': [505], 7: [355, 4845, 4846, 847, 848, 849, 850, 4847, 4848, 1015, 4849], 's_6_7': [4832], 16: [5134, 1147, 5283, 5284, 897, 896, 4984, 1148, 1149, 1150, 4985], 's_6_16': [5298], 's_6_17': [5433], 19: [5087, 672, 5027, 637, 4413, 4414, 878, 879, 880, 881, 5089, 5088, 671], 's_6_19': [5012], 25: [5132, 598, 5133, 595, 596, 597], 's_6_25': [4982], 's_6_27': [5372], 31: [5330, 5329, 5328], 's_6_31': [703], 33: [4950, 161, 5040, 4609, 5041, 5042, 5043, 758, 759, 760, 761, 5058], 's_6_33': [641], 35: [609, 4805, 4804, 834, 4802, 4803], 's_6_35': [610], 36: [537, 532, 533, 534, 5101, 535, 5105, 5104, 5103, 5102, 536], 's_6_36': [5118], 39: [4891, 5269, 5237, 295, 5268, 5267, 583, 296, 297, 5250, 5251, 612, 5252], 's_6_39': [5387], 44: [4338, 684, 712, 4758, 714, 713], 's_6_44': [715], 's_9_2': [4835], 3: [923, 1057, 368, 4441, 4442, 668, 667, 4368, 4370, 4369], 's_9_3': [1058], 's_9_19': [4939], 23: [1030, 4790, 804, 803, 4503, 4789, 4502, 4501, 278, 279, 4771, 220], 's_9_23': [4594, 4595], 's_9_27': [4895], 's_9_29': [4715], 32: [4775, 4774, 4759, 774, 475, 4862, 4863, 778, 777, 776, 775], 's_9_32': [999], 's_9_33': [864], 's_9_35': [969], 's_9_36': [4607], 37: [5404, 973, 972, 5044, 970, 971], 's_9_37': [4925], 's_9_42': [503], 's_15_3': [4367], 8: [522, 520, 521, 4909, 4908, 371, 323, 324, 325, 4907, 4906], 's_15_8': [233, 4485], 10: [188, 218, 4455, 4456, 4459, 4458, 4457], 's_15_10': [247], 11: [308, 309, 310, 311, 5086, 1032, 5179, 307, 5178, 5177, 5176, 446], 's_15_11': [4426], 's_15_16': [4566], 18: [727, 4263, 4264, 4265, 1210, 1209, 4460, 1207, 1208], 's_15_18': [1073], 's_15_19': [638], 's_15_23': [398], 26: [4545, 683, 911, 910, 909, 4546, 4547, 4549, 4548], 's_15_26': [653], 's_15_32': [4564], 's_15_33': [4608, 594], 's_15_35': [729, 730], 's_15_36': [4427], 's_15_38': [968], 's_15_41': [383], 's_17_10': [219, 4530], 's_17_12': [4560], 24: [4941, 1121, 988, 987, 986, 5030, 4969, 926, 1016, 4968, 5029], 's_17_24': [5434], 's_17_27': [223], 's_17_29': [4680], 's_17_34': [204], 's_17_36': [5100], 's_17_37': [853], 's_17_39': [5355], 1: [4741, 4757, 4742, 566, 564, 565], 's_20_1': [400], 's_20_8': [401], 's_20_11': [4336], 's_20_14': [5056], 's_20_18': [1222], 's_20_19': [636], 's_20_26': [399], 28: [5180, 1093, 1092, 1091, 1090, 1089, 1088, 4385, 4384, 4383, 4382], 's_20_28': [502], 's_20_36': [4592], 's_20_39': [4876], 40: [702, 701, 700, 4233, 697, 698, 699], 's_20_40': [651], 's_29_8': [4531, 384], 's_29_13': [1029], 's_29_27': [1135], 's_29_32': [894], 's_29_42': [4611], 's_30_2': [5011], 's_30_4': [5117], 's_30_13': [372], 's_30_25': [5147], 's_30_32': [4922], 's_30_42': [4471], 's_34_1': [519], 's_34_11': [4650], 's_34_13': [5194], 's_34_16': [837], 's_34_21': [249], 22: [942, 1076, 4970, 940, 941], 's_34_22': [4894], 's_34_23': [294], 's_34_25': [5148], 's_34_26': [4879], 's_34_31': [733], 's_34_32': [4998], 's_34_33': [4473], 's_34_35': [835], 's_34_36': [5119], 's_34_37': [836], 's_34_41': [817, 4324], 's_34_42': [549], 's_41_3': [4366], 's_41_7': [4339], 's_41_10': [607], 's_41_19': [4624], 's_41_22': [939], 's_41_32': [4760], 's_41_42': [4565], 's_4_19': [4997], 's_4_27': [238], 's_4_36': [5057], 's_4_8': [4905], 's_4_21': [5070], 's_4_23': [235], 's_4_39': [162], 's_12_1': [4756], 's_12_3': [353], 's_13_2': [4669], 43: [4655, 580, 4712, 4713, 852, 851, 924, 4654, 4954, 790, 789, 4653], 's_13_43': [4639], 's_13_3': [4400], 's_13_10': [4444], 's_13_11': [5270], 's_13_22': [5120], 's_13_31': [1017], 's_13_38': [4505], 's_14_19': [762], 's_14_43': [5239], 's_14_27': [477], 's_14_16': [912], 's_14_8': [4921], 's_14_21': [4830, 4831, 385], 's_14_39': [388], 's_14_11': [626], 's_14_31': [642], 's_21_33': [356], 's_21_27': [5160], 's_21_8': [4815], 's_21_7': [250], 's_21_11': [4800], 's_21_26': [248], 's_21_39': [5010], 's_27_2': [792], 's_27_25': [5402], 's_27_11': [5225], 's_27_16': [928], 's_27_23': [4880], 's_27_32': [763], 's_27_36': [5297], 's_27_39': [5311], 's_38_28': [908], 's_38_36': [518], 's_38_40': [4398], 's_38_10': [863], 's_42_1': [4637], 's_42_2': [1163], 's_42_35': [1194], 's_42_10': [1028], 's_42_18': [1133], 's_42_28': [4610], 's_42_40': [4773], 's_2_1': [4952], 's_2_22': [4971], 's_2_25': [747], 's_2_28': [5015], 's_2_33': [806], 's_2_36': [1107], 's_2_40': [5163], 's_7_19': [4429], 's_7_28': [4850], 's_7_40': [4234], 's_7_16': [895], 's_7_39': [280], 's_7_24': [640], 's_7_32': [625], 's_16_35': [4820], 's_16_40': [717], 's_16_3': [4355], 's_16_26': [5059], 's_16_37': [4999], 's_16_39': [687], 's_19_1': [567], 's_19_10': [622], 's_19_11': [5162], 's_19_23': [743], 's_19_24': [5090], 's_19_28': [4415], 's_19_32': [670], 's_19_39': [552, 553], 's_19_40': [4428], 's_19_43': [4714], 's_25_33': [611], 's_25_35': [4817], 's_25_43': [581], 's_25_44': [4743], 's_25_24': [4953], 's_25_31': [5313], 's_25_39': [5192], 's_31_28': [1108], 's_31_32': [5314], 's_33_1': [551], 's_33_8': [731], 's_33_10': [773], 's_33_11': [326, 4966], 's_33_40': [4443], 's_33_43': [805, 4878], 's_35_1': [550], 's_35_26': [4684], 's_35_43': [745], 's_36_43': [4652], 's_36_22': [1061], 's_36_3': [4262], 's_36_32': [4892], 's_36_39': [582], 's_44_1': [4622], 's_44_18': [4308], 's_44_26': [4533], 's_44_28': [652], 's_3_43': [669], 's_3_40': [4323], 's_23_22': [1075], 's_23_8': [4620], 's_23_26': [833, 4504], 's_32_43': [925], 's_32_40': [4833], 's_32_8': [460], 's_32_11': [4861], 's_32_26': [744, 4638], 's_37_43': [4955], 's_37_8': [985], 's_37_26': [4834], 's_8_22': [956], 's_8_10': [4470], 's_8_26': [4606, 293], 's_10_11': [4381], 's_10_26': [338], 's_11_43': [867], 's_11_28': [5300], 's_11_24': [1031], 's_11_26': [173, 4440], 's_18_43': [1224], 's_18_28': [1087], 's_18_40': [742], 's_18_24': [1225], 's_26_43': [579], 's_24_43': [866, 5028], 's_24_22': [1106], 's_24_28': [5135], 's_1_43': [4877], 's_28_22': [5045], 's_28_40': [682], 's_40_43': [4818]}</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0.001023102310231023</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.001758490667294683</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>{0: [5569, 5570, 5571, 1394, 1393, 5407], 4: [5584, 958, 959], 5: [853, 5449, 5450, 5452, 5451], 9: [5616, 1032, 1033, 1034, 5615], 10: [1212, 1438, 1437, 5152, 5151], 17: [5406, 5405, 5404], 19: [1079, 5524, 5526, 5525], 20: [1303, 5482, 1304], 23: [5377, 5374, 5375, 5376], 27: [5315, 5317, 5316], 28: [898, 5347, 5346, 5344, 5345], 32: [1062, 5360, 1064, 1063], 35: [5586, 5585, 1092, 1093, 1094], 36: [5555, 1109], 38: [1362, 1363], 40: [943, 5481, 5480, 5599, 944], 43: [1244, 1242, 5391, 1243], 44: [5437, 1377, 1379, 1378], 6: [973, 5542, 5539, 5541, 5540], 18: [854, 1004, 5632, 5631, 5629, 5630], 22: [1228, 5300, 5302, 5301, 1227], 25: [5554, 1049, 1048], 29: [5331, 5330], 34: [5121, 1122, 5389, 1123, 5390], 13: [988, 5467, 5466, 5465], 16: [5196, 1199, 1198, 1197, 5195], 21: [5512, 5510, 1124, 1214, 5511], 26: [1349, 5556, 1469, 5557], 37: [5256, 1182, 1184, 1183], 42: [1287, 1289, 1288], 45: [1272, 1274, 1273], 14: [5435, 1002, 1003], 24: [1078, 5226, 1077, 5225], 30: [1257, 5361, 1259, 1258], 11: [1047, 5285, 1139, 5287, 5286, 1138], 15: [1017, 5271, 5270], 31: [1181, 5136], 3: [1018, 5497, 5496, 5495], 33: [1334, 5332, 1333, 1332], 41: [5211, 5210, 1168, 1167], 2: [5647, 5600, 1169, 1229, 5646], 1: [1409, 1453, 5601, 5602, 1454], 7: [5422, 1423, 1424], 12: [5181, 1319, 1317, 1318], 39: [5421, 1108, 5420], 8: [5662, 5661, 1154, 1152, 1153]}</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0.01324656143265946</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.01482762624157673</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>{0: [5569, 5570, 5571, 1394, 1393, 5407], 4: [5584, 958, 959], 5: [853, 5449, 5450, 5452, 5451], 9: [5616, 1032, 1033, 1034, 5615], 10: [1212, 1438, 1437, 5152, 5151], 17: [5406, 5405, 5404], 19: [1079, 5524, 5526, 5525], 20: [1303, 5482, 1304], 23: [5377, 5374, 5375, 5376], 27: [5315, 5317, 5316], 28: [898, 5347, 5346, 5344, 5345], 32: [1062, 5360, 1064, 1063], 35: [5586, 5585, 1092, 1093, 1094], 36: [5555, 1109], 38: [1362, 1363], 40: [943, 5481, 5480, 5599, 944], 43: [1244, 1242, 5391, 1243], 44: [5437, 1377, 1379, 1378], 6: [973, 5542, 5539, 5541, 5540], 18: [854, 1004, 5632, 5631, 5629, 5630], 22: [1228, 5300, 5302, 5301, 1227], 25: [5554, 1049, 1048], 29: [5331, 5330], 34: [5121, 1122, 5389, 1123, 5390], 13: [988, 5467, 5466, 5465], 16: [5196, 1199, 1198, 1197, 5195], 21: [5512, 5510, 1124, 1214, 5511], 26: [1349, 5556, 1469, 5557], 37: [5256, 1182, 1184, 1183], 42: [1287, 1289, 1288], 45: [1272, 1274, 1273], 14: [5435, 1002, 1003], 24: [1078, 5226, 1077, 5225], 30: [1257, 5361, 1259, 1258], 11: [1047, 5285, 1139, 5287, 5286, 1138], 15: [1017, 5271, 5270], 31: [1181, 5136], 3: [1018, 5497, 5496, 5495], 33: [1334, 5332, 1333, 1332], 41: [5211, 5210, 1168, 1167], 2: [5647, 5600, 1169, 1229, 5646], 1: [1409, 1453, 5601, 5602, 1454], 7: [5422, 1423, 1424], 12: [5181, 1319, 1317, 1318], 39: [5421, 1108, 5420], 8: [5662, 5661, 1154, 1152, 1153]}</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0.01324656143265946</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.01482762624157673</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.018</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>{0: [4776, 5220, 1194, 4805, 4804, 4803, 730, 5221, 5222, 5223, 732, 731], 4: [4836, 4938, 702, 4835, 4834, 4833, 701, 700], 's_0_4': [4848], 5: [612, 5252, 568, 5375, 1029, 1030, 1031, 1032, 1033, 5372, 5373, 5374], 's_0_5': [733], 9: [1240, 1241, 5121, 5120, 4877, 625, 626, 5118, 5119], 's_0_9': [747], 10: [1287, 1286, 1284, 1285], 's_0_10': [4806], 17: [4819, 4520, 4519, 833, 834, 521, 520, 4817, 4818], 's_0_17': [804], 19: [5355, 282, 281, 280, 4860, 4864, 4863, 4862, 295, 4861], 's_0_19': [327, 328], 20: [5042, 523, 5327, 553, 552, 551, 550, 4726, 4727], 's_0_20': [5237], 23: [4441, 518, 4442, 4443, 4444, 4445, 1223, 1224, 4866, 1225], 's_0_23': [4701], 27: [431, 5147, 641, 5149, 5148], 's_0_27': [492], 28: [489, 4636, 4637, 4956, 4955, 4638, 4639, 1015, 1014, 1013], 's_0_28': [729], 32: [4865, 1148, 1149, 4505, 1150, 1151, 1152, 5360, 5357, 5358, 5359], 's_0_32': [4670], 35: [5421, 5146, 882, 883, 312, 313, 1243, 5451, 5450, 5449, 5448, 5447, 5446], 's_0_35': [297, 5281], 36: [4715, 1091, 1090], 's_0_36': [4716], 38: [5282, 5236, 446, 447], 's_0_38': [357], 40: [581, 223, 4760, 4759, 222, 580, 4758, 4757, 221, 220, 4756], 's_0_40': [789], 43: [264, 5117, 5116, 265, 267, 5316, 5315, 5314, 266, 5313, 5312, 5311], 's_0_43': [807], 44: [4536, 4535, 4534, 4533, 458, 388, 387, 386, 385, 384, 4531, 4532], 's_0_44': [372], 6: [460, 4685, 4684, 4683, 654, 4773, 4772, 4800, 4801, 459], 's_4_6': [655], 18: [5267, 703, 5400, 5401, 583, 5405, 5404, 5403, 5402], 's_4_18': [5298], 22: [5058, 687, 5056, 5057, 5162, 611], 's_4_22': [5163], 's_4_23': [1330], 25: [4906, 4909, 4907, 4908], 's_4_25': [746], 's_4_28': [1000], 29: [956, 4925, 1043, 1044, 1048, 1047, 1046, 1045], 's_4_29': [4849], 34: [5346, 1060, 1061, 5103, 5104, 5105, 5106, 1273, 1272], 's_4_34': [4850], 's_5_6': [4700], 's_5_9': [628, 627], 13: [4596, 5015, 4592, 4593, 4594, 1106, 1105, 1104, 4595], 's_5_13': [5014], 16: [4746, 668, 673, 672, 671, 670, 4745, 4744, 4743, 669], 's_5_16': [5387], 's_5_18': [748], 's_5_20': [5417], 21: [564, 565, 5511, 5510, 5509, 5508, 658, 566, 5012, 656, 657], 's_5_21': [793], 's_5_22': [537], 26: [5241, 1198, 1196, 1197], 's_5_26': [5390], 's_5_28': [4624], 37: [1288, 943, 1227, 5301, 5299, 5300], 's_5_37': [5344], 42: [5102, 4981, 1092, 401, 5195, 5194, 5193, 5071, 1017, 402, 5191, 5192], 's_5_42': [1138, 5255], 's_5_43': [462], 45: [5285, 758, 759, 760, 5284, 763, 762, 5013, 761], 's_5_45': [913], 14: [4940, 4939, 5239, 928, 927, 925, 926], 's_9_14': [5074, 851], 's_9_19': [475], 's_9_22': [5087], 's_9_23': [4911], 24: [718, 717, 716, 4879, 4878, 713, 714, 715], 's_9_24': [4953], 's_9_26': [1181, 5061], 's_9_27': [5177], 's_9_28': [490], 's_9_29': [4926], 30: [238, 5136, 5135, 234, 235, 236, 791, 5134, 5133, 5132, 5131, 237], 's_9_30': [1001], 's_9_34': [1166], 's_9_40': [5027], 11: [610, 609, 416, 4791, 4790, 4789, 415, 4787, 4788], 's_10_11': [1270], 's_10_13': [5016], 15: [819, 5269, 4941, 1121, 4895, 4894, 820, 821, 5254, 822], 's_10_15': [1210, 4896], 's_10_16': [4761], 's_10_28': [1271], 31: [5196, 1257], 's_10_31': [5166], 's_10_34': [5211], 's_10_37': [5226], 's_10_44': [4551], 3: [4696, 4697, 4698, 684, 4728, 1318, 1317, 1316, 1315, 4731, 4729, 4730], 's_17_3': [519], 's_17_6': [4816], 's_17_13': [998], 's_17_14': [865], 's_17_24': [955], 's_17_28': [818], 's_17_32': [1118], 33: [369, 4580, 4579, 4576, 4577, 4578], 's_17_33': [1073], 41: [968, 973, 972, 4669, 971, 970, 969], 's_17_41': [4504], 's_17_42': [4937], 's_17_43': [536], 's_17_45': [4774], 2: [4606, 4876, 311, 308, 309, 4921, 310], 's_19_2': [4995], 's_19_6': [160], 's_19_14': [850], 's_19_16': [745], 's_19_20': [279], 's_19_24': [895], 's_19_32': [5356], 's_19_38': [5266], 's_19_43': [296], 1: [356, 355, 353, 354], 's_20_1': [429, 4651], 's_20_3': [324], 7: [504, 507, 505, 506], 's_20_7': [5072], 's_20_11': [624], 12: [4666, 4622, 533, 4668, 4667, 534], 's_20_12': [444], 's_20_35': [554], 39: [5043, 774, 775, 4999, 4998, 776], 's_20_39': [4997], 's_20_40': [403, 5251, 5250], 's_20_43': [4725], 's_23_1': [4427, 4426], 's_23_11': [1255], 's_23_12': [4487], 's_23_16': [1209], 's_23_24': [698], 's_23_44': [4640, 1193], 's_23_45': [637, 4353], 's_27_7': [5026], 's_27_14': [912], 's_27_15': [836], 's_27_16': [5088], 's_27_22': [567], 's_27_30': [522], 's_27_34': [582], 's_27_38': [432], 's_27_39': [777], 's_27_45': [897], 's_28_7': [4621], 8: [4741, 249, 250, 1078, 1077, 4966, 4967, 4968, 4970, 1076, 4969], 's_28_8': [4971], 's_28_15': [4954], 's_28_24': [699], 's_28_32': [4550], 's_28_33': [488], 's_28_34': [5076, 1256], 's_28_40': [864], 's_32_11': [4820, 1120], 's_32_13': [1103], 's_32_14': [5240], 's_32_15': [868, 867], 's_32_16': [688], 's_32_18': [898], 's_32_21': [642], 's_32_24': [4880], 's_32_35': [1153], 's_32_36': [4910], 's_32_37': [1108], 's_35_2': [251, 5025], 's_35_3': [5406], 's_35_14': [929], 's_35_15': [5224], 's_35_16': [5433], 's_35_21': [1139], 's_35_24': [643, 5478], 's_35_29': [5435], 's_35_34': [5361], 's_35_37': [1289], 's_35_40': [5160], 's_35_41': [5434], 's_35_43': [5175], 's_36_3': [1135], 's_36_8': [5045], 's_36_11': [4714, 940], 's_36_13': [4985], 's_36_14': [1075, 1074], 's_36_16': [999], 's_36_40': [1059], 's_38_7': [5176], 's_38_22': [5041], 's_38_43': [477], 's_38_44': [5011], 's_40_2': [5010], 's_40_3': [910], 's_40_13': [894], 's_40_16': [4802], 's_40_18': [493, 5341, 5340], 's_40_21': [4982], 's_40_22': [5055], 's_40_43': [5235], 's_43_6': [4815], 's_43_8': [4875], 's_43_24': [5328], 's_43_29': [5330], 's_43_34': [5331], 's_43_37': [1123], 's_43_41': [987], 's_43_45': [778], 's_44_2': [5101], 's_44_6': [939], 's_44_8': [4951], 's_44_13': [1163], 's_44_16': [683], 's_44_18': [5416], 's_44_22': [371], 's_44_30': [4530], 's_44_41': [4474, 878], 's_6_8': [205, 4845], 's_6_42': [326, 325], 's_6_3': [1164], 's_6_11': [4742], 's_6_30': [4771], 's_6_7': [4846], 's_6_13': [1089], 's_6_21': [4682], 's_6_41': [4699], 's_18_8': [1063], 's_18_30': [208, 5385], 's_18_7': [508], 's_18_14': [5419, 853], 's_18_16': [5418], 's_18_37': [1093], 's_22_1': [341], 's_22_24': [5283], 's_22_34': [597], 's_22_42': [5161], 's_25_2': [430], 's_25_11': [535], 's_25_14': [880], 's_25_21': [4892], 's_25_29': [941], 's_25_39': [805], 's_29_30': [1107, 5090], 's_29_33': [1028], 's_29_14': [5389], 's_29_37': [944, 5480], 's_29_39': [4984], 's_29_41': [5029], 's_29_45': [4924], 's_34_42': [1137], 's_34_11': [4775], 's_34_14': [942], 's_34_21': [686], 's_34_31': [5286], 's_34_37': [5271], 's_34_45': [866], 's_13_12': [414], 's_13_3': [594], 's_13_7': [4607], 's_13_14': [924], 's_13_26': [5030], 's_13_41': [879], 's_13_45': [4548, 638], 's_16_12': [4457], 's_16_33': [4563], 's_16_15': [5268], 's_16_41': [984], 's_16_45': [5253], 's_21_8': [596], 's_21_42': [1018], 's_21_11': [4652], 's_21_33': [4562], 's_21_26': [1183], 's_21_45': [5073], 's_26_42': [1182], 's_26_3': [5046], 's_26_30': [1212], 's_37_42': [1002], 's_37_15': [852], 's_37_31': [1242], 's_37_45': [1062], 's_42_1': [4996], 's_42_11': [4922], 's_42_15': [5270], 's_42_30': [342], 's_42_41': [957, 5150], 's_42_45': [837], 's_45_12': [4503, 4502], 's_45_30': [792], 's_45_15': [958], 's_45_24': [4713], 's_45_41': [967, 4430, 4429], 's_14_41': [5059], 's_14_39': [985], 's_24_8': [640], 's_24_15': [5208], 's_24_39': [790], 's_30_2': [4980], 's_30_15': [5028], 's_30_31': [5151], 's_30_33': [4591], 's_30_39': [806], 's_30_41': [986], 's_11_2': [4891], 's_11_12': [608], 's_15_12': [4653], 's_15_3': [4942], 's_15_39': [835], 's_3_2': [4681], 's_33_2': [4561], 's_33_12': [623], 's_33_41': [909], 's_41_8': [5465], 's_41_12': [4549, 848, 849], 's_41_39': [5044], 's_2_1': [4501], 's_1_8': [4936], 's_1_12': [339], 's_7_8': [491], 's_12_39': [4623]}</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0.0009012345679012346</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.001617755091114538</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>{0: [4776, 5220, 1194, 4805, 4804, 4803, 730, 5221, 5222, 5223, 732, 731], 4: [4836, 4938, 702, 4835, 4834, 4833, 701, 700], 's_0_4': [4848], 5: [612, 5252, 568, 5375, 1029, 1030, 1031, 1032, 1033, 5372, 5373, 5374], 's_0_5': [733], 9: [1240, 1241, 5121, 5120, 4877, 625, 626, 5118, 5119], 's_0_9': [747], 10: [1287, 1286, 1284, 1285], 's_0_10': [4806], 17: [4819, 4520, 4519, 833, 834, 521, 520, 4817, 4818], 's_0_17': [804], 19: [5355, 282, 281, 280, 4860, 4864, 4863, 4862, 295, 4861], 's_0_19': [327, 328], 20: [5042, 523, 5327, 553, 552, 551, 550, 4726, 4727], 's_0_20': [5237], 23: [4441, 518, 4442, 4443, 4444, 4445, 1223, 1224, 4866, 1225], 's_0_23': [4701], 27: [431, 5147, 641, 5149, 5148], 's_0_27': [492], 28: [489, 4636, 4637, 4956, 4955, 4638, 4639, 1015, 1014, 1013], 's_0_28': [729], 32: [4865, 1148, 1149, 4505, 1150, 1151, 1152, 5360, 5357, 5358, 5359], 's_0_32': [4670], 35: [5421, 5146, 882, 883, 312, 313, 1243, 5451, 5450, 5449, 5448, 5447, 5446], 's_0_35': [297, 5281], 36: [4715, 1091, 1090], 's_0_36': [4716], 38: [5282, 5236, 446, 447], 's_0_38': [357], 40: [581, 223, 4760, 4759, 222, 580, 4758, 4757, 221, 220, 4756], 's_0_40': [789], 43: [264, 5117, 5116, 265, 267, 5316, 5315, 5314, 266, 5313, 5312, 5311], 's_0_43': [807], 44: [4536, 4535, 4534, 4533, 458, 388, 387, 386, 385, 384, 4531, 4532], 's_0_44': [372], 6: [460, 4685, 4684, 4683, 654, 4773, 4772, 4800, 4801, 459], 's_4_6': [655], 18: [5267, 703, 5400, 5401, 583, 5405, 5404, 5403, 5402], 's_4_18': [5298], 22: [5058, 687, 5056, 5057, 5162, 611], 's_4_22': [5163], 's_4_23': [1330], 25: [4906, 4909, 4907, 4908], 's_4_25': [746], 's_4_28': [1000], 29: [956, 4925, 1043, 1044, 1048, 1047, 1046, 1045], 's_4_29': [4849], 34: [5346, 1060, 1061, 5103, 5104, 5105, 5106, 1273, 1272], 's_4_34': [4850], 's_5_6': [4700], 's_5_9': [628, 627], 13: [4596, 5015, 4592, 4593, 4594, 1106, 1105, 1104, 4595], 's_5_13': [5014], 16: [4746, 668, 673, 672, 671, 670, 4745, 4744, 4743, 669], 's_5_16': [5387], 's_5_18': [748], 's_5_20': [5417], 21: [564, 565, 5511, 5510, 5509, 5508, 658, 566, 5012, 656, 657], 's_5_21': [793], 's_5_22': [537], 26: [5241, 1198, 1196, 1197], 's_5_26': [5390], 's_5_28': [4624], 37: [1288, 943, 1227, 5301, 5299, 5300], 's_5_37': [5344], 42: [5102, 4981, 1092, 401, 5195, 5194, 5193, 5071, 1017, 402, 5191, 5192], 's_5_42': [1138, 5255], 's_5_43': [462], 45: [5285, 758, 759, 760, 5284, 763, 762, 5013, 761], 's_5_45': [913], 14: [4940, 4939, 5239, 928, 927, 925, 926], 's_9_14': [5074, 851], 's_9_19': [475], 's_9_22': [5087], 's_9_23': [4911], 24: [718, 717, 716, 4879, 4878, 713, 714, 715], 's_9_24': [4953], 's_9_26': [1181, 5061], 's_9_27': [5177], 's_9_28': [490], 's_9_29': [4926], 30: [238, 5136, 5135, 234, 235, 236, 791, 5134, 5133, 5132, 5131, 237], 's_9_30': [1001], 's_9_34': [1166], 's_9_40': [5027], 11: [610, 609, 416, 4791, 4790, 4789, 415, 4787, 4788], 's_10_11': [1270], 's_10_13': [5016], 15: [819, 5269, 4941, 1121, 4895, 4894, 820, 821, 5254, 822], 's_10_15': [1210, 4896], 's_10_16': [4761], 's_10_28': [1271], 31: [5196, 1257], 's_10_31': [5166], 's_10_34': [5211], 's_10_37': [5226], 's_10_44': [4551], 3: [4696, 4697, 4698, 684, 4728, 1318, 1317, 1316, 1315, 4731, 4729, 4730], 's_17_3': [519], 's_17_6': [4816], 's_17_13': [998], 's_17_14': [865], 's_17_24': [955], 's_17_28': [818], 's_17_32': [1118], 33: [369, 4580, 4579, 4576, 4577, 4578], 's_17_33': [1073], 41: [968, 973, 972, 4669, 971, 970, 969], 's_17_41': [4504], 's_17_42': [4937], 's_17_43': [536], 's_17_45': [4774], 2: [4606, 4876, 311, 308, 309, 4921, 310], 's_19_2': [4995], 's_19_6': [160], 's_19_14': [850], 's_19_16': [745], 's_19_20': [279], 's_19_24': [895], 's_19_32': [5356], 's_19_38': [5266], 's_19_43': [296], 1: [356, 355, 353, 354], 's_20_1': [429, 4651], 's_20_3': [324], 7: [504, 507, 505, 506], 's_20_7': [5072], 's_20_11': [624], 12: [4666, 4622, 533, 4668, 4667, 534], 's_20_12': [444], 's_20_35': [554], 39: [5043, 774, 775, 4999, 4998, 776], 's_20_39': [4997], 's_20_40': [403, 5251, 5250], 's_20_43': [4725], 's_23_1': [4427, 4426], 's_23_11': [1255], 's_23_12': [4487], 's_23_16': [1209], 's_23_24': [698], 's_23_44': [4640, 1193], 's_23_45': [637, 4353], 's_27_7': [5026], 's_27_14': [912], 's_27_15': [836], 's_27_16': [5088], 's_27_22': [567], 's_27_30': [522], 's_27_34': [582], 's_27_38': [432], 's_27_39': [777], 's_27_45': [897], 's_28_7': [4621], 8: [4741, 249, 250, 1078, 1077, 4966, 4967, 4968, 4970, 1076, 4969], 's_28_8': [4971], 's_28_15': [4954], 's_28_24': [699], 's_28_32': [4550], 's_28_33': [488], 's_28_34': [5076, 1256], 's_28_40': [864], 's_32_11': [4820, 1120], 's_32_13': [1103], 's_32_14': [5240], 's_32_15': [868, 867], 's_32_16': [688], 's_32_18': [898], 's_32_21': [642], 's_32_24': [4880], 's_32_35': [1153], 's_32_36': [4910], 's_32_37': [1108], 's_35_2': [251, 5025], 's_35_3': [5406], 's_35_14': [929], 's_35_15': [5224], 's_35_16': [5433], 's_35_21': [1139], 's_35_24': [643, 5478], 's_35_29': [5435], 's_35_34': [5361], 's_35_37': [1289], 's_35_40': [5160], 's_35_41': [5434], 's_35_43': [5175], 's_36_3': [1135], 's_36_8': [5045], 's_36_11': [4714, 940], 's_36_13': [4985], 's_36_14': [1075, 1074], 's_36_16': [999], 's_36_40': [1059], 's_38_7': [5176], 's_38_22': [5041], 's_38_43': [477], 's_38_44': [5011], 's_40_2': [5010], 's_40_3': [910], 's_40_13': [894], 's_40_16': [4802], 's_40_18': [493, 5341, 5340], 's_40_21': [4982], 's_40_22': [5055], 's_40_43': [5235], 's_43_6': [4815], 's_43_8': [4875], 's_43_24': [5328], 's_43_29': [5330], 's_43_34': [5331], 's_43_37': [1123], 's_43_41': [987], 's_43_45': [778], 's_44_2': [5101], 's_44_6': [939], 's_44_8': [4951], 's_44_13': [1163], 's_44_16': [683], 's_44_18': [5416], 's_44_22': [371], 's_44_30': [4530], 's_44_41': [4474, 878], 's_6_8': [205, 4845], 's_6_42': [326, 325], 's_6_3': [1164], 's_6_11': [4742], 's_6_30': [4771], 's_6_7': [4846], 's_6_13': [1089], 's_6_21': [4682], 's_6_41': [4699], 's_18_8': [1063], 's_18_30': [208, 5385], 's_18_7': [508], 's_18_14': [5419, 853], 's_18_16': [5418], 's_18_37': [1093], 's_22_1': [341], 's_22_24': [5283], 's_22_34': [597], 's_22_42': [5161], 's_25_2': [430], 's_25_11': [535], 's_25_14': [880], 's_25_21': [4892], 's_25_29': [941], 's_25_39': [805], 's_29_30': [1107, 5090], 's_29_33': [1028], 's_29_14': [5389], 's_29_37': [944, 5480], 's_29_39': [4984], 's_29_41': [5029], 's_29_45': [4924], 's_34_42': [1137], 's_34_11': [4775], 's_34_14': [942], 's_34_21': [686], 's_34_31': [5286], 's_34_37': [5271], 's_34_45': [866], 's_13_12': [414], 's_13_3': [594], 's_13_7': [4607], 's_13_14': [924], 's_13_26': [5030], 's_13_41': [879], 's_13_45': [4548, 638], 's_16_12': [4457], 's_16_33': [4563], 's_16_15': [5268], 's_16_41': [984], 's_16_45': [5253], 's_21_8': [596], 's_21_42': [1018], 's_21_11': [4652], 's_21_33': [4562], 's_21_26': [1183], 's_21_45': [5073], 's_26_42': [1182], 's_26_3': [5046], 's_26_30': [1212], 's_37_42': [1002], 's_37_15': [852], 's_37_31': [1242], 's_37_45': [1062], 's_42_1': [4996], 's_42_11': [4922], 's_42_15': [5270], 's_42_30': [342], 's_42_41': [957, 5150], 's_42_45': [837], 's_45_12': [4503, 4502], 's_45_30': [792], 's_45_15': [958], 's_45_24': [4713], 's_45_41': [967, 4430, 4429], 's_14_41': [5059], 's_14_39': [985], 's_24_8': [640], 's_24_15': [5208], 's_24_39': [790], 's_30_2': [4980], 's_30_15': [5028], 's_30_31': [5151], 's_30_33': [4591], 's_30_39': [806], 's_30_41': [986], 's_11_2': [4891], 's_11_12': [608], 's_15_12': [4653], 's_15_3': [4942], 's_15_39': [835], 's_3_2': [4681], 's_33_2': [4561], 's_33_12': [623], 's_33_41': [909], 's_41_8': [5465], 's_41_12': [4549, 848, 849], 's_41_39': [5044], 's_2_1': [4501], 's_1_8': [4936], 's_1_12': [339], 's_7_8': [491], 's_12_39': [4623]}</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0.0009012345679012346</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.001617755091114538</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>{0: [2288, 4646, 2290, 2289], 2: [2588, 4648, 4647, 2396, 2395, 2394], 4: [2305, 2304, 4423, 4422, 2303], 6: [2124, 4631, 4630], 8: [4737, 2170, 4736], 10: [2544, 2333, 4543, 4542], 11: [4841, 2529, 4842, 2530, 4843], 14: [4903, 2258, 2259, 4902, 2260], 16: [4992, 4991, 2184, 2186, 2185], 18: [2335, 4813, 4811, 4812], 26: [4706, 2408, 2410, 4707, 2409], 30: [4825, 4826, 2470, 4827], 32: [2198, 2200, 2199], 34: [2078, 4483, 4482, 4481, 4480], 38: [2349, 4663, 4660, 4661, 4662], 43: [4946, 2485, 4947, 4948], 1: [4858, 2065, 4855, 4857, 4856], 5: [2366, 2363, 2365, 2364], 13: [4738, 2484, 4438, 2483], 15: [4752, 2545, 4753], 19: [2486, 4978, 2499, 2501, 2500], 20: [4963, 4901, 4962, 2245], 21: [2351, 4721, 2350, 4722], 23: [4784, 4781, 4782, 4783], 24: [2095, 2094, 4528, 4527, 4526, 2093], 36: [4873, 2273, 2274, 4872, 2275], 40: [5051, 5052, 2381, 2379, 2380], 12: [2320, 2318, 4618, 4617, 2319], 45: [4918, 2515, 2513, 2514], 46: [2021, 4932, 4931], 17: [5006, 2141, 2138, 4871, 2139, 2140], 22: [2063, 4586, 4557, 4558, 4556, 2123], 28: [4810, 4917, 2125, 4916], 37: [4498, 4497, 2155, 2154, 2153, 4496], 42: [4751, 2378, 2110, 4512, 4511, 2109, 2108], 44: [2079, 4693, 4692, 4691], 9: [2169, 4571, 4573, 4572], 31: [4796, 4798, 4797], 35: [4768, 2423, 2425, 2424], 27: [5007, 2603, 2455, 2604, 2605, 4888], 29: [4933, 2440, 4708, 2438, 2439], 39: [4588, 4587], 41: [4437, 2213, 2216, 2215, 2214], 7: [2469, 2020, 4604, 2019, 4603, 4602, 4601], 33: [4676, 2228, 2229], 3: [4886, 4887], 25: [4723, 4513, 2454, 2453]}</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0.01301271008892407</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.01693605387566779</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>{0: [2288, 4646, 2290, 2289], 2: [2588, 4648, 4647, 2396, 2395, 2394], 4: [2305, 2304, 4423, 4422, 2303], 6: [2124, 4631, 4630], 8: [4737, 2170, 4736], 10: [2544, 2333, 4543, 4542], 11: [4841, 2529, 4842, 2530, 4843], 14: [4903, 2258, 2259, 4902, 2260], 16: [4992, 4991, 2184, 2186, 2185], 18: [2335, 4813, 4811, 4812], 26: [4706, 2408, 2410, 4707, 2409], 30: [4825, 4826, 2470, 4827], 32: [2198, 2200, 2199], 34: [2078, 4483, 4482, 4481, 4480], 38: [2349, 4663, 4660, 4661, 4662], 43: [4946, 2485, 4947, 4948], 1: [4858, 2065, 4855, 4857, 4856], 5: [2366, 2363, 2365, 2364], 13: [4738, 2484, 4438, 2483], 15: [4752, 2545, 4753], 19: [2486, 4978, 2499, 2501, 2500], 20: [4963, 4901, 4962, 2245], 21: [2351, 4721, 2350, 4722], 23: [4784, 4781, 4782, 4783], 24: [2095, 2094, 4528, 4527, 4526, 2093], 36: [4873, 2273, 2274, 4872, 2275], 40: [5051, 5052, 2381, 2379, 2380], 12: [2320, 2318, 4618, 4617, 2319], 45: [4918, 2515, 2513, 2514], 46: [2021, 4932, 4931], 17: [5006, 2141, 2138, 4871, 2139, 2140], 22: [2063, 4586, 4557, 4558, 4556, 2123], 28: [4810, 4917, 2125, 4916], 37: [4498, 4497, 2155, 2154, 2153, 4496], 42: [4751, 2378, 2110, 4512, 4511, 2109, 2108], 44: [2079, 4693, 4692, 4691], 9: [2169, 4571, 4573, 4572], 31: [4796, 4798, 4797], 35: [4768, 2423, 2425, 2424], 27: [5007, 2603, 2455, 2604, 2605, 4888], 29: [4933, 2440, 4708, 2438, 2439], 39: [4588, 4587], 41: [4437, 2213, 2216, 2215, 2214], 7: [2469, 2020, 4604, 2019, 4603, 4602, 4601], 33: [4676, 2228, 2229], 3: [4886, 4887], 25: [4723, 4513, 2454, 2453]}</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0.01301271008892407</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.01693605387566779</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.136</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>{0: [1355, 1356, 1807, 4341, 4344, 4343, 1357, 4342], 2: [3785, 1143, 1144, 3891, 3997, 1385, 3894, 3893, 3892], 's_0_2': [4042], 4: [1268, 4131, 1251, 4386, 1252], 's_0_4': [1207], 6: [4194, 4312, 4313, 1716, 1717], 's_0_6': [1417], 8: [1343, 1548, 1549, 1550, 1551, 1552, 1553, 4583, 1449, 4582], 's_0_8': [1358], 10: [4058, 1520, 4059, 1793, 1792, 1791], 's_0_10': [3967], 11: [4299, 4702, 4134, 1941, 1942, 1944, 1584, 1940, 4705, 4704, 1943, 4703], 's_0_11': [4225, 1837], 14: [1748, 3755, 3756, 3757, 3758, 1747, 1746, 1745, 3728, 1744], 's_0_14': [4164, 1806], 16: [1867, 2091, 1838, 4270, 1957, 4390], 's_0_16': [4345], 18: [4581, 4055, 4056, 1234, 1235, 1238, 1237, 1236], 's_0_18': [4266], 26: [1506, 1537, 951, 952, 953, 4430, 4433, 1507, 4432, 4431], 's_0_26': [4417], 30: [4701, 1278, 1279, 1284, 1280, 1283, 1282, 1281], 's_0_30': [4311], 32: [1568, 1567, 3995, 4253, 4252, 1160, 1161, 1146, 4251], 's_0_32': [1297], 34: [4060, 1851, 1852, 1853, 4371, 4372, 4373, 4374], 's_0_34': [1342], 38: [4074, 1777, 1774, 1776, 3969, 1775], 's_0_38': [4284], 43: [4461, 4462, 4464, 4463], 's_0_43': [1732], 1: [1595, 1129, 3849, 3983, 1130, 1670, 3979, 3980, 3982, 3981], 's_2_1': [1490], 5: [4105, 4104, 4162, 4163, 1640, 1641, 4103], 's_2_5': [3848, 1504], 's_2_10': [1505], 13: [1538, 1447, 1099, 1100, 1101, 1102, 1103, 4490, 4491, 4492, 1448], 's_2_13': [3890], 15: [1370, 4279, 1371, 4280, 4281], 's_2_15': [1369], 19: [2019, 2018, 1759, 3835, 3834, 2017, 3924, 3925, 2016, 1805, 2015], 's_2_19': [1790], 20: [1428, 1323, 3665, 3667, 3666], 's_2_20': [1159, 1158], 21: [1025, 1026, 3741, 3939, 3938, 3937, 1264, 1265, 3936, 3934, 3935], 's_2_21': [1115], 23: [998, 997, 996, 1611, 994, 1610, 4013, 4012, 4011, 4010, 995], 's_2_23': [1220], 24: [4538, 4643, 4688, 3803, 1629, 1628, 1627, 1626, 1625, 1624], 's_2_24': [1684], 36: [1206, 3712, 1444, 4071, 1445, 4072, 1446], 's_2_36': [1460], 40: [1713, 2032, 2031, 4000, 1714, 3952, 3953, 1715, 3999], 's_2_40': [1729], 12: [1819, 1824, 1823, 1820, 1822, 4089, 1296, 4027, 4028, 4029, 1821], 's_4_12': [4116], 's_4_13': [4387], 's_4_15': [1267], 's_4_18': [4416], 's_4_32': [4130], 's_4_34': [4356], 's_4_36': [1386], 45: [2004, 1924, 1925, 2003, 2002, 4180, 4221, 4222, 1416, 4117, 4118, 4119, 1926], 's_4_45': [4206], 46: [1203, 1178, 4445, 1177, 1176, 1175, 1204, 1205, 3950], 's_4_46': [1162], 's_6_14': [4404], 17: [4193, 1088, 1087, 4192, 4190, 4191], 's_6_17': [1462], 22: [4241, 1324, 1325, 4240, 1326, 4237, 4239, 4238], 's_6_22': [4254], 's_6_24': [4283], 28: [4076, 4075, 1881, 1880, 1879, 3606, 3607, 3608, 3609, 1878], 's_6_28': [1866], 's_6_32': [1432], 's_6_34': [1522], 37: [1642, 4420, 4419, 1643, 1763, 4569, 4565, 4566, 4567, 4568, 1644], 's_6_37': [4448], 42: [1658, 4088, 1656, 1657, 4328, 4327, 934, 935, 936, 937, 4324, 4325, 4326], 's_6_42': [1492], 44: [4211, 4210, 4208, 1686, 4209], 's_6_44': [1731], 's_8_1': [3968], 9: [3804, 3653, 3654, 1849, 4570, 1973, 1972, 1971, 1970, 3895, 1850], 's_8_9': [3638], 's_8_11': [1433, 1434], 's_8_13': [1373], 's_8_17': [4506, 4505], 's_8_18': [4476], 's_8_21': [1655, 3818], 's_8_24': [4613, 1494], 31: [1583, 4553, 4554, 4555, 4556, 2123, 2122, 2121, 2120], 's_8_31': [4418], 's_8_32': [4282], 35: [1910, 1909, 3805, 1338, 3576, 1939, 1938, 3579, 3577, 3578], 's_8_35': [3592], 's_8_37': [1523], 's_8_40': [3922, 1565], 's_10_11': [1794], 's_10_12': [4389], 's_10_14': [4539], 27: [4359, 3699, 1762, 4298, 4297, 4296, 1312, 1311, 1310, 1309, 3698, 3697], 's_10_27': [4329], 29: [4615, 1868, 4551, 4524, 1718, 4628, 4627, 4626, 1328], 's_10_29': [1778], 's_10_34': [4449], 's_10_37': [4584], 's_10_38': [4314], 39: [4099, 4102, 4101, 1072, 1071, 4100], 's_10_39': [1566], 41: [3685, 3683, 3635, 3636, 3637, 1477, 3684, 3652, 1476, 1475, 1474], 's_10_41': [4043], 's_10_44': [1685], 's_10_45': [4057], 's_11_5': [4165, 1986], 's_11_12': [4629], 's_11_19': [4150], 's_11_29': [1419], 's_11_30': [4642, 4641], 's_11_31': [4511, 4510], 's_11_35': [3880], 's_11_38': [3970], 's_11_43': [1928], 's_14_5': [1639], 7: [4295, 4146, 1189, 1190, 1193, 1192, 1191], 's_14_7': [3770, 1219], 's_14_12': [4179], 's_14_21': [1384], 's_14_27': [3727, 1489], 33: [1898, 1057, 4479, 4478, 4477, 1463, 4402, 4401, 4400], 's_14_33': [4493], 's_14_34': [4149], 's_14_38': [1760], 's_14_40': [3773], 's_14_44': [1761], 's_14_46': [1174], 's_16_19': [4256], 's_16_22': [2107], 's_16_27': [4360], 's_16_29': [1839], 's_16_33': [4494], 's_16_40': [4315], 's_16_43': [1912], 's_16_44': [1987], 's_18_1': [3966], 3: [1518, 4025, 1519, 3908, 4026, 3907, 1250, 3906], 's_18_3': [1010], 's_18_15': [965, 966], 's_18_21': [3876], 25: [3940, 3860, 3861, 3862, 1985, 3865, 3864, 3863], 's_18_25': [1249], 's_18_27': [3996], 's_18_29': [1253], 's_18_30': [3726], 's_18_36': [4070], 's_26_3': [4041, 4040], 's_26_7': [1147], 's_26_15': [4264], 's_26_17': [4415], 's_26_23': [4205], 's_26_24': [4388], 's_26_31': [4447], 's_26_32': [3994], 's_26_39': [4235], 's_26_42': [1012], 's_26_43': [1388], 's_26_44': [1521], 's_30_1': [3696], 's_30_17': [4176], 's_30_21': [3711], 's_30_27': [4086], 's_30_28': [1263], 's_30_32': [4236], 's_30_35': [3591], 's_30_36': [1266], 's_30_43': [4446], 's_32_1': [1040], 's_32_3': [1116], 's_32_7': [4115], 's_32_15': [1117], 's_32_22': [1597], 's_32_23': [4160], 's_32_31': [1582], 's_32_34': [1612], 's_32_41': [4267], 's_32_42': [4250], 's_34_5': [1956], 's_34_7': [1222], 's_34_9': [4030], 's_34_12': [1836], 's_34_13': [4357], 's_34_24': [4358], 's_34_27': [1372], 's_34_33': [4370], 's_34_35': [4045], 's_34_45': [2001], 's_38_9': [3729], 's_38_12': [1865], 's_38_19': [3714], 's_38_21': [3954], 's_38_27': [1789], 's_38_40': [3879], 's_38_42': [4224], 's_43_13': [1418], 's_43_24': [1598], 's_43_31': [4465], 's_43_37': [1403], 's_43_42': [1673], 's_1_7': [3846], 's_1_19': [1835, 3984], 's_1_20': [3681], 's_1_21': [905], 's_1_40': [1415], 's_1_41': [1114], 's_1_42': [892, 891, 890, 3964], 's_1_46': [3725], 's_5_3': [3833, 1534], 's_5_15': [4147], 's_5_24': [3998], 's_5_31': [4001, 2075], 's_5_36': [1461], 's_5_39': [1431], 's_5_44': [2106], 's_13_41': [3651, 3650], 's_13_42': [3845], 's_13_24': [1539], 's_13_25': [1085], 's_13_29': [1208], 's_13_39': [1073], 's_13_45': [4220], 's_15_7': [4265], 's_15_21': [980, 981], 's_15_42': [877], 's_15_23': [1011], 's_15_33': [1027], 's_19_12': [1804], 's_19_27': [3700, 1954], 's_19_40': [3743], 's_19_44': [4226], 's_20_21': [1368], 's_20_27': [1294], 's_20_35': [1233], 's_20_36': [1459], 's_20_41': [3668], 's_20_42': [3680], 's_20_46': [1218], 's_21_17': [1056, 1055, 1070], 's_21_25': [1399], 's_21_35': [1353], 's_21_42': [875, 4009], 's_23_40': [1430], 's_23_41': [993], 's_23_25': [1009], 's_23_27': [1609], 's_23_33': [4340], 's_23_37': [1013, 4595], 's_23_44': [4148], 's_23_45': [4223], 's_24_3': [1699], 's_24_9': [1654], 's_24_12': [4689], 's_24_27': [1669], 's_24_29': [1659], 's_24_31': [1674], 's_24_37': [4403], 's_24_44': [4178], 's_24_45': [4133], 's_36_40': [4073, 1535], 's_36_46': [1145], 's_36_17': [1401], 's_36_22': [3877], 's_36_27': [3847], 's_36_35': [1443], 's_36_39': [4087], 's_36_45': [4132], 's_40_3': [3923], 's_40_22': [3951], 's_40_27': [1728], 's_40_28': [3819], 's_40_42': [1730], 's_12_41': [3669], 's_12_42': [4044, 1671], 's_12_3': [1400], 's_12_9': [4090], 's_12_22': [1911, 4269], 's_12_25': [1295], 's_12_31': [1809], 's_12_33': [4644], 's_12_35': [1895], 's_12_45': [3774], 's_45_28': [3759], 's_45_22': [4207], 's_45_25': [3820], 's_45_29': [4525], 's_45_31': [4450], 's_45_35': [3790], 's_45_37': [4434, 4435], 's_45_39': [1221], 's_46_7': [3786], 's_46_17': [4310], 's_46_28': [3621], 's_46_29': [1223], 's_46_37': [1104, 4640], 's_17_7': [1086, 4145], 's_17_41': [4177], 's_17_27': [1672], 's_17_44': [1536], 's_17_22': [1341], 's_17_37': [1089], 's_22_7': [3801, 1339], 's_22_42': [1327], 's_22_39': [1340], 's_22_9': [4255], 's_22_37': [1701, 1703, 1702], 's_28_41': [1398], 's_28_3': [3909], 's_28_31': [4061], 's_28_35': [1293], 's_28_44': [2151], 's_37_7': [1148, 4625], 's_37_42': [4523], 's_37_27': [1808], 's_37_31': [4421], 's_42_7': [1132], 's_42_41': [3634], 's_42_25': [950], 's_42_33': [967], 's_42_44': [1687], 's_44_31': [4135, 2061], 's_9_41': [1743], 's_9_29': [1883], 's_9_25': [1969], 's_9_33': [4540], 's_31_25': [3986, 3985], 's_31_29': [1688], 's_35_25': [3850], 's_27_7': [3816], 's_27_3': [3921], 's_27_25': [1564], 's_29_7': [4521], 's_39_41': [1491], 's_39_33': [4385], 's_41_3': [3878]}</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0.0006997084548104957</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.001374906836449166</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>{0: [1355, 1356, 1807, 4341, 4344, 4343, 1357, 4342], 2: [3785, 1143, 1144, 3891, 3997, 1385, 3894, 3893, 3892], 's_0_2': [4042], 4: [1268, 4131, 1251, 4386, 1252], 's_0_4': [1207], 6: [4194, 4312, 4313, 1716, 1717], 's_0_6': [1417], 8: [1343, 1548, 1549, 1550, 1551, 1552, 1553, 4583, 1449, 4582], 's_0_8': [1358], 10: [4058, 1520, 4059, 1793, 1792, 1791], 's_0_10': [3967], 11: [4299, 4702, 4134, 1941, 1942, 1944, 1584, 1940, 4705, 4704, 1943, 4703], 's_0_11': [4225, 1837], 14: [1748, 3755, 3756, 3757, 3758, 1747, 1746, 1745, 3728, 1744], 's_0_14': [4164, 1806], 16: [1867, 2091, 1838, 4270, 1957, 4390], 's_0_16': [4345], 18: [4581, 4055, 4056, 1234, 1235, 1238, 1237, 1236], 's_0_18': [4266], 26: [1506, 1537, 951, 952, 953, 4430, 4433, 1507, 4432, 4431], 's_0_26': [4417], 30: [4701, 1278, 1279, 1284, 1280, 1283, 1282, 1281], 's_0_30': [4311], 32: [1568, 1567, 3995, 4253, 4252, 1160, 1161, 1146, 4251], 's_0_32': [1297], 34: [4060, 1851, 1852, 1853, 4371, 4372, 4373, 4374], 's_0_34': [1342], 38: [4074, 1777, 1774, 1776, 3969, 1775], 's_0_38': [4284], 43: [4461, 4462, 4464, 4463], 's_0_43': [1732], 1: [1595, 1129, 3849, 3983, 1130, 1670, 3979, 3980, 3982, 3981], 's_2_1': [1490], 5: [4105, 4104, 4162, 4163, 1640, 1641, 4103], 's_2_5': [3848, 1504], 's_2_10': [1505], 13: [1538, 1447, 1099, 1100, 1101, 1102, 1103, 4490, 4491, 4492, 1448], 's_2_13': [3890], 15: [1370, 4279, 1371, 4280, 4281], 's_2_15': [1369], 19: [2019, 2018, 1759, 3835, 3834, 2017, 3924, 3925, 2016, 1805, 2015], 's_2_19': [1790], 20: [1428, 1323, 3665, 3667, 3666], 's_2_20': [1159, 1158], 21: [1025, 1026, 3741, 3939, 3938, 3937, 1264, 1265, 3936, 3934, 3935], 's_2_21': [1115], 23: [998, 997, 996, 1611, 994, 1610, 4013, 4012, 4011, 4010, 995], 's_2_23': [1220], 24: [4538, 4643, 4688, 3803, 1629, 1628, 1627, 1626, 1625, 1624], 's_2_24': [1684], 36: [1206, 3712, 1444, 4071, 1445, 4072, 1446], 's_2_36': [1460], 40: [1713, 2032, 2031, 4000, 1714, 3952, 3953, 1715, 3999], 's_2_40': [1729], 12: [1819, 1824, 1823, 1820, 1822, 4089, 1296, 4027, 4028, 4029, 1821], 's_4_12': [4116], 's_4_13': [4387], 's_4_15': [1267], 's_4_18': [4416], 's_4_32': [4130], 's_4_34': [4356], 's_4_36': [1386], 45: [2004, 1924, 1925, 2003, 2002, 4180, 4221, 4222, 1416, 4117, 4118, 4119, 1926], 's_4_45': [4206], 46: [1203, 1178, 4445, 1177, 1176, 1175, 1204, 1205, 3950], 's_4_46': [1162], 's_6_14': [4404], 17: [4193, 1088, 1087, 4192, 4190, 4191], 's_6_17': [1462], 22: [4241, 1324, 1325, 4240, 1326, 4237, 4239, 4238], 's_6_22': [4254], 's_6_24': [4283], 28: [4076, 4075, 1881, 1880, 1879, 3606, 3607, 3608, 3609, 1878], 's_6_28': [1866], 's_6_32': [1432], 's_6_34': [1522], 37: [1642, 4420, 4419, 1643, 1763, 4569, 4565, 4566, 4567, 4568, 1644], 's_6_37': [4448], 42: [1658, 4088, 1656, 1657, 4328, 4327, 934, 935, 936, 937, 4324, 4325, 4326], 's_6_42': [1492], 44: [4211, 4210, 4208, 1686, 4209], 's_6_44': [1731], 's_8_1': [3968], 9: [3804, 3653, 3654, 1849, 4570, 1973, 1972, 1971, 1970, 3895, 1850], 's_8_9': [3638], 's_8_11': [1433, 1434], 's_8_13': [1373], 's_8_17': [4506, 4505], 's_8_18': [4476], 's_8_21': [1655, 3818], 's_8_24': [4613, 1494], 31: [1583, 4553, 4554, 4555, 4556, 2123, 2122, 2121, 2120], 's_8_31': [4418], 's_8_32': [4282], 35: [1910, 1909, 3805, 1338, 3576, 1939, 1938, 3579, 3577, 3578], 's_8_35': [3592], 's_8_37': [1523], 's_8_40': [3922, 1565], 's_10_11': [1794], 's_10_12': [4389], 's_10_14': [4539], 27: [4359, 3699, 1762, 4298, 4297, 4296, 1312, 1311, 1310, 1309, 3698, 3697], 's_10_27': [4329], 29: [4615, 1868, 4551, 4524, 1718, 4628, 4627, 4626, 1328], 's_10_29': [1778], 's_10_34': [4449], 's_10_37': [4584], 's_10_38': [4314], 39: [4099, 4102, 4101, 1072, 1071, 4100], 's_10_39': [1566], 41: [3685, 3683, 3635, 3636, 3637, 1477, 3684, 3652, 1476, 1475, 1474], 's_10_41': [4043], 's_10_44': [1685], 's_10_45': [4057], 's_11_5': [4165, 1986], 's_11_12': [4629], 's_11_19': [4150], 's_11_29': [1419], 's_11_30': [4642, 4641], 's_11_31': [4511, 4510], 's_11_35': [3880], 's_11_38': [3970], 's_11_43': [1928], 's_14_5': [1639], 7: [4295, 4146, 1189, 1190, 1193, 1192, 1191], 's_14_7': [3770, 1219], 's_14_12': [4179], 's_14_21': [1384], 's_14_27': [3727, 1489], 33: [1898, 1057, 4479, 4478, 4477, 1463, 4402, 4401, 4400], 's_14_33': [4493], 's_14_34': [4149], 's_14_38': [1760], 's_14_40': [3773], 's_14_44': [1761], 's_14_46': [1174], 's_16_19': [4256], 's_16_22': [2107], 's_16_27': [4360], 's_16_29': [1839], 's_16_33': [4494], 's_16_40': [4315], 's_16_43': [1912], 's_16_44': [1987], 's_18_1': [3966], 3: [1518, 4025, 1519, 3908, 4026, 3907, 1250, 3906], 's_18_3': [1010], 's_18_15': [965, 966], 's_18_21': [3876], 25: [3940, 3860, 3861, 3862, 1985, 3865, 3864, 3863], 's_18_25': [1249], 's_18_27': [3996], 's_18_29': [1253], 's_18_30': [3726], 's_18_36': [4070], 's_26_3': [4041, 4040], 's_26_7': [1147], 's_26_15': [4264], 's_26_17': [4415], 's_26_23': [4205], 's_26_24': [4388], 's_26_31': [4447], 's_26_32': [3994], 's_26_39': [4235], 's_26_42': [1012], 's_26_43': [1388], 's_26_44': [1521], 's_30_1': [3696], 's_30_17': [4176], 's_30_21': [3711], 's_30_27': [4086], 's_30_28': [1263], 's_30_32': [4236], 's_30_35': [3591], 's_30_36': [1266], 's_30_43': [4446], 's_32_1': [1040], 's_32_3': [1116], 's_32_7': [4115], 's_32_15': [1117], 's_32_22': [1597], 's_32_23': [4160], 's_32_31': [1582], 's_32_34': [1612], 's_32_41': [4267], 's_32_42': [4250], 's_34_5': [1956], 's_34_7': [1222], 's_34_9': [4030], 's_34_12': [1836], 's_34_13': [4357], 's_34_24': [4358], 's_34_27': [1372], 's_34_33': [4370], 's_34_35': [4045], 's_34_45': [2001], 's_38_9': [3729], 's_38_12': [1865], 's_38_19': [3714], 's_38_21': [3954], 's_38_27': [1789], 's_38_40': [3879], 's_38_42': [4224], 's_43_13': [1418], 's_43_24': [1598], 's_43_31': [4465], 's_43_37': [1403], 's_43_42': [1673], 's_1_7': [3846], 's_1_19': [1835, 3984], 's_1_20': [3681], 's_1_21': [905], 's_1_40': [1415], 's_1_41': [1114], 's_1_42': [892, 891, 890, 3964], 's_1_46': [3725], 's_5_3': [3833, 1534], 's_5_15': [4147], 's_5_24': [3998], 's_5_31': [4001, 2075], 's_5_36': [1461], 's_5_39': [1431], 's_5_44': [2106], 's_13_41': [3651, 3650], 's_13_42': [3845], 's_13_24': [1539], 's_13_25': [1085], 's_13_29': [1208], 's_13_39': [1073], 's_13_45': [4220], 's_15_7': [4265], 's_15_21': [980, 981], 's_15_42': [877], 's_15_23': [1011], 's_15_33': [1027], 's_19_12': [1804], 's_19_27': [3700, 1954], 's_19_40': [3743], 's_19_44': [4226], 's_20_21': [1368], 's_20_27': [1294], 's_20_35': [1233], 's_20_36': [1459], 's_20_41': [3668], 's_20_42': [3680], 's_20_46': [1218], 's_21_17': [1056, 1055, 1070], 's_21_25': [1399], 's_21_35': [1353], 's_21_42': [875, 4009], 's_23_40': [1430], 's_23_41': [993], 's_23_25': [1009], 's_23_27': [1609], 's_23_33': [4340], 's_23_37': [1013, 4595], 's_23_44': [4148], 's_23_45': [4223], 's_24_3': [1699], 's_24_9': [1654], 's_24_12': [4689], 's_24_27': [1669], 's_24_29': [1659], 's_24_31': [1674], 's_24_37': [4403], 's_24_44': [4178], 's_24_45': [4133], 's_36_40': [4073, 1535], 's_36_46': [1145], 's_36_17': [1401], 's_36_22': [3877], 's_36_27': [3847], 's_36_35': [1443], 's_36_39': [4087], 's_36_45': [4132], 's_40_3': [3923], 's_40_22': [3951], 's_40_27': [1728], 's_40_28': [3819], 's_40_42': [1730], 's_12_41': [3669], 's_12_42': [4044, 1671], 's_12_3': [1400], 's_12_9': [4090], 's_12_22': [1911, 4269], 's_12_25': [1295], 's_12_31': [1809], 's_12_33': [4644], 's_12_35': [1895], 's_12_45': [3774], 's_45_28': [3759], 's_45_22': [4207], 's_45_25': [3820], 's_45_29': [4525], 's_45_31': [4450], 's_45_35': [3790], 's_45_37': [4434, 4435], 's_45_39': [1221], 's_46_7': [3786], 's_46_17': [4310], 's_46_28': [3621], 's_46_29': [1223], 's_46_37': [1104, 4640], 's_17_7': [1086, 4145], 's_17_41': [4177], 's_17_27': [1672], 's_17_44': [1536], 's_17_22': [1341], 's_17_37': [1089], 's_22_7': [3801, 1339], 's_22_42': [1327], 's_22_39': [1340], 's_22_9': [4255], 's_22_37': [1701, 1703, 1702], 's_28_41': [1398], 's_28_3': [3909], 's_28_31': [4061], 's_28_35': [1293], 's_28_44': [2151], 's_37_7': [1148, 4625], 's_37_42': [4523], 's_37_27': [1808], 's_37_31': [4421], 's_42_7': [1132], 's_42_41': [3634], 's_42_25': [950], 's_42_33': [967], 's_42_44': [1687], 's_44_31': [4135, 2061], 's_9_41': [1743], 's_9_29': [1883], 's_9_25': [1969], 's_9_33': [4540], 's_31_25': [3986, 3985], 's_31_29': [1688], 's_35_25': [3850], 's_27_7': [3816], 's_27_3': [3921], 's_27_25': [1564], 's_29_7': [4521], 's_39_41': [1491], 's_39_33': [4385], 's_41_3': [3878]}</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0.0006997084548104957</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.001374906836449166</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>{0: [5002, 1662, 1661, 5001, 5003], 4: [1676, 1647, 4912, 4913, 1646], 6: [4747, 1631, 4748, 1630], 8: [1737, 5212, 5213], 11: [1797, 5137, 5139, 5138], 13: [1419, 4807, 1420, 1421], 14: [1541, 5182, 1752, 5183], 15: [5153, 5152, 1316, 1315, 1317], 16: [1555, 4974, 4973], 18: [4851, 1436, 1435, 4853, 4852], 32: [1632, 5198, 1857, 1932, 5199], 36: [1691, 4838, 1690], 38: [1539, 1540, 4944, 4943], 39: [5227, 1780, 1781, 1782, 5228, 5229], 40: [4897, 4899, 4898], 45: [5154, 1705, 1707, 1706], 1: [4717, 1450, 4972, 1451], 2: [5108, 1510, 1511], 9: [5064, 1556, 5062, 5063], 10: [1616, 4988], 19: [4914, 1869, 5004, 1870], 22: [5019, 5018, 1735, 1736], 23: [1645, 4792, 4793], 24: [1467, 1465, 1466], 28: [5031, 5032, 1570, 5078, 5079, 1571], 42: [4779, 4777, 1615, 4778], 44: [4884, 4882, 4883, 1675], 47: [4942, 1406, 1405], 3: [1359, 1361, 1360], 17: [1599, 1602, 1601, 1600], 26: [1914, 1734, 4809, 1765, 4808], 37: [1810, 4822, 4824, 4823], 30: [1767, 5244, 1841, 1842], 34: [1482, 5077], 25: [5167, 1915, 1916, 5168, 5169], 35: [1495, 1497, 1496], 46: [5184, 1811, 1812], 27: [1392, 5166, 5107, 1376], 12: [1390, 1391, 5122, 5125, 5124, 5123], 20: [4733, 4734, 1855, 1856, 5049, 1751], 41: [4763, 4764, 4794, 1719, 1720, 1721], 5: [4957, 1586, 4959, 4958], 7: [5047, 1480, 5017, 1481], 21: [4870, 1375, 4867, 4869, 4868], 29: [1931, 1930, 4927, 1525, 4928, 4930, 4929], 31: [1452, 5093, 5092], 33: [5094, 5109, 1795, 1796], 43: [1827, 5034, 1826]}</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0.01329407566024268</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.01542005256322323</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>{0: [5002, 1662, 1661, 5001, 5003], 4: [1676, 1647, 4912, 4913, 1646], 6: [4747, 1631, 4748, 1630], 8: [1737, 5212, 5213], 11: [1797, 5137, 5139, 5138], 13: [1419, 4807, 1420, 1421], 14: [1541, 5182, 1752, 5183], 15: [5153, 5152, 1316, 1315, 1317], 16: [1555, 4974, 4973], 18: [4851, 1436, 1435, 4853, 4852], 32: [1632, 5198, 1857, 1932, 5199], 36: [1691, 4838, 1690], 38: [1539, 1540, 4944, 4943], 39: [5227, 1780, 1781, 1782, 5228, 5229], 40: [4897, 4899, 4898], 45: [5154, 1705, 1707, 1706], 1: [4717, 1450, 4972, 1451], 2: [5108, 1510, 1511], 9: [5064, 1556, 5062, 5063], 10: [1616, 4988], 19: [4914, 1869, 5004, 1870], 22: [5019, 5018, 1735, 1736], 23: [1645, 4792, 4793], 24: [1467, 1465, 1466], 28: [5031, 5032, 1570, 5078, 5079, 1571], 42: [4779, 4777, 1615, 4778], 44: [4884, 4882, 4883, 1675], 47: [4942, 1406, 1405], 3: [1359, 1361, 1360], 17: [1599, 1602, 1601, 1600], 26: [1914, 1734, 4809, 1765, 4808], 37: [1810, 4822, 4824, 4823], 30: [1767, 5244, 1841, 1842], 34: [1482, 5077], 25: [5167, 1915, 1916, 5168, 5169], 35: [1495, 1497, 1496], 46: [5184, 1811, 1812], 27: [1392, 5166, 5107, 1376], 12: [1390, 1391, 5122, 5125, 5124, 5123], 20: [4733, 4734, 1855, 1856, 5049, 1751], 41: [4763, 4764, 4794, 1719, 1720, 1721], 5: [4957, 1586, 4959, 4958], 7: [5047, 1480, 5017, 1481], 21: [4870, 1375, 4867, 4869, 4868], 29: [1931, 1930, 4927, 1525, 4928, 4930, 4929], 31: [1452, 5093, 5092], 33: [5094, 5109, 1795, 1796], 43: [1827, 5034, 1826]}</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0.01329407566024268</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.01542005256322323</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.059</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>{0: [1105, 1106, 5030, 5031, 1361, 5166, 5168, 5169, 1947, 5167, 1946, 1945, 4780], 4: [4642, 1498, 1497, 4535, 4536, 4537, 1494, 1495, 1496], 's_0_4': [5077], 6: [4789, 4790, 1088, 1089, 1090], 's_0_6': [4835], 8: [5199, 5198, 5195, 1467, 5196, 5197], 's_0_8': [1931, 1932], 11: [5133, 5134, 1901, 5140, 5139, 5138, 942, 5135, 5136, 5137], 's_0_11': [5080], 13: [4955, 987, 986, 982, 983, 984, 985], 's_0_13': [4970], 14: [5153, 5152, 5151, 5150, 4564, 924, 5154, 4654, 999, 1000, 1001], 's_0_14': [5155], 15: [1178, 2007, 4580, 4581, 4582, 4583, 2006, 2005, 2004, 4585, 4584], 's_0_15': [1990], 16: [1601, 5316, 5317, 5318, 1602, 1603], 's_0_16': [5183], 18: [1437, 1435, 1436, 5002, 820, 5001, 5000, 1438, 4999, 4998, 851], 's_0_18': [1076], 32: [4795, 4522, 4523, 4524, 1855, 1854, 1388, 1853], 's_0_32': [1960], 36: [1540, 1541, 4869, 5346, 1542, 1870, 5258, 4868, 1869, 1539, 5347], 's_0_36': [4930], 38: [1315, 1316, 1317, 1318, 5361, 5360, 5359, 5358, 792, 789, 790, 791], 's_0_38': [1376, 1377], 39: [4819, 1044, 4821, 1285, 4866, 1048, 1047, 1046, 4865, 1045], 's_0_39': [1121, 4910], 40: [1914, 1014, 4809, 4808, 4807, 4803, 4804, 4805, 4806], 's_0_40': [1930], 45: [5178, 5179, 5180, 1556, 5182, 5063, 5181], 's_0_45': [1587], 1: [1013, 5059, 5060, 1137, 4957, 4956, 1136, 1135, 4595, 1074, 4730], 's_4_1': [1073], 2: [1253, 1254, 1239, 1389, 4714, 1481, 4715, 1480, 4717, 1345, 1344, 4716], 's_4_2': [1238], 9: [5423, 5422, 910, 1303, 5420, 5419, 5421, 913, 911, 912], 's_4_9': [1483], 10: [1149, 4505, 4550, 1148], 's_4_10': [1028], 's_4_11': [5288, 1572], 's_4_14': [4534], 's_4_16': [5362, 1573], 's_4_18': [5092], 19: [1687, 4599, 1688, 4598, 4597, 1404, 4941, 1271, 1270, 1269, 4940, 4656], 's_4_19': [4551], 22: [5223, 5224, 5225, 5229, 5228, 5227, 5226], 's_4_22': [5242], 23: [4838, 1598, 1599, 1600, 4926, 4927, 4928], 's_4_23': [4763], 24: [1553, 1554, 1813, 1812, 1811, 1810, 4734, 4733], 's_4_24': [4538], 28: [5255, 5256, 4854, 4853, 4852, 4851, 1332, 1330, 1331], 's_4_28': [5257], 's_4_32': [1523, 4507], 42: [1765, 4823, 4822, 4896, 4897, 1466, 1464, 1465], 's_4_42': [4702], 44: [4880, 4882, 4777, 4778, 4879, 1300, 865, 4881], 's_4_44': [4626, 4627, 1299, 1538], 's_4_45': [1482], 47: [1378, 5332, 5451, 5452, 5453, 5049, 5333, 1736, 1737, 5363, 1618], 's_4_47': [5377, 1558], 3: [4820, 1151, 5109, 1210, 1211, 5108, 5107, 5106], 's_6_3': [4670, 1209], 's_6_9': [4774], 's_6_10': [4520], 's_6_13': [4430], 's_6_15': [1104], 17: [1225, 1224, 4625, 4624, 4623, 699, 5163, 702, 701, 700], 's_6_17': [4788], 26: [1463, 877, 4369, 4370, 4371, 1662, 4372, 1661, 1660, 1659, 1658, 4373], 's_6_26': [4355], 37: [927, 926, 4939, 4479, 4478, 4477, 4476, 4475, 880, 879, 4474, 878], 's_6_37': [1103], 's_6_38': [804], 's_6_44': [850], 's_8_14': [1422], 's_8_22': [1767], 's_8_24': [1827], 30: [5300, 1058, 1062, 1061, 1059, 1060], 's_8_30': [1077], 34: [5209, 5210, 5213, 5212, 5211], 's_8_34': [1257], 's_8_45': [1092], 's_11_9': [5149], 's_11_14': [1752], 's_11_15': [5050], 's_11_17': [867], 25: [1452, 1450, 1842, 4750, 1840, 4744, 4745, 1841, 4746, 1451, 4749, 4748, 4747], 's_11_25': [1857], 's_11_30': [5105], 35: [5076, 5075, 4448, 4447, 4446, 4445, 4444, 893, 894, 5074, 896, 895], 's_11_35': [1107], 's_11_36': [1617], 46: [5302, 1648, 5303, 5304, 1778, 1779, 1780, 1781, 1782], 's_11_46': [5184], 's_13_1': [4489], 's_13_18': [4954], 's_13_26': [4354], 27: [4894, 4895, 1165, 4985, 5093, 1586, 4987, 4986], 's_13_27': [1091], 's_13_34': [5194], 's_13_37': [4849], 's_13_40': [4669], 's_13_44': [4909], 's_14_2': [969], 12: [1796, 1795, 1794, 655, 654, 4683, 4684, 4685, 4686, 4687, 4688, 4689], 's_14_12': [4699], 20: [997, 998, 4567, 1163, 4565, 4566], 's_14_20': [954], 's_14_38': [4653], 41: [4553, 1632, 1628, 1629, 1510, 4958, 1631, 1630], 's_14_41': [1511], 's_14_46': [1647], 's_15_2': [4491, 1403], 's_15_17': [1193], 's_15_23': [4568], 's_15_32': [4600], 's_15_42': [1449], 5: [656, 1167, 1166, 5043, 5044, 5045], 's_16_5': [5331], 7: [1255, 1256, 5120, 5121, 5391, 5119, 1273, 1272], 's_16_7': [1258], 's_16_18': [1423], 21: [1616, 5003, 1733, 1734, 1735], 's_16_21': [4988], 's_16_22': [1197], 's_16_41': [5123], 's_16_45': [5078], 's_16_46': [5348], 's_18_3': [1571], 's_18_9': [4969], 's_18_17': [716], 's_18_22': [852], 's_18_28': [4942], 29: [1032, 1031, 1030, 1029, 4610, 4611, 4612, 4674, 4673, 1644, 4613], 's_18_29': [5029, 5028], 31: [5344, 958, 5274, 5273, 5272, 5285, 5286, 5287, 5062, 1391, 1392], 's_18_31': [5467, 1393], 's_18_37': [805], 's_18_40': [819], 's_18_41': [4837], 's_18_47': [5437, 1528], 's_32_2': [4641, 1373], 's_32_12': [4644], 's_32_20': [1418], 's_32_25': [4765], 's_32_28': [4839], 's_32_29': [1839], 's_32_46': [4449], 's_36_9': [1663], 's_36_22': [1707], 's_36_23': [1690], 's_36_26': [4913], 's_36_29': [1645], 33: [5018, 1181, 5013, 5014, 5017, 5016, 5015], 's_36_33': [5032], 's_36_40': [1825], 's_36_41': [4943], 's_36_42': [4914], 's_36_44': [4883], 's_36_45': [1557], 's_38_2': [4762], 's_38_5': [1152], 's_38_17': [4728], 's_38_33': [806], 's_38_35': [5073], 's_38_39': [1033], 's_38_40': [4818], 's_38_42': [4972], 's_38_44': [4878], 's_38_46': [1362], 's_38_47': [1319], 's_39_12': [1329], 's_39_17': [4731], 's_39_25': [955], 's_39_27': [1015], 's_39_30': [4760], 's_39_31': [5389], 's_39_37': [4639], 's_39_42': [1286], 43: [759, 760, 4833, 836, 4925, 4924, 835], 's_39_43': [4864], 's_39_44': [940], 's_40_1': [1120], 's_40_2': [1179], 's_40_12': [4802], 's_40_17': [715], 's_40_19': [1374], 's_40_24': [1884], 's_40_26': [1675], 's_40_29': [4672, 1524], 's_40_30': [4700], 's_40_42': [4824], 's_45_21': [1646], 's_45_29': [5090, 1016], 's_45_31': [1212], 's_45_41': [1555], 's_45_43': [821], 's_1_5': [5058], 's_1_7': [866], 's_1_9': [1138, 5405], 's_1_12': [939], 's_1_28': [4850], 's_1_31': [1406], 's_1_35': [971], 's_1_37': [4594], 's_1_42': [1301], 's_2_7': [4911], 's_2_9': [925], 's_2_12': [1194], 's_2_31': [1390], 's_2_35': [4729], 's_2_10': [4506], 's_2_25': [864], 's_2_27': [1164], 's_2_29': [1343], 's_2_33': [1346], 's_2_44': [1509], 's_9_7': [5406], 's_9_25': [1453], 's_9_27': [4984], 's_9_28': [5254], 's_9_43': [5089], 's_9_46': [1633], 's_9_47': [1183], 's_10_20': [1043], 's_19_25': [4732], 's_19_29': [1749], 's_19_33': [941], 's_19_21': [1718], 's_19_20': [1328], 's_19_26': [1313, 1314], 's_19_30': [4655], 's_19_41': [1674], 's_19_43': [970], 's_19_46': [4614], 's_22_7': [762], 's_22_28': [1227], 's_22_29': [5240], 's_22_17': [5164, 882], 's_22_26': [5243], 's_22_30': [972], 's_22_46': [5244], 's_23_7': [1240], 's_23_12': [1614], 's_23_28': [1720], 's_23_35': [1613], 's_23_42': [4929], 's_23_44': [1615], 's_23_3': [1150], 's_23_41': [4418], 's_24_31': [1828], 's_24_37': [4492], 's_24_25': [5034], 's_24_29': [1809], 's_24_44': [4779], 's_24_21': [4959], 's_24_47': [5334], 's_28_7': [5241], 's_28_3': [5091], 's_28_31': [5122], 's_28_33': [5046], 's_28_34': [1347], 's_28_35': [1123, 1122], 's_28_42': [1570], 's_28_44': [1375], 's_42_17': [4792, 4791], 's_42_21': [1719], 's_42_26': [4898], 's_42_44': [1360], 's_44_7': [4776], 's_44_17': [4848], 's_44_41': [4793], 's_47_7': [5392, 1513], 's_47_12': [5064], 's_47_31': [5259], 's_47_3': [1721], 's_47_34': [1722], 's_3_7': [5061], 's_3_12': [5124], 's_3_31': [1421], 's_3_27': [1241], 's_3_21': [1751], 's_17_12': [684, 4758], 's_17_37': [1223], 's_17_29': [1119], 's_17_20': [968], 's_26_37': [1283], 's_26_25': [4764], 's_26_33': [1676], 's_26_21': [4974], 's_26_20': [1162], 's_37_7': [881], 's_37_20': [1358], 's_37_33': [776], 's_37_46': [1793], 's_30_43': [1075], 's_30_20': [4490], 's_34_7': [957], 's_34_31': [1407], 's_34_25': [5214], 's_25_12': [1434], 's_25_31': [1843], 's_25_21': [5004], 's_25_27': [5094], 's_25_41': [4912], 's_25_43': [4759], 's_35_41': [4463], 's_46_29': [4659], 's_27_7': [4971], 's_27_21': [4973], 's_12_5': [640, 641], 's_12_29': [1824], 's_12_43': [834], 's_41_29': [4643], 's_41_21': [4493], 's_5_29': [5270], 's_5_31': [5301], 's_5_33': [731], 's_5_43': [956], 's_21_29': [4628], 's_31_33': [1182]}</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0.001027950310559006</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.001804021736390499</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>{0: [1105, 1106, 5030, 5031, 1361, 5166, 5168, 5169, 1947, 5167, 1946, 1945, 4780], 4: [4642, 1498, 1497, 4535, 4536, 4537, 1494, 1495, 1496], 's_0_4': [5077], 6: [4789, 4790, 1088, 1089, 1090], 's_0_6': [4835], 8: [5199, 5198, 5195, 1467, 5196, 5197], 's_0_8': [1931, 1932], 11: [5133, 5134, 1901, 5140, 5139, 5138, 942, 5135, 5136, 5137], 's_0_11': [5080], 13: [4955, 987, 986, 982, 983, 984, 985], 's_0_13': [4970], 14: [5153, 5152, 5151, 5150, 4564, 924, 5154, 4654, 999, 1000, 1001], 's_0_14': [5155], 15: [1178, 2007, 4580, 4581, 4582, 4583, 2006, 2005, 2004, 4585, 4584], 's_0_15': [1990], 16: [1601, 5316, 5317, 5318, 1602, 1603], 's_0_16': [5183], 18: [1437, 1435, 1436, 5002, 820, 5001, 5000, 1438, 4999, 4998, 851], 's_0_18': [1076], 32: [4795, 4522, 4523, 4524, 1855, 1854, 1388, 1853], 's_0_32': [1960], 36: [1540, 1541, 4869, 5346, 1542, 1870, 5258, 4868, 1869, 1539, 5347], 's_0_36': [4930], 38: [1315, 1316, 1317, 1318, 5361, 5360, 5359, 5358, 792, 789, 790, 791], 's_0_38': [1376, 1377], 39: [4819, 1044, 4821, 1285, 4866, 1048, 1047, 1046, 4865, 1045], 's_0_39': [1121, 4910], 40: [1914, 1014, 4809, 4808, 4807, 4803, 4804, 4805, 4806], 's_0_40': [1930], 45: [5178, 5179, 5180, 1556, 5182, 5063, 5181], 's_0_45': [1587], 1: [1013, 5059, 5060, 1137, 4957, 4956, 1136, 1135, 4595, 1074, 4730], 's_4_1': [1073], 2: [1253, 1254, 1239, 1389, 4714, 1481, 4715, 1480, 4717, 1345, 1344, 4716], 's_4_2': [1238], 9: [5423, 5422, 910, 1303, 5420, 5419, 5421, 913, 911, 912], 's_4_9': [1483], 10: [1149, 4505, 4550, 1148], 's_4_10': [1028], 's_4_11': [5288, 1572], 's_4_14': [4534], 's_4_16': [5362, 1573], 's_4_18': [5092], 19: [1687, 4599, 1688, 4598, 4597, 1404, 4941, 1271, 1270, 1269, 4940, 4656], 's_4_19': [4551], 22: [5223, 5224, 5225, 5229, 5228, 5227, 5226], 's_4_22': [5242], 23: [4838, 1598, 1599, 1600, 4926, 4927, 4928], 's_4_23': [4763], 24: [1553, 1554, 1813, 1812, 1811, 1810, 4734, 4733], 's_4_24': [4538], 28: [5255, 5256, 4854, 4853, 4852, 4851, 1332, 1330, 1331], 's_4_28': [5257], 's_4_32': [1523, 4507], 42: [1765, 4823, 4822, 4896, 4897, 1466, 1464, 1465], 's_4_42': [4702], 44: [4880, 4882, 4777, 4778, 4879, 1300, 865, 4881], 's_4_44': [4626, 4627, 1299, 1538], 's_4_45': [1482], 47: [1378, 5332, 5451, 5452, 5453, 5049, 5333, 1736, 1737, 5363, 1618], 's_4_47': [5377, 1558], 3: [4820, 1151, 5109, 1210, 1211, 5108, 5107, 5106], 's_6_3': [4670, 1209], 's_6_9': [4774], 's_6_10': [4520], 's_6_13': [4430], 's_6_15': [1104], 17: [1225, 1224, 4625, 4624, 4623, 699, 5163, 702, 701, 700], 's_6_17': [4788], 26: [1463, 877, 4369, 4370, 4371, 1662, 4372, 1661, 1660, 1659, 1658, 4373], 's_6_26': [4355], 37: [927, 926, 4939, 4479, 4478, 4477, 4476, 4475, 880, 879, 4474, 878], 's_6_37': [1103], 's_6_38': [804], 's_6_44': [850], 's_8_14': [1422], 's_8_22': [1767], 's_8_24': [1827], 30: [5300, 1058, 1062, 1061, 1059, 1060], 's_8_30': [1077], 34: [5209, 5210, 5213, 5212, 5211], 's_8_34': [1257], 's_8_45': [1092], 's_11_9': [5149], 's_11_14': [1752], 's_11_15': [5050], 's_11_17': [867], 25: [1452, 1450, 1842, 4750, 1840, 4744, 4745, 1841, 4746, 1451, 4749, 4748, 4747], 's_11_25': [1857], 's_11_30': [5105], 35: [5076, 5075, 4448, 4447, 4446, 4445, 4444, 893, 894, 5074, 896, 895], 's_11_35': [1107], 's_11_36': [1617], 46: [5302, 1648, 5303, 5304, 1778, 1779, 1780, 1781, 1782], 's_11_46': [5184], 's_13_1': [4489], 's_13_18': [4954], 's_13_26': [4354], 27: [4894, 4895, 1165, 4985, 5093, 1586, 4987, 4986], 's_13_27': [1091], 's_13_34': [5194], 's_13_37': [4849], 's_13_40': [4669], 's_13_44': [4909], 's_14_2': [969], 12: [1796, 1795, 1794, 655, 654, 4683, 4684, 4685, 4686, 4687, 4688, 4689], 's_14_12': [4699], 20: [997, 998, 4567, 1163, 4565, 4566], 's_14_20': [954], 's_14_38': [4653], 41: [4553, 1632, 1628, 1629, 1510, 4958, 1631, 1630], 's_14_41': [1511], 's_14_46': [1647], 's_15_2': [4491, 1403], 's_15_17': [1193], 's_15_23': [4568], 's_15_32': [4600], 's_15_42': [1449], 5: [656, 1167, 1166, 5043, 5044, 5045], 's_16_5': [5331], 7: [1255, 1256, 5120, 5121, 5391, 5119, 1273, 1272], 's_16_7': [1258], 's_16_18': [1423], 21: [1616, 5003, 1733, 1734, 1735], 's_16_21': [4988], 's_16_22': [1197], 's_16_41': [5123], 's_16_45': [5078], 's_16_46': [5348], 's_18_3': [1571], 's_18_9': [4969], 's_18_17': [716], 's_18_22': [852], 's_18_28': [4942], 29: [1032, 1031, 1030, 1029, 4610, 4611, 4612, 4674, 4673, 1644, 4613], 's_18_29': [5029, 5028], 31: [5344, 958, 5274, 5273, 5272, 5285, 5286, 5287, 5062, 1391, 1392], 's_18_31': [5467, 1393], 's_18_37': [805], 's_18_40': [819], 's_18_41': [4837], 's_18_47': [5437, 1528], 's_32_2': [4641, 1373], 's_32_12': [4644], 's_32_20': [1418], 's_32_25': [4765], 's_32_28': [4839], 's_32_29': [1839], 's_32_46': [4449], 's_36_9': [1663], 's_36_22': [1707], 's_36_23': [1690], 's_36_26': [4913], 's_36_29': [1645], 33: [5018, 1181, 5013, 5014, 5017, 5016, 5015], 's_36_33': [5032], 's_36_40': [1825], 's_36_41': [4943], 's_36_42': [4914], 's_36_44': [4883], 's_36_45': [1557], 's_38_2': [4762], 's_38_5': [1152], 's_38_17': [4728], 's_38_33': [806], 's_38_35': [5073], 's_38_39': [1033], 's_38_40': [4818], 's_38_42': [4972], 's_38_44': [4878], 's_38_46': [1362], 's_38_47': [1319], 's_39_12': [1329], 's_39_17': [4731], 's_39_25': [955], 's_39_27': [1015], 's_39_30': [4760], 's_39_31': [5389], 's_39_37': [4639], 's_39_42': [1286], 43: [759, 760, 4833, 836, 4925, 4924, 835], 's_39_43': [4864], 's_39_44': [940], 's_40_1': [1120], 's_40_2': [1179], 's_40_12': [4802], 's_40_17': [715], 's_40_19': [1374], 's_40_24': [1884], 's_40_26': [1675], 's_40_29': [4672, 1524], 's_40_30': [4700], 's_40_42': [4824], 's_45_21': [1646], 's_45_29': [5090, 1016], 's_45_31': [1212], 's_45_41': [1555], 's_45_43': [821], 's_1_5': [5058], 's_1_7': [866], 's_1_9': [1138, 5405], 's_1_12': [939], 's_1_28': [4850], 's_1_31': [1406], 's_1_35': [971], 's_1_37': [4594], 's_1_42': [1301], 's_2_7': [4911], 's_2_9': [925], 's_2_12': [1194], 's_2_31': [1390], 's_2_35': [4729], 's_2_10': [4506], 's_2_25': [864], 's_2_27': [1164], 's_2_29': [1343], 's_2_33': [1346], 's_2_44': [1509], 's_9_7': [5406], 's_9_25': [1453], 's_9_27': [4984], 's_9_28': [5254], 's_9_43': [5089], 's_9_46': [1633], 's_9_47': [1183], 's_10_20': [1043], 's_19_25': [4732], 's_19_29': [1749], 's_19_33': [941], 's_19_21': [1718], 's_19_20': [1328], 's_19_26': [1313, 1314], 's_19_30': [4655], 's_19_41': [1674], 's_19_43': [970], 's_19_46': [4614], 's_22_7': [762], 's_22_28': [1227], 's_22_29': [5240], 's_22_17': [5164, 882], 's_22_26': [5243], 's_22_30': [972], 's_22_46': [5244], 's_23_7': [1240], 's_23_12': [1614], 's_23_28': [1720], 's_23_35': [1613], 's_23_42': [4929], 's_23_44': [1615], 's_23_3': [1150], 's_23_41': [4418], 's_24_31': [1828], 's_24_37': [4492], 's_24_25': [5034], 's_24_29': [1809], 's_24_44': [4779], 's_24_21': [4959], 's_24_47': [5334], 's_28_7': [5241], 's_28_3': [5091], 's_28_31': [5122], 's_28_33': [5046], 's_28_34': [1347], 's_28_35': [1123, 1122], 's_28_42': [1570], 's_28_44': [1375], 's_42_17': [4792, 4791], 's_42_21': [1719], 's_42_26': [4898], 's_42_44': [1360], 's_44_7': [4776], 's_44_17': [4848], 's_44_41': [4793], 's_47_7': [5392, 1513], 's_47_12': [5064], 's_47_31': [5259], 's_47_3': [1721], 's_47_34': [1722], 's_3_7': [5061], 's_3_12': [5124], 's_3_31': [1421], 's_3_27': [1241], 's_3_21': [1751], 's_17_12': [684, 4758], 's_17_37': [1223], 's_17_29': [1119], 's_17_20': [968], 's_26_37': [1283], 's_26_25': [4764], 's_26_33': [1676], 's_26_21': [4974], 's_26_20': [1162], 's_37_7': [881], 's_37_20': [1358], 's_37_33': [776], 's_37_46': [1793], 's_30_43': [1075], 's_30_20': [4490], 's_34_7': [957], 's_34_31': [1407], 's_34_25': [5214], 's_25_12': [1434], 's_25_31': [1843], 's_25_21': [5004], 's_25_27': [5094], 's_25_41': [4912], 's_25_43': [4759], 's_35_41': [4463], 's_46_29': [4659], 's_27_7': [4971], 's_27_21': [4973], 's_12_5': [640, 641], 's_12_29': [1824], 's_12_43': [834], 's_41_29': [4643], 's_41_21': [4493], 's_5_29': [5270], 's_5_31': [5301], 's_5_33': [731], 's_5_43': [956], 's_21_29': [4628], 's_31_33': [1182]}</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0.001027950310559006</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.001804021736390499</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>{0: [1015, 4912, 1286, 4910, 4911], 2: [4849, 4834, 1044, 4940, 1045], 4: [1419, 1421, 1420], 8: [4972, 4971, 4882, 1359, 1360], 10: [1375, 1374, 4655, 4656], 16: [4852, 4850, 1330, 4851], 18: [4956, 4730, 1148, 1150, 1149], 31: [1075, 4805, 1178, 1179], 33: [4987, 1345, 4986], 40: [1285, 4835, 4837, 4836], 46: [1269, 1271, 4806, 1270], 48: [4867, 4865, 4866], 14: [4943, 4941, 1301, 4942], 24: [1119, 4715, 1120], 34: [4999, 1000, 999, 4701, 4700], 39: [4595, 1299, 4596, 1599, 4598, 4597], 6: [1601, 1406, 1616, 4957, 4958, 1525], 12: [4491, 4492, 1435, 1434, 1433], 13: [4702, 1495, 4627, 1494], 19: [1451, 4581, 4582, 1449, 4807, 1450], 20: [4820, 4822, 4821], 21: [4928, 4927], 30: [4895, 1631, 4896, 4897, 4898], 43: [1630, 4761, 4763, 4762], 44: [1418, 1373, 4567], 5: [4657, 4477, 1510, 1508, 1509], 25: [4716, 1316, 1315], 26: [4746, 1555, 4747, 4748, 1554], 37: [1284, 4642, 1358, 4640, 4641], 41: [4717, 5017, 1479, 1480, 1481], 47: [4880, 1208, 4881, 1210, 1209], 22: [1241, 4776, 1238, 1239, 1240], 23: [4688, 4685, 1329, 4687, 4686], 28: [1403, 4626, 1405, 1404], 29: [1165, 1164, 1163, 4490], 35: [1391, 4793, 1389, 1390, 4792], 36: [1136, 1193, 1135, 1194, 4791], 38: [1600, 1300, 4778, 4777], 1: [5002, 5000, 5001], 3: [5015, 5016, 1104, 1105, 1106], 17: [4611, 4612, 1615, 1614, 4613], 27: [1344, 1314, 4672, 4670, 4671], 11: [4475, 4476], 42: [1523, 1524, 4731, 4732], 45: [4536, 4537], 15: [1540, 4506, 4507, 4508, 1539, 1538], 7: [1255, 1253, 1254], 9: [4566, 4926, 1225, 1223, 1224], 32: [1388, 1465, 1464, 4431, 4432, 1463]}</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0.02230659705742762</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.01893578322672301</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>{0: [1015, 4912, 1286, 4910, 4911], 2: [4849, 4834, 1044, 4940, 1045], 4: [1419, 1421, 1420], 8: [4972, 4971, 4882, 1359, 1360], 10: [1375, 1374, 4655, 4656], 16: [4852, 4850, 1330, 4851], 18: [4956, 4730, 1148, 1150, 1149], 31: [1075, 4805, 1178, 1179], 33: [4987, 1345, 4986], 40: [1285, 4835, 4837, 4836], 46: [1269, 1271, 4806, 1270], 48: [4867, 4865, 4866], 14: [4943, 4941, 1301, 4942], 24: [1119, 4715, 1120], 34: [4999, 1000, 999, 4701, 4700], 39: [4595, 1299, 4596, 1599, 4598, 4597], 6: [1601, 1406, 1616, 4957, 4958, 1525], 12: [4491, 4492, 1435, 1434, 1433], 13: [4702, 1495, 4627, 1494], 19: [1451, 4581, 4582, 1449, 4807, 1450], 20: [4820, 4822, 4821], 21: [4928, 4927], 30: [4895, 1631, 4896, 4897, 4898], 43: [1630, 4761, 4763, 4762], 44: [1418, 1373, 4567], 5: [4657, 4477, 1510, 1508, 1509], 25: [4716, 1316, 1315], 26: [4746, 1555, 4747, 4748, 1554], 37: [1284, 4642, 1358, 4640, 4641], 41: [4717, 5017, 1479, 1480, 1481], 47: [4880, 1208, 4881, 1210, 1209], 22: [1241, 4776, 1238, 1239, 1240], 23: [4688, 4685, 1329, 4687, 4686], 28: [1403, 4626, 1405, 1404], 29: [1165, 1164, 1163, 4490], 35: [1391, 4793, 1389, 1390, 4792], 36: [1136, 1193, 1135, 1194, 4791], 38: [1600, 1300, 4778, 4777], 1: [5002, 5000, 5001], 3: [5015, 5016, 1104, 1105, 1106], 17: [4611, 4612, 1615, 1614, 4613], 27: [1344, 1314, 4672, 4670, 4671], 11: [4475, 4476], 42: [1523, 1524, 4731, 4732], 45: [4536, 4537], 15: [1540, 4506, 4507, 4508, 1539, 1538], 7: [1255, 1253, 1254], 9: [4566, 4926, 1225, 1223, 1224], 32: [1388, 1465, 1464, 4431, 4432, 1463]}</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0.02230659705742762</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.01893578322672301</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>{0: [525, 3817, 3816, 3815, 3813, 3152, 3814, 3812, 526, 527, 529, 528], 2: [3352, 3922, 1411, 1415, 1414, 3397, 1412, 1428, 1413], 's_0_2': [1475], 4: [1128, 3696, 3770, 1130, 1129], 's_0_4': [1189], 8: [3286, 975, 841, 3199, 3287, 3288, 871, 3289], 's_0_8': [481], 10: [3602, 766, 3244, 3243, 3242, 541, 3347, 3601, 619, 3752, 544, 543, 542], 's_0_10': [3467], 16: [4098, 4099, 3997, 3996, 1173, 4100, 3801, 1174, 1175], 's_0_16': [3802, 1504], 18: [3892, 1339, 1338, 3153, 721, 3213, 3214, 3215, 1337, 1336, 3216], 's_0_18': [1445], 31: [3796, 3677, 410, 409, 3662, 3663, 708, 3062, 600, 601, 411, 602, 3514, 3513], 's_0_31': [3797], 33: [977, 1115, 3921, 978, 979, 3917, 3918, 3920, 3919], 's_0_33': [560], 40: [360, 3046, 615, 1321, 1320, 3051, 3050, 3049, 3048, 3047], 's_0_40': [465], 46: [556, 3346, 349, 348, 3212, 3211, 346, 347], 's_0_46': [3151], 48: [4144, 921, 920, 3826, 3827, 3828, 3830, 3829], 's_0_48': [649], 14: [455, 3962, 3963, 3964, 3965, 3966, 1310, 1309, 3682, 1323, 3517, 1322], 's_2_14': [3667], 's_2_16': [1520, 1519], 's_2_18': [1460], 24: [3874, 770, 4012, 3933, 3995, 3994, 4011, 4010, 845, 4009], 's_2_24': [1430], 34: [905, 783, 784, 3847, 3846, 3844, 3845], 's_2_34': [1429], 39: [1097, 3382, 3559, 3664, 888, 887, 3381, 3380, 3379], 's_2_39': [1562], 's_2_40': [3201, 3202], 6: [1261, 1277, 961, 3305, 3306, 1262, 1263, 1264, 4068, 4069, 4070, 4071, 1266, 1265], 's_4_6': [3486], 12: [842, 1383, 3591, 1278, 3456, 3451, 3452, 3453, 3454, 3455], 's_4_12': [3501], 13: [3260, 3261, 3981, 1216, 1217, 1218, 1220, 1219], 's_4_13': [3755], 's_4_16': [1188], 19: [3799, 1385, 874, 875, 470, 1370, 3951, 3950, 3949, 3948, 3947, 3946], 's_4_19': [3935], 20: [3726, 394, 3706, 1235, 1234, 3711, 3707, 3708, 3709, 3710], 's_4_20': [3891], 21: [3426, 3425, 1400, 1399, 1398, 3532, 3531, 1113, 1112, 1111, 3095, 3094, 3197, 630, 3093], 's_4_21': [3771], 30: [890, 3561, 4022, 4023, 4024, 1248, 1249, 1250, 4026, 4025], 's_4_30': [3681], 's_4_33': [1159], 43: [727, 3650, 3649, 647, 648, 726, 725, 646, 724, 3648], 's_4_43': [1114], 44: [796, 797, 798, 558, 559, 3722, 3725, 3724, 3723], 's_4_44': [1054], 5: [3350, 3875, 3680, 3155, 1036, 1037, 1040, 1039, 1038], 's_8_5': [990], 's_8_6': [960], 's_8_12': [872], 's_8_18': [1096, 3200], 25: [710, 3317, 407, 3405, 3873, 575, 574, 3406, 452, 453, 3647], 's_8_25': [466], 26: [3076, 3077, 3078, 1353, 1352, 1351, 1350, 3126, 3079, 3127, 3080, 1155], 's_8_26': [840], 37: [3230, 3229, 3228, 1171, 3556, 3557, 617, 616, 3227], 's_8_37': [886], 41: [3606, 3605, 496, 3167, 3168, 1069, 1068, 1067, 1005, 1066, 3169, 3170], 's_8_41': [3125], 47: [361, 362, 363, 933, 364, 935, 934, 3634, 936, 3633, 3631, 3632], 's_8_47': [3271], 's_10_6': [620], 's_10_18': [781], 22: [694, 379, 3781, 3782, 767, 768, 769, 3783], 's_10_22': [634], 23: [1006, 811, 3348, 692, 3363, 3364], 's_10_23': [976], 28: [3332, 3842, 514, 3362, 510, 511, 512, 513], 's_10_28': [392], 29: [1083, 1084, 3887, 3888, 3889, 1085, 3890], 's_10_29': [604], 's_10_33': [545], 35: [3182, 3183, 3516, 3184, 3185, 1204, 1201, 1202, 1203], 's_10_35': [736], 36: [901, 902, 302, 3421, 3422, 3423, 737, 4084, 995, 994, 993, 3408, 992, 3409], 's_10_36': [3407], 38: [3196, 420, 3061, 711, 270, 271, 272, 273, 274, 275, 4051, 4052, 4053], 's_10_38': [3256, 421], 's_10_44': [3572], 's_10_47': [436, 3226], 1: [3787, 1025, 3786, 3785, 1024], 's_16_1': [1294], 3: [3769, 585, 800, 586, 587, 588, 589, 3767, 799, 3768], 's_16_3': [4083], 's_16_13': [3876], 's_16_21': [3575], 's_16_33': [4101, 1355, 1354], 's_16_35': [3666], 's_16_41': [3800], 's_16_47': [4040, 1010], 's_16_48': [891], 's_18_3': [3123], 17: [3472, 3471, 3545, 1101, 1100, 3468, 3469, 3470, 1099, 1098], 's_18_17': [1396, 1397], 's_18_19': [1340], 27: [751, 752, 3437, 3438, 932, 917, 3439], 's_18_27': [3108], 's_18_30': [3636], 's_18_31': [3138, 3137], 's_18_36': [931, 3109], 's_18_39': [1291, 1292], 's_18_46': [571], 11: [3485, 3543, 812, 3484], 's_31_11': [678, 3542], 's_31_20': [709], 's_31_26': [495], 's_31_27': [827], 's_31_29': [424], 's_31_30': [396], 's_31_39': [3529], 's_31_40': [540], 42: [2986, 3528, 3527, 3526, 3436, 319, 318, 315, 213, 316, 317], 's_31_42': [573], 45: [408, 3585, 500, 499, 498, 3589, 3588, 3587, 3586], 's_31_45': [4037], 's_31_46': [3676], 's_31_48': [289], 's_33_5': [3620, 3619], 's_33_6': [3906], 's_33_19': [3904], 's_33_25': [3902], 's_33_27': [918, 3604], 's_33_30': [515], 's_40_3': [570], 's_40_13': [3291], 15: [4112, 4113, 4114, 4115, 4116, 4117, 1491, 1490, 1489, 3320, 3321, 3322, 3323, 1487, 1488], 's_40_15': [1230, 1231], 's_40_28': [3107], 's_40_35': [1200, 3005], 's_40_37': [3231], 's_40_38': [405], 's_40_42': [375], 's_40_47': [3091, 330], 7: [3961, 3512, 425, 3991, 437, 335, 3541, 333, 334], 's_46_7': [332], 9: [666, 665, 661, 664, 3618, 3376, 3377, 662, 663], 's_46_9': [3361], 's_46_22': [3766], 's_46_35': [3181, 331], 's_46_36': [3481], 's_46_38': [3166], 's_46_43': [631], 's_46_45': [3751], 's_46_47': [3241], 's_48_3': [4039], 's_48_6': [876], 's_48_24': [846], 's_48_28': [469], 's_48_29': [439], 32: [245, 858, 859, 3871, 3860, 3861, 244, 3856, 3857, 3858, 857, 3859], 's_48_32': [454], 's_48_34': [964], 's_48_36': [1009], 's_48_38': [3811], 's_48_41': [1144, 1143], 's_48_47': [966, 4129], 's_14_3': [590], 's_14_5': [1070], 's_14_6': [4086, 1325], 's_14_19': [1160], 's_14_7': [4081], 's_14_9': [785, 786, 4158], 's_14_12': [1367, 1368], 's_14_17': [1443], 's_14_21': [3697], 's_14_35': [3651], 's_14_38': [605], 's_14_41': [1293], 's_24_3': [3903], 's_24_19': [815], 's_24_29': [1055], 's_24_36': [906], 's_24_17': [1086], 's_24_20': [844], 's_24_25': [740], 's_24_43': [4008], 's_34_1': [1324], 's_34_9': [3798], 's_34_13': [1295], 's_34_22': [3753], 's_34_36': [3934], 's_34_39': [889], 's_39_13': [3560], 's_39_15': [3367], 's_39_17': [1052], 's_39_26': [1366], 's_39_27': [962], 's_39_37': [991], 's_39_43': [919], 's_39_44': [3679], 's_39_45': [813], 's_39_47': [3665], 's_6_1': [1279], 's_6_15': [4041, 4042, 4043], 's_6_17': [4055], 's_6_21': [4131, 1401], 's_6_26': [3307], 's_6_35': [3276], 's_6_38': [696], 's_6_41': [1021], 's_12_29': [3590], 's_12_11': [738], 's_12_26': [3411, 1382], 's_12_30': [3576], 's_12_32': [3862, 1384], 's_12_38': [3466], 's_12_42': [3450], 's_13_5': [3156], 's_13_37': [1141, 3336], 's_13_32': [1280], 's_13_35': [3246], 's_19_1': [1369], 's_19_5': [949], 's_19_7': [3992], 's_19_21': [4027], 's_19_29': [755], 's_19_30': [1190], 's_19_38': [3945], 's_19_44': [3694], 's_19_45': [485], 's_20_3': [754], 's_20_29': [3695], 's_20_26': [3712], 's_20_32': [395], 's_20_35': [1233], 's_20_38': [3646], 's_20_41': [1158], 's_20_42': [304], 's_21_5': [1081], 's_21_9': [676], 's_21_15': [3652], 's_21_17': [1157], 's_21_26': [3607], 's_21_28': [3092], 's_21_30': [3936], 's_21_35': [3171, 1126], 's_21_38': [3030, 3031, 3032, 645], 's_30_25': [576], 's_30_7': [4021], 's_30_26': [1245, 1246, 1247], 's_30_35': [3621], 's_30_43': [4038], 's_43_5': [1008], 's_43_29': [3635], 's_43_23': [3333], 's_43_25': [3993], 's_43_9': [4143], 's_43_15': [741], 's_43_32': [3738], 's_43_38': [4173], 's_44_37': [618], 's_44_9': [3603], 's_44_17': [782], 's_44_27': [632, 633], 's_44_32': [3393], 's_44_45': [3497], 's_5_1': [3739], 's_5_11': [1022], 's_5_17': [1053], 's_5_23': [3245], 's_5_27': [3394], 's_5_32': [950], 's_5_37': [3351, 1186], 's_5_41': [3530], 's_5_45': [3574], 's_25_3': [3693], 's_25_36': [377], 's_25_22': [3843], 's_25_9': [557], 's_25_27': [482], 's_25_41': [406], 's_25_42': [3390], 's_25_47': [3571], 's_26_41': [810], 's_26_17': [3457], 's_26_35': [1185], 's_26_38': [390], 's_26_42': [300], 's_37_3': [3318], 's_37_36': [467], 's_37_7': [393], 's_37_27': [916], 's_37_35': [946], 's_37_41': [856], 's_37_47': [483], 's_41_3': [3257], 's_41_23': [691], 's_41_17': [3740], 's_41_27': [3154], 's_41_28': [3272], 's_47_3': [814, 3784], 's_47_36': [1007, 3515], 's_47_7': [3391], 's_47_11': [3544], 's_47_15': [951], 's_47_17': [948], 's_47_32': [365], 's_47_38': [3496], 's_47_45': [423], 's_22_3': [739], 's_22_7': [378], 's_22_9': [3378], 's_22_11': [3558], 's_22_17': [753], 's_22_23': [3349], 's_22_32': [3573], 's_22_38': [3691], 's_22_42': [3661], 's_22_45': [693], 's_23_3': [572], 's_23_36': [707], 's_23_15': [3319], 's_23_28': [677], 's_28_27': [497], 's_28_45': [484], 's_28_7': [3841], 's_29_1': [3980], 's_29_11': [3500], 's_35_36': [3410], 's_35_27': [795, 3124], 's_35_15': [1051], 's_36_1': [1026], 's_36_7': [422], 's_36_42': [301], 's_38_32': [4066], 's_38_15': [561], 's_38_42': [3555], 's_1_3': [3754], 's_27_9': [3274, 3273], 's_27_15': [947], 's_11_32': [3424], 's_42_32': [3765], 's_42_45': [3616], 's_42_7': [320], 's_42_9': [3375], 's_45_32': [3872], 's_45_7': [3901], 's_45_9': [723], 's_15_9': [4128, 4127], 's_7_32': [305]}</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0.001022988505747126</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.001731936386375849</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>{0: [525, 3817, 3816, 3815, 3813, 3152, 3814, 3812, 526, 527, 529, 528], 2: [3352, 3922, 1411, 1415, 1414, 3397, 1412, 1428, 1413], 's_0_2': [1475], 4: [1128, 3696, 3770, 1130, 1129], 's_0_4': [1189], 8: [3286, 975, 841, 3199, 3287, 3288, 871, 3289], 's_0_8': [481], 10: [3602, 766, 3244, 3243, 3242, 541, 3347, 3601, 619, 3752, 544, 543, 542], 's_0_10': [3467], 16: [4098, 4099, 3997, 3996, 1173, 4100, 3801, 1174, 1175], 's_0_16': [3802, 1504], 18: [3892, 1339, 1338, 3153, 721, 3213, 3214, 3215, 1337, 1336, 3216], 's_0_18': [1445], 31: [3796, 3677, 410, 409, 3662, 3663, 708, 3062, 600, 601, 411, 602, 3514, 3513], 's_0_31': [3797], 33: [977, 1115, 3921, 978, 979, 3917, 3918, 3920, 3919], 's_0_33': [560], 40: [360, 3046, 615, 1321, 1320, 3051, 3050, 3049, 3048, 3047], 's_0_40': [465], 46: [556, 3346, 349, 348, 3212, 3211, 346, 347], 's_0_46': [3151], 48: [4144, 921, 920, 3826, 3827, 3828, 3830, 3829], 's_0_48': [649], 14: [455, 3962, 3963, 3964, 3965, 3966, 1310, 1309, 3682, 1323, 3517, 1322], 's_2_14': [3667], 's_2_16': [1520, 1519], 's_2_18': [1460], 24: [3874, 770, 4012, 3933, 3995, 3994, 4011, 4010, 845, 4009], 's_2_24': [1430], 34: [905, 783, 784, 3847, 3846, 3844, 3845], 's_2_34': [1429], 39: [1097, 3382, 3559, 3664, 888, 887, 3381, 3380, 3379], 's_2_39': [1562], 's_2_40': [3201, 3202], 6: [1261, 1277, 961, 3305, 3306, 1262, 1263, 1264, 4068, 4069, 4070, 4071, 1266, 1265], 's_4_6': [3486], 12: [842, 1383, 3591, 1278, 3456, 3451, 3452, 3453, 3454, 3455], 's_4_12': [3501], 13: [3260, 3261, 3981, 1216, 1217, 1218, 1220, 1219], 's_4_13': [3755], 's_4_16': [1188], 19: [3799, 1385, 874, 875, 470, 1370, 3951, 3950, 3949, 3948, 3947, 3946], 's_4_19': [3935], 20: [3726, 394, 3706, 1235, 1234, 3711, 3707, 3708, 3709, 3710], 's_4_20': [3891], 21: [3426, 3425, 1400, 1399, 1398, 3532, 3531, 1113, 1112, 1111, 3095, 3094, 3197, 630, 3093], 's_4_21': [3771], 30: [890, 3561, 4022, 4023, 4024, 1248, 1249, 1250, 4026, 4025], 's_4_30': [3681], 's_4_33': [1159], 43: [727, 3650, 3649, 647, 648, 726, 725, 646, 724, 3648], 's_4_43': [1114], 44: [796, 797, 798, 558, 559, 3722, 3725, 3724, 3723], 's_4_44': [1054], 5: [3350, 3875, 3680, 3155, 1036, 1037, 1040, 1039, 1038], 's_8_5': [990], 's_8_6': [960], 's_8_12': [872], 's_8_18': [1096, 3200], 25: [710, 3317, 407, 3405, 3873, 575, 574, 3406, 452, 453, 3647], 's_8_25': [466], 26: [3076, 3077, 3078, 1353, 1352, 1351, 1350, 3126, 3079, 3127, 3080, 1155], 's_8_26': [840], 37: [3230, 3229, 3228, 1171, 3556, 3557, 617, 616, 3227], 's_8_37': [886], 41: [3606, 3605, 496, 3167, 3168, 1069, 1068, 1067, 1005, 1066, 3169, 3170], 's_8_41': [3125], 47: [361, 362, 363, 933, 364, 935, 934, 3634, 936, 3633, 3631, 3632], 's_8_47': [3271], 's_10_6': [620], 's_10_18': [781], 22: [694, 379, 3781, 3782, 767, 768, 769, 3783], 's_10_22': [634], 23: [1006, 811, 3348, 692, 3363, 3364], 's_10_23': [976], 28: [3332, 3842, 514, 3362, 510, 511, 512, 513], 's_10_28': [392], 29: [1083, 1084, 3887, 3888, 3889, 1085, 3890], 's_10_29': [604], 's_10_33': [545], 35: [3182, 3183, 3516, 3184, 3185, 1204, 1201, 1202, 1203], 's_10_35': [736], 36: [901, 902, 302, 3421, 3422, 3423, 737, 4084, 995, 994, 993, 3408, 992, 3409], 's_10_36': [3407], 38: [3196, 420, 3061, 711, 270, 271, 272, 273, 274, 275, 4051, 4052, 4053], 's_10_38': [3256, 421], 's_10_44': [3572], 's_10_47': [436, 3226], 1: [3787, 1025, 3786, 3785, 1024], 's_16_1': [1294], 3: [3769, 585, 800, 586, 587, 588, 589, 3767, 799, 3768], 's_16_3': [4083], 's_16_13': [3876], 's_16_21': [3575], 's_16_33': [4101, 1355, 1354], 's_16_35': [3666], 's_16_41': [3800], 's_16_47': [4040, 1010], 's_16_48': [891], 's_18_3': [3123], 17: [3472, 3471, 3545, 1101, 1100, 3468, 3469, 3470, 1099, 1098], 's_18_17': [1396, 1397], 's_18_19': [1340], 27: [751, 752, 3437, 3438, 932, 917, 3439], 's_18_27': [3108], 's_18_30': [3636], 's_18_31': [3138, 3137], 's_18_36': [931, 3109], 's_18_39': [1291, 1292], 's_18_46': [571], 11: [3485, 3543, 812, 3484], 's_31_11': [678, 3542], 's_31_20': [709], 's_31_26': [495], 's_31_27': [827], 's_31_29': [424], 's_31_30': [396], 's_31_39': [3529], 's_31_40': [540], 42: [2986, 3528, 3527, 3526, 3436, 319, 318, 315, 213, 316, 317], 's_31_42': [573], 45: [408, 3585, 500, 499, 498, 3589, 3588, 3587, 3586], 's_31_45': [4037], 's_31_46': [3676], 's_31_48': [289], 's_33_5': [3620, 3619], 's_33_6': [3906], 's_33_19': [3904], 's_33_25': [3902], 's_33_27': [918, 3604], 's_33_30': [515], 's_40_3': [570], 's_40_13': [3291], 15: [4112, 4113, 4114, 4115, 4116, 4117, 1491, 1490, 1489, 3320, 3321, 3322, 3323, 1487, 1488], 's_40_15': [1230, 1231], 's_40_28': [3107], 's_40_35': [1200, 3005], 's_40_37': [3231], 's_40_38': [405], 's_40_42': [375], 's_40_47': [3091, 330], 7: [3961, 3512, 425, 3991, 437, 335, 3541, 333, 334], 's_46_7': [332], 9: [666, 665, 661, 664, 3618, 3376, 3377, 662, 663], 's_46_9': [3361], 's_46_22': [3766], 's_46_35': [3181, 331], 's_46_36': [3481], 's_46_38': [3166], 's_46_43': [631], 's_46_45': [3751], 's_46_47': [3241], 's_48_3': [4039], 's_48_6': [876], 's_48_24': [846], 's_48_28': [469], 's_48_29': [439], 32: [245, 858, 859, 3871, 3860, 3861, 244, 3856, 3857, 3858, 857, 3859], 's_48_32': [454], 's_48_34': [964], 's_48_36': [1009], 's_48_38': [3811], 's_48_41': [1144, 1143], 's_48_47': [966, 4129], 's_14_3': [590], 's_14_5': [1070], 's_14_6': [4086, 1325], 's_14_19': [1160], 's_14_7': [4081], 's_14_9': [785, 786, 4158], 's_14_12': [1367, 1368], 's_14_17': [1443], 's_14_21': [3697], 's_14_35': [3651], 's_14_38': [605], 's_14_41': [1293], 's_24_3': [3903], 's_24_19': [815], 's_24_29': [1055], 's_24_36': [906], 's_24_17': [1086], 's_24_20': [844], 's_24_25': [740], 's_24_43': [4008], 's_34_1': [1324], 's_34_9': [3798], 's_34_13': [1295], 's_34_22': [3753], 's_34_36': [3934], 's_34_39': [889], 's_39_13': [3560], 's_39_15': [3367], 's_39_17': [1052], 's_39_26': [1366], 's_39_27': [962], 's_39_37': [991], 's_39_43': [919], 's_39_44': [3679], 's_39_45': [813], 's_39_47': [3665], 's_6_1': [1279], 's_6_15': [4041, 4042, 4043], 's_6_17': [4055], 's_6_21': [4131, 1401], 's_6_26': [3307], 's_6_35': [3276], 's_6_38': [696], 's_6_41': [1021], 's_12_29': [3590], 's_12_11': [738], 's_12_26': [3411, 1382], 's_12_30': [3576], 's_12_32': [3862, 1384], 's_12_38': [3466], 's_12_42': [3450], 's_13_5': [3156], 's_13_37': [1141, 3336], 's_13_32': [1280], 's_13_35': [3246], 's_19_1': [1369], 's_19_5': [949], 's_19_7': [3992], 's_19_21': [4027], 's_19_29': [755], 's_19_30': [1190], 's_19_38': [3945], 's_19_44': [3694], 's_19_45': [485], 's_20_3': [754], 's_20_29': [3695], 's_20_26': [3712], 's_20_32': [395], 's_20_35': [1233], 's_20_38': [3646], 's_20_41': [1158], 's_20_42': [304], 's_21_5': [1081], 's_21_9': [676], 's_21_15': [3652], 's_21_17': [1157], 's_21_26': [3607], 's_21_28': [3092], 's_21_30': [3936], 's_21_35': [3171, 1126], 's_21_38': [3030, 3031, 3032, 645], 's_30_25': [576], 's_30_7': [4021], 's_30_26': [1245, 1246, 1247], 's_30_35': [3621], 's_30_43': [4038], 's_43_5': [1008], 's_43_29': [3635], 's_43_23': [3333], 's_43_25': [3993], 's_43_9': [4143], 's_43_15': [741], 's_43_32': [3738], 's_43_38': [4173], 's_44_37': [618], 's_44_9': [3603], 's_44_17': [782], 's_44_27': [632, 633], 's_44_32': [3393], 's_44_45': [3497], 's_5_1': [3739], 's_5_11': [1022], 's_5_17': [1053], 's_5_23': [3245], 's_5_27': [3394], 's_5_32': [950], 's_5_37': [3351, 1186], 's_5_41': [3530], 's_5_45': [3574], 's_25_3': [3693], 's_25_36': [377], 's_25_22': [3843], 's_25_9': [557], 's_25_27': [482], 's_25_41': [406], 's_25_42': [3390], 's_25_47': [3571], 's_26_41': [810], 's_26_17': [3457], 's_26_35': [1185], 's_26_38': [390], 's_26_42': [300], 's_37_3': [3318], 's_37_36': [467], 's_37_7': [393], 's_37_27': [916], 's_37_35': [946], 's_37_41': [856], 's_37_47': [483], 's_41_3': [3257], 's_41_23': [691], 's_41_17': [3740], 's_41_27': [3154], 's_41_28': [3272], 's_47_3': [814, 3784], 's_47_36': [1007, 3515], 's_47_7': [3391], 's_47_11': [3544], 's_47_15': [951], 's_47_17': [948], 's_47_32': [365], 's_47_38': [3496], 's_47_45': [423], 's_22_3': [739], 's_22_7': [378], 's_22_9': [3378], 's_22_11': [3558], 's_22_17': [753], 's_22_23': [3349], 's_22_32': [3573], 's_22_38': [3691], 's_22_42': [3661], 's_22_45': [693], 's_23_3': [572], 's_23_36': [707], 's_23_15': [3319], 's_23_28': [677], 's_28_27': [497], 's_28_45': [484], 's_28_7': [3841], 's_29_1': [3980], 's_29_11': [3500], 's_35_36': [3410], 's_35_27': [795, 3124], 's_35_15': [1051], 's_36_1': [1026], 's_36_7': [422], 's_36_42': [301], 's_38_32': [4066], 's_38_15': [561], 's_38_42': [3555], 's_1_3': [3754], 's_27_9': [3274, 3273], 's_27_15': [947], 's_11_32': [3424], 's_42_32': [3765], 's_42_45': [3616], 's_42_7': [320], 's_42_9': [3375], 's_45_32': [3872], 's_45_7': [3901], 's_45_9': [723], 's_15_9': [4128, 4127], 's_7_32': [305]}</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0.001022988505747126</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.001731936386375849</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>{0: [3817, 3937, 1521, 1520, 1519], 8: [4147, 4150, 4149, 4148], 11: [3820, 3818, 3819], 12: [3970, 1835, 3967, 3968, 3969], 17: [1655, 3939, 1715, 3938], 18: [1476, 3878, 1475], 25: [3715, 3714, 3713, 1564, 1565, 4043], 39: [3982, 1505, 4058, 4060, 4059], 41: [1805, 1806, 3997, 3998, 3999], 46: [4225, 1566, 4224, 4223], 48: [2030, 3896, 3893, 3894, 3895], 2: [1626, 1624, 1625], 5: [4195, 4194, 1789, 1790, 1791], 10: [1774, 1776, 1775], 13: [3908, 1745, 1746, 4015, 4014], 16: [1536, 4117, 1716, 4119, 4118], 19: [1969, 1970, 4209, 4210, 1971], 21: [4089, 4090, 2031], 22: [4284, 1820, 1821, 1822], 23: [1729, 1730, 1731], 29: [4087, 4088, 1640, 1641], 31: [3954, 1864, 4030, 1866, 1865], 35: [1596, 1594, 1595], 36: [3834, 3835, 4120, 1999, 2000, 2001], 38: [3953, 3952, 1491, 1490], 44: [4162, 4165, 4163, 4164], 45: [1685, 4046, 1836, 4044, 4045], 4: [3774, 1699, 3773], 6: [3758, 1911, 3759, 1910, 1909], 15: [3851, 2016, 2015], 20: [1954, 1956, 1955], 26: [3880, 1684, 3879], 40: [1744, 3863, 3865, 3864], 42: [1761, 4028, 1759, 1760, 4029], 49: [1609, 1611, 1610], 1: [3700, 1535, 1534, 3803, 3804, 1834], 7: [3848, 3849, 3850], 34: [1894, 4073, 1895, 4075, 4074], 14: [4105, 4102, 4103, 4104], 24: [1926, 1924, 4000, 1925], 27: [3940, 1984, 1985, 1986], 30: [1880, 1879], 37: [1551, 3772, 1549, 1550], 43: [3922, 3924, 1714, 3923], 47: [1852, 1807, 2017, 4180, 4179], 32: [1881, 4133, 4135, 4134], 3: [1849, 3983, 3984, 1851, 1850], 9: [3699, 1669, 3833, 1671, 1670], 28: [1941, 3985, 1940], 33: [1639, 3790, 3789, 3788]}</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0.01251533742331288</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.01440050378076143</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>{0: [3817, 3937, 1521, 1520, 1519], 8: [4147, 4150, 4149, 4148], 11: [3820, 3818, 3819], 12: [3970, 1835, 3967, 3968, 3969], 17: [1655, 3939, 1715, 3938], 18: [1476, 3878, 1475], 25: [3715, 3714, 3713, 1564, 1565, 4043], 39: [3982, 1505, 4058, 4060, 4059], 41: [1805, 1806, 3997, 3998, 3999], 46: [4225, 1566, 4224, 4223], 48: [2030, 3896, 3893, 3894, 3895], 2: [1626, 1624, 1625], 5: [4195, 4194, 1789, 1790, 1791], 10: [1774, 1776, 1775], 13: [3908, 1745, 1746, 4015, 4014], 16: [1536, 4117, 1716, 4119, 4118], 19: [1969, 1970, 4209, 4210, 1971], 21: [4089, 4090, 2031], 22: [4284, 1820, 1821, 1822], 23: [1729, 1730, 1731], 29: [4087, 4088, 1640, 1641], 31: [3954, 1864, 4030, 1866, 1865], 35: [1596, 1594, 1595], 36: [3834, 3835, 4120, 1999, 2000, 2001], 38: [3953, 3952, 1491, 1490], 44: [4162, 4165, 4163, 4164], 45: [1685, 4046, 1836, 4044, 4045], 4: [3774, 1699, 3773], 6: [3758, 1911, 3759, 1910, 1909], 15: [3851, 2016, 2015], 20: [1954, 1956, 1955], 26: [3880, 1684, 3879], 40: [1744, 3863, 3865, 3864], 42: [1761, 4028, 1759, 1760, 4029], 49: [1609, 1611, 1610], 1: [3700, 1535, 1534, 3803, 3804, 1834], 7: [3848, 3849, 3850], 34: [1894, 4073, 1895, 4075, 4074], 14: [4105, 4102, 4103, 4104], 24: [1926, 1924, 4000, 1925], 27: [3940, 1984, 1985, 1986], 30: [1880, 1879], 37: [1551, 3772, 1549, 1550], 43: [3922, 3924, 1714, 3923], 47: [1852, 1807, 2017, 4180, 4179], 32: [1881, 4133, 4135, 4134], 3: [1849, 3983, 3984, 1851, 1850], 9: [3699, 1669, 3833, 1671, 1670], 28: [1941, 3985, 1940], 33: [1639, 3790, 3789, 3788]}</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0.01251533742331288</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.01440050378076143</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>{0: [3980, 3225, 3226, 3227, 3228, 3229, 1010, 1009, 1008, 1007, 1006], 8: [3693, 3951, 3950, 3946, 709, 710, 3947, 3949, 3948], 's_0_8': [1145], 11: [3181, 3816, 481, 482, 483, 484, 3812, 3813, 1054, 3815, 3814], 's_0_11': [3845], 12: [1161, 3320, 1098, 3604, 1097, 3605, 1160, 1068, 1159, 1158], 's_0_12': [4010], 17: [316, 317, 318, 319, 320, 4220, 4219, 4218, 4217, 426, 3976, 425], 's_0_17': [301], 18: [541, 466, 3241, 3242, 3243, 796, 797, 1218, 3590, 3589, 3588, 798], 's_0_18': [391], 25: [1026, 1025, 3801, 3800, 3485, 1022, 1023, 1024], 's_0_25': [3710], 39: [286, 287, 288, 4040, 4039, 4038, 4037, 4036, 289, 290], 's_0_39': [3210], 41: [3901, 361, 362, 367, 366, 365, 3661, 3572, 3571, 363, 364], 's_0_41': [3211], 46: [1232, 1233, 1234, 1235, 951, 4383, 4384, 4385, 4386, 1237, 4070, 4071, 1236], 's_0_46': [4025], 48: [3366, 3375, 3365, 3380, 3376, 3379, 574, 573, 572, 3377, 3378], 's_0_48': [436], 2: [3799, 981, 977, 3890, 980, 978, 979], 's_8_2': [935], 5: [621, 3303, 616, 3422, 617, 620, 619, 618], 's_8_5': [3932], 10: [3406, 4175, 4174, 452, 453, 454, 455, 456, 530, 531, 4173, 4172], 's_8_10': [3692], 13: [1341, 4176, 469, 502, 470, 471, 4232, 1176, 4236, 4235, 4234, 4233], 's_8_13': [1340], 16: [4246, 3649, 3650, 1084, 1085, 4247, 3651, 4248, 3648, 4249, 4250, 1087, 1086], 's_8_16': [724], 19: [637, 636, 3902, 515, 4127, 517, 4052, 516], 's_8_19': [590], 21: [4143, 662, 663, 3722, 666, 665, 664], 's_8_21': [3963], 22: [1262, 1263, 1264, 771, 4113, 4114, 4115, 1265, 1266, 4116], 's_8_22': [4008], 23: [4130, 1101, 4160, 501, 4159, 577, 576, 740, 4156, 4157, 741, 4158], 's_8_23': [500, 3931], 29: [1130, 3830, 682, 3829, 3828, 3408, 3407, 677, 678, 679, 680, 681], 's_8_29': [3708], 31: [3798, 273, 3601, 3602, 3903, 784, 783, 3603], 's_8_31': [695], 35: [1251, 3166, 3167, 3168, 3169, 3171, 1246, 1250, 1249, 1248, 3170, 1247], 's_8_35': [3936], 36: [347, 348, 757, 349, 350, 351, 4186, 4187, 1146, 4190, 4189, 4188], 's_8_36': [335], 38: [3978, 800, 4024, 890, 3484, 887, 888, 889], 's_8_38': [785], 44: [3618, 751, 752, 3573, 3784, 3783, 754, 753], 's_8_44': [3768], 45: [575, 3917, 485, 3916], 's_8_45': [560], 4: [996, 995, 994, 991, 992, 993], 's_11_4': [3695], 's_11_5': [497], 6: [799, 1369, 3921, 4370, 4369, 862, 861, 860, 3920, 3919, 3918], 's_11_6': [1310], 's_11_12': [3740], 15: [3842, 412, 410, 411], 's_11_15': [3857], 20: [3796, 607, 606, 3797, 604, 605], 's_11_20': [3782], 's_11_22': [3725, 3726], 's_11_25': [3785], 26: [3200, 3199, 871, 3214, 3213, 3212, 511, 512, 3751, 394, 393, 3451, 3452], 's_11_26': [3497], 's_11_29': [829], 's_11_31': [725], 's_11_35': [3152], 40: [3198, 557, 841, 812, 811, 3291, 3290, 3287, 3288, 3289], 's_11_40': [496], 42: [331, 377, 3502, 3501, 3500, 948, 947, 3271, 3272, 3273, 3274], 's_11_42': [3196], 49: [3877, 1336, 3606, 1337, 1339, 1338], 's_11_49': [1324], 1: [3561, 1157, 3556, 529, 528, 3560, 3859, 874, 873, 3559, 3558, 3557], 's_12_1': [1128], 's_12_2': [3619], 7: [3531, 1170, 1171, 1172, 1173, 1174, 1175, 4067, 4068, 4069, 876, 4084, 4085], 's_12_7': [4056], 's_12_18': [3666], 's_12_22': [3876], 's_12_23': [3995], 's_12_29': [3965], 34: [3352, 3351, 3346, 3347, 3350, 3348, 3349], 's_12_34': [932], 's_12_36': [4206], 's_12_38': [918], 's_12_40': [1036], 's_12_42': [3530], 's_17_2': [966], 's_17_7': [1056], 14: [4096, 4097, 4098, 4099, 4100, 4101, 1382, 1383, 4131, 1384, 1385, 1386], 's_17_14': [696], 's_17_16': [651], 's_17_23': [4111], 24: [1282, 409, 304, 303, 1281, 1280, 1279, 3636, 3635, 3634, 3633, 3632, 3631], 's_17_24': [3540], 's_17_26': [3750], 27: [3738, 859, 3844, 4294, 922, 921, 919, 920], 's_17_27': [937], 30: [3680, 3679, 3543, 3678, 3542, 513, 440, 439, 438, 3676, 3677], 's_17_30': [4022], 's_17_31': [3720], 's_17_34': [302], 's_17_35': [3151], 's_17_41': [3331], 's_17_42': [3421], 's_17_48': [3360], 's_18_7': [3575], 's_18_16': [1038], 's_18_26': [661], 's_18_34': [451], 's_18_35': [586], 37: [3436, 3437, 3411, 3123, 3124, 3410, 3409, 901, 902, 3439, 3438], 's_18_37': [3244], 's_18_39': [3256], 's_18_40': [723, 722], 's_18_41': [3587], 's_18_42': [346], 43: [3456, 632, 3454, 3455, 1111, 1112, 1113, 3453, 1117, 1116, 1115, 1114], 's_18_43': [3696, 1219], 's_18_44': [3709], 's_18_49': [3682, 3681], 's_25_2': [3739], 's_25_10': [1041], 's_25_24': [1052, 1053], 's_25_29': [1039], 's_25_35': [1021], 's_25_36': [4145], 's_25_37': [1067], 's_25_39': [1040], 's_25_43': [3470], 's_25_46': [4129], 's_25_48': [1217, 3486], 's_39_2': [1070], 's_39_6': [1055], 's_39_20': [4023], 's_39_22': [906], 's_39_23': [291], 's_39_31': [3691], 's_39_37': [285, 3122, 3121, 270], 's_39_41': [3871], 's_39_42': [3286], 's_39_45': [3915], 's_39_46': [4041], 's_41_1': [543], 's_41_13': [4291], 's_41_14': [381], 's_41_16': [382], 's_41_21': [648], 's_41_26': [408], 's_41_30': [214], 's_41_35': [376], 's_41_42': [3301], 's_41_44': [633], 47: [4128, 711, 712, 4324, 4323, 4321, 4322], 's_41_47': [4336], 's_46_6': [923], 's_46_13': [697], 's_46_16': [1072], 's_46_19': [4382], 's_46_20': [4398], 's_46_23': [578], 's_46_29': [3846], 32: [4191, 3663, 3664, 3665, 1207, 1099, 3770, 1206, 1205, 1204, 3712, 3711], 's_46_32': [4401], 's_46_37': [3396], 's_48_4': [3364], 's_48_5': [3467], 's_48_20': [3767], 's_48_21': [589], 's_48_22': [3381], 's_48_24': [3647], 's_48_26': [3317, 421], 's_48_29': [3423, 692], 's_48_30': [588], 's_48_37': [571], 's_48_43': [872], 3: [1188, 1057, 892, 934, 3754, 3755, 4279, 4280, 1191, 1189, 1190], 's_2_3': [4264], 's_2_4': [4205], 's_2_6': [982], 9: [846, 845, 844, 3362, 3363, 842, 843], 's_2_9': [4144], 's_2_43': [3469], 's_2_7': [965], 's_2_29': [950], 's_2_38': [3934], 's_2_42': [3515], 's_2_44': [3574], 's_5_1': [527], 's_5_9': [631], 's_5_20': [3873], 's_5_23': [3843], 's_5_26': [3257, 526], 28: [4277, 1311, 1312, 4341, 667, 4338, 4339, 4340], 's_5_28': [4262], 's_5_32': [603], 's_5_34': [601], 's_5_40': [676], 's_5_42': [646], 's_10_1': [437], 's_10_4': [1011], 's_10_6': [816, 817], 's_10_7': [1071], 's_10_19': [4126], 's_10_21': [3721], 's_10_26': [3541], 's_10_31': [3617], 33: [739, 736, 737, 738, 3526, 3527, 3528], 's_10_33': [467], 's_10_42': [407], 's_10_45': [3977], 's_13_3': [1102], 's_13_16': [1027], 's_13_24': [4221], 's_13_27': [877], 's_13_29': [3827], 's_13_15': [4306], 's_13_19': [3992], 's_13_26': [3766], 's_13_28': [1177], 's_13_35': [1252], 's_13_45': [3887], 's_16_1': [1203], 's_16_6': [1088], 's_16_9': [847], 's_16_19': [532], 's_16_24': [4251], 's_16_31': [693], 's_16_32': [1294], 's_16_35': [3741, 1323], 's_16_36': [276], 's_16_38': [801], 's_19_14': [561], 's_19_7': [4053], 's_19_28': [652], 's_19_23': [4007], 's_19_36': [758, 4353], 's_19_21': [4112], 's_19_31': [649], 's_21_14': [4082], 's_21_24': [544], 's_21_29': [3513], 's_21_34': [3333], 's_21_22': [3993], 's_21_45': [3888], 's_22_6': [3756], 's_22_14': [1296], 's_22_40': [3276], 's_22_43': [3306], 's_22_7': [3861], 's_22_47': [772], 's_22_34': [1277], 's_22_32': [1326], 's_23_4': [4055], 's_23_6': [3933], 's_23_14': [336], 's_23_29': [4307], 's_23_47': [742], 's_23_32': [1221], 's_23_45': [486], 's_29_9': [767], 's_29_33': [647], 's_29_37': [857], 's_29_40': [542], 's_29_32': [3935], 's_29_34': [587], 's_29_38': [782], 's_29_45': [634], 's_31_24': [3570], 's_31_27': [3904], 's_31_30': [3646], 's_31_33': [498], 's_31_44': [755], 's_35_6': [3906], 's_35_33': [3153], 's_35_43': [3516], 's_35_7': [3156], 's_35_44': [3154], 's_35_49': [3426], 's_36_6': [832, 4293], 's_36_9': [3361], 's_36_20': [499, 3736], 's_36_27': [4308, 4309], 's_36_30': [4006], 's_36_33': [228, 3496], 's_36_43': [1132], 's_36_7': [4066], 's_36_28': [1147], 's_36_34': [334, 333, 332], 's_36_26': [3586], 's_36_32': [4265], 's_38_14': [815], 's_38_40': [886], 's_38_34': [3334], 's_44_3': [949], 's_44_27': [3694], 's_44_32': [813], 's_45_30': [3872], 's_45_15': [395], 's_4_1': [3769], 's_4_3': [3724], 's_4_30': [3544], 's_4_34': [3335], 's_4_37': [3394], 's_4_42': [3305], 's_6_1': [770], 's_6_3': [1042], 's_6_14': [3787], 's_6_47': [967], 's_6_49': [3771], 's_15_24': [3811], 's_15_7': [396], 's_15_47': [397], 's_20_1': [514], 's_20_26': [3752], 's_20_47': [622], 's_26_24': [424, 3826], 's_26_33': [721], 's_26_43': [3184, 3185], 's_26_7': [1185], 's_26_42': [946], 's_40_1': [3514], 's_40_30': [827], 's_40_33': [3183], 's_40_37': [840], 's_40_7': [1186], 's_40_42': [961], 's_40_49': [1321], 's_42_14': [1397], 's_42_33': [272, 271], 's_42_49': [1293], 's_49_3': [3786], 's_49_14': [3847], 's_49_7': [3246], 's_49_32': [3697, 1414], 's_1_3': [933], 's_1_9': [3529], 's_1_14': [875, 4009, 936], 's_1_24': [3662], 's_1_27': [814], 's_1_30': [3512], 's_1_33': [558], 's_1_37': [1187], 's_1_43': [962], 's_7_9': [4204], 's_7_27': [4054], 's_7_37': [1202, 3441], 's_7_43': [3215], 's_7_34': [3336], 's_34_14': [3337], 's_14_3': [891], 's_14_9': [4083], 's_14_27': [830, 3979], 's_14_28': [4222], 's_14_30': [4081], 's_24_28': [4086], 's_24_32': [1309], 's_24_33': [3511], 's_27_32': [858], 's_27_33': [3753], 's_37_9': [3424], 's_43_3': [4026], 's_43_9': [707], 's_43_33': [3468], 's_43_28': [4325], 's_47_3': [952], 's_32_28': [4326], 's_3_28': [1192]}</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="E97" t="n">
         <v>0.000849462365591398</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F97" t="n">
         <v>0.001581559241218501</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="G97" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H97" t="inlineStr">
         <is>
           <t>{0: [3980, 3225, 3226, 3227, 3228, 3229, 1010, 1009, 1008, 1007, 1006], 8: [3693, 3951, 3950, 3946, 709, 710, 3947, 3949, 3948], 's_0_8': [1145], 11: [3181, 3816, 481, 482, 483, 484, 3812, 3813, 1054, 3815, 3814], 's_0_11': [3845], 12: [1161, 3320, 1098, 3604, 1097, 3605, 1160, 1068, 1159, 1158], 's_0_12': [4010], 17: [316, 317, 318, 319, 320, 4220, 4219, 4218, 4217, 426, 3976, 425], 's_0_17': [301], 18: [541, 466, 3241, 3242, 3243, 796, 797, 1218, 3590, 3589, 3588, 798], 's_0_18': [391], 25: [1026, 1025, 3801, 3800, 3485, 1022, 1023, 1024], 's_0_25': [3710], 39: [286, 287, 288, 4040, 4039, 4038, 4037, 4036, 289, 290], 's_0_39': [3210], 41: [3901, 361, 362, 367, 366, 365, 3661, 3572, 3571, 363, 364], 's_0_41': [3211], 46: [1232, 1233, 1234, 1235, 951, 4383, 4384, 4385, 4386, 1237, 4070, 4071, 1236], 's_0_46': [4025], 48: [3366, 3375, 3365, 3380, 3376, 3379, 574, 573, 572, 3377, 3378], 's_0_48': [436], 2: [3799, 981, 977, 3890, 980, 978, 979], 's_8_2': [935], 5: [621, 3303, 616, 3422, 617, 620, 619, 618], 's_8_5': [3932], 10: [3406, 4175, 4174, 452, 453, 454, 455, 456, 530, 531, 4173, 4172], 's_8_10': [3692], 13: [1341, 4176, 469, 502, 470, 471, 4232, 1176, 4236, 4235, 4234, 4233], 's_8_13': [1340], 16: [4246, 3649, 3650, 1084, 1085, 4247, 3651, 4248, 3648, 4249, 4250, 1087, 1086], 's_8_16': [724], 19: [637, 636, 3902, 515, 4127, 517, 4052, 516], 's_8_19': [590], 21: [4143, 662, 663, 3722, 666, 665, 664], 's_8_21': [3963], 22: [1262, 1263, 1264, 771, 4113, 4114, 4115, 1265, 1266, 4116], 's_8_22': [4008], 23: [4130, 1101, 4160, 501, 4159, 577, 576, 740, 4156, 4157, 741, 4158], 's_8_23': [500, 3931], 29: [1130, 3830, 682, 3829, 3828, 3408, 3407, 677, 678, 679, 680, 681], 's_8_29': [3708], 31: [3798, 273, 3601, 3602, 3903, 784, 783, 3603], 's_8_31': [695], 35: [1251, 3166, 3167, 3168, 3169, 3171, 1246, 1250, 1249, 1248, 3170, 1247], 's_8_35': [3936], 36: [347, 348, 757, 349, 350, 351, 4186, 4187, 1146, 4190, 4189, 4188], 's_8_36': [335], 38: [3978, 800, 4024, 890, 3484, 887, 888, 889], 's_8_38': [785], 44: [3618, 751, 752, 3573, 3784, 3783, 754, 753], 's_8_44': [3768], 45: [575, 3917, 485, 3916], 's_8_45': [560], 4: [996, 995, 994, 991, 992, 993], 's_11_4': [3695], 's_11_5': [497], 6: [799, 1369, 3921, 4370, 4369, 862, 861, 860, 3920, 3919, 3918], 's_11_6': [1310], 's_11_12': [3740], 15: [3842, 412, 410, 411], 's_11_15': [3857], 20: [3796, 607, 606, 3797, 604, 605], 's_11_20': [3782], 's_11_22': [3725, 3726], 's_11_25': [3785], 26: [3200, 3199, 871, 3214, 3213, 3212, 511, 512, 3751, 394, 393, 3451, 3452], 's_11_26': [3497], 's_11_29': [829], 's_11_31': [725], 's_11_35': [3152], 40: [3198, 557, 841, 812, 811, 3291, 3290, 3287, 3288, 3289], 's_11_40': [496], 42: [331, 377, 3502, 3501, 3500, 948, 947, 3271, 3272, 3273, 3274], 's_11_42': [3196], 49: [3877, 1336, 3606, 1337, 1339, 1338], 's_11_49': [1324], 1: [3561, 1157, 3556, 529, 528, 3560, 3859, 874, 873, 3559, 3558, 3557], 's_12_1': [1128], 's_12_2': [3619], 7: [3531, 1170, 1171, 1172, 1173, 1174, 1175, 4067, 4068, 4069, 876, 4084, 4085], 's_12_7': [4056], 's_12_18': [3666], 's_12_22': [3876], 's_12_23': [3995], 's_12_29': [3965], 34: [3352, 3351, 3346, 3347, 3350, 3348, 3349], 's_12_34': [932], 's_12_36': [4206], 's_12_38': [918], 's_12_40': [1036], 's_12_42': [3530], 's_17_2': [966], 's_17_7': [1056], 14: [4096, 4097, 4098, 4099, 4100, 4101, 1382, 1383, 4131, 1384, 1385, 1386], 's_17_14': [696], 's_17_16': [651], 's_17_23': [4111], 24: [1282, 409, 304, 303, 1281, 1280, 1279, 3636, 3635, 3634, 3633, 3632, 3631], 's_17_24': [3540], 's_17_26': [3750], 27: [3738, 859, 3844, 4294, 922, 921, 919, 920], 's_17_27': [937], 30: [3680, 3679, 3543, 3678, 3542, 513, 440, 439, 438, 3676, 3677], 's_17_30': [4022], 's_17_31': [3720], 's_17_34': [302], 's_17_35': [3151], 's_17_41': [3331], 's_17_42': [3421], 's_17_48': [3360], 's_18_7': [3575], 's_18_16': [1038], 's_18_26': [661], 's_18_34': [451], 's_18_35': [586], 37: [3436, 3437, 3411, 3123, 3124, 3410, 3409, 901, 902, 3439, 3438], 's_18_37': [3244], 's_18_39': [3256], 's_18_40': [723, 722], 's_18_41': [3587], 's_18_42': [346], 43: [3456, 632, 3454, 3455, 1111, 1112, 1113, 3453, 1117, 1116, 1115, 1114], 's_18_43': [3696, 1219], 's_18_44': [3709], 's_18_49': [3682, 3681], 's_25_2': [3739], 's_25_10': [1041], 's_25_24': [1052, 1053], 's_25_29': [1039], 's_25_35': [1021], 's_25_36': [4145], 's_25_37': [1067], 's_25_39': [1040], 's_25_43': [3470], 's_25_46': [4129], 's_25_48': [1217, 3486], 's_39_2': [1070], 's_39_6': [1055], 's_39_20': [4023], 's_39_22': [906], 's_39_23': [291], 's_39_31': [3691], 's_39_37': [285, 3122, 3121, 270], 's_39_41': [3871], 's_39_42': [3286], 's_39_45': [3915], 's_39_46': [4041], 's_41_1': [543], 's_41_13': [4291], 's_41_14': [381], 's_41_16': [382], 's_41_21': [648], 's_41_26': [408], 's_41_30': [214], 's_41_35': [376], 's_41_42': [3301], 's_41_44': [633], 47: [4128, 711, 712, 4324, 4323, 4321, 4322], 's_41_47': [4336], 's_46_6': [923], 's_46_13': [697], 's_46_16': [1072], 's_46_19': [4382], 's_46_20': [4398], 's_46_23': [578], 's_46_29': [3846], 32: [4191, 3663, 3664, 3665, 1207, 1099, 3770, 1206, 1205, 1204, 3712, 3711], 's_46_32': [4401], 's_46_37': [3396], 's_48_4': [3364], 's_48_5': [3467], 's_48_20': [3767], 's_48_21': [589], 's_48_22': [3381], 's_48_24': [3647], 's_48_26': [3317, 421], 's_48_29': [3423, 692], 's_48_30': [588], 's_48_37': [571], 's_48_43': [872], 3: [1188, 1057, 892, 934, 3754, 3755, 4279, 4280, 1191, 1189, 1190], 's_2_3': [4264], 's_2_4': [4205], 's_2_6': [982], 9: [846, 845, 844, 3362, 3363, 842, 843], 's_2_9': [4144], 's_2_43': [3469], 's_2_7': [965], 's_2_29': [950], 's_2_38': [3934], 's_2_42': [3515], 's_2_44': [3574], 's_5_1': [527], 's_5_9': [631], 's_5_20': [3873], 's_5_23': [3843], 's_5_26': [3257, 526], 28: [4277, 1311, 1312, 4341, 667, 4338, 4339, 4340], 's_5_28': [4262], 's_5_32': [603], 's_5_34': [601], 's_5_40': [676], 's_5_42': [646], 's_10_1': [437], 's_10_4': [1011], 's_10_6': [816, 817], 's_10_7': [1071], 's_10_19': [4126], 's_10_21': [3721], 's_10_26': [3541], 's_10_31': [3617], 33: [739, 736, 737, 738, 3526, 3527, 3528], 's_10_33': [467], 's_10_42': [407], 's_10_45': [3977], 's_13_3': [1102], 's_13_16': [1027], 's_13_24': [4221], 's_13_27': [877], 's_13_29': [3827], 's_13_15': [4306], 's_13_19': [3992], 's_13_26': [3766], 's_13_28': [1177], 's_13_35': [1252], 's_13_45': [3887], 's_16_1': [1203], 's_16_6': [1088], 's_16_9': [847], 's_16_19': [532], 's_16_24': [4251], 's_16_31': [693], 's_16_32': [1294], 's_16_35': [3741, 1323], 's_16_36': [276], 's_16_38': [801], 's_19_14': [561], 's_19_7': [4053], 's_19_28': [652], 's_19_23': [4007], 's_19_36': [758, 4353], 's_19_21': [4112], 's_19_31': [649], 's_21_14': [4082], 's_21_24': [544], 's_21_29': [3513], 's_21_34': [3333], 's_21_22': [3993], 's_21_45': [3888], 's_22_6': [3756], 's_22_14': [1296], 's_22_40': [3276], 's_22_43': [3306], 's_22_7': [3861], 's_22_47': [772], 's_22_34': [1277], 's_22_32': [1326], 's_23_4': [4055], 's_23_6': [3933], 's_23_14': [336], 's_23_29': [4307], 's_23_47': [742], 's_23_32': [1221], 's_23_45': [486], 's_29_9': [767], 's_29_33': [647], 's_29_37': [857], 's_29_40': [542], 's_29_32': [3935], 's_29_34': [587], 's_29_38': [782], 's_29_45': [634], 's_31_24': [3570], 's_31_27': [3904], 's_31_30': [3646], 's_31_33': [498], 's_31_44': [755], 's_35_6': [3906], 's_35_33': [3153], 's_35_43': [3516], 's_35_7': [3156], 's_35_44': [3154], 's_35_49': [3426], 's_36_6': [832, 4293], 's_36_9': [3361], 's_36_20': [499, 3736], 's_36_27': [4308, 4309], 's_36_30': [4006], 's_36_33': [228, 3496], 's_36_43': [1132], 's_36_7': [4066], 's_36_28': [1147], 's_36_34': [334, 333, 332], 's_36_26': [3586], 's_36_32': [4265], 's_38_14': [815], 's_38_40': [886], 's_38_34': [3334], 's_44_3': [949], 's_44_27': [3694], 's_44_32': [813], 's_45_30': [3872], 's_45_15': [395], 's_4_1': [3769], 's_4_3': [3724], 's_4_30': [3544], 's_4_34': [3335], 's_4_37': [3394], 's_4_42': [3305], 's_6_1': [770], 's_6_3': [1042], 's_6_14': [3787], 's_6_47': [967], 's_6_49': [3771], 's_15_24': [3811], 's_15_7': [396], 's_15_47': [397], 's_20_1': [514], 's_20_26': [3752], 's_20_47': [622], 's_26_24': [424, 3826], 's_26_33': [721], 's_26_43': [3184, 3185], 's_26_7': [1185], 's_26_42': [946], 's_40_1': [3514], 's_40_30': [827], 's_40_33': [3183], 's_40_37': [840], 's_40_7': [1186], 's_40_42': [961], 's_40_49': [1321], 's_42_14': [1397], 's_42_33': [272, 271], 's_42_49': [1293], 's_49_3': [3786], 's_49_14': [3847], 's_49_7': [3246], 's_49_32': [3697, 1414], 's_1_3': [933], 's_1_9': [3529], 's_1_14': [875, 4009, 936], 's_1_24': [3662], 's_1_27': [814], 's_1_30': [3512], 's_1_33': [558], 's_1_37': [1187], 's_1_43': [962], 's_7_9': [4204], 's_7_27': [4054], 's_7_37': [1202, 3441], 's_7_43': [3215], 's_7_34': [3336], 's_34_14': [3337], 's_14_3': [891], 's_14_9': [4083], 's_14_27': [830, 3979], 's_14_28': [4222], 's_14_30': [4081], 's_24_28': [4086], 's_24_32': [1309], 's_24_33': [3511], 's_27_32': [858], 's_27_33': [3753], 's_37_9': [3424], 's_43_3': [4026], 's_43_9': [707], 's_43_33': [3468], 's_43_28': [4325], 's_47_3': [952], 's_32_28': [4326], 's_3_28': [1192]}</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="I97" t="n">
         <v>0.000849462365591398</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J97" t="n">
         <v>0.001581559241218501</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K97" t="n">
         <v>0.001</v>
       </c>
     </row>
